--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usr\DSPT\Desktop\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089898B6-F609-44AB-A1B5-9E5E5FB09E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFE823D-3AA4-420F-A01E-E682C36BB8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
   <si>
     <t>cal</t>
   </si>
@@ -518,9 +516,6 @@
     <t xml:space="preserve"> análisis forenses en la plataforma Windows  realizar análisis del registro, del sistema de archivos, de la línea de tiempo y de muchos otros tipos</t>
   </si>
   <si>
-    <t>automatiza la recopilación y el análisis de artefactos forenses y puede ayudar a crear una cronología de eventos KAPE (Comandos) GKAPE (version grafica)</t>
-  </si>
-  <si>
     <t>Autopsy</t>
   </si>
   <si>
@@ -536,9 +531,6 @@
     <t>Velociraptor</t>
   </si>
   <si>
-    <t>Autopsy es una plataforma forense de código abierto que ayuda a analizar datos de medios digitales como dispositivos móviles, discos duros y unidades extraíbles. Varios complementos para autopsias aceleran el proceso forense y extraen y presentan información valiosa de las fuentes de datos sin procesar</t>
-  </si>
-  <si>
     <t>es una herramienta que ayuda a realizar análisis de memoria para capturas de memoria de sistemas operativos Windows y Linux. Es una herramienta poderosa que puede ayudar a extraer información valiosa de la memoria de una máquina bajo investigación.</t>
   </si>
   <si>
@@ -546,6 +538,9 @@
   </si>
   <si>
     <t>regedit.exe</t>
+  </si>
+  <si>
+    <t>Sistema / Windows</t>
   </si>
   <si>
     <r>
@@ -562,13 +557,93 @@
       </rPr>
       <t>C:\Windows\System32\Config</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NTUSER.DAT C:\Users\&lt;username&gt;\ cuando un usuario inicia sesión / USRCLASS.DAT Software\CLASSES C:\Users\&lt;username&gt;\AppData\Local\Microsoft\Windows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ Amcache</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C:\Windows\AppCompat\Programs\Amcache.hve guardar información sobre programas que se ejecutaron recientemente en el sistema / C:\Windows\System32\Config\RegBack Puede ser un excelente lugar para buscar si sospecha que algunas claves del registro pueden haberse eliminado o modificado recientemente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">automatiza la recopilación y el análisis de artefactos forenses y puede ayudar a crear una cronología de eventos KAPE (Comandos) GKAPE (version grafica) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es una herramienta de adquisición y análisis de datos en vivo que se puede utilizar para adquirir datos de registro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Autopsy es una plataforma forense de código abierto que ayuda a analizar datos de medios digitales como dispositivos móviles, discos duros y unidades extraíbles. Varios complementos para autopsias aceleran el proceso forense y extraen y presentan información valiosa de las fuentes de datos sin procesar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>le ofrece la opción de adquirir datos tanto de sistemas activos como de una imagen de disco</t>
+    </r>
+  </si>
+  <si>
+    <t>FTK Imager</t>
+  </si>
+  <si>
+    <t>permite extraer archivos de una imagen de disco o de un sistema en vivo montando dicha imagen de disco o unidad en FTK Imager</t>
+  </si>
+  <si>
+    <t>Registry explorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puede cargar varias colmenas simultáneamente y agregar datos de registros de transacciones a la colmena para hacer una colmena más "limpia" con datos más actualizados. También tiene una práctica opción de "Marcadores" que contiene claves de registro </t>
+  </si>
+  <si>
+    <t>RegRipper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es una utilidad que toma un subárbol del registro como entrada y genera un informe que extrae datos de algunas de las claves y valores importantes desde el punto de vista forense en ese subárbol. El informe de salida se encuentra en un archivo de texto y muestra todos los resultados en orden secuencial. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +673,13 @@
       <color rgb="FFC00000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1072,22 +1154,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="6" customWidth="1"/>
     <col min="7" max="7" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="45">
       <c r="B2" s="2">
         <v>5</v>
       </c>
@@ -1127,7 +1209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="3">
         <v>5</v>
       </c>
@@ -1147,7 +1229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30">
       <c r="B4" s="3">
         <v>5</v>
       </c>
@@ -1167,7 +1249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1187,7 +1269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -1207,7 +1289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="30">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -1225,7 +1307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="60">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1241,7 +1323,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="30">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1259,7 +1341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1279,7 +1361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1299,7 +1381,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="30">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1319,7 +1401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -1339,7 +1421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="3">
         <v>5</v>
       </c>
@@ -1359,7 +1441,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -1379,7 +1461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="3">
         <v>4</v>
       </c>
@@ -1399,7 +1481,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="30">
       <c r="B17" s="3">
         <v>5</v>
       </c>
@@ -1419,7 +1501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="30">
       <c r="B18" s="3">
         <v>3</v>
       </c>
@@ -1439,7 +1521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="30">
       <c r="B19" s="3">
         <v>5</v>
       </c>
@@ -1459,7 +1541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="3">
         <v>5</v>
       </c>
@@ -1479,7 +1561,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="30">
       <c r="B21" s="3">
         <v>5</v>
       </c>
@@ -1499,7 +1581,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="30">
       <c r="B22" s="3">
         <v>3</v>
       </c>
@@ -1519,7 +1601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="30">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
@@ -1533,7 +1615,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="3">
         <v>5</v>
       </c>
@@ -1549,7 +1631,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="3">
         <v>4</v>
       </c>
@@ -1567,7 +1649,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="3">
         <v>5</v>
       </c>
@@ -1587,7 +1669,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>96</v>
@@ -1603,7 +1685,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="45">
       <c r="B28" s="3">
         <v>5</v>
       </c>
@@ -1623,7 +1705,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="45">
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -1643,7 +1725,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="30">
       <c r="B30" s="3">
         <v>5</v>
       </c>
@@ -1663,7 +1745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="45">
       <c r="B31" s="3">
         <v>5</v>
       </c>
@@ -1683,7 +1765,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -1699,7 +1781,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1709,7 +1791,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1717,7 +1799,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="45">
       <c r="B35" s="3">
         <v>5</v>
       </c>
@@ -1735,7 +1817,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="45">
       <c r="B36" s="3">
         <v>4</v>
       </c>
@@ -1755,7 +1837,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="30">
       <c r="B37" s="3">
         <v>5</v>
       </c>
@@ -1773,7 +1855,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="60">
       <c r="B38" s="3">
         <v>5</v>
       </c>
@@ -1791,7 +1873,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="B39" s="3">
         <v>5</v>
       </c>
@@ -1809,7 +1891,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7">
       <c r="B40" s="3">
         <v>5</v>
       </c>
@@ -1827,7 +1909,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7">
       <c r="B41" s="3">
         <v>5</v>
       </c>
@@ -1845,7 +1927,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="60">
       <c r="B42" s="3">
         <v>5</v>
       </c>
@@ -1861,7 +1943,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="30">
       <c r="B43" s="3">
         <v>5</v>
       </c>
@@ -1879,7 +1961,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1889,7 +1971,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1899,7 +1981,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="105">
       <c r="B46" s="3">
         <v>5</v>
       </c>
@@ -1915,7 +1997,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7">
       <c r="B47" s="3">
         <v>5</v>
       </c>
@@ -1935,7 +2017,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1945,7 +2027,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1955,7 +2037,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1965,7 +2047,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7">
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -1977,7 +2059,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1987,7 +2069,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
@@ -1999,7 +2081,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
@@ -2011,7 +2093,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
@@ -2025,7 +2107,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" ht="30">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2037,7 +2119,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="45">
       <c r="B57" s="3">
         <v>5</v>
       </c>
@@ -2048,14 +2130,14 @@
         <v>11</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="60">
       <c r="B58" s="3">
         <v>5</v>
       </c>
@@ -2066,14 +2148,14 @@
         <v>11</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="45">
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
         <v>75</v>
@@ -2082,14 +2164,14 @@
         <v>11</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="30">
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
         <v>75</v>
@@ -2098,14 +2180,14 @@
         <v>11</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
         <v>75</v>
@@ -2114,50 +2196,80 @@
         <v>11</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+    <row r="62" spans="2:7" ht="90">
+      <c r="B62" s="3">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>169</v>
+      <c r="E62" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="30">
+      <c r="B63" s="3">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="F63" s="3"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="45">
       <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="F64" s="3"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="45">
       <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F65" s="3"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2165,7 +2277,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2173,7 +2285,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2181,7 +2293,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2189,7 +2301,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2197,7 +2309,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2205,7 +2317,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2213,7 +2325,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2221,7 +2333,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2229,7 +2341,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2237,7 +2349,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2245,7 +2357,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2253,7 +2365,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2261,7 +2373,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2269,7 +2381,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2277,7 +2389,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2285,7 +2397,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -2293,7 +2405,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2301,7 +2413,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -2309,7 +2421,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -2317,7 +2429,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -2356,15 +2468,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A00EB8C12396E8428B681BD7409E586B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4aac3ba56671ea98b8b8069e5ca2928">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09450438-aca0-4d41-986c-93cb361330d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b21312306147a88bf31e2f595534d4c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2521,15 +2624,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72ACFD25-C30E-4BDB-ABBE-4AB65AE9C5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2546,4 +2650,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usr\DSPT\Desktop\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFE823D-3AA4-420F-A01E-E682C36BB8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC8F2FD-79A6-4DD5-BBAE-DC467F3C54B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="181">
   <si>
     <t>cal</t>
   </si>
@@ -630,20 +630,62 @@
     <t>Registry explorer</t>
   </si>
   <si>
-    <t xml:space="preserve">Puede cargar varias colmenas simultáneamente y agregar datos de registros de transacciones a la colmena para hacer una colmena más "limpia" con datos más actualizados. También tiene una práctica opción de "Marcadores" que contiene claves de registro </t>
-  </si>
-  <si>
     <t>RegRipper</t>
   </si>
   <si>
     <t xml:space="preserve">es una utilidad que toma un subárbol del registro como entrada y genera un informe que extrae datos de algunas de las claves y valores importantes desde el punto de vista forense en ese subárbol. El informe de salida se encuentra en un archivo de texto y muestra todos los resultados en orden secuencial. </t>
+  </si>
+  <si>
+    <t>ShellBags</t>
+  </si>
+  <si>
+    <t>Analizador de AppCompatCache</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> toma la sección SYSTEM como entrada, analiza los datos y genera un archivo CSV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Puede cargar varias colmenas simultáneamente y agregar datos de registros de transacciones a la colmena para hacer una colmena más "limpia" con datos más actualizados. También tiene una práctica opción de "Marcadores" que contiene claves de registro / Versión del sistema operativo / Conjunto de control actual / Nombre de la computadora / Información de zona horaria / Interfaces de red y redes pasadas / Programas de inicio automático (Autoruns): / Información del usuario y de la colmena SAM: / Archivos recientes / Archivos recientes de Office / Barras de búsqueda / Asistencia al usuario/ cache de compatibilidad de aplicaciones / almacena datos adicionales relacionados con las ejecuciones de programas. Estos datos incluyen la ruta de ejecución, los tiempos de instalación, ejecución y eliminación, y los hashes SHA1 de los programas ejecutados / La información sobre los últimos programas ejecutados se puede encontrar en la siguiente ubicación en la colmena: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amcache.hve\Root\File\{Volume GUID}\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BAM/DAM / Identificación de dispositivos conectados/  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://tryhackme.com/r/room/windowsforensics1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,6 +721,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -1154,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
@@ -2237,20 +2286,22 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="45">
-      <c r="B64" s="3"/>
+    <row r="64" spans="2:7" ht="165">
+      <c r="B64" s="3">
+        <v>5</v>
+      </c>
       <c r="C64" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="5" t="s">
         <v>174</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="45">
@@ -2262,28 +2313,36 @@
         <v>11</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="F67" s="3"/>
-      <c r="G67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3"/>
@@ -2468,6 +2527,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A00EB8C12396E8428B681BD7409E586B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4aac3ba56671ea98b8b8069e5ca2928">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09450438-aca0-4d41-986c-93cb361330d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b21312306147a88bf31e2f595534d4c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2624,16 +2692,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72ACFD25-C30E-4BDB-ABBE-4AB65AE9C5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2650,12 +2717,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usr\DSPT\Desktop\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC8F2FD-79A6-4DD5-BBAE-DC467F3C54B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C14464-D33A-422B-9D83-852628E3B054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="182">
   <si>
     <t>cal</t>
   </si>
@@ -532,9 +532,6 @@
   </si>
   <si>
     <t>es una herramienta que ayuda a realizar análisis de memoria para capturas de memoria de sistemas operativos Windows y Linux. Es una herramienta poderosa que puede ayudar a extraer información valiosa de la memoria de una máquina bajo investigación.</t>
-  </si>
-  <si>
-    <t>herramienta de respuesta a incidentes desarrollada y distribuida gratuitamente por FireEye. Esta herramienta puede recopilar datos forenses de un sistema y ayudar con la información forense recopilada</t>
   </si>
   <si>
     <t>regedit.exe</t>
@@ -678,6 +675,24 @@
         <scheme val="minor"/>
       </rPr>
       <t>https://tryhackme.com/r/room/windowsforensics1</t>
+    </r>
+  </si>
+  <si>
+    <t>investigar en profundidad al examinar los artefactos de memoria de un punto final</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">herramienta de respuesta a incidentes desarrollada y distribuida gratuitamente por FireEye. Esta herramienta puede recopilar datos forenses de un sistema y ayudar con la información forense recopilada /  herramienta gratuita de seguridad de endpoints de FireEye, ofrece a los usuarios capacidades de investigación de host para encontrar señales de actividad maliciosa mediante el análisis de archivos y memoria y el desarrollo de un perfil de evaluación de amenazas. Utilice Redline para recopilar, analizar y filtrar datos de endpoints y realizar análisis de IOC y revisión de aciertos  puede analizar un punto final potencialmente comprometido a través del volcado de memoria, incluidas varias estructuras de archivos. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Memoria, Disco, Sistema, Red y  Otros (encrypted).</t>
     </r>
   </si>
 </sst>
@@ -1203,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
@@ -2183,7 +2198,7 @@
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="60">
@@ -2201,7 +2216,7 @@
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="45">
@@ -2220,20 +2235,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="30">
-      <c r="B60" s="3"/>
+    <row r="60" spans="2:7" ht="120">
+      <c r="B60" s="3">
+        <v>5</v>
+      </c>
       <c r="C60" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="5" t="s">
         <v>163</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -2255,17 +2272,17 @@
         <v>5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="30">
@@ -2279,11 +2296,11 @@
         <v>11</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="165">
@@ -2297,11 +2314,11 @@
         <v>11</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="45">
@@ -2313,11 +2330,11 @@
         <v>11</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="2:7">
@@ -2325,7 +2342,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
@@ -2337,20 +2354,24 @@
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="F68" s="3"/>
-      <c r="G68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="3"/>
@@ -2527,15 +2548,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A00EB8C12396E8428B681BD7409E586B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4aac3ba56671ea98b8b8069e5ca2928">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09450438-aca0-4d41-986c-93cb361330d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b21312306147a88bf31e2f595534d4c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2692,15 +2704,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72ACFD25-C30E-4BDB-ABBE-4AB65AE9C5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2717,4 +2730,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usr\DSPT\Desktop\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C14464-D33A-422B-9D83-852628E3B054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E041D3-85F9-49AD-97BA-05A89C3B0292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usr\DSPT\Desktop\Ciberseguridad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E041D3-85F9-49AD-97BA-05A89C3B0292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB9A7B-9BD5-470A-88D2-6271B526FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="183">
   <si>
     <t>cal</t>
   </si>
@@ -694,13 +694,29 @@
       </rPr>
       <t>Memoria, Disco, Sistema, Red y  Otros (encrypted).</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> // Información del sistema: // Procesos // identificador // secciones de memoria  // Cadenas // Puertos // Sistema de archivos //Registro// Servicios de Windows
+// Tareas  //Registros de eventos (este es otro gran lugar para buscar eventos sospechosos de Windows PowerShell , así como eventos de inicio/cierre de sesión, creación de usuarios y otros)
+Entradas ARP y de ruta //Historial de URL del navegador // Historial de descarga de archivos // Linea de tiempo</t>
+    </r>
+  </si>
+  <si>
+    <t>IOC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,22 +1234,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="6" customWidth="1"/>
     <col min="7" max="7" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="45">
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>5</v>
       </c>
@@ -1273,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>5</v>
       </c>
@@ -1293,7 +1309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30">
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>5</v>
       </c>
@@ -1313,7 +1329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1333,7 +1349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -1353,7 +1369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30">
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -1371,7 +1387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="60">
+    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1387,7 +1403,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30">
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1405,7 +1421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1425,7 +1441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1445,7 +1461,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30">
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1465,7 +1481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -1485,7 +1501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>5</v>
       </c>
@@ -1505,7 +1521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -1525,7 +1541,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>4</v>
       </c>
@@ -1545,7 +1561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30">
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>5</v>
       </c>
@@ -1565,7 +1581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30">
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>3</v>
       </c>
@@ -1585,7 +1601,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30">
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>5</v>
       </c>
@@ -1605,7 +1621,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>5</v>
       </c>
@@ -1625,7 +1641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30">
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>5</v>
       </c>
@@ -1645,7 +1661,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30">
+    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>3</v>
       </c>
@@ -1665,7 +1681,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30">
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
@@ -1679,7 +1695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>5</v>
       </c>
@@ -1695,7 +1711,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>4</v>
       </c>
@@ -1713,7 +1729,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>5</v>
       </c>
@@ -1733,7 +1749,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>96</v>
@@ -1749,7 +1765,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="45">
+    <row r="28" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>5</v>
       </c>
@@ -1769,7 +1785,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="45">
+    <row r="29" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -1789,7 +1805,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30">
+    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>5</v>
       </c>
@@ -1809,7 +1825,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="45">
+    <row r="31" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>5</v>
       </c>
@@ -1829,7 +1845,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -1845,7 +1861,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1855,7 +1871,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1863,7 +1879,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7" ht="45">
+    <row r="35" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>5</v>
       </c>
@@ -1881,7 +1897,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="45">
+    <row r="36" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>4</v>
       </c>
@@ -1901,7 +1917,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="30">
+    <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>5</v>
       </c>
@@ -1919,7 +1935,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="60">
+    <row r="38" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>5</v>
       </c>
@@ -1937,7 +1953,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>5</v>
       </c>
@@ -1955,7 +1971,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>5</v>
       </c>
@@ -1973,7 +1989,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>5</v>
       </c>
@@ -1991,7 +2007,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="60">
+    <row r="42" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>5</v>
       </c>
@@ -2007,7 +2023,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="30">
+    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>5</v>
       </c>
@@ -2025,7 +2041,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2035,7 +2051,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2045,7 +2061,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="2:7" ht="105">
+    <row r="46" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>5</v>
       </c>
@@ -2061,7 +2077,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>5</v>
       </c>
@@ -2081,7 +2097,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2091,7 +2107,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2101,7 +2117,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2111,7 +2127,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -2123,7 +2139,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2133,7 +2149,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
@@ -2145,7 +2161,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
@@ -2157,7 +2173,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
@@ -2171,7 +2187,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="30">
+    <row r="56" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2183,7 +2199,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="45">
+    <row r="57" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>5</v>
       </c>
@@ -2201,7 +2217,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="60">
+    <row r="58" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>5</v>
       </c>
@@ -2219,7 +2235,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="45">
+    <row r="59" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
         <v>75</v>
@@ -2235,7 +2251,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="120">
+    <row r="60" spans="2:7" ht="195" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>5</v>
       </c>
@@ -2253,7 +2269,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
         <v>75</v>
@@ -2267,7 +2283,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="2:7" ht="90">
+    <row r="62" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>5</v>
       </c>
@@ -2285,7 +2301,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="30">
+    <row r="63" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>5</v>
       </c>
@@ -2303,7 +2319,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="165">
+    <row r="64" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>5</v>
       </c>
@@ -2321,7 +2337,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="45">
+    <row r="65" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
         <v>75</v>
@@ -2337,7 +2353,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2347,7 +2363,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
         <v>75</v>
@@ -2361,7 +2377,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2373,15 +2389,17 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2389,7 +2407,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2397,7 +2415,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2405,7 +2423,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2413,7 +2431,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2421,7 +2439,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2429,7 +2447,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2437,7 +2455,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2445,7 +2463,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2453,7 +2471,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2461,7 +2479,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2469,7 +2487,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2477,7 +2495,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -2485,7 +2503,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2493,7 +2511,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -2501,7 +2519,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -2509,7 +2527,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usr\DSPT\Desktop\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB9A7B-9BD5-470A-88D2-6271B526FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D42DC6-6C57-42D6-9678-105BE810C1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="184">
   <si>
     <t>cal</t>
   </si>
@@ -517,9 +518,6 @@
   </si>
   <si>
     <t>Autopsy</t>
-  </si>
-  <si>
-    <t>KAPE</t>
   </si>
   <si>
     <t>Volatility</t>
@@ -589,21 +587,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">automatiza la recopilación y el análisis de artefactos forenses y puede ayudar a crear una cronología de eventos KAPE (Comandos) GKAPE (version grafica) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>es una herramienta de adquisición y análisis de datos en vivo que se puede utilizar para adquirir datos de registro</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Autopsy es una plataforma forense de código abierto que ayuda a analizar datos de medios digitales como dispositivos móviles, discos duros y unidades extraíbles. Varios complementos para autopsias aceleran el proceso forense y extraen y presentan información valiosa de las fuentes de datos sin procesar </t>
     </r>
     <r>
@@ -711,12 +694,44 @@
   <si>
     <t>IOC</t>
   </si>
+  <si>
+    <t>KAPE / Eric Zimmerman</t>
+  </si>
+  <si>
+    <t>Eztools</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">automatiza la recopilación y el análisis de artefactos forenses y puede ayudar a crear una cronología de eventos KAPE (Comandos) GKAPE (version grafica) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es una herramienta de adquisición y análisis de datos en vivo que se puede utilizar para adquirir datos de registro</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  1) recopilar archivos y 2) procesar los archivos recopilados puede utilizar EZviewer ubicado en la carpeta EZtools del escritorio para abrir archivos CSV.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,9 +915,332 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo: esquinas redondeadas 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C818FB-E0E1-4BF9-B651-775658748353}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="361950"/>
+          <a:ext cx="1647825" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>SIEM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo: esquinas redondeadas 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7C4B9A-2BAD-456C-A529-314B983B04F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="2085975"/>
+          <a:ext cx="1647825" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>IDS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo: esquinas redondeadas 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B27B69-1734-4422-8B99-371D7B9AEC19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="3905250"/>
+          <a:ext cx="1647825" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>IPS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo: esquinas redondeadas 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F141F989-EC5E-41E4-9369-74D798F3DFEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5553075"/>
+          <a:ext cx="1647825" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>EDR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo: esquinas redondeadas 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C622F61-F896-4ED0-A639-B63E868C6C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7781925"/>
+          <a:ext cx="1647825" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>FORENSE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G86" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B1:G86" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G86">
+    <sortCondition ref="D1:D86"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cal" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{A319250A-DB6A-4E22-9E08-441923ED5FB6}" name="TIPO2" dataDxfId="4"/>
@@ -1234,22 +1572,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="6" customWidth="1"/>
     <col min="7" max="7" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1269,159 +1607,157 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="30">
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="30">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30">
       <c r="B4" s="3">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="30">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="45">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1429,39 +1765,39 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="45">
       <c r="B11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="45">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1469,59 +1805,59 @@
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>99</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="45">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -1529,39 +1865,35 @@
         <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>56</v>
+        <v>103</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="3">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="3">
         <v>5</v>
       </c>
@@ -1569,59 +1901,55 @@
         <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30">
       <c r="B18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30">
       <c r="B19" s="3">
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30">
       <c r="B20" s="3">
         <v>5</v>
       </c>
@@ -1629,313 +1957,327 @@
         <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="105">
       <c r="B21" s="3">
         <v>5</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30">
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="60">
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>90</v>
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="60">
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>94</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="45">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="180">
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" ht="90">
       <c r="B30" s="3">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30">
       <c r="B31" s="3">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="165">
       <c r="B32" s="3">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="45">
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E33" s="3" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G33" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="45">
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G35" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G37" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="30">
       <c r="B38" s="3">
         <v>5</v>
       </c>
@@ -1943,35 +2285,37 @@
         <v>75</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="3">
         <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G39" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="3">
         <v>5</v>
       </c>
@@ -1979,17 +2323,17 @@
         <v>75</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="3">
         <v>5</v>
       </c>
@@ -2007,407 +2351,403 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="5" t="s">
-        <v>132</v>
+    <row r="42" spans="2:7">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>129</v>
+        <v>152</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="E44" s="3" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>135</v>
+      <c r="G44" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="45">
+      <c r="B45" s="3">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="G45" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="3">
         <v>5</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="D46" s="3" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="30">
       <c r="B47" s="3">
         <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="60">
+      <c r="B48" s="3">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E48" s="3" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
+      <c r="G48" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="3">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="30">
+      <c r="B50" s="3">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
       <c r="C51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E51" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>152</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="3">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="60">
+      <c r="B53" s="3">
+        <v>5</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="F53" s="3"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" s="3"/>
+      <c r="G53" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="3">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="2:7" ht="60">
       <c r="B57" s="3">
         <v>5</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>161</v>
+      <c r="D57" s="3"/>
+      <c r="E57" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B58" s="3">
-        <v>5</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="F58" s="3"/>
-      <c r="G58" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="3"/>
-      <c r="C59" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="F59" s="3"/>
-      <c r="G59" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="B60" s="3">
-        <v>5</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>163</v>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="F60" s="3"/>
-      <c r="G60" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B62" s="3">
-        <v>5</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>166</v>
+    <row r="62" spans="2:7">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="F62" s="3"/>
-      <c r="G62" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="3">
-        <v>5</v>
-      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>171</v>
+        <v>4</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F63" s="3"/>
-      <c r="G63" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="B64" s="3">
-        <v>5</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>173</v>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F64" s="3"/>
-      <c r="G64" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="2:7" ht="30">
       <c r="B65" s="3"/>
-      <c r="C65" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7">
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2415,7 +2755,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2423,7 +2763,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2431,7 +2771,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2439,7 +2779,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2447,7 +2787,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2455,7 +2795,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2463,7 +2803,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2471,7 +2811,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2479,7 +2819,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2487,7 +2827,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2495,7 +2835,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -2503,7 +2843,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2511,7 +2851,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -2519,7 +2859,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -2527,7 +2867,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -2555,7 +2895,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F32" r:id="rId1" xr:uid="{F50B6741-E647-4BB4-9FBA-0B5CAB34F11D}"/>
+    <hyperlink ref="F54" r:id="rId1" xr:uid="{F50B6741-E647-4BB4-9FBA-0B5CAB34F11D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2565,7 +2905,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F53DCFB-A260-4C8F-A406-BA82DD61520A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A00EB8C12396E8428B681BD7409E586B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4aac3ba56671ea98b8b8069e5ca2928">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09450438-aca0-4d41-986c-93cb361330d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b21312306147a88bf31e2f595534d4c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2722,16 +3086,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72ACFD25-C30E-4BDB-ABBE-4AB65AE9C5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2748,12 +3111,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usr\DSPT\Desktop\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D42DC6-6C57-42D6-9678-105BE810C1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D0DC85-7FF3-499F-B82D-CC90F62B805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
   <si>
     <t>cal</t>
   </si>
@@ -455,9 +455,6 @@
   </si>
   <si>
     <t>sistema operativo Linux almacena todos los registros relacionados, como eventos, errores, advertencias, etc.</t>
-  </si>
-  <si>
-    <t>Ruta</t>
   </si>
   <si>
     <t>Logs Linux</t>
@@ -661,9 +658,6 @@
     </r>
   </si>
   <si>
-    <t>investigar en profundidad al examinar los artefactos de memoria de un punto final</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">herramienta de respuesta a incidentes desarrollada y distribuida gratuitamente por FireEye. Esta herramienta puede recopilar datos forenses de un sistema y ayudar con la información forense recopilada /  herramienta gratuita de seguridad de endpoints de FireEye, ofrece a los usuarios capacidades de investigación de host para encontrar señales de actividad maliciosa mediante el análisis de archivos y memoria y el desarrollo de un perfil de evaluación de amenazas. Utilice Redline para recopilar, analizar y filtrar datos de endpoints y realizar análisis de IOC y revisión de aciertos  puede analizar un punto final potencialmente comprometido a través del volcado de memoria, incluidas varias estructuras de archivos. </t>
     </r>
@@ -724,6 +718,69 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  1) recopilar archivos y 2) procesar los archivos recopilados puede utilizar EZviewer ubicado en la carpeta EZtools del escritorio para abrir archivos CSV.</t>
+    </r>
+  </si>
+  <si>
+    <t>C:\Windows\System32\winevt\Logs</t>
+  </si>
+  <si>
+    <t>Ruta Formato del registro de eventos de Windows</t>
+  </si>
+  <si>
+    <t>Ruta / comando</t>
+  </si>
+  <si>
+    <t>Logs Windows</t>
+  </si>
+  <si>
+    <t>ntpdate pool.ntp.org / date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sincronización horaria se puede realizar automáticamente en sistemas basados ​​en Linux o iniciarse manualmente ejecutando  ntpdate pool.ntp.org</t>
+  </si>
+  <si>
+    <t>Elastic Stack</t>
+  </si>
+  <si>
+    <t>Rsyslog</t>
+  </si>
+  <si>
+    <t>servicio / software</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">procesamiento de registros </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aceptar aportaciones de una amplia variedad de fuentes, transformarlos, y enviar los resultados a diversos destinos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  si rsyslog está instalado ejecutando el comando:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo systemctl status rsyslog</t>
     </r>
   </si>
 </sst>
@@ -830,7 +887,27 @@
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1236,18 +1313,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G86" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B1:G86" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G86">
-    <sortCondition ref="D1:D86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G731" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B1:G731" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G731">
+    <sortCondition ref="D1:D731"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cal" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{A319250A-DB6A-4E22-9E08-441923ED5FB6}" name="TIPO2" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{EAF9A2BC-7542-4721-BCC8-47ADE0D2048D}" name="clasificacion" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="comando" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descripcion" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cal" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A319250A-DB6A-4E22-9E08-441923ED5FB6}" name="TIPO2" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{EAF9A2BC-7542-4721-BCC8-47ADE0D2048D}" name="clasificacion" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="comando" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descripcion" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1570,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G86"/>
+  <dimension ref="B1:G731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
@@ -1788,13 +1865,13 @@
         <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="45">
@@ -1982,7 +2059,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -2054,11 +2131,11 @@
         <v>11</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="60">
@@ -2072,11 +2149,11 @@
         <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="45">
@@ -2088,11 +2165,11 @@
         <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="180">
@@ -2106,11 +2183,11 @@
         <v>11</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -2122,7 +2199,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2"/>
@@ -2132,17 +2209,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="30">
@@ -2156,11 +2233,11 @@
         <v>11</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="165">
@@ -2174,11 +2251,11 @@
         <v>11</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="45">
@@ -2190,11 +2267,11 @@
         <v>11</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="45">
@@ -2300,13 +2377,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>138</v>
@@ -2316,21 +2393,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="3">
-        <v>5</v>
-      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="G40" s="2" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -2344,33 +2421,39 @@
         <v>122</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="3">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="2"/>
@@ -2379,35 +2462,29 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="45">
-      <c r="B45" s="3">
-        <v>5</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>115</v>
+        <v>151</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="45">
       <c r="B46" s="3">
         <v>5</v>
       </c>
@@ -2418,70 +2495,68 @@
         <v>128</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="30">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="3">
         <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="60">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="30">
       <c r="B48" s="3">
         <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="60">
       <c r="B49" s="3">
         <v>5</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="3">
         <v>5</v>
       </c>
@@ -2489,21 +2564,21 @@
         <v>23</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="30">
       <c r="B51" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>23</v>
@@ -2511,118 +2586,134 @@
       <c r="D51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>47</v>
+      <c r="E51" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="60">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="3">
         <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="45">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="60">
+      <c r="B55" s="3">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="3">
-        <v>5</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="B56" s="3">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="E56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="2:7" ht="60">
-      <c r="B57" s="3">
+    <row r="57" spans="2:7">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:7" ht="60">
+      <c r="B58" s="3">
         <v>5</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="5" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="2" t="s">
+      <c r="F58" s="3"/>
+      <c r="G58" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
@@ -2632,7 +2723,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="2"/>
@@ -2642,7 +2733,7 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="2"/>
@@ -2652,19 +2743,17 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="2"/>
@@ -2674,45 +2763,43 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="2:7" ht="30">
+    <row r="65" spans="2:7">
       <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F65" s="3"/>
-      <c r="G65" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" ht="30">
       <c r="B67" s="3"/>
-      <c r="C67" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -2720,29 +2807,31 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F68" s="3"/>
-      <c r="G68" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F69" s="3"/>
-      <c r="G69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="2"/>
@@ -2751,17 +2840,25 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" ht="30">
       <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="2"/>
+      <c r="F72" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="3"/>
@@ -2875,8 +2972,5177 @@
       <c r="F86" s="3"/>
       <c r="G86" s="2"/>
     </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="2:7">
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="2:7">
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="2:7">
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="2:7">
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="2:7">
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="2:7">
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="2:7">
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="2:7">
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="2:7">
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="2:7">
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="2:7">
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="2:7">
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="2"/>
+    </row>
+    <row r="232" spans="2:7">
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="2"/>
+    </row>
+    <row r="233" spans="2:7">
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="2:7">
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="2"/>
+    </row>
+    <row r="235" spans="2:7">
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="2"/>
+    </row>
+    <row r="236" spans="2:7">
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="2:7">
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="2:7">
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="2"/>
+    </row>
+    <row r="239" spans="2:7">
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="2:7">
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="2:7">
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="2:7">
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="2:7">
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="2:7">
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="2:7">
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="2:7">
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="2"/>
+    </row>
+    <row r="247" spans="2:7">
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="2"/>
+    </row>
+    <row r="248" spans="2:7">
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="2"/>
+    </row>
+    <row r="249" spans="2:7">
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="2:7">
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="2"/>
+    </row>
+    <row r="251" spans="2:7">
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="2"/>
+    </row>
+    <row r="252" spans="2:7">
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="2"/>
+    </row>
+    <row r="253" spans="2:7">
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="2"/>
+    </row>
+    <row r="254" spans="2:7">
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="2"/>
+    </row>
+    <row r="255" spans="2:7">
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="2"/>
+    </row>
+    <row r="256" spans="2:7">
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="2"/>
+    </row>
+    <row r="257" spans="2:7">
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="2"/>
+    </row>
+    <row r="258" spans="2:7">
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="2"/>
+    </row>
+    <row r="259" spans="2:7">
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="2"/>
+    </row>
+    <row r="260" spans="2:7">
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="2"/>
+    </row>
+    <row r="261" spans="2:7">
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="2"/>
+    </row>
+    <row r="262" spans="2:7">
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="2"/>
+    </row>
+    <row r="263" spans="2:7">
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="2"/>
+    </row>
+    <row r="264" spans="2:7">
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="2"/>
+    </row>
+    <row r="265" spans="2:7">
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="2"/>
+    </row>
+    <row r="266" spans="2:7">
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="2"/>
+    </row>
+    <row r="267" spans="2:7">
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="2"/>
+    </row>
+    <row r="268" spans="2:7">
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="2"/>
+    </row>
+    <row r="269" spans="2:7">
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="2:7">
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="2"/>
+    </row>
+    <row r="271" spans="2:7">
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="2"/>
+    </row>
+    <row r="272" spans="2:7">
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+      <c r="G272" s="2"/>
+    </row>
+    <row r="273" spans="2:7">
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="2"/>
+    </row>
+    <row r="274" spans="2:7">
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="G274" s="2"/>
+    </row>
+    <row r="275" spans="2:7">
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="2"/>
+    </row>
+    <row r="276" spans="2:7">
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="2"/>
+    </row>
+    <row r="277" spans="2:7">
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="2"/>
+    </row>
+    <row r="278" spans="2:7">
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="G278" s="2"/>
+    </row>
+    <row r="279" spans="2:7">
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3"/>
+      <c r="G279" s="2"/>
+    </row>
+    <row r="280" spans="2:7">
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+      <c r="F280" s="3"/>
+      <c r="G280" s="2"/>
+    </row>
+    <row r="281" spans="2:7">
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+      <c r="F281" s="3"/>
+      <c r="G281" s="2"/>
+    </row>
+    <row r="282" spans="2:7">
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="2"/>
+    </row>
+    <row r="283" spans="2:7">
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="2"/>
+    </row>
+    <row r="284" spans="2:7">
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
+      <c r="G284" s="2"/>
+    </row>
+    <row r="285" spans="2:7">
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
+      <c r="F285" s="3"/>
+      <c r="G285" s="2"/>
+    </row>
+    <row r="286" spans="2:7">
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="2"/>
+    </row>
+    <row r="287" spans="2:7">
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="2"/>
+    </row>
+    <row r="288" spans="2:7">
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+      <c r="F288" s="3"/>
+      <c r="G288" s="2"/>
+    </row>
+    <row r="289" spans="2:7">
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+      <c r="F289" s="3"/>
+      <c r="G289" s="2"/>
+    </row>
+    <row r="290" spans="2:7">
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
+      <c r="F290" s="3"/>
+      <c r="G290" s="2"/>
+    </row>
+    <row r="291" spans="2:7">
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="2"/>
+    </row>
+    <row r="292" spans="2:7">
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
+      <c r="G292" s="2"/>
+    </row>
+    <row r="293" spans="2:7">
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+      <c r="F293" s="3"/>
+      <c r="G293" s="2"/>
+    </row>
+    <row r="294" spans="2:7">
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="2"/>
+    </row>
+    <row r="295" spans="2:7">
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="2"/>
+    </row>
+    <row r="296" spans="2:7">
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="2"/>
+    </row>
+    <row r="297" spans="2:7">
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="2"/>
+    </row>
+    <row r="298" spans="2:7">
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
+      <c r="F298" s="3"/>
+      <c r="G298" s="2"/>
+    </row>
+    <row r="299" spans="2:7">
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="G299" s="2"/>
+    </row>
+    <row r="300" spans="2:7">
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
+      <c r="D300" s="3"/>
+      <c r="E300" s="3"/>
+      <c r="F300" s="3"/>
+      <c r="G300" s="2"/>
+    </row>
+    <row r="301" spans="2:7">
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
+      <c r="D301" s="3"/>
+      <c r="E301" s="3"/>
+      <c r="F301" s="3"/>
+      <c r="G301" s="2"/>
+    </row>
+    <row r="302" spans="2:7">
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
+      <c r="D302" s="3"/>
+      <c r="E302" s="3"/>
+      <c r="F302" s="3"/>
+      <c r="G302" s="2"/>
+    </row>
+    <row r="303" spans="2:7">
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
+      <c r="D303" s="3"/>
+      <c r="E303" s="3"/>
+      <c r="F303" s="3"/>
+      <c r="G303" s="2"/>
+    </row>
+    <row r="304" spans="2:7">
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+      <c r="D304" s="3"/>
+      <c r="E304" s="3"/>
+      <c r="F304" s="3"/>
+      <c r="G304" s="2"/>
+    </row>
+    <row r="305" spans="2:7">
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
+      <c r="F305" s="3"/>
+      <c r="G305" s="2"/>
+    </row>
+    <row r="306" spans="2:7">
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
+      <c r="F306" s="3"/>
+      <c r="G306" s="2"/>
+    </row>
+    <row r="307" spans="2:7">
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="3"/>
+      <c r="G307" s="2"/>
+    </row>
+    <row r="308" spans="2:7">
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="3"/>
+      <c r="G308" s="2"/>
+    </row>
+    <row r="309" spans="2:7">
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3"/>
+      <c r="F309" s="3"/>
+      <c r="G309" s="2"/>
+    </row>
+    <row r="310" spans="2:7">
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
+      <c r="F310" s="3"/>
+      <c r="G310" s="2"/>
+    </row>
+    <row r="311" spans="2:7">
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+      <c r="G311" s="2"/>
+    </row>
+    <row r="312" spans="2:7">
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="2"/>
+    </row>
+    <row r="313" spans="2:7">
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+      <c r="F313" s="3"/>
+      <c r="G313" s="2"/>
+    </row>
+    <row r="314" spans="2:7">
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+      <c r="F314" s="3"/>
+      <c r="G314" s="2"/>
+    </row>
+    <row r="315" spans="2:7">
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="2"/>
+    </row>
+    <row r="316" spans="2:7">
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="3"/>
+      <c r="G316" s="2"/>
+    </row>
+    <row r="317" spans="2:7">
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="3"/>
+      <c r="F317" s="3"/>
+      <c r="G317" s="2"/>
+    </row>
+    <row r="318" spans="2:7">
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="2"/>
+    </row>
+    <row r="319" spans="2:7">
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="3"/>
+      <c r="G319" s="2"/>
+    </row>
+    <row r="320" spans="2:7">
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="3"/>
+      <c r="G320" s="2"/>
+    </row>
+    <row r="321" spans="2:7">
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+      <c r="G321" s="2"/>
+    </row>
+    <row r="322" spans="2:7">
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
+      <c r="F322" s="3"/>
+      <c r="G322" s="2"/>
+    </row>
+    <row r="323" spans="2:7">
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="3"/>
+      <c r="E323" s="3"/>
+      <c r="F323" s="3"/>
+      <c r="G323" s="2"/>
+    </row>
+    <row r="324" spans="2:7">
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="3"/>
+      <c r="E324" s="3"/>
+      <c r="F324" s="3"/>
+      <c r="G324" s="2"/>
+    </row>
+    <row r="325" spans="2:7">
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
+      <c r="F325" s="3"/>
+      <c r="G325" s="2"/>
+    </row>
+    <row r="326" spans="2:7">
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
+      <c r="F326" s="3"/>
+      <c r="G326" s="2"/>
+    </row>
+    <row r="327" spans="2:7">
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
+      <c r="F327" s="3"/>
+      <c r="G327" s="2"/>
+    </row>
+    <row r="328" spans="2:7">
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+      <c r="D328" s="3"/>
+      <c r="E328" s="3"/>
+      <c r="F328" s="3"/>
+      <c r="G328" s="2"/>
+    </row>
+    <row r="329" spans="2:7">
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
+      <c r="D329" s="3"/>
+      <c r="E329" s="3"/>
+      <c r="F329" s="3"/>
+      <c r="G329" s="2"/>
+    </row>
+    <row r="330" spans="2:7">
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
+      <c r="F330" s="3"/>
+      <c r="G330" s="2"/>
+    </row>
+    <row r="331" spans="2:7">
+      <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
+      <c r="F331" s="3"/>
+      <c r="G331" s="2"/>
+    </row>
+    <row r="332" spans="2:7">
+      <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
+      <c r="F332" s="3"/>
+      <c r="G332" s="2"/>
+    </row>
+    <row r="333" spans="2:7">
+      <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
+      <c r="D333" s="3"/>
+      <c r="E333" s="3"/>
+      <c r="F333" s="3"/>
+      <c r="G333" s="2"/>
+    </row>
+    <row r="334" spans="2:7">
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
+      <c r="F334" s="3"/>
+      <c r="G334" s="2"/>
+    </row>
+    <row r="335" spans="2:7">
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+      <c r="D335" s="3"/>
+      <c r="E335" s="3"/>
+      <c r="F335" s="3"/>
+      <c r="G335" s="2"/>
+    </row>
+    <row r="336" spans="2:7">
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="3"/>
+      <c r="E336" s="3"/>
+      <c r="F336" s="3"/>
+      <c r="G336" s="2"/>
+    </row>
+    <row r="337" spans="2:7">
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
+      <c r="F337" s="3"/>
+      <c r="G337" s="2"/>
+    </row>
+    <row r="338" spans="2:7">
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="3"/>
+      <c r="E338" s="3"/>
+      <c r="F338" s="3"/>
+      <c r="G338" s="2"/>
+    </row>
+    <row r="339" spans="2:7">
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="3"/>
+      <c r="E339" s="3"/>
+      <c r="F339" s="3"/>
+      <c r="G339" s="2"/>
+    </row>
+    <row r="340" spans="2:7">
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+      <c r="F340" s="3"/>
+      <c r="G340" s="2"/>
+    </row>
+    <row r="341" spans="2:7">
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="3"/>
+      <c r="G341" s="2"/>
+    </row>
+    <row r="342" spans="2:7">
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+      <c r="F342" s="3"/>
+      <c r="G342" s="2"/>
+    </row>
+    <row r="343" spans="2:7">
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+      <c r="F343" s="3"/>
+      <c r="G343" s="2"/>
+    </row>
+    <row r="344" spans="2:7">
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
+      <c r="F344" s="3"/>
+      <c r="G344" s="2"/>
+    </row>
+    <row r="345" spans="2:7">
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="2"/>
+    </row>
+    <row r="346" spans="2:7">
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="3"/>
+      <c r="E346" s="3"/>
+      <c r="F346" s="3"/>
+      <c r="G346" s="2"/>
+    </row>
+    <row r="347" spans="2:7">
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
+      <c r="F347" s="3"/>
+      <c r="G347" s="2"/>
+    </row>
+    <row r="348" spans="2:7">
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
+      <c r="F348" s="3"/>
+      <c r="G348" s="2"/>
+    </row>
+    <row r="349" spans="2:7">
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
+      <c r="D349" s="3"/>
+      <c r="E349" s="3"/>
+      <c r="F349" s="3"/>
+      <c r="G349" s="2"/>
+    </row>
+    <row r="350" spans="2:7">
+      <c r="B350" s="3"/>
+      <c r="C350" s="3"/>
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
+      <c r="F350" s="3"/>
+      <c r="G350" s="2"/>
+    </row>
+    <row r="351" spans="2:7">
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="3"/>
+      <c r="E351" s="3"/>
+      <c r="F351" s="3"/>
+      <c r="G351" s="2"/>
+    </row>
+    <row r="352" spans="2:7">
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="3"/>
+      <c r="E352" s="3"/>
+      <c r="F352" s="3"/>
+      <c r="G352" s="2"/>
+    </row>
+    <row r="353" spans="2:7">
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+      <c r="D353" s="3"/>
+      <c r="E353" s="3"/>
+      <c r="F353" s="3"/>
+      <c r="G353" s="2"/>
+    </row>
+    <row r="354" spans="2:7">
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+      <c r="D354" s="3"/>
+      <c r="E354" s="3"/>
+      <c r="F354" s="3"/>
+      <c r="G354" s="2"/>
+    </row>
+    <row r="355" spans="2:7">
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="2"/>
+    </row>
+    <row r="356" spans="2:7">
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+      <c r="F356" s="3"/>
+      <c r="G356" s="2"/>
+    </row>
+    <row r="357" spans="2:7">
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="3"/>
+      <c r="E357" s="3"/>
+      <c r="F357" s="3"/>
+      <c r="G357" s="2"/>
+    </row>
+    <row r="358" spans="2:7">
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
+      <c r="D358" s="3"/>
+      <c r="E358" s="3"/>
+      <c r="F358" s="3"/>
+      <c r="G358" s="2"/>
+    </row>
+    <row r="359" spans="2:7">
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
+      <c r="D359" s="3"/>
+      <c r="E359" s="3"/>
+      <c r="F359" s="3"/>
+      <c r="G359" s="2"/>
+    </row>
+    <row r="360" spans="2:7">
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
+      <c r="D360" s="3"/>
+      <c r="E360" s="3"/>
+      <c r="F360" s="3"/>
+      <c r="G360" s="2"/>
+    </row>
+    <row r="361" spans="2:7">
+      <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
+      <c r="D361" s="3"/>
+      <c r="E361" s="3"/>
+      <c r="F361" s="3"/>
+      <c r="G361" s="2"/>
+    </row>
+    <row r="362" spans="2:7">
+      <c r="B362" s="3"/>
+      <c r="C362" s="3"/>
+      <c r="D362" s="3"/>
+      <c r="E362" s="3"/>
+      <c r="F362" s="3"/>
+      <c r="G362" s="2"/>
+    </row>
+    <row r="363" spans="2:7">
+      <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
+      <c r="D363" s="3"/>
+      <c r="E363" s="3"/>
+      <c r="F363" s="3"/>
+      <c r="G363" s="2"/>
+    </row>
+    <row r="364" spans="2:7">
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
+      <c r="D364" s="3"/>
+      <c r="E364" s="3"/>
+      <c r="F364" s="3"/>
+      <c r="G364" s="2"/>
+    </row>
+    <row r="365" spans="2:7">
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="3"/>
+      <c r="E365" s="3"/>
+      <c r="F365" s="3"/>
+      <c r="G365" s="2"/>
+    </row>
+    <row r="366" spans="2:7">
+      <c r="B366" s="3"/>
+      <c r="C366" s="3"/>
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+      <c r="F366" s="3"/>
+      <c r="G366" s="2"/>
+    </row>
+    <row r="367" spans="2:7">
+      <c r="B367" s="3"/>
+      <c r="C367" s="3"/>
+      <c r="D367" s="3"/>
+      <c r="E367" s="3"/>
+      <c r="F367" s="3"/>
+      <c r="G367" s="2"/>
+    </row>
+    <row r="368" spans="2:7">
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
+      <c r="D368" s="3"/>
+      <c r="E368" s="3"/>
+      <c r="F368" s="3"/>
+      <c r="G368" s="2"/>
+    </row>
+    <row r="369" spans="2:7">
+      <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
+      <c r="D369" s="3"/>
+      <c r="E369" s="3"/>
+      <c r="F369" s="3"/>
+      <c r="G369" s="2"/>
+    </row>
+    <row r="370" spans="2:7">
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+      <c r="F370" s="3"/>
+      <c r="G370" s="2"/>
+    </row>
+    <row r="371" spans="2:7">
+      <c r="B371" s="3"/>
+      <c r="C371" s="3"/>
+      <c r="D371" s="3"/>
+      <c r="E371" s="3"/>
+      <c r="F371" s="3"/>
+      <c r="G371" s="2"/>
+    </row>
+    <row r="372" spans="2:7">
+      <c r="B372" s="3"/>
+      <c r="C372" s="3"/>
+      <c r="D372" s="3"/>
+      <c r="E372" s="3"/>
+      <c r="F372" s="3"/>
+      <c r="G372" s="2"/>
+    </row>
+    <row r="373" spans="2:7">
+      <c r="B373" s="3"/>
+      <c r="C373" s="3"/>
+      <c r="D373" s="3"/>
+      <c r="E373" s="3"/>
+      <c r="F373" s="3"/>
+      <c r="G373" s="2"/>
+    </row>
+    <row r="374" spans="2:7">
+      <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
+      <c r="D374" s="3"/>
+      <c r="E374" s="3"/>
+      <c r="F374" s="3"/>
+      <c r="G374" s="2"/>
+    </row>
+    <row r="375" spans="2:7">
+      <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
+      <c r="D375" s="3"/>
+      <c r="E375" s="3"/>
+      <c r="F375" s="3"/>
+      <c r="G375" s="2"/>
+    </row>
+    <row r="376" spans="2:7">
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
+      <c r="D376" s="3"/>
+      <c r="E376" s="3"/>
+      <c r="F376" s="3"/>
+      <c r="G376" s="2"/>
+    </row>
+    <row r="377" spans="2:7">
+      <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
+      <c r="D377" s="3"/>
+      <c r="E377" s="3"/>
+      <c r="F377" s="3"/>
+      <c r="G377" s="2"/>
+    </row>
+    <row r="378" spans="2:7">
+      <c r="B378" s="3"/>
+      <c r="C378" s="3"/>
+      <c r="D378" s="3"/>
+      <c r="E378" s="3"/>
+      <c r="F378" s="3"/>
+      <c r="G378" s="2"/>
+    </row>
+    <row r="379" spans="2:7">
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
+      <c r="D379" s="3"/>
+      <c r="E379" s="3"/>
+      <c r="F379" s="3"/>
+      <c r="G379" s="2"/>
+    </row>
+    <row r="380" spans="2:7">
+      <c r="B380" s="3"/>
+      <c r="C380" s="3"/>
+      <c r="D380" s="3"/>
+      <c r="E380" s="3"/>
+      <c r="F380" s="3"/>
+      <c r="G380" s="2"/>
+    </row>
+    <row r="381" spans="2:7">
+      <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
+      <c r="D381" s="3"/>
+      <c r="E381" s="3"/>
+      <c r="F381" s="3"/>
+      <c r="G381" s="2"/>
+    </row>
+    <row r="382" spans="2:7">
+      <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
+      <c r="D382" s="3"/>
+      <c r="E382" s="3"/>
+      <c r="F382" s="3"/>
+      <c r="G382" s="2"/>
+    </row>
+    <row r="383" spans="2:7">
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
+      <c r="D383" s="3"/>
+      <c r="E383" s="3"/>
+      <c r="F383" s="3"/>
+      <c r="G383" s="2"/>
+    </row>
+    <row r="384" spans="2:7">
+      <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
+      <c r="D384" s="3"/>
+      <c r="E384" s="3"/>
+      <c r="F384" s="3"/>
+      <c r="G384" s="2"/>
+    </row>
+    <row r="385" spans="2:7">
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
+      <c r="D385" s="3"/>
+      <c r="E385" s="3"/>
+      <c r="F385" s="3"/>
+      <c r="G385" s="2"/>
+    </row>
+    <row r="386" spans="2:7">
+      <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
+      <c r="D386" s="3"/>
+      <c r="E386" s="3"/>
+      <c r="F386" s="3"/>
+      <c r="G386" s="2"/>
+    </row>
+    <row r="387" spans="2:7">
+      <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
+      <c r="D387" s="3"/>
+      <c r="E387" s="3"/>
+      <c r="F387" s="3"/>
+      <c r="G387" s="2"/>
+    </row>
+    <row r="388" spans="2:7">
+      <c r="B388" s="3"/>
+      <c r="C388" s="3"/>
+      <c r="D388" s="3"/>
+      <c r="E388" s="3"/>
+      <c r="F388" s="3"/>
+      <c r="G388" s="2"/>
+    </row>
+    <row r="389" spans="2:7">
+      <c r="B389" s="3"/>
+      <c r="C389" s="3"/>
+      <c r="D389" s="3"/>
+      <c r="E389" s="3"/>
+      <c r="F389" s="3"/>
+      <c r="G389" s="2"/>
+    </row>
+    <row r="390" spans="2:7">
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+      <c r="D390" s="3"/>
+      <c r="E390" s="3"/>
+      <c r="F390" s="3"/>
+      <c r="G390" s="2"/>
+    </row>
+    <row r="391" spans="2:7">
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+      <c r="D391" s="3"/>
+      <c r="E391" s="3"/>
+      <c r="F391" s="3"/>
+      <c r="G391" s="2"/>
+    </row>
+    <row r="392" spans="2:7">
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+      <c r="D392" s="3"/>
+      <c r="E392" s="3"/>
+      <c r="F392" s="3"/>
+      <c r="G392" s="2"/>
+    </row>
+    <row r="393" spans="2:7">
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="3"/>
+      <c r="E393" s="3"/>
+      <c r="F393" s="3"/>
+      <c r="G393" s="2"/>
+    </row>
+    <row r="394" spans="2:7">
+      <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
+      <c r="D394" s="3"/>
+      <c r="E394" s="3"/>
+      <c r="F394" s="3"/>
+      <c r="G394" s="2"/>
+    </row>
+    <row r="395" spans="2:7">
+      <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
+      <c r="D395" s="3"/>
+      <c r="E395" s="3"/>
+      <c r="F395" s="3"/>
+      <c r="G395" s="2"/>
+    </row>
+    <row r="396" spans="2:7">
+      <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
+      <c r="D396" s="3"/>
+      <c r="E396" s="3"/>
+      <c r="F396" s="3"/>
+      <c r="G396" s="2"/>
+    </row>
+    <row r="397" spans="2:7">
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
+      <c r="D397" s="3"/>
+      <c r="E397" s="3"/>
+      <c r="F397" s="3"/>
+      <c r="G397" s="2"/>
+    </row>
+    <row r="398" spans="2:7">
+      <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
+      <c r="D398" s="3"/>
+      <c r="E398" s="3"/>
+      <c r="F398" s="3"/>
+      <c r="G398" s="2"/>
+    </row>
+    <row r="399" spans="2:7">
+      <c r="B399" s="3"/>
+      <c r="C399" s="3"/>
+      <c r="D399" s="3"/>
+      <c r="E399" s="3"/>
+      <c r="F399" s="3"/>
+      <c r="G399" s="2"/>
+    </row>
+    <row r="400" spans="2:7">
+      <c r="B400" s="3"/>
+      <c r="C400" s="3"/>
+      <c r="D400" s="3"/>
+      <c r="E400" s="3"/>
+      <c r="F400" s="3"/>
+      <c r="G400" s="2"/>
+    </row>
+    <row r="401" spans="2:7">
+      <c r="B401" s="3"/>
+      <c r="C401" s="3"/>
+      <c r="D401" s="3"/>
+      <c r="E401" s="3"/>
+      <c r="F401" s="3"/>
+      <c r="G401" s="2"/>
+    </row>
+    <row r="402" spans="2:7">
+      <c r="B402" s="3"/>
+      <c r="C402" s="3"/>
+      <c r="D402" s="3"/>
+      <c r="E402" s="3"/>
+      <c r="F402" s="3"/>
+      <c r="G402" s="2"/>
+    </row>
+    <row r="403" spans="2:7">
+      <c r="B403" s="3"/>
+      <c r="C403" s="3"/>
+      <c r="D403" s="3"/>
+      <c r="E403" s="3"/>
+      <c r="F403" s="3"/>
+      <c r="G403" s="2"/>
+    </row>
+    <row r="404" spans="2:7">
+      <c r="B404" s="3"/>
+      <c r="C404" s="3"/>
+      <c r="D404" s="3"/>
+      <c r="E404" s="3"/>
+      <c r="F404" s="3"/>
+      <c r="G404" s="2"/>
+    </row>
+    <row r="405" spans="2:7">
+      <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
+      <c r="D405" s="3"/>
+      <c r="E405" s="3"/>
+      <c r="F405" s="3"/>
+      <c r="G405" s="2"/>
+    </row>
+    <row r="406" spans="2:7">
+      <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
+      <c r="D406" s="3"/>
+      <c r="E406" s="3"/>
+      <c r="F406" s="3"/>
+      <c r="G406" s="2"/>
+    </row>
+    <row r="407" spans="2:7">
+      <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
+      <c r="D407" s="3"/>
+      <c r="E407" s="3"/>
+      <c r="F407" s="3"/>
+      <c r="G407" s="2"/>
+    </row>
+    <row r="408" spans="2:7">
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
+      <c r="D408" s="3"/>
+      <c r="E408" s="3"/>
+      <c r="F408" s="3"/>
+      <c r="G408" s="2"/>
+    </row>
+    <row r="409" spans="2:7">
+      <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
+      <c r="D409" s="3"/>
+      <c r="E409" s="3"/>
+      <c r="F409" s="3"/>
+      <c r="G409" s="2"/>
+    </row>
+    <row r="410" spans="2:7">
+      <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
+      <c r="D410" s="3"/>
+      <c r="E410" s="3"/>
+      <c r="F410" s="3"/>
+      <c r="G410" s="2"/>
+    </row>
+    <row r="411" spans="2:7">
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
+      <c r="D411" s="3"/>
+      <c r="E411" s="3"/>
+      <c r="F411" s="3"/>
+      <c r="G411" s="2"/>
+    </row>
+    <row r="412" spans="2:7">
+      <c r="B412" s="3"/>
+      <c r="C412" s="3"/>
+      <c r="D412" s="3"/>
+      <c r="E412" s="3"/>
+      <c r="F412" s="3"/>
+      <c r="G412" s="2"/>
+    </row>
+    <row r="413" spans="2:7">
+      <c r="B413" s="3"/>
+      <c r="C413" s="3"/>
+      <c r="D413" s="3"/>
+      <c r="E413" s="3"/>
+      <c r="F413" s="3"/>
+      <c r="G413" s="2"/>
+    </row>
+    <row r="414" spans="2:7">
+      <c r="B414" s="3"/>
+      <c r="C414" s="3"/>
+      <c r="D414" s="3"/>
+      <c r="E414" s="3"/>
+      <c r="F414" s="3"/>
+      <c r="G414" s="2"/>
+    </row>
+    <row r="415" spans="2:7">
+      <c r="B415" s="3"/>
+      <c r="C415" s="3"/>
+      <c r="D415" s="3"/>
+      <c r="E415" s="3"/>
+      <c r="F415" s="3"/>
+      <c r="G415" s="2"/>
+    </row>
+    <row r="416" spans="2:7">
+      <c r="B416" s="3"/>
+      <c r="C416" s="3"/>
+      <c r="D416" s="3"/>
+      <c r="E416" s="3"/>
+      <c r="F416" s="3"/>
+      <c r="G416" s="2"/>
+    </row>
+    <row r="417" spans="2:7">
+      <c r="B417" s="3"/>
+      <c r="C417" s="3"/>
+      <c r="D417" s="3"/>
+      <c r="E417" s="3"/>
+      <c r="F417" s="3"/>
+      <c r="G417" s="2"/>
+    </row>
+    <row r="418" spans="2:7">
+      <c r="B418" s="3"/>
+      <c r="C418" s="3"/>
+      <c r="D418" s="3"/>
+      <c r="E418" s="3"/>
+      <c r="F418" s="3"/>
+      <c r="G418" s="2"/>
+    </row>
+    <row r="419" spans="2:7">
+      <c r="B419" s="3"/>
+      <c r="C419" s="3"/>
+      <c r="D419" s="3"/>
+      <c r="E419" s="3"/>
+      <c r="F419" s="3"/>
+      <c r="G419" s="2"/>
+    </row>
+    <row r="420" spans="2:7">
+      <c r="B420" s="3"/>
+      <c r="C420" s="3"/>
+      <c r="D420" s="3"/>
+      <c r="E420" s="3"/>
+      <c r="F420" s="3"/>
+      <c r="G420" s="2"/>
+    </row>
+    <row r="421" spans="2:7">
+      <c r="B421" s="3"/>
+      <c r="C421" s="3"/>
+      <c r="D421" s="3"/>
+      <c r="E421" s="3"/>
+      <c r="F421" s="3"/>
+      <c r="G421" s="2"/>
+    </row>
+    <row r="422" spans="2:7">
+      <c r="B422" s="3"/>
+      <c r="C422" s="3"/>
+      <c r="D422" s="3"/>
+      <c r="E422" s="3"/>
+      <c r="F422" s="3"/>
+      <c r="G422" s="2"/>
+    </row>
+    <row r="423" spans="2:7">
+      <c r="B423" s="3"/>
+      <c r="C423" s="3"/>
+      <c r="D423" s="3"/>
+      <c r="E423" s="3"/>
+      <c r="F423" s="3"/>
+      <c r="G423" s="2"/>
+    </row>
+    <row r="424" spans="2:7">
+      <c r="B424" s="3"/>
+      <c r="C424" s="3"/>
+      <c r="D424" s="3"/>
+      <c r="E424" s="3"/>
+      <c r="F424" s="3"/>
+      <c r="G424" s="2"/>
+    </row>
+    <row r="425" spans="2:7">
+      <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
+      <c r="D425" s="3"/>
+      <c r="E425" s="3"/>
+      <c r="F425" s="3"/>
+      <c r="G425" s="2"/>
+    </row>
+    <row r="426" spans="2:7">
+      <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
+      <c r="D426" s="3"/>
+      <c r="E426" s="3"/>
+      <c r="F426" s="3"/>
+      <c r="G426" s="2"/>
+    </row>
+    <row r="427" spans="2:7">
+      <c r="B427" s="3"/>
+      <c r="C427" s="3"/>
+      <c r="D427" s="3"/>
+      <c r="E427" s="3"/>
+      <c r="F427" s="3"/>
+      <c r="G427" s="2"/>
+    </row>
+    <row r="428" spans="2:7">
+      <c r="B428" s="3"/>
+      <c r="C428" s="3"/>
+      <c r="D428" s="3"/>
+      <c r="E428" s="3"/>
+      <c r="F428" s="3"/>
+      <c r="G428" s="2"/>
+    </row>
+    <row r="429" spans="2:7">
+      <c r="B429" s="3"/>
+      <c r="C429" s="3"/>
+      <c r="D429" s="3"/>
+      <c r="E429" s="3"/>
+      <c r="F429" s="3"/>
+      <c r="G429" s="2"/>
+    </row>
+    <row r="430" spans="2:7">
+      <c r="B430" s="3"/>
+      <c r="C430" s="3"/>
+      <c r="D430" s="3"/>
+      <c r="E430" s="3"/>
+      <c r="F430" s="3"/>
+      <c r="G430" s="2"/>
+    </row>
+    <row r="431" spans="2:7">
+      <c r="B431" s="3"/>
+      <c r="C431" s="3"/>
+      <c r="D431" s="3"/>
+      <c r="E431" s="3"/>
+      <c r="F431" s="3"/>
+      <c r="G431" s="2"/>
+    </row>
+    <row r="432" spans="2:7">
+      <c r="B432" s="3"/>
+      <c r="C432" s="3"/>
+      <c r="D432" s="3"/>
+      <c r="E432" s="3"/>
+      <c r="F432" s="3"/>
+      <c r="G432" s="2"/>
+    </row>
+    <row r="433" spans="2:7">
+      <c r="B433" s="3"/>
+      <c r="C433" s="3"/>
+      <c r="D433" s="3"/>
+      <c r="E433" s="3"/>
+      <c r="F433" s="3"/>
+      <c r="G433" s="2"/>
+    </row>
+    <row r="434" spans="2:7">
+      <c r="B434" s="3"/>
+      <c r="C434" s="3"/>
+      <c r="D434" s="3"/>
+      <c r="E434" s="3"/>
+      <c r="F434" s="3"/>
+      <c r="G434" s="2"/>
+    </row>
+    <row r="435" spans="2:7">
+      <c r="B435" s="3"/>
+      <c r="C435" s="3"/>
+      <c r="D435" s="3"/>
+      <c r="E435" s="3"/>
+      <c r="F435" s="3"/>
+      <c r="G435" s="2"/>
+    </row>
+    <row r="436" spans="2:7">
+      <c r="B436" s="3"/>
+      <c r="C436" s="3"/>
+      <c r="D436" s="3"/>
+      <c r="E436" s="3"/>
+      <c r="F436" s="3"/>
+      <c r="G436" s="2"/>
+    </row>
+    <row r="437" spans="2:7">
+      <c r="B437" s="3"/>
+      <c r="C437" s="3"/>
+      <c r="D437" s="3"/>
+      <c r="E437" s="3"/>
+      <c r="F437" s="3"/>
+      <c r="G437" s="2"/>
+    </row>
+    <row r="438" spans="2:7">
+      <c r="B438" s="3"/>
+      <c r="C438" s="3"/>
+      <c r="D438" s="3"/>
+      <c r="E438" s="3"/>
+      <c r="F438" s="3"/>
+      <c r="G438" s="2"/>
+    </row>
+    <row r="439" spans="2:7">
+      <c r="B439" s="3"/>
+      <c r="C439" s="3"/>
+      <c r="D439" s="3"/>
+      <c r="E439" s="3"/>
+      <c r="F439" s="3"/>
+      <c r="G439" s="2"/>
+    </row>
+    <row r="440" spans="2:7">
+      <c r="B440" s="3"/>
+      <c r="C440" s="3"/>
+      <c r="D440" s="3"/>
+      <c r="E440" s="3"/>
+      <c r="F440" s="3"/>
+      <c r="G440" s="2"/>
+    </row>
+    <row r="441" spans="2:7">
+      <c r="B441" s="3"/>
+      <c r="C441" s="3"/>
+      <c r="D441" s="3"/>
+      <c r="E441" s="3"/>
+      <c r="F441" s="3"/>
+      <c r="G441" s="2"/>
+    </row>
+    <row r="442" spans="2:7">
+      <c r="B442" s="3"/>
+      <c r="C442" s="3"/>
+      <c r="D442" s="3"/>
+      <c r="E442" s="3"/>
+      <c r="F442" s="3"/>
+      <c r="G442" s="2"/>
+    </row>
+    <row r="443" spans="2:7">
+      <c r="B443" s="3"/>
+      <c r="C443" s="3"/>
+      <c r="D443" s="3"/>
+      <c r="E443" s="3"/>
+      <c r="F443" s="3"/>
+      <c r="G443" s="2"/>
+    </row>
+    <row r="444" spans="2:7">
+      <c r="B444" s="3"/>
+      <c r="C444" s="3"/>
+      <c r="D444" s="3"/>
+      <c r="E444" s="3"/>
+      <c r="F444" s="3"/>
+      <c r="G444" s="2"/>
+    </row>
+    <row r="445" spans="2:7">
+      <c r="B445" s="3"/>
+      <c r="C445" s="3"/>
+      <c r="D445" s="3"/>
+      <c r="E445" s="3"/>
+      <c r="F445" s="3"/>
+      <c r="G445" s="2"/>
+    </row>
+    <row r="446" spans="2:7">
+      <c r="B446" s="3"/>
+      <c r="C446" s="3"/>
+      <c r="D446" s="3"/>
+      <c r="E446" s="3"/>
+      <c r="F446" s="3"/>
+      <c r="G446" s="2"/>
+    </row>
+    <row r="447" spans="2:7">
+      <c r="B447" s="3"/>
+      <c r="C447" s="3"/>
+      <c r="D447" s="3"/>
+      <c r="E447" s="3"/>
+      <c r="F447" s="3"/>
+      <c r="G447" s="2"/>
+    </row>
+    <row r="448" spans="2:7">
+      <c r="B448" s="3"/>
+      <c r="C448" s="3"/>
+      <c r="D448" s="3"/>
+      <c r="E448" s="3"/>
+      <c r="F448" s="3"/>
+      <c r="G448" s="2"/>
+    </row>
+    <row r="449" spans="2:7">
+      <c r="B449" s="3"/>
+      <c r="C449" s="3"/>
+      <c r="D449" s="3"/>
+      <c r="E449" s="3"/>
+      <c r="F449" s="3"/>
+      <c r="G449" s="2"/>
+    </row>
+    <row r="450" spans="2:7">
+      <c r="B450" s="3"/>
+      <c r="C450" s="3"/>
+      <c r="D450" s="3"/>
+      <c r="E450" s="3"/>
+      <c r="F450" s="3"/>
+      <c r="G450" s="2"/>
+    </row>
+    <row r="451" spans="2:7">
+      <c r="B451" s="3"/>
+      <c r="C451" s="3"/>
+      <c r="D451" s="3"/>
+      <c r="E451" s="3"/>
+      <c r="F451" s="3"/>
+      <c r="G451" s="2"/>
+    </row>
+    <row r="452" spans="2:7">
+      <c r="B452" s="3"/>
+      <c r="C452" s="3"/>
+      <c r="D452" s="3"/>
+      <c r="E452" s="3"/>
+      <c r="F452" s="3"/>
+      <c r="G452" s="2"/>
+    </row>
+    <row r="453" spans="2:7">
+      <c r="B453" s="3"/>
+      <c r="C453" s="3"/>
+      <c r="D453" s="3"/>
+      <c r="E453" s="3"/>
+      <c r="F453" s="3"/>
+      <c r="G453" s="2"/>
+    </row>
+    <row r="454" spans="2:7">
+      <c r="B454" s="3"/>
+      <c r="C454" s="3"/>
+      <c r="D454" s="3"/>
+      <c r="E454" s="3"/>
+      <c r="F454" s="3"/>
+      <c r="G454" s="2"/>
+    </row>
+    <row r="455" spans="2:7">
+      <c r="B455" s="3"/>
+      <c r="C455" s="3"/>
+      <c r="D455" s="3"/>
+      <c r="E455" s="3"/>
+      <c r="F455" s="3"/>
+      <c r="G455" s="2"/>
+    </row>
+    <row r="456" spans="2:7">
+      <c r="B456" s="3"/>
+      <c r="C456" s="3"/>
+      <c r="D456" s="3"/>
+      <c r="E456" s="3"/>
+      <c r="F456" s="3"/>
+      <c r="G456" s="2"/>
+    </row>
+    <row r="457" spans="2:7">
+      <c r="B457" s="3"/>
+      <c r="C457" s="3"/>
+      <c r="D457" s="3"/>
+      <c r="E457" s="3"/>
+      <c r="F457" s="3"/>
+      <c r="G457" s="2"/>
+    </row>
+    <row r="458" spans="2:7">
+      <c r="B458" s="3"/>
+      <c r="C458" s="3"/>
+      <c r="D458" s="3"/>
+      <c r="E458" s="3"/>
+      <c r="F458" s="3"/>
+      <c r="G458" s="2"/>
+    </row>
+    <row r="459" spans="2:7">
+      <c r="B459" s="3"/>
+      <c r="C459" s="3"/>
+      <c r="D459" s="3"/>
+      <c r="E459" s="3"/>
+      <c r="F459" s="3"/>
+      <c r="G459" s="2"/>
+    </row>
+    <row r="460" spans="2:7">
+      <c r="B460" s="3"/>
+      <c r="C460" s="3"/>
+      <c r="D460" s="3"/>
+      <c r="E460" s="3"/>
+      <c r="F460" s="3"/>
+      <c r="G460" s="2"/>
+    </row>
+    <row r="461" spans="2:7">
+      <c r="B461" s="3"/>
+      <c r="C461" s="3"/>
+      <c r="D461" s="3"/>
+      <c r="E461" s="3"/>
+      <c r="F461" s="3"/>
+      <c r="G461" s="2"/>
+    </row>
+    <row r="462" spans="2:7">
+      <c r="B462" s="3"/>
+      <c r="C462" s="3"/>
+      <c r="D462" s="3"/>
+      <c r="E462" s="3"/>
+      <c r="F462" s="3"/>
+      <c r="G462" s="2"/>
+    </row>
+    <row r="463" spans="2:7">
+      <c r="B463" s="3"/>
+      <c r="C463" s="3"/>
+      <c r="D463" s="3"/>
+      <c r="E463" s="3"/>
+      <c r="F463" s="3"/>
+      <c r="G463" s="2"/>
+    </row>
+    <row r="464" spans="2:7">
+      <c r="B464" s="3"/>
+      <c r="C464" s="3"/>
+      <c r="D464" s="3"/>
+      <c r="E464" s="3"/>
+      <c r="F464" s="3"/>
+      <c r="G464" s="2"/>
+    </row>
+    <row r="465" spans="2:7">
+      <c r="B465" s="3"/>
+      <c r="C465" s="3"/>
+      <c r="D465" s="3"/>
+      <c r="E465" s="3"/>
+      <c r="F465" s="3"/>
+      <c r="G465" s="2"/>
+    </row>
+    <row r="466" spans="2:7">
+      <c r="B466" s="3"/>
+      <c r="C466" s="3"/>
+      <c r="D466" s="3"/>
+      <c r="E466" s="3"/>
+      <c r="F466" s="3"/>
+      <c r="G466" s="2"/>
+    </row>
+    <row r="467" spans="2:7">
+      <c r="B467" s="3"/>
+      <c r="C467" s="3"/>
+      <c r="D467" s="3"/>
+      <c r="E467" s="3"/>
+      <c r="F467" s="3"/>
+      <c r="G467" s="2"/>
+    </row>
+    <row r="468" spans="2:7">
+      <c r="B468" s="3"/>
+      <c r="C468" s="3"/>
+      <c r="D468" s="3"/>
+      <c r="E468" s="3"/>
+      <c r="F468" s="3"/>
+      <c r="G468" s="2"/>
+    </row>
+    <row r="469" spans="2:7">
+      <c r="B469" s="3"/>
+      <c r="C469" s="3"/>
+      <c r="D469" s="3"/>
+      <c r="E469" s="3"/>
+      <c r="F469" s="3"/>
+      <c r="G469" s="2"/>
+    </row>
+    <row r="470" spans="2:7">
+      <c r="B470" s="3"/>
+      <c r="C470" s="3"/>
+      <c r="D470" s="3"/>
+      <c r="E470" s="3"/>
+      <c r="F470" s="3"/>
+      <c r="G470" s="2"/>
+    </row>
+    <row r="471" spans="2:7">
+      <c r="B471" s="3"/>
+      <c r="C471" s="3"/>
+      <c r="D471" s="3"/>
+      <c r="E471" s="3"/>
+      <c r="F471" s="3"/>
+      <c r="G471" s="2"/>
+    </row>
+    <row r="472" spans="2:7">
+      <c r="B472" s="3"/>
+      <c r="C472" s="3"/>
+      <c r="D472" s="3"/>
+      <c r="E472" s="3"/>
+      <c r="F472" s="3"/>
+      <c r="G472" s="2"/>
+    </row>
+    <row r="473" spans="2:7">
+      <c r="B473" s="3"/>
+      <c r="C473" s="3"/>
+      <c r="D473" s="3"/>
+      <c r="E473" s="3"/>
+      <c r="F473" s="3"/>
+      <c r="G473" s="2"/>
+    </row>
+    <row r="474" spans="2:7">
+      <c r="B474" s="3"/>
+      <c r="C474" s="3"/>
+      <c r="D474" s="3"/>
+      <c r="E474" s="3"/>
+      <c r="F474" s="3"/>
+      <c r="G474" s="2"/>
+    </row>
+    <row r="475" spans="2:7">
+      <c r="B475" s="3"/>
+      <c r="C475" s="3"/>
+      <c r="D475" s="3"/>
+      <c r="E475" s="3"/>
+      <c r="F475" s="3"/>
+      <c r="G475" s="2"/>
+    </row>
+    <row r="476" spans="2:7">
+      <c r="B476" s="3"/>
+      <c r="C476" s="3"/>
+      <c r="D476" s="3"/>
+      <c r="E476" s="3"/>
+      <c r="F476" s="3"/>
+      <c r="G476" s="2"/>
+    </row>
+    <row r="477" spans="2:7">
+      <c r="B477" s="3"/>
+      <c r="C477" s="3"/>
+      <c r="D477" s="3"/>
+      <c r="E477" s="3"/>
+      <c r="F477" s="3"/>
+      <c r="G477" s="2"/>
+    </row>
+    <row r="478" spans="2:7">
+      <c r="B478" s="3"/>
+      <c r="C478" s="3"/>
+      <c r="D478" s="3"/>
+      <c r="E478" s="3"/>
+      <c r="F478" s="3"/>
+      <c r="G478" s="2"/>
+    </row>
+    <row r="479" spans="2:7">
+      <c r="B479" s="3"/>
+      <c r="C479" s="3"/>
+      <c r="D479" s="3"/>
+      <c r="E479" s="3"/>
+      <c r="F479" s="3"/>
+      <c r="G479" s="2"/>
+    </row>
+    <row r="480" spans="2:7">
+      <c r="B480" s="3"/>
+      <c r="C480" s="3"/>
+      <c r="D480" s="3"/>
+      <c r="E480" s="3"/>
+      <c r="F480" s="3"/>
+      <c r="G480" s="2"/>
+    </row>
+    <row r="481" spans="2:7">
+      <c r="B481" s="3"/>
+      <c r="C481" s="3"/>
+      <c r="D481" s="3"/>
+      <c r="E481" s="3"/>
+      <c r="F481" s="3"/>
+      <c r="G481" s="2"/>
+    </row>
+    <row r="482" spans="2:7">
+      <c r="B482" s="3"/>
+      <c r="C482" s="3"/>
+      <c r="D482" s="3"/>
+      <c r="E482" s="3"/>
+      <c r="F482" s="3"/>
+      <c r="G482" s="2"/>
+    </row>
+    <row r="483" spans="2:7">
+      <c r="B483" s="3"/>
+      <c r="C483" s="3"/>
+      <c r="D483" s="3"/>
+      <c r="E483" s="3"/>
+      <c r="F483" s="3"/>
+      <c r="G483" s="2"/>
+    </row>
+    <row r="484" spans="2:7">
+      <c r="B484" s="3"/>
+      <c r="C484" s="3"/>
+      <c r="D484" s="3"/>
+      <c r="E484" s="3"/>
+      <c r="F484" s="3"/>
+      <c r="G484" s="2"/>
+    </row>
+    <row r="485" spans="2:7">
+      <c r="B485" s="3"/>
+      <c r="C485" s="3"/>
+      <c r="D485" s="3"/>
+      <c r="E485" s="3"/>
+      <c r="F485" s="3"/>
+      <c r="G485" s="2"/>
+    </row>
+    <row r="486" spans="2:7">
+      <c r="B486" s="3"/>
+      <c r="C486" s="3"/>
+      <c r="D486" s="3"/>
+      <c r="E486" s="3"/>
+      <c r="F486" s="3"/>
+      <c r="G486" s="2"/>
+    </row>
+    <row r="487" spans="2:7">
+      <c r="B487" s="3"/>
+      <c r="C487" s="3"/>
+      <c r="D487" s="3"/>
+      <c r="E487" s="3"/>
+      <c r="F487" s="3"/>
+      <c r="G487" s="2"/>
+    </row>
+    <row r="488" spans="2:7">
+      <c r="B488" s="3"/>
+      <c r="C488" s="3"/>
+      <c r="D488" s="3"/>
+      <c r="E488" s="3"/>
+      <c r="F488" s="3"/>
+      <c r="G488" s="2"/>
+    </row>
+    <row r="489" spans="2:7">
+      <c r="B489" s="3"/>
+      <c r="C489" s="3"/>
+      <c r="D489" s="3"/>
+      <c r="E489" s="3"/>
+      <c r="F489" s="3"/>
+      <c r="G489" s="2"/>
+    </row>
+    <row r="490" spans="2:7">
+      <c r="B490" s="3"/>
+      <c r="C490" s="3"/>
+      <c r="D490" s="3"/>
+      <c r="E490" s="3"/>
+      <c r="F490" s="3"/>
+      <c r="G490" s="2"/>
+    </row>
+    <row r="491" spans="2:7">
+      <c r="B491" s="3"/>
+      <c r="C491" s="3"/>
+      <c r="D491" s="3"/>
+      <c r="E491" s="3"/>
+      <c r="F491" s="3"/>
+      <c r="G491" s="2"/>
+    </row>
+    <row r="492" spans="2:7">
+      <c r="B492" s="3"/>
+      <c r="C492" s="3"/>
+      <c r="D492" s="3"/>
+      <c r="E492" s="3"/>
+      <c r="F492" s="3"/>
+      <c r="G492" s="2"/>
+    </row>
+    <row r="493" spans="2:7">
+      <c r="B493" s="3"/>
+      <c r="C493" s="3"/>
+      <c r="D493" s="3"/>
+      <c r="E493" s="3"/>
+      <c r="F493" s="3"/>
+      <c r="G493" s="2"/>
+    </row>
+    <row r="494" spans="2:7">
+      <c r="B494" s="3"/>
+      <c r="C494" s="3"/>
+      <c r="D494" s="3"/>
+      <c r="E494" s="3"/>
+      <c r="F494" s="3"/>
+      <c r="G494" s="2"/>
+    </row>
+    <row r="495" spans="2:7">
+      <c r="B495" s="3"/>
+      <c r="C495" s="3"/>
+      <c r="D495" s="3"/>
+      <c r="E495" s="3"/>
+      <c r="F495" s="3"/>
+      <c r="G495" s="2"/>
+    </row>
+    <row r="496" spans="2:7">
+      <c r="B496" s="3"/>
+      <c r="C496" s="3"/>
+      <c r="D496" s="3"/>
+      <c r="E496" s="3"/>
+      <c r="F496" s="3"/>
+      <c r="G496" s="2"/>
+    </row>
+    <row r="497" spans="2:7">
+      <c r="B497" s="3"/>
+      <c r="C497" s="3"/>
+      <c r="D497" s="3"/>
+      <c r="E497" s="3"/>
+      <c r="F497" s="3"/>
+      <c r="G497" s="2"/>
+    </row>
+    <row r="498" spans="2:7">
+      <c r="B498" s="3"/>
+      <c r="C498" s="3"/>
+      <c r="D498" s="3"/>
+      <c r="E498" s="3"/>
+      <c r="F498" s="3"/>
+      <c r="G498" s="2"/>
+    </row>
+    <row r="499" spans="2:7">
+      <c r="B499" s="3"/>
+      <c r="C499" s="3"/>
+      <c r="D499" s="3"/>
+      <c r="E499" s="3"/>
+      <c r="F499" s="3"/>
+      <c r="G499" s="2"/>
+    </row>
+    <row r="500" spans="2:7">
+      <c r="B500" s="3"/>
+      <c r="C500" s="3"/>
+      <c r="D500" s="3"/>
+      <c r="E500" s="3"/>
+      <c r="F500" s="3"/>
+      <c r="G500" s="2"/>
+    </row>
+    <row r="501" spans="2:7">
+      <c r="B501" s="3"/>
+      <c r="C501" s="3"/>
+      <c r="D501" s="3"/>
+      <c r="E501" s="3"/>
+      <c r="F501" s="3"/>
+      <c r="G501" s="2"/>
+    </row>
+    <row r="502" spans="2:7">
+      <c r="B502" s="3"/>
+      <c r="C502" s="3"/>
+      <c r="D502" s="3"/>
+      <c r="E502" s="3"/>
+      <c r="F502" s="3"/>
+      <c r="G502" s="2"/>
+    </row>
+    <row r="503" spans="2:7">
+      <c r="B503" s="3"/>
+      <c r="C503" s="3"/>
+      <c r="D503" s="3"/>
+      <c r="E503" s="3"/>
+      <c r="F503" s="3"/>
+      <c r="G503" s="2"/>
+    </row>
+    <row r="504" spans="2:7">
+      <c r="B504" s="3"/>
+      <c r="C504" s="3"/>
+      <c r="D504" s="3"/>
+      <c r="E504" s="3"/>
+      <c r="F504" s="3"/>
+      <c r="G504" s="2"/>
+    </row>
+    <row r="505" spans="2:7">
+      <c r="B505" s="3"/>
+      <c r="C505" s="3"/>
+      <c r="D505" s="3"/>
+      <c r="E505" s="3"/>
+      <c r="F505" s="3"/>
+      <c r="G505" s="2"/>
+    </row>
+    <row r="506" spans="2:7">
+      <c r="B506" s="3"/>
+      <c r="C506" s="3"/>
+      <c r="D506" s="3"/>
+      <c r="E506" s="3"/>
+      <c r="F506" s="3"/>
+      <c r="G506" s="2"/>
+    </row>
+    <row r="507" spans="2:7">
+      <c r="B507" s="3"/>
+      <c r="C507" s="3"/>
+      <c r="D507" s="3"/>
+      <c r="E507" s="3"/>
+      <c r="F507" s="3"/>
+      <c r="G507" s="2"/>
+    </row>
+    <row r="508" spans="2:7">
+      <c r="B508" s="3"/>
+      <c r="C508" s="3"/>
+      <c r="D508" s="3"/>
+      <c r="E508" s="3"/>
+      <c r="F508" s="3"/>
+      <c r="G508" s="2"/>
+    </row>
+    <row r="509" spans="2:7">
+      <c r="B509" s="3"/>
+      <c r="C509" s="3"/>
+      <c r="D509" s="3"/>
+      <c r="E509" s="3"/>
+      <c r="F509" s="3"/>
+      <c r="G509" s="2"/>
+    </row>
+    <row r="510" spans="2:7">
+      <c r="B510" s="3"/>
+      <c r="C510" s="3"/>
+      <c r="D510" s="3"/>
+      <c r="E510" s="3"/>
+      <c r="F510" s="3"/>
+      <c r="G510" s="2"/>
+    </row>
+    <row r="511" spans="2:7">
+      <c r="B511" s="3"/>
+      <c r="C511" s="3"/>
+      <c r="D511" s="3"/>
+      <c r="E511" s="3"/>
+      <c r="F511" s="3"/>
+      <c r="G511" s="2"/>
+    </row>
+    <row r="512" spans="2:7">
+      <c r="B512" s="3"/>
+      <c r="C512" s="3"/>
+      <c r="D512" s="3"/>
+      <c r="E512" s="3"/>
+      <c r="F512" s="3"/>
+      <c r="G512" s="2"/>
+    </row>
+    <row r="513" spans="2:7">
+      <c r="B513" s="3"/>
+      <c r="C513" s="3"/>
+      <c r="D513" s="3"/>
+      <c r="E513" s="3"/>
+      <c r="F513" s="3"/>
+      <c r="G513" s="2"/>
+    </row>
+    <row r="514" spans="2:7">
+      <c r="B514" s="3"/>
+      <c r="C514" s="3"/>
+      <c r="D514" s="3"/>
+      <c r="E514" s="3"/>
+      <c r="F514" s="3"/>
+      <c r="G514" s="2"/>
+    </row>
+    <row r="515" spans="2:7">
+      <c r="B515" s="3"/>
+      <c r="C515" s="3"/>
+      <c r="D515" s="3"/>
+      <c r="E515" s="3"/>
+      <c r="F515" s="3"/>
+      <c r="G515" s="2"/>
+    </row>
+    <row r="516" spans="2:7">
+      <c r="B516" s="3"/>
+      <c r="C516" s="3"/>
+      <c r="D516" s="3"/>
+      <c r="E516" s="3"/>
+      <c r="F516" s="3"/>
+      <c r="G516" s="2"/>
+    </row>
+    <row r="517" spans="2:7">
+      <c r="B517" s="3"/>
+      <c r="C517" s="3"/>
+      <c r="D517" s="3"/>
+      <c r="E517" s="3"/>
+      <c r="F517" s="3"/>
+      <c r="G517" s="2"/>
+    </row>
+    <row r="518" spans="2:7">
+      <c r="B518" s="3"/>
+      <c r="C518" s="3"/>
+      <c r="D518" s="3"/>
+      <c r="E518" s="3"/>
+      <c r="F518" s="3"/>
+      <c r="G518" s="2"/>
+    </row>
+    <row r="519" spans="2:7">
+      <c r="B519" s="3"/>
+      <c r="C519" s="3"/>
+      <c r="D519" s="3"/>
+      <c r="E519" s="3"/>
+      <c r="F519" s="3"/>
+      <c r="G519" s="2"/>
+    </row>
+    <row r="520" spans="2:7">
+      <c r="B520" s="3"/>
+      <c r="C520" s="3"/>
+      <c r="D520" s="3"/>
+      <c r="E520" s="3"/>
+      <c r="F520" s="3"/>
+      <c r="G520" s="2"/>
+    </row>
+    <row r="521" spans="2:7">
+      <c r="B521" s="3"/>
+      <c r="C521" s="3"/>
+      <c r="D521" s="3"/>
+      <c r="E521" s="3"/>
+      <c r="F521" s="3"/>
+      <c r="G521" s="2"/>
+    </row>
+    <row r="522" spans="2:7">
+      <c r="B522" s="3"/>
+      <c r="C522" s="3"/>
+      <c r="D522" s="3"/>
+      <c r="E522" s="3"/>
+      <c r="F522" s="3"/>
+      <c r="G522" s="2"/>
+    </row>
+    <row r="523" spans="2:7">
+      <c r="B523" s="3"/>
+      <c r="C523" s="3"/>
+      <c r="D523" s="3"/>
+      <c r="E523" s="3"/>
+      <c r="F523" s="3"/>
+      <c r="G523" s="2"/>
+    </row>
+    <row r="524" spans="2:7">
+      <c r="B524" s="3"/>
+      <c r="C524" s="3"/>
+      <c r="D524" s="3"/>
+      <c r="E524" s="3"/>
+      <c r="F524" s="3"/>
+      <c r="G524" s="2"/>
+    </row>
+    <row r="525" spans="2:7">
+      <c r="B525" s="3"/>
+      <c r="C525" s="3"/>
+      <c r="D525" s="3"/>
+      <c r="E525" s="3"/>
+      <c r="F525" s="3"/>
+      <c r="G525" s="2"/>
+    </row>
+    <row r="526" spans="2:7">
+      <c r="B526" s="3"/>
+      <c r="C526" s="3"/>
+      <c r="D526" s="3"/>
+      <c r="E526" s="3"/>
+      <c r="F526" s="3"/>
+      <c r="G526" s="2"/>
+    </row>
+    <row r="527" spans="2:7">
+      <c r="B527" s="3"/>
+      <c r="C527" s="3"/>
+      <c r="D527" s="3"/>
+      <c r="E527" s="3"/>
+      <c r="F527" s="3"/>
+      <c r="G527" s="2"/>
+    </row>
+    <row r="528" spans="2:7">
+      <c r="B528" s="3"/>
+      <c r="C528" s="3"/>
+      <c r="D528" s="3"/>
+      <c r="E528" s="3"/>
+      <c r="F528" s="3"/>
+      <c r="G528" s="2"/>
+    </row>
+    <row r="529" spans="2:7">
+      <c r="B529" s="3"/>
+      <c r="C529" s="3"/>
+      <c r="D529" s="3"/>
+      <c r="E529" s="3"/>
+      <c r="F529" s="3"/>
+      <c r="G529" s="2"/>
+    </row>
+    <row r="530" spans="2:7">
+      <c r="B530" s="3"/>
+      <c r="C530" s="3"/>
+      <c r="D530" s="3"/>
+      <c r="E530" s="3"/>
+      <c r="F530" s="3"/>
+      <c r="G530" s="2"/>
+    </row>
+    <row r="531" spans="2:7">
+      <c r="B531" s="3"/>
+      <c r="C531" s="3"/>
+      <c r="D531" s="3"/>
+      <c r="E531" s="3"/>
+      <c r="F531" s="3"/>
+      <c r="G531" s="2"/>
+    </row>
+    <row r="532" spans="2:7">
+      <c r="B532" s="3"/>
+      <c r="C532" s="3"/>
+      <c r="D532" s="3"/>
+      <c r="E532" s="3"/>
+      <c r="F532" s="3"/>
+      <c r="G532" s="2"/>
+    </row>
+    <row r="533" spans="2:7">
+      <c r="B533" s="3"/>
+      <c r="C533" s="3"/>
+      <c r="D533" s="3"/>
+      <c r="E533" s="3"/>
+      <c r="F533" s="3"/>
+      <c r="G533" s="2"/>
+    </row>
+    <row r="534" spans="2:7">
+      <c r="B534" s="3"/>
+      <c r="C534" s="3"/>
+      <c r="D534" s="3"/>
+      <c r="E534" s="3"/>
+      <c r="F534" s="3"/>
+      <c r="G534" s="2"/>
+    </row>
+    <row r="535" spans="2:7">
+      <c r="B535" s="3"/>
+      <c r="C535" s="3"/>
+      <c r="D535" s="3"/>
+      <c r="E535" s="3"/>
+      <c r="F535" s="3"/>
+      <c r="G535" s="2"/>
+    </row>
+    <row r="536" spans="2:7">
+      <c r="B536" s="3"/>
+      <c r="C536" s="3"/>
+      <c r="D536" s="3"/>
+      <c r="E536" s="3"/>
+      <c r="F536" s="3"/>
+      <c r="G536" s="2"/>
+    </row>
+    <row r="537" spans="2:7">
+      <c r="B537" s="3"/>
+      <c r="C537" s="3"/>
+      <c r="D537" s="3"/>
+      <c r="E537" s="3"/>
+      <c r="F537" s="3"/>
+      <c r="G537" s="2"/>
+    </row>
+    <row r="538" spans="2:7">
+      <c r="B538" s="3"/>
+      <c r="C538" s="3"/>
+      <c r="D538" s="3"/>
+      <c r="E538" s="3"/>
+      <c r="F538" s="3"/>
+      <c r="G538" s="2"/>
+    </row>
+    <row r="539" spans="2:7">
+      <c r="B539" s="3"/>
+      <c r="C539" s="3"/>
+      <c r="D539" s="3"/>
+      <c r="E539" s="3"/>
+      <c r="F539" s="3"/>
+      <c r="G539" s="2"/>
+    </row>
+    <row r="540" spans="2:7">
+      <c r="B540" s="3"/>
+      <c r="C540" s="3"/>
+      <c r="D540" s="3"/>
+      <c r="E540" s="3"/>
+      <c r="F540" s="3"/>
+      <c r="G540" s="2"/>
+    </row>
+    <row r="541" spans="2:7">
+      <c r="B541" s="3"/>
+      <c r="C541" s="3"/>
+      <c r="D541" s="3"/>
+      <c r="E541" s="3"/>
+      <c r="F541" s="3"/>
+      <c r="G541" s="2"/>
+    </row>
+    <row r="542" spans="2:7">
+      <c r="B542" s="3"/>
+      <c r="C542" s="3"/>
+      <c r="D542" s="3"/>
+      <c r="E542" s="3"/>
+      <c r="F542" s="3"/>
+      <c r="G542" s="2"/>
+    </row>
+    <row r="543" spans="2:7">
+      <c r="B543" s="3"/>
+      <c r="C543" s="3"/>
+      <c r="D543" s="3"/>
+      <c r="E543" s="3"/>
+      <c r="F543" s="3"/>
+      <c r="G543" s="2"/>
+    </row>
+    <row r="544" spans="2:7">
+      <c r="B544" s="3"/>
+      <c r="C544" s="3"/>
+      <c r="D544" s="3"/>
+      <c r="E544" s="3"/>
+      <c r="F544" s="3"/>
+      <c r="G544" s="2"/>
+    </row>
+    <row r="545" spans="2:7">
+      <c r="B545" s="3"/>
+      <c r="C545" s="3"/>
+      <c r="D545" s="3"/>
+      <c r="E545" s="3"/>
+      <c r="F545" s="3"/>
+      <c r="G545" s="2"/>
+    </row>
+    <row r="546" spans="2:7">
+      <c r="B546" s="3"/>
+      <c r="C546" s="3"/>
+      <c r="D546" s="3"/>
+      <c r="E546" s="3"/>
+      <c r="F546" s="3"/>
+      <c r="G546" s="2"/>
+    </row>
+    <row r="547" spans="2:7">
+      <c r="B547" s="3"/>
+      <c r="C547" s="3"/>
+      <c r="D547" s="3"/>
+      <c r="E547" s="3"/>
+      <c r="F547" s="3"/>
+      <c r="G547" s="2"/>
+    </row>
+    <row r="548" spans="2:7">
+      <c r="B548" s="3"/>
+      <c r="C548" s="3"/>
+      <c r="D548" s="3"/>
+      <c r="E548" s="3"/>
+      <c r="F548" s="3"/>
+      <c r="G548" s="2"/>
+    </row>
+    <row r="549" spans="2:7">
+      <c r="B549" s="3"/>
+      <c r="C549" s="3"/>
+      <c r="D549" s="3"/>
+      <c r="E549" s="3"/>
+      <c r="F549" s="3"/>
+      <c r="G549" s="2"/>
+    </row>
+    <row r="550" spans="2:7">
+      <c r="B550" s="3"/>
+      <c r="C550" s="3"/>
+      <c r="D550" s="3"/>
+      <c r="E550" s="3"/>
+      <c r="F550" s="3"/>
+      <c r="G550" s="2"/>
+    </row>
+    <row r="551" spans="2:7">
+      <c r="B551" s="3"/>
+      <c r="C551" s="3"/>
+      <c r="D551" s="3"/>
+      <c r="E551" s="3"/>
+      <c r="F551" s="3"/>
+      <c r="G551" s="2"/>
+    </row>
+    <row r="552" spans="2:7">
+      <c r="B552" s="3"/>
+      <c r="C552" s="3"/>
+      <c r="D552" s="3"/>
+      <c r="E552" s="3"/>
+      <c r="F552" s="3"/>
+      <c r="G552" s="2"/>
+    </row>
+    <row r="553" spans="2:7">
+      <c r="B553" s="3"/>
+      <c r="C553" s="3"/>
+      <c r="D553" s="3"/>
+      <c r="E553" s="3"/>
+      <c r="F553" s="3"/>
+      <c r="G553" s="2"/>
+    </row>
+    <row r="554" spans="2:7">
+      <c r="B554" s="3"/>
+      <c r="C554" s="3"/>
+      <c r="D554" s="3"/>
+      <c r="E554" s="3"/>
+      <c r="F554" s="3"/>
+      <c r="G554" s="2"/>
+    </row>
+    <row r="555" spans="2:7">
+      <c r="B555" s="3"/>
+      <c r="C555" s="3"/>
+      <c r="D555" s="3"/>
+      <c r="E555" s="3"/>
+      <c r="F555" s="3"/>
+      <c r="G555" s="2"/>
+    </row>
+    <row r="556" spans="2:7">
+      <c r="B556" s="3"/>
+      <c r="C556" s="3"/>
+      <c r="D556" s="3"/>
+      <c r="E556" s="3"/>
+      <c r="F556" s="3"/>
+      <c r="G556" s="2"/>
+    </row>
+    <row r="557" spans="2:7">
+      <c r="B557" s="3"/>
+      <c r="C557" s="3"/>
+      <c r="D557" s="3"/>
+      <c r="E557" s="3"/>
+      <c r="F557" s="3"/>
+      <c r="G557" s="2"/>
+    </row>
+    <row r="558" spans="2:7">
+      <c r="B558" s="3"/>
+      <c r="C558" s="3"/>
+      <c r="D558" s="3"/>
+      <c r="E558" s="3"/>
+      <c r="F558" s="3"/>
+      <c r="G558" s="2"/>
+    </row>
+    <row r="559" spans="2:7">
+      <c r="B559" s="3"/>
+      <c r="C559" s="3"/>
+      <c r="D559" s="3"/>
+      <c r="E559" s="3"/>
+      <c r="F559" s="3"/>
+      <c r="G559" s="2"/>
+    </row>
+    <row r="560" spans="2:7">
+      <c r="B560" s="3"/>
+      <c r="C560" s="3"/>
+      <c r="D560" s="3"/>
+      <c r="E560" s="3"/>
+      <c r="F560" s="3"/>
+      <c r="G560" s="2"/>
+    </row>
+    <row r="561" spans="2:7">
+      <c r="B561" s="3"/>
+      <c r="C561" s="3"/>
+      <c r="D561" s="3"/>
+      <c r="E561" s="3"/>
+      <c r="F561" s="3"/>
+      <c r="G561" s="2"/>
+    </row>
+    <row r="562" spans="2:7">
+      <c r="B562" s="3"/>
+      <c r="C562" s="3"/>
+      <c r="D562" s="3"/>
+      <c r="E562" s="3"/>
+      <c r="F562" s="3"/>
+      <c r="G562" s="2"/>
+    </row>
+    <row r="563" spans="2:7">
+      <c r="B563" s="3"/>
+      <c r="C563" s="3"/>
+      <c r="D563" s="3"/>
+      <c r="E563" s="3"/>
+      <c r="F563" s="3"/>
+      <c r="G563" s="2"/>
+    </row>
+    <row r="564" spans="2:7">
+      <c r="B564" s="3"/>
+      <c r="C564" s="3"/>
+      <c r="D564" s="3"/>
+      <c r="E564" s="3"/>
+      <c r="F564" s="3"/>
+      <c r="G564" s="2"/>
+    </row>
+    <row r="565" spans="2:7">
+      <c r="B565" s="3"/>
+      <c r="C565" s="3"/>
+      <c r="D565" s="3"/>
+      <c r="E565" s="3"/>
+      <c r="F565" s="3"/>
+      <c r="G565" s="2"/>
+    </row>
+    <row r="566" spans="2:7">
+      <c r="B566" s="3"/>
+      <c r="C566" s="3"/>
+      <c r="D566" s="3"/>
+      <c r="E566" s="3"/>
+      <c r="F566" s="3"/>
+      <c r="G566" s="2"/>
+    </row>
+    <row r="567" spans="2:7">
+      <c r="B567" s="3"/>
+      <c r="C567" s="3"/>
+      <c r="D567" s="3"/>
+      <c r="E567" s="3"/>
+      <c r="F567" s="3"/>
+      <c r="G567" s="2"/>
+    </row>
+    <row r="568" spans="2:7">
+      <c r="B568" s="3"/>
+      <c r="C568" s="3"/>
+      <c r="D568" s="3"/>
+      <c r="E568" s="3"/>
+      <c r="F568" s="3"/>
+      <c r="G568" s="2"/>
+    </row>
+    <row r="569" spans="2:7">
+      <c r="B569" s="3"/>
+      <c r="C569" s="3"/>
+      <c r="D569" s="3"/>
+      <c r="E569" s="3"/>
+      <c r="F569" s="3"/>
+      <c r="G569" s="2"/>
+    </row>
+    <row r="570" spans="2:7">
+      <c r="B570" s="3"/>
+      <c r="C570" s="3"/>
+      <c r="D570" s="3"/>
+      <c r="E570" s="3"/>
+      <c r="F570" s="3"/>
+      <c r="G570" s="2"/>
+    </row>
+    <row r="571" spans="2:7">
+      <c r="B571" s="3"/>
+      <c r="C571" s="3"/>
+      <c r="D571" s="3"/>
+      <c r="E571" s="3"/>
+      <c r="F571" s="3"/>
+      <c r="G571" s="2"/>
+    </row>
+    <row r="572" spans="2:7">
+      <c r="B572" s="3"/>
+      <c r="C572" s="3"/>
+      <c r="D572" s="3"/>
+      <c r="E572" s="3"/>
+      <c r="F572" s="3"/>
+      <c r="G572" s="2"/>
+    </row>
+    <row r="573" spans="2:7">
+      <c r="B573" s="3"/>
+      <c r="C573" s="3"/>
+      <c r="D573" s="3"/>
+      <c r="E573" s="3"/>
+      <c r="F573" s="3"/>
+      <c r="G573" s="2"/>
+    </row>
+    <row r="574" spans="2:7">
+      <c r="B574" s="3"/>
+      <c r="C574" s="3"/>
+      <c r="D574" s="3"/>
+      <c r="E574" s="3"/>
+      <c r="F574" s="3"/>
+      <c r="G574" s="2"/>
+    </row>
+    <row r="575" spans="2:7">
+      <c r="B575" s="3"/>
+      <c r="C575" s="3"/>
+      <c r="D575" s="3"/>
+      <c r="E575" s="3"/>
+      <c r="F575" s="3"/>
+      <c r="G575" s="2"/>
+    </row>
+    <row r="576" spans="2:7">
+      <c r="B576" s="3"/>
+      <c r="C576" s="3"/>
+      <c r="D576" s="3"/>
+      <c r="E576" s="3"/>
+      <c r="F576" s="3"/>
+      <c r="G576" s="2"/>
+    </row>
+    <row r="577" spans="2:7">
+      <c r="B577" s="3"/>
+      <c r="C577" s="3"/>
+      <c r="D577" s="3"/>
+      <c r="E577" s="3"/>
+      <c r="F577" s="3"/>
+      <c r="G577" s="2"/>
+    </row>
+    <row r="578" spans="2:7">
+      <c r="B578" s="3"/>
+      <c r="C578" s="3"/>
+      <c r="D578" s="3"/>
+      <c r="E578" s="3"/>
+      <c r="F578" s="3"/>
+      <c r="G578" s="2"/>
+    </row>
+    <row r="579" spans="2:7">
+      <c r="B579" s="3"/>
+      <c r="C579" s="3"/>
+      <c r="D579" s="3"/>
+      <c r="E579" s="3"/>
+      <c r="F579" s="3"/>
+      <c r="G579" s="2"/>
+    </row>
+    <row r="580" spans="2:7">
+      <c r="B580" s="3"/>
+      <c r="C580" s="3"/>
+      <c r="D580" s="3"/>
+      <c r="E580" s="3"/>
+      <c r="F580" s="3"/>
+      <c r="G580" s="2"/>
+    </row>
+    <row r="581" spans="2:7">
+      <c r="B581" s="3"/>
+      <c r="C581" s="3"/>
+      <c r="D581" s="3"/>
+      <c r="E581" s="3"/>
+      <c r="F581" s="3"/>
+      <c r="G581" s="2"/>
+    </row>
+    <row r="582" spans="2:7">
+      <c r="B582" s="3"/>
+      <c r="C582" s="3"/>
+      <c r="D582" s="3"/>
+      <c r="E582" s="3"/>
+      <c r="F582" s="3"/>
+      <c r="G582" s="2"/>
+    </row>
+    <row r="583" spans="2:7">
+      <c r="B583" s="3"/>
+      <c r="C583" s="3"/>
+      <c r="D583" s="3"/>
+      <c r="E583" s="3"/>
+      <c r="F583" s="3"/>
+      <c r="G583" s="2"/>
+    </row>
+    <row r="584" spans="2:7">
+      <c r="B584" s="3"/>
+      <c r="C584" s="3"/>
+      <c r="D584" s="3"/>
+      <c r="E584" s="3"/>
+      <c r="F584" s="3"/>
+      <c r="G584" s="2"/>
+    </row>
+    <row r="585" spans="2:7">
+      <c r="B585" s="3"/>
+      <c r="C585" s="3"/>
+      <c r="D585" s="3"/>
+      <c r="E585" s="3"/>
+      <c r="F585" s="3"/>
+      <c r="G585" s="2"/>
+    </row>
+    <row r="586" spans="2:7">
+      <c r="B586" s="3"/>
+      <c r="C586" s="3"/>
+      <c r="D586" s="3"/>
+      <c r="E586" s="3"/>
+      <c r="F586" s="3"/>
+      <c r="G586" s="2"/>
+    </row>
+    <row r="587" spans="2:7">
+      <c r="B587" s="3"/>
+      <c r="C587" s="3"/>
+      <c r="D587" s="3"/>
+      <c r="E587" s="3"/>
+      <c r="F587" s="3"/>
+      <c r="G587" s="2"/>
+    </row>
+    <row r="588" spans="2:7">
+      <c r="B588" s="3"/>
+      <c r="C588" s="3"/>
+      <c r="D588" s="3"/>
+      <c r="E588" s="3"/>
+      <c r="F588" s="3"/>
+      <c r="G588" s="2"/>
+    </row>
+    <row r="589" spans="2:7">
+      <c r="B589" s="3"/>
+      <c r="C589" s="3"/>
+      <c r="D589" s="3"/>
+      <c r="E589" s="3"/>
+      <c r="F589" s="3"/>
+      <c r="G589" s="2"/>
+    </row>
+    <row r="590" spans="2:7">
+      <c r="B590" s="3"/>
+      <c r="C590" s="3"/>
+      <c r="D590" s="3"/>
+      <c r="E590" s="3"/>
+      <c r="F590" s="3"/>
+      <c r="G590" s="2"/>
+    </row>
+    <row r="591" spans="2:7">
+      <c r="B591" s="3"/>
+      <c r="C591" s="3"/>
+      <c r="D591" s="3"/>
+      <c r="E591" s="3"/>
+      <c r="F591" s="3"/>
+      <c r="G591" s="2"/>
+    </row>
+    <row r="592" spans="2:7">
+      <c r="B592" s="3"/>
+      <c r="C592" s="3"/>
+      <c r="D592" s="3"/>
+      <c r="E592" s="3"/>
+      <c r="F592" s="3"/>
+      <c r="G592" s="2"/>
+    </row>
+    <row r="593" spans="2:7">
+      <c r="B593" s="3"/>
+      <c r="C593" s="3"/>
+      <c r="D593" s="3"/>
+      <c r="E593" s="3"/>
+      <c r="F593" s="3"/>
+      <c r="G593" s="2"/>
+    </row>
+    <row r="594" spans="2:7">
+      <c r="B594" s="3"/>
+      <c r="C594" s="3"/>
+      <c r="D594" s="3"/>
+      <c r="E594" s="3"/>
+      <c r="F594" s="3"/>
+      <c r="G594" s="2"/>
+    </row>
+    <row r="595" spans="2:7">
+      <c r="B595" s="3"/>
+      <c r="C595" s="3"/>
+      <c r="D595" s="3"/>
+      <c r="E595" s="3"/>
+      <c r="F595" s="3"/>
+      <c r="G595" s="2"/>
+    </row>
+    <row r="596" spans="2:7">
+      <c r="B596" s="3"/>
+      <c r="C596" s="3"/>
+      <c r="D596" s="3"/>
+      <c r="E596" s="3"/>
+      <c r="F596" s="3"/>
+      <c r="G596" s="2"/>
+    </row>
+    <row r="597" spans="2:7">
+      <c r="B597" s="3"/>
+      <c r="C597" s="3"/>
+      <c r="D597" s="3"/>
+      <c r="E597" s="3"/>
+      <c r="F597" s="3"/>
+      <c r="G597" s="2"/>
+    </row>
+    <row r="598" spans="2:7">
+      <c r="B598" s="3"/>
+      <c r="C598" s="3"/>
+      <c r="D598" s="3"/>
+      <c r="E598" s="3"/>
+      <c r="F598" s="3"/>
+      <c r="G598" s="2"/>
+    </row>
+    <row r="599" spans="2:7">
+      <c r="B599" s="3"/>
+      <c r="C599" s="3"/>
+      <c r="D599" s="3"/>
+      <c r="E599" s="3"/>
+      <c r="F599" s="3"/>
+      <c r="G599" s="2"/>
+    </row>
+    <row r="600" spans="2:7">
+      <c r="B600" s="3"/>
+      <c r="C600" s="3"/>
+      <c r="D600" s="3"/>
+      <c r="E600" s="3"/>
+      <c r="F600" s="3"/>
+      <c r="G600" s="2"/>
+    </row>
+    <row r="601" spans="2:7">
+      <c r="B601" s="3"/>
+      <c r="C601" s="3"/>
+      <c r="D601" s="3"/>
+      <c r="E601" s="3"/>
+      <c r="F601" s="3"/>
+      <c r="G601" s="2"/>
+    </row>
+    <row r="602" spans="2:7">
+      <c r="B602" s="3"/>
+      <c r="C602" s="3"/>
+      <c r="D602" s="3"/>
+      <c r="E602" s="3"/>
+      <c r="F602" s="3"/>
+      <c r="G602" s="2"/>
+    </row>
+    <row r="603" spans="2:7">
+      <c r="B603" s="3"/>
+      <c r="C603" s="3"/>
+      <c r="D603" s="3"/>
+      <c r="E603" s="3"/>
+      <c r="F603" s="3"/>
+      <c r="G603" s="2"/>
+    </row>
+    <row r="604" spans="2:7">
+      <c r="B604" s="3"/>
+      <c r="C604" s="3"/>
+      <c r="D604" s="3"/>
+      <c r="E604" s="3"/>
+      <c r="F604" s="3"/>
+      <c r="G604" s="2"/>
+    </row>
+    <row r="605" spans="2:7">
+      <c r="B605" s="3"/>
+      <c r="C605" s="3"/>
+      <c r="D605" s="3"/>
+      <c r="E605" s="3"/>
+      <c r="F605" s="3"/>
+      <c r="G605" s="2"/>
+    </row>
+    <row r="606" spans="2:7">
+      <c r="B606" s="3"/>
+      <c r="C606" s="3"/>
+      <c r="D606" s="3"/>
+      <c r="E606" s="3"/>
+      <c r="F606" s="3"/>
+      <c r="G606" s="2"/>
+    </row>
+    <row r="607" spans="2:7">
+      <c r="B607" s="3"/>
+      <c r="C607" s="3"/>
+      <c r="D607" s="3"/>
+      <c r="E607" s="3"/>
+      <c r="F607" s="3"/>
+      <c r="G607" s="2"/>
+    </row>
+    <row r="608" spans="2:7">
+      <c r="B608" s="3"/>
+      <c r="C608" s="3"/>
+      <c r="D608" s="3"/>
+      <c r="E608" s="3"/>
+      <c r="F608" s="3"/>
+      <c r="G608" s="2"/>
+    </row>
+    <row r="609" spans="2:7">
+      <c r="B609" s="3"/>
+      <c r="C609" s="3"/>
+      <c r="D609" s="3"/>
+      <c r="E609" s="3"/>
+      <c r="F609" s="3"/>
+      <c r="G609" s="2"/>
+    </row>
+    <row r="610" spans="2:7">
+      <c r="B610" s="3"/>
+      <c r="C610" s="3"/>
+      <c r="D610" s="3"/>
+      <c r="E610" s="3"/>
+      <c r="F610" s="3"/>
+      <c r="G610" s="2"/>
+    </row>
+    <row r="611" spans="2:7">
+      <c r="B611" s="3"/>
+      <c r="C611" s="3"/>
+      <c r="D611" s="3"/>
+      <c r="E611" s="3"/>
+      <c r="F611" s="3"/>
+      <c r="G611" s="2"/>
+    </row>
+    <row r="612" spans="2:7">
+      <c r="B612" s="3"/>
+      <c r="C612" s="3"/>
+      <c r="D612" s="3"/>
+      <c r="E612" s="3"/>
+      <c r="F612" s="3"/>
+      <c r="G612" s="2"/>
+    </row>
+    <row r="613" spans="2:7">
+      <c r="B613" s="3"/>
+      <c r="C613" s="3"/>
+      <c r="D613" s="3"/>
+      <c r="E613" s="3"/>
+      <c r="F613" s="3"/>
+      <c r="G613" s="2"/>
+    </row>
+    <row r="614" spans="2:7">
+      <c r="B614" s="3"/>
+      <c r="C614" s="3"/>
+      <c r="D614" s="3"/>
+      <c r="E614" s="3"/>
+      <c r="F614" s="3"/>
+      <c r="G614" s="2"/>
+    </row>
+    <row r="615" spans="2:7">
+      <c r="B615" s="3"/>
+      <c r="C615" s="3"/>
+      <c r="D615" s="3"/>
+      <c r="E615" s="3"/>
+      <c r="F615" s="3"/>
+      <c r="G615" s="2"/>
+    </row>
+    <row r="616" spans="2:7">
+      <c r="B616" s="3"/>
+      <c r="C616" s="3"/>
+      <c r="D616" s="3"/>
+      <c r="E616" s="3"/>
+      <c r="F616" s="3"/>
+      <c r="G616" s="2"/>
+    </row>
+    <row r="617" spans="2:7">
+      <c r="B617" s="3"/>
+      <c r="C617" s="3"/>
+      <c r="D617" s="3"/>
+      <c r="E617" s="3"/>
+      <c r="F617" s="3"/>
+      <c r="G617" s="2"/>
+    </row>
+    <row r="618" spans="2:7">
+      <c r="B618" s="3"/>
+      <c r="C618" s="3"/>
+      <c r="D618" s="3"/>
+      <c r="E618" s="3"/>
+      <c r="F618" s="3"/>
+      <c r="G618" s="2"/>
+    </row>
+    <row r="619" spans="2:7">
+      <c r="B619" s="3"/>
+      <c r="C619" s="3"/>
+      <c r="D619" s="3"/>
+      <c r="E619" s="3"/>
+      <c r="F619" s="3"/>
+      <c r="G619" s="2"/>
+    </row>
+    <row r="620" spans="2:7">
+      <c r="B620" s="3"/>
+      <c r="C620" s="3"/>
+      <c r="D620" s="3"/>
+      <c r="E620" s="3"/>
+      <c r="F620" s="3"/>
+      <c r="G620" s="2"/>
+    </row>
+    <row r="621" spans="2:7">
+      <c r="B621" s="3"/>
+      <c r="C621" s="3"/>
+      <c r="D621" s="3"/>
+      <c r="E621" s="3"/>
+      <c r="F621" s="3"/>
+      <c r="G621" s="2"/>
+    </row>
+    <row r="622" spans="2:7">
+      <c r="B622" s="3"/>
+      <c r="C622" s="3"/>
+      <c r="D622" s="3"/>
+      <c r="E622" s="3"/>
+      <c r="F622" s="3"/>
+      <c r="G622" s="2"/>
+    </row>
+    <row r="623" spans="2:7">
+      <c r="B623" s="3"/>
+      <c r="C623" s="3"/>
+      <c r="D623" s="3"/>
+      <c r="E623" s="3"/>
+      <c r="F623" s="3"/>
+      <c r="G623" s="2"/>
+    </row>
+    <row r="624" spans="2:7">
+      <c r="B624" s="3"/>
+      <c r="C624" s="3"/>
+      <c r="D624" s="3"/>
+      <c r="E624" s="3"/>
+      <c r="F624" s="3"/>
+      <c r="G624" s="2"/>
+    </row>
+    <row r="625" spans="2:7">
+      <c r="B625" s="3"/>
+      <c r="C625" s="3"/>
+      <c r="D625" s="3"/>
+      <c r="E625" s="3"/>
+      <c r="F625" s="3"/>
+      <c r="G625" s="2"/>
+    </row>
+    <row r="626" spans="2:7">
+      <c r="B626" s="3"/>
+      <c r="C626" s="3"/>
+      <c r="D626" s="3"/>
+      <c r="E626" s="3"/>
+      <c r="F626" s="3"/>
+      <c r="G626" s="2"/>
+    </row>
+    <row r="627" spans="2:7">
+      <c r="B627" s="3"/>
+      <c r="C627" s="3"/>
+      <c r="D627" s="3"/>
+      <c r="E627" s="3"/>
+      <c r="F627" s="3"/>
+      <c r="G627" s="2"/>
+    </row>
+    <row r="628" spans="2:7">
+      <c r="B628" s="3"/>
+      <c r="C628" s="3"/>
+      <c r="D628" s="3"/>
+      <c r="E628" s="3"/>
+      <c r="F628" s="3"/>
+      <c r="G628" s="2"/>
+    </row>
+    <row r="629" spans="2:7">
+      <c r="B629" s="3"/>
+      <c r="C629" s="3"/>
+      <c r="D629" s="3"/>
+      <c r="E629" s="3"/>
+      <c r="F629" s="3"/>
+      <c r="G629" s="2"/>
+    </row>
+    <row r="630" spans="2:7">
+      <c r="B630" s="3"/>
+      <c r="C630" s="3"/>
+      <c r="D630" s="3"/>
+      <c r="E630" s="3"/>
+      <c r="F630" s="3"/>
+      <c r="G630" s="2"/>
+    </row>
+    <row r="631" spans="2:7">
+      <c r="B631" s="3"/>
+      <c r="C631" s="3"/>
+      <c r="D631" s="3"/>
+      <c r="E631" s="3"/>
+      <c r="F631" s="3"/>
+      <c r="G631" s="2"/>
+    </row>
+    <row r="632" spans="2:7">
+      <c r="B632" s="3"/>
+      <c r="C632" s="3"/>
+      <c r="D632" s="3"/>
+      <c r="E632" s="3"/>
+      <c r="F632" s="3"/>
+      <c r="G632" s="2"/>
+    </row>
+    <row r="633" spans="2:7">
+      <c r="B633" s="3"/>
+      <c r="C633" s="3"/>
+      <c r="D633" s="3"/>
+      <c r="E633" s="3"/>
+      <c r="F633" s="3"/>
+      <c r="G633" s="2"/>
+    </row>
+    <row r="634" spans="2:7">
+      <c r="B634" s="3"/>
+      <c r="C634" s="3"/>
+      <c r="D634" s="3"/>
+      <c r="E634" s="3"/>
+      <c r="F634" s="3"/>
+      <c r="G634" s="2"/>
+    </row>
+    <row r="635" spans="2:7">
+      <c r="B635" s="3"/>
+      <c r="C635" s="3"/>
+      <c r="D635" s="3"/>
+      <c r="E635" s="3"/>
+      <c r="F635" s="3"/>
+      <c r="G635" s="2"/>
+    </row>
+    <row r="636" spans="2:7">
+      <c r="B636" s="3"/>
+      <c r="C636" s="3"/>
+      <c r="D636" s="3"/>
+      <c r="E636" s="3"/>
+      <c r="F636" s="3"/>
+      <c r="G636" s="2"/>
+    </row>
+    <row r="637" spans="2:7">
+      <c r="B637" s="3"/>
+      <c r="C637" s="3"/>
+      <c r="D637" s="3"/>
+      <c r="E637" s="3"/>
+      <c r="F637" s="3"/>
+      <c r="G637" s="2"/>
+    </row>
+    <row r="638" spans="2:7">
+      <c r="B638" s="3"/>
+      <c r="C638" s="3"/>
+      <c r="D638" s="3"/>
+      <c r="E638" s="3"/>
+      <c r="F638" s="3"/>
+      <c r="G638" s="2"/>
+    </row>
+    <row r="639" spans="2:7">
+      <c r="B639" s="3"/>
+      <c r="C639" s="3"/>
+      <c r="D639" s="3"/>
+      <c r="E639" s="3"/>
+      <c r="F639" s="3"/>
+      <c r="G639" s="2"/>
+    </row>
+    <row r="640" spans="2:7">
+      <c r="B640" s="3"/>
+      <c r="C640" s="3"/>
+      <c r="D640" s="3"/>
+      <c r="E640" s="3"/>
+      <c r="F640" s="3"/>
+      <c r="G640" s="2"/>
+    </row>
+    <row r="641" spans="2:7">
+      <c r="B641" s="3"/>
+      <c r="C641" s="3"/>
+      <c r="D641" s="3"/>
+      <c r="E641" s="3"/>
+      <c r="F641" s="3"/>
+      <c r="G641" s="2"/>
+    </row>
+    <row r="642" spans="2:7">
+      <c r="B642" s="3"/>
+      <c r="C642" s="3"/>
+      <c r="D642" s="3"/>
+      <c r="E642" s="3"/>
+      <c r="F642" s="3"/>
+      <c r="G642" s="2"/>
+    </row>
+    <row r="643" spans="2:7">
+      <c r="B643" s="3"/>
+      <c r="C643" s="3"/>
+      <c r="D643" s="3"/>
+      <c r="E643" s="3"/>
+      <c r="F643" s="3"/>
+      <c r="G643" s="2"/>
+    </row>
+    <row r="644" spans="2:7">
+      <c r="B644" s="3"/>
+      <c r="C644" s="3"/>
+      <c r="D644" s="3"/>
+      <c r="E644" s="3"/>
+      <c r="F644" s="3"/>
+      <c r="G644" s="2"/>
+    </row>
+    <row r="645" spans="2:7">
+      <c r="B645" s="3"/>
+      <c r="C645" s="3"/>
+      <c r="D645" s="3"/>
+      <c r="E645" s="3"/>
+      <c r="F645" s="3"/>
+      <c r="G645" s="2"/>
+    </row>
+    <row r="646" spans="2:7">
+      <c r="B646" s="3"/>
+      <c r="C646" s="3"/>
+      <c r="D646" s="3"/>
+      <c r="E646" s="3"/>
+      <c r="F646" s="3"/>
+      <c r="G646" s="2"/>
+    </row>
+    <row r="647" spans="2:7">
+      <c r="B647" s="3"/>
+      <c r="C647" s="3"/>
+      <c r="D647" s="3"/>
+      <c r="E647" s="3"/>
+      <c r="F647" s="3"/>
+      <c r="G647" s="2"/>
+    </row>
+    <row r="648" spans="2:7">
+      <c r="B648" s="3"/>
+      <c r="C648" s="3"/>
+      <c r="D648" s="3"/>
+      <c r="E648" s="3"/>
+      <c r="F648" s="3"/>
+      <c r="G648" s="2"/>
+    </row>
+    <row r="649" spans="2:7">
+      <c r="B649" s="3"/>
+      <c r="C649" s="3"/>
+      <c r="D649" s="3"/>
+      <c r="E649" s="3"/>
+      <c r="F649" s="3"/>
+      <c r="G649" s="2"/>
+    </row>
+    <row r="650" spans="2:7">
+      <c r="B650" s="3"/>
+      <c r="C650" s="3"/>
+      <c r="D650" s="3"/>
+      <c r="E650" s="3"/>
+      <c r="F650" s="3"/>
+      <c r="G650" s="2"/>
+    </row>
+    <row r="651" spans="2:7">
+      <c r="B651" s="3"/>
+      <c r="C651" s="3"/>
+      <c r="D651" s="3"/>
+      <c r="E651" s="3"/>
+      <c r="F651" s="3"/>
+      <c r="G651" s="2"/>
+    </row>
+    <row r="652" spans="2:7">
+      <c r="B652" s="3"/>
+      <c r="C652" s="3"/>
+      <c r="D652" s="3"/>
+      <c r="E652" s="3"/>
+      <c r="F652" s="3"/>
+      <c r="G652" s="2"/>
+    </row>
+    <row r="653" spans="2:7">
+      <c r="B653" s="3"/>
+      <c r="C653" s="3"/>
+      <c r="D653" s="3"/>
+      <c r="E653" s="3"/>
+      <c r="F653" s="3"/>
+      <c r="G653" s="2"/>
+    </row>
+    <row r="654" spans="2:7">
+      <c r="B654" s="3"/>
+      <c r="C654" s="3"/>
+      <c r="D654" s="3"/>
+      <c r="E654" s="3"/>
+      <c r="F654" s="3"/>
+      <c r="G654" s="2"/>
+    </row>
+    <row r="655" spans="2:7">
+      <c r="B655" s="3"/>
+      <c r="C655" s="3"/>
+      <c r="D655" s="3"/>
+      <c r="E655" s="3"/>
+      <c r="F655" s="3"/>
+      <c r="G655" s="2"/>
+    </row>
+    <row r="656" spans="2:7">
+      <c r="B656" s="3"/>
+      <c r="C656" s="3"/>
+      <c r="D656" s="3"/>
+      <c r="E656" s="3"/>
+      <c r="F656" s="3"/>
+      <c r="G656" s="2"/>
+    </row>
+    <row r="657" spans="2:7">
+      <c r="B657" s="3"/>
+      <c r="C657" s="3"/>
+      <c r="D657" s="3"/>
+      <c r="E657" s="3"/>
+      <c r="F657" s="3"/>
+      <c r="G657" s="2"/>
+    </row>
+    <row r="658" spans="2:7">
+      <c r="B658" s="3"/>
+      <c r="C658" s="3"/>
+      <c r="D658" s="3"/>
+      <c r="E658" s="3"/>
+      <c r="F658" s="3"/>
+      <c r="G658" s="2"/>
+    </row>
+    <row r="659" spans="2:7">
+      <c r="B659" s="3"/>
+      <c r="C659" s="3"/>
+      <c r="D659" s="3"/>
+      <c r="E659" s="3"/>
+      <c r="F659" s="3"/>
+      <c r="G659" s="2"/>
+    </row>
+    <row r="660" spans="2:7">
+      <c r="B660" s="3"/>
+      <c r="C660" s="3"/>
+      <c r="D660" s="3"/>
+      <c r="E660" s="3"/>
+      <c r="F660" s="3"/>
+      <c r="G660" s="2"/>
+    </row>
+    <row r="661" spans="2:7">
+      <c r="B661" s="3"/>
+      <c r="C661" s="3"/>
+      <c r="D661" s="3"/>
+      <c r="E661" s="3"/>
+      <c r="F661" s="3"/>
+      <c r="G661" s="2"/>
+    </row>
+    <row r="662" spans="2:7">
+      <c r="B662" s="3"/>
+      <c r="C662" s="3"/>
+      <c r="D662" s="3"/>
+      <c r="E662" s="3"/>
+      <c r="F662" s="3"/>
+      <c r="G662" s="2"/>
+    </row>
+    <row r="663" spans="2:7">
+      <c r="B663" s="3"/>
+      <c r="C663" s="3"/>
+      <c r="D663" s="3"/>
+      <c r="E663" s="3"/>
+      <c r="F663" s="3"/>
+      <c r="G663" s="2"/>
+    </row>
+    <row r="664" spans="2:7">
+      <c r="B664" s="3"/>
+      <c r="C664" s="3"/>
+      <c r="D664" s="3"/>
+      <c r="E664" s="3"/>
+      <c r="F664" s="3"/>
+      <c r="G664" s="2"/>
+    </row>
+    <row r="665" spans="2:7">
+      <c r="B665" s="3"/>
+      <c r="C665" s="3"/>
+      <c r="D665" s="3"/>
+      <c r="E665" s="3"/>
+      <c r="F665" s="3"/>
+      <c r="G665" s="2"/>
+    </row>
+    <row r="666" spans="2:7">
+      <c r="B666" s="3"/>
+      <c r="C666" s="3"/>
+      <c r="D666" s="3"/>
+      <c r="E666" s="3"/>
+      <c r="F666" s="3"/>
+      <c r="G666" s="2"/>
+    </row>
+    <row r="667" spans="2:7">
+      <c r="B667" s="3"/>
+      <c r="C667" s="3"/>
+      <c r="D667" s="3"/>
+      <c r="E667" s="3"/>
+      <c r="F667" s="3"/>
+      <c r="G667" s="2"/>
+    </row>
+    <row r="668" spans="2:7">
+      <c r="B668" s="3"/>
+      <c r="C668" s="3"/>
+      <c r="D668" s="3"/>
+      <c r="E668" s="3"/>
+      <c r="F668" s="3"/>
+      <c r="G668" s="2"/>
+    </row>
+    <row r="669" spans="2:7">
+      <c r="B669" s="3"/>
+      <c r="C669" s="3"/>
+      <c r="D669" s="3"/>
+      <c r="E669" s="3"/>
+      <c r="F669" s="3"/>
+      <c r="G669" s="2"/>
+    </row>
+    <row r="670" spans="2:7">
+      <c r="B670" s="3"/>
+      <c r="C670" s="3"/>
+      <c r="D670" s="3"/>
+      <c r="E670" s="3"/>
+      <c r="F670" s="3"/>
+      <c r="G670" s="2"/>
+    </row>
+    <row r="671" spans="2:7">
+      <c r="B671" s="3"/>
+      <c r="C671" s="3"/>
+      <c r="D671" s="3"/>
+      <c r="E671" s="3"/>
+      <c r="F671" s="3"/>
+      <c r="G671" s="2"/>
+    </row>
+    <row r="672" spans="2:7">
+      <c r="B672" s="3"/>
+      <c r="C672" s="3"/>
+      <c r="D672" s="3"/>
+      <c r="E672" s="3"/>
+      <c r="F672" s="3"/>
+      <c r="G672" s="2"/>
+    </row>
+    <row r="673" spans="2:7">
+      <c r="B673" s="3"/>
+      <c r="C673" s="3"/>
+      <c r="D673" s="3"/>
+      <c r="E673" s="3"/>
+      <c r="F673" s="3"/>
+      <c r="G673" s="2"/>
+    </row>
+    <row r="674" spans="2:7">
+      <c r="B674" s="3"/>
+      <c r="C674" s="3"/>
+      <c r="D674" s="3"/>
+      <c r="E674" s="3"/>
+      <c r="F674" s="3"/>
+      <c r="G674" s="2"/>
+    </row>
+    <row r="675" spans="2:7">
+      <c r="B675" s="3"/>
+      <c r="C675" s="3"/>
+      <c r="D675" s="3"/>
+      <c r="E675" s="3"/>
+      <c r="F675" s="3"/>
+      <c r="G675" s="2"/>
+    </row>
+    <row r="676" spans="2:7">
+      <c r="B676" s="3"/>
+      <c r="C676" s="3"/>
+      <c r="D676" s="3"/>
+      <c r="E676" s="3"/>
+      <c r="F676" s="3"/>
+      <c r="G676" s="2"/>
+    </row>
+    <row r="677" spans="2:7">
+      <c r="B677" s="3"/>
+      <c r="C677" s="3"/>
+      <c r="D677" s="3"/>
+      <c r="E677" s="3"/>
+      <c r="F677" s="3"/>
+      <c r="G677" s="2"/>
+    </row>
+    <row r="678" spans="2:7">
+      <c r="B678" s="3"/>
+      <c r="C678" s="3"/>
+      <c r="D678" s="3"/>
+      <c r="E678" s="3"/>
+      <c r="F678" s="3"/>
+      <c r="G678" s="2"/>
+    </row>
+    <row r="679" spans="2:7">
+      <c r="B679" s="3"/>
+      <c r="C679" s="3"/>
+      <c r="D679" s="3"/>
+      <c r="E679" s="3"/>
+      <c r="F679" s="3"/>
+      <c r="G679" s="2"/>
+    </row>
+    <row r="680" spans="2:7">
+      <c r="B680" s="3"/>
+      <c r="C680" s="3"/>
+      <c r="D680" s="3"/>
+      <c r="E680" s="3"/>
+      <c r="F680" s="3"/>
+      <c r="G680" s="2"/>
+    </row>
+    <row r="681" spans="2:7">
+      <c r="B681" s="3"/>
+      <c r="C681" s="3"/>
+      <c r="D681" s="3"/>
+      <c r="E681" s="3"/>
+      <c r="F681" s="3"/>
+      <c r="G681" s="2"/>
+    </row>
+    <row r="682" spans="2:7">
+      <c r="B682" s="3"/>
+      <c r="C682" s="3"/>
+      <c r="D682" s="3"/>
+      <c r="E682" s="3"/>
+      <c r="F682" s="3"/>
+      <c r="G682" s="2"/>
+    </row>
+    <row r="683" spans="2:7">
+      <c r="B683" s="3"/>
+      <c r="C683" s="3"/>
+      <c r="D683" s="3"/>
+      <c r="E683" s="3"/>
+      <c r="F683" s="3"/>
+      <c r="G683" s="2"/>
+    </row>
+    <row r="684" spans="2:7">
+      <c r="B684" s="3"/>
+      <c r="C684" s="3"/>
+      <c r="D684" s="3"/>
+      <c r="E684" s="3"/>
+      <c r="F684" s="3"/>
+      <c r="G684" s="2"/>
+    </row>
+    <row r="685" spans="2:7">
+      <c r="B685" s="3"/>
+      <c r="C685" s="3"/>
+      <c r="D685" s="3"/>
+      <c r="E685" s="3"/>
+      <c r="F685" s="3"/>
+      <c r="G685" s="2"/>
+    </row>
+    <row r="686" spans="2:7">
+      <c r="B686" s="3"/>
+      <c r="C686" s="3"/>
+      <c r="D686" s="3"/>
+      <c r="E686" s="3"/>
+      <c r="F686" s="3"/>
+      <c r="G686" s="2"/>
+    </row>
+    <row r="687" spans="2:7">
+      <c r="B687" s="3"/>
+      <c r="C687" s="3"/>
+      <c r="D687" s="3"/>
+      <c r="E687" s="3"/>
+      <c r="F687" s="3"/>
+      <c r="G687" s="2"/>
+    </row>
+    <row r="688" spans="2:7">
+      <c r="B688" s="3"/>
+      <c r="C688" s="3"/>
+      <c r="D688" s="3"/>
+      <c r="E688" s="3"/>
+      <c r="F688" s="3"/>
+      <c r="G688" s="2"/>
+    </row>
+    <row r="689" spans="2:7">
+      <c r="B689" s="3"/>
+      <c r="C689" s="3"/>
+      <c r="D689" s="3"/>
+      <c r="E689" s="3"/>
+      <c r="F689" s="3"/>
+      <c r="G689" s="2"/>
+    </row>
+    <row r="690" spans="2:7">
+      <c r="B690" s="3"/>
+      <c r="C690" s="3"/>
+      <c r="D690" s="3"/>
+      <c r="E690" s="3"/>
+      <c r="F690" s="3"/>
+      <c r="G690" s="2"/>
+    </row>
+    <row r="691" spans="2:7">
+      <c r="B691" s="3"/>
+      <c r="C691" s="3"/>
+      <c r="D691" s="3"/>
+      <c r="E691" s="3"/>
+      <c r="F691" s="3"/>
+      <c r="G691" s="2"/>
+    </row>
+    <row r="692" spans="2:7">
+      <c r="B692" s="3"/>
+      <c r="C692" s="3"/>
+      <c r="D692" s="3"/>
+      <c r="E692" s="3"/>
+      <c r="F692" s="3"/>
+      <c r="G692" s="2"/>
+    </row>
+    <row r="693" spans="2:7">
+      <c r="B693" s="3"/>
+      <c r="C693" s="3"/>
+      <c r="D693" s="3"/>
+      <c r="E693" s="3"/>
+      <c r="F693" s="3"/>
+      <c r="G693" s="2"/>
+    </row>
+    <row r="694" spans="2:7">
+      <c r="B694" s="3"/>
+      <c r="C694" s="3"/>
+      <c r="D694" s="3"/>
+      <c r="E694" s="3"/>
+      <c r="F694" s="3"/>
+      <c r="G694" s="2"/>
+    </row>
+    <row r="695" spans="2:7">
+      <c r="B695" s="3"/>
+      <c r="C695" s="3"/>
+      <c r="D695" s="3"/>
+      <c r="E695" s="3"/>
+      <c r="F695" s="3"/>
+      <c r="G695" s="2"/>
+    </row>
+    <row r="696" spans="2:7">
+      <c r="B696" s="3"/>
+      <c r="C696" s="3"/>
+      <c r="D696" s="3"/>
+      <c r="E696" s="3"/>
+      <c r="F696" s="3"/>
+      <c r="G696" s="2"/>
+    </row>
+    <row r="697" spans="2:7">
+      <c r="B697" s="3"/>
+      <c r="C697" s="3"/>
+      <c r="D697" s="3"/>
+      <c r="E697" s="3"/>
+      <c r="F697" s="3"/>
+      <c r="G697" s="2"/>
+    </row>
+    <row r="698" spans="2:7">
+      <c r="B698" s="3"/>
+      <c r="C698" s="3"/>
+      <c r="D698" s="3"/>
+      <c r="E698" s="3"/>
+      <c r="F698" s="3"/>
+      <c r="G698" s="2"/>
+    </row>
+    <row r="699" spans="2:7">
+      <c r="B699" s="3"/>
+      <c r="C699" s="3"/>
+      <c r="D699" s="3"/>
+      <c r="E699" s="3"/>
+      <c r="F699" s="3"/>
+      <c r="G699" s="2"/>
+    </row>
+    <row r="700" spans="2:7">
+      <c r="B700" s="3"/>
+      <c r="C700" s="3"/>
+      <c r="D700" s="3"/>
+      <c r="E700" s="3"/>
+      <c r="F700" s="3"/>
+      <c r="G700" s="2"/>
+    </row>
+    <row r="701" spans="2:7">
+      <c r="B701" s="3"/>
+      <c r="C701" s="3"/>
+      <c r="D701" s="3"/>
+      <c r="E701" s="3"/>
+      <c r="F701" s="3"/>
+      <c r="G701" s="2"/>
+    </row>
+    <row r="702" spans="2:7">
+      <c r="B702" s="3"/>
+      <c r="C702" s="3"/>
+      <c r="D702" s="3"/>
+      <c r="E702" s="3"/>
+      <c r="F702" s="3"/>
+      <c r="G702" s="2"/>
+    </row>
+    <row r="703" spans="2:7">
+      <c r="B703" s="3"/>
+      <c r="C703" s="3"/>
+      <c r="D703" s="3"/>
+      <c r="E703" s="3"/>
+      <c r="F703" s="3"/>
+      <c r="G703" s="2"/>
+    </row>
+    <row r="704" spans="2:7">
+      <c r="B704" s="3"/>
+      <c r="C704" s="3"/>
+      <c r="D704" s="3"/>
+      <c r="E704" s="3"/>
+      <c r="F704" s="3"/>
+      <c r="G704" s="2"/>
+    </row>
+    <row r="705" spans="2:7">
+      <c r="B705" s="3"/>
+      <c r="C705" s="3"/>
+      <c r="D705" s="3"/>
+      <c r="E705" s="3"/>
+      <c r="F705" s="3"/>
+      <c r="G705" s="2"/>
+    </row>
+    <row r="706" spans="2:7">
+      <c r="B706" s="3"/>
+      <c r="C706" s="3"/>
+      <c r="D706" s="3"/>
+      <c r="E706" s="3"/>
+      <c r="F706" s="3"/>
+      <c r="G706" s="2"/>
+    </row>
+    <row r="707" spans="2:7">
+      <c r="B707" s="3"/>
+      <c r="C707" s="3"/>
+      <c r="D707" s="3"/>
+      <c r="E707" s="3"/>
+      <c r="F707" s="3"/>
+      <c r="G707" s="2"/>
+    </row>
+    <row r="708" spans="2:7">
+      <c r="B708" s="3"/>
+      <c r="C708" s="3"/>
+      <c r="D708" s="3"/>
+      <c r="E708" s="3"/>
+      <c r="F708" s="3"/>
+      <c r="G708" s="2"/>
+    </row>
+    <row r="709" spans="2:7">
+      <c r="B709" s="3"/>
+      <c r="C709" s="3"/>
+      <c r="D709" s="3"/>
+      <c r="E709" s="3"/>
+      <c r="F709" s="3"/>
+      <c r="G709" s="2"/>
+    </row>
+    <row r="710" spans="2:7">
+      <c r="B710" s="3"/>
+      <c r="C710" s="3"/>
+      <c r="D710" s="3"/>
+      <c r="E710" s="3"/>
+      <c r="F710" s="3"/>
+      <c r="G710" s="2"/>
+    </row>
+    <row r="711" spans="2:7">
+      <c r="B711" s="3"/>
+      <c r="C711" s="3"/>
+      <c r="D711" s="3"/>
+      <c r="E711" s="3"/>
+      <c r="F711" s="3"/>
+      <c r="G711" s="2"/>
+    </row>
+    <row r="712" spans="2:7">
+      <c r="B712" s="3"/>
+      <c r="C712" s="3"/>
+      <c r="D712" s="3"/>
+      <c r="E712" s="3"/>
+      <c r="F712" s="3"/>
+      <c r="G712" s="2"/>
+    </row>
+    <row r="713" spans="2:7">
+      <c r="B713" s="3"/>
+      <c r="C713" s="3"/>
+      <c r="D713" s="3"/>
+      <c r="E713" s="3"/>
+      <c r="F713" s="3"/>
+      <c r="G713" s="2"/>
+    </row>
+    <row r="714" spans="2:7">
+      <c r="B714" s="3"/>
+      <c r="C714" s="3"/>
+      <c r="D714" s="3"/>
+      <c r="E714" s="3"/>
+      <c r="F714" s="3"/>
+      <c r="G714" s="2"/>
+    </row>
+    <row r="715" spans="2:7">
+      <c r="B715" s="3"/>
+      <c r="C715" s="3"/>
+      <c r="D715" s="3"/>
+      <c r="E715" s="3"/>
+      <c r="F715" s="3"/>
+      <c r="G715" s="2"/>
+    </row>
+    <row r="716" spans="2:7">
+      <c r="B716" s="3"/>
+      <c r="C716" s="3"/>
+      <c r="D716" s="3"/>
+      <c r="E716" s="3"/>
+      <c r="F716" s="3"/>
+      <c r="G716" s="2"/>
+    </row>
+    <row r="717" spans="2:7">
+      <c r="B717" s="3"/>
+      <c r="C717" s="3"/>
+      <c r="D717" s="3"/>
+      <c r="E717" s="3"/>
+      <c r="F717" s="3"/>
+      <c r="G717" s="2"/>
+    </row>
+    <row r="718" spans="2:7">
+      <c r="B718" s="3"/>
+      <c r="C718" s="3"/>
+      <c r="D718" s="3"/>
+      <c r="E718" s="3"/>
+      <c r="F718" s="3"/>
+      <c r="G718" s="2"/>
+    </row>
+    <row r="719" spans="2:7">
+      <c r="B719" s="3"/>
+      <c r="C719" s="3"/>
+      <c r="D719" s="3"/>
+      <c r="E719" s="3"/>
+      <c r="F719" s="3"/>
+      <c r="G719" s="2"/>
+    </row>
+    <row r="720" spans="2:7">
+      <c r="B720" s="3"/>
+      <c r="C720" s="3"/>
+      <c r="D720" s="3"/>
+      <c r="E720" s="3"/>
+      <c r="F720" s="3"/>
+      <c r="G720" s="2"/>
+    </row>
+    <row r="721" spans="2:7">
+      <c r="B721" s="3"/>
+      <c r="C721" s="3"/>
+      <c r="D721" s="3"/>
+      <c r="E721" s="3"/>
+      <c r="F721" s="3"/>
+      <c r="G721" s="2"/>
+    </row>
+    <row r="722" spans="2:7">
+      <c r="B722" s="3"/>
+      <c r="C722" s="3"/>
+      <c r="D722" s="3"/>
+      <c r="E722" s="3"/>
+      <c r="F722" s="3"/>
+      <c r="G722" s="2"/>
+    </row>
+    <row r="723" spans="2:7">
+      <c r="B723" s="3"/>
+      <c r="C723" s="3"/>
+      <c r="D723" s="3"/>
+      <c r="E723" s="3"/>
+      <c r="F723" s="3"/>
+      <c r="G723" s="2"/>
+    </row>
+    <row r="724" spans="2:7">
+      <c r="B724" s="3"/>
+      <c r="C724" s="3"/>
+      <c r="D724" s="3"/>
+      <c r="E724" s="3"/>
+      <c r="F724" s="3"/>
+      <c r="G724" s="2"/>
+    </row>
+    <row r="725" spans="2:7">
+      <c r="B725" s="3"/>
+      <c r="C725" s="3"/>
+      <c r="D725" s="3"/>
+      <c r="E725" s="3"/>
+      <c r="F725" s="3"/>
+      <c r="G725" s="2"/>
+    </row>
+    <row r="726" spans="2:7">
+      <c r="B726" s="3"/>
+      <c r="C726" s="3"/>
+      <c r="D726" s="3"/>
+      <c r="E726" s="3"/>
+      <c r="F726" s="3"/>
+      <c r="G726" s="2"/>
+    </row>
+    <row r="727" spans="2:7">
+      <c r="B727" s="3"/>
+      <c r="C727" s="3"/>
+      <c r="D727" s="3"/>
+      <c r="E727" s="3"/>
+      <c r="F727" s="3"/>
+      <c r="G727" s="2"/>
+    </row>
+    <row r="728" spans="2:7">
+      <c r="B728" s="3"/>
+      <c r="C728" s="3"/>
+      <c r="D728" s="3"/>
+      <c r="E728" s="3"/>
+      <c r="F728" s="3"/>
+      <c r="G728" s="2"/>
+    </row>
+    <row r="729" spans="2:7">
+      <c r="B729" s="3"/>
+      <c r="C729" s="3"/>
+      <c r="D729" s="3"/>
+      <c r="E729" s="3"/>
+      <c r="F729" s="3"/>
+      <c r="G729" s="2"/>
+    </row>
+    <row r="730" spans="2:7">
+      <c r="B730" s="3"/>
+      <c r="C730" s="3"/>
+      <c r="D730" s="3"/>
+      <c r="E730" s="3"/>
+      <c r="F730" s="3"/>
+      <c r="G730" s="2"/>
+    </row>
+    <row r="731" spans="2:7">
+      <c r="B731" s="3"/>
+      <c r="C731" s="3"/>
+      <c r="D731" s="3"/>
+      <c r="E731" s="3"/>
+      <c r="F731" s="3"/>
+      <c r="G731" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B35 B37:B1048576">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2885,17 +8151,11 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
+  <conditionalFormatting sqref="E2:E731">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F54" r:id="rId1" xr:uid="{F50B6741-E647-4BB4-9FBA-0B5CAB34F11D}"/>
+    <hyperlink ref="F56" r:id="rId1" xr:uid="{F50B6741-E647-4BB4-9FBA-0B5CAB34F11D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB9A7B-9BD5-470A-88D2-6271B526FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC16C4F-0098-493B-B933-E12197993BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="185">
   <si>
     <t>cal</t>
   </si>
@@ -244,12 +244,6 @@
   </si>
   <si>
     <t>Mitre ATT&amp;CK</t>
-  </si>
-  <si>
-    <t>https://attack.mitre.org/</t>
-  </si>
-  <si>
-    <t>base de conocimiento globalmente accesible sobre tácticas y técnicas adversarias basadas en observaciones del mundo real</t>
   </si>
   <si>
     <t>OSINT Framework</t>
@@ -710,6 +704,18 @@
   </si>
   <si>
     <t>IOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> registrar y documentar las TTP ( tácticas, técnicas y procedimientos ) base de conocimiento globalmente accesible sobre tácticas y técnicas adversarias basadas en observaciones del mundo real, En la parte superior de la matriz, hay 14 categorías. Cada categoría contiene las técnicas que un adversario podría usar para ejecutar la táctica. Las categorías cubren el ciclo de vida de siete etapas de un ciberataque</t>
+  </si>
+  <si>
+    <t>https://mitre-attack.github.io/attack-navigator//#layerURL=https%3A%2F%2Fattack.mitre.org%2Fgroups%2FG0008%2FG0008-enterprise-layer.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://attack.mitre.org/                              </t>
+  </si>
+  <si>
+    <t>https://car.mitre.org/</t>
   </si>
 </sst>
 </file>
@@ -790,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -809,6 +815,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -901,8 +913,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G86" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B1:G86" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G88" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B1:G88" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cal" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{A319250A-DB6A-4E22-9E08-441923ED5FB6}" name="TIPO2" dataDxfId="4"/>
@@ -1232,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G86"/>
+  <dimension ref="B1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1412,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1601,7 +1613,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>5</v>
       </c>
@@ -1611,59 +1623,39 @@
       <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>70</v>
+      <c r="F19" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
@@ -1671,101 +1663,105 @@
       <c r="D22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="3" t="s">
+    </row>
+    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="E25" s="5" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>94</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>5</v>
       </c>
@@ -1773,39 +1769,35 @@
         <v>23</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>5</v>
       </c>
@@ -1813,16 +1805,16 @@
         <v>23</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1833,160 +1825,164 @@
         <v>23</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
-        <v>4</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="3">
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B38" s="3">
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>121</v>
+      <c r="E39" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -1994,147 +1990,161 @@
         <v>5</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="E42" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
+    <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="2:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="B46" s="3">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="F48" s="3"/>
+      <c r="G48" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="3">
-        <v>5</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="2"/>
@@ -2144,19 +2154,19 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="C53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="2"/>
@@ -2164,11 +2174,9 @@
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
@@ -2177,204 +2185,204 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="E56" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="3">
-        <v>5</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B58" s="3">
-        <v>5</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
+      <c r="B59" s="3">
+        <v>5</v>
+      </c>
       <c r="C59" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>163</v>
+      <c r="E60" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="G61" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="195" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="3">
-        <v>5</v>
-      </c>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>171</v>
+      <c r="E63" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="F63" s="3"/>
-      <c r="G63" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>5</v>
+      </c>
       <c r="C65" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>174</v>
+      <c r="E65" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="F66" s="3"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E67" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -2382,36 +2390,44 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F68" s="3"/>
-      <c r="G68" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F69" s="3"/>
-      <c r="G69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="F70" s="3"/>
-      <c r="G70" s="2"/>
+      <c r="G70" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
     </row>
@@ -2535,8 +2551,24 @@
       <c r="F86" s="3"/>
       <c r="G86" s="2"/>
     </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B35 B37:B1048576">
+  <conditionalFormatting sqref="B39:B1048576 B1:B37">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2545,7 +2577,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
+  <conditionalFormatting sqref="B38">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2555,7 +2587,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F32" r:id="rId1" xr:uid="{F50B6741-E647-4BB4-9FBA-0B5CAB34F11D}"/>
+    <hyperlink ref="F34" r:id="rId1" xr:uid="{F50B6741-E647-4BB4-9FBA-0B5CAB34F11D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2566,6 +2598,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A00EB8C12396E8428B681BD7409E586B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4aac3ba56671ea98b8b8069e5ca2928">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09450438-aca0-4d41-986c-93cb361330d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b21312306147a88bf31e2f595534d4c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2722,16 +2763,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72ACFD25-C30E-4BDB-ABBE-4AB65AE9C5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2748,12 +2788,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC16C4F-0098-493B-B933-E12197993BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AAA89C-7F31-4DA1-8FF9-C45D67C6CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
   <si>
     <t>cal</t>
   </si>
@@ -716,6 +716,36 @@
   </si>
   <si>
     <t>https://car.mitre.org/</t>
+  </si>
+  <si>
+    <t>Car Mitre</t>
+  </si>
+  <si>
+    <t>ATT&amp;CK® Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Es un marco para planificar y discutir operaciones de enfrentamiento de adversarios que le permite enfrentarse a sus adversarios y alcanzar sus objetivos de ciberseguridad " .</t>
+  </si>
+  <si>
+    <t>https://engage.mitre.org/</t>
+  </si>
+  <si>
+    <t>MITRE Engage</t>
+  </si>
+  <si>
+    <t>https://engage.mitre.org/matrix/</t>
+  </si>
+  <si>
+    <t>Matrix Mitre</t>
+  </si>
+  <si>
+    <t>D3FEND Mitre</t>
+  </si>
+  <si>
+    <t>https://d3fend.mitre.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gráfico de conocimiento de contramedidas de ciberseguridad, significa  Marco de  detección ,  denegación e  interrupción que  potencia la defensa  de la red </t>
   </si>
 </sst>
 </file>
@@ -796,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -816,11 +846,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -913,8 +946,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G88" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B1:G88" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G91" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B1:G91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cal" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{A319250A-DB6A-4E22-9E08-441923ED5FB6}" name="TIPO2" dataDxfId="4"/>
@@ -1244,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G88"/>
+  <dimension ref="B1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,10 +1656,10 @@
       <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="2" t="s">
         <v>183</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1635,189 +1668,197 @@
     </row>
     <row r="20" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7" t="s">
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6" t="s">
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>184</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>5</v>
-      </c>
+    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>71</v>
+      <c r="E22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>5</v>
-      </c>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="E23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
+      <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>5</v>
       </c>
@@ -1825,36 +1866,32 @@
         <v>23</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
-        <v>5</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1865,109 +1902,113 @@
         <v>23</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="3">
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="3">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>5</v>
       </c>
@@ -1975,53 +2016,55 @@
         <v>73</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="G41" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>5</v>
       </c>
@@ -2029,33 +2072,35 @@
         <v>73</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E44" s="5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>5</v>
       </c>
@@ -2063,110 +2108,130 @@
         <v>73</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
-        <v>132</v>
+      <c r="B46" s="3">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="G46" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>133</v>
+      <c r="E47" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="G47" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>5</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D48" s="3" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="3">
-        <v>5</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
+    <row r="51" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>5</v>
+      </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>141</v>
+      <c r="D51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="G51" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E52" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="2"/>
@@ -2176,7 +2241,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
@@ -2184,23 +2249,21 @@
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="C56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
@@ -2208,82 +2271,64 @@
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F57" s="3"/>
-      <c r="G57" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="E58" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F58" s="3"/>
-      <c r="G58" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B59" s="3">
-        <v>5</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F59" s="3"/>
-      <c r="G59" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B60" s="3">
-        <v>5</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>5</v>
       </c>
@@ -2293,16 +2338,18 @@
       <c r="D62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>161</v>
+      <c r="E62" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>5</v>
+      </c>
       <c r="C63" s="3" t="s">
         <v>73</v>
       </c>
@@ -2310,30 +2357,30 @@
         <v>11</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F63" s="3"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B64" s="3">
-        <v>5</v>
-      </c>
+      <c r="G63" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>164</v>
+      <c r="E64" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="195" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>5</v>
       </c>
@@ -2344,81 +2391,95 @@
         <v>11</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="B66" s="3">
-        <v>5</v>
-      </c>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>171</v>
+      <c r="E66" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="F66" s="3"/>
-      <c r="G66" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <v>5</v>
+      </c>
       <c r="C67" s="3" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>172</v>
+      <c r="E67" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="F68" s="3"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
+      <c r="G68" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <v>5</v>
+      </c>
       <c r="C69" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
-        <v>175</v>
+      <c r="D69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E70" s="3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -2426,32 +2487,44 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="F72" s="3"/>
-      <c r="G72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="F73" s="3"/>
-      <c r="G73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="2"/>
     </row>
@@ -2567,8 +2640,41 @@
       <c r="F88" s="3"/>
       <c r="G88" s="2"/>
     </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B39:B1048576 B1:B37">
+  <conditionalFormatting sqref="B41">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B1048576 B1:B40">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2577,17 +2683,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F34" r:id="rId1" xr:uid="{F50B6741-E647-4BB4-9FBA-0B5CAB34F11D}"/>
+    <hyperlink ref="F37" r:id="rId1" xr:uid="{F50B6741-E647-4BB4-9FBA-0B5CAB34F11D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2598,15 +2695,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A00EB8C12396E8428B681BD7409E586B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4aac3ba56671ea98b8b8069e5ca2928">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09450438-aca0-4d41-986c-93cb361330d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b21312306147a88bf31e2f595534d4c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2763,15 +2851,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72ACFD25-C30E-4BDB-ABBE-4AB65AE9C5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2788,4 +2877,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AAA89C-7F31-4DA1-8FF9-C45D67C6CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632B15CB-7533-46C9-ABC5-39D5627BA7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="SIEM" sheetId="3" r:id="rId2"/>
+    <sheet name="IDS" sheetId="4" r:id="rId3"/>
+    <sheet name="EDR" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="221">
   <si>
     <t>cal</t>
   </si>
@@ -165,9 +168,6 @@
     <t>Verificacion de una direccion IP - URL - Dominio o archivo SHA256</t>
   </si>
   <si>
-    <t>Scanner /IP/URL/FILE</t>
-  </si>
-  <si>
     <t>VirusTotal</t>
   </si>
   <si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Analice archivos, dominios, IP y URL sospechosos para detectar malware</t>
-  </si>
-  <si>
-    <t>Scanner /IP/FILE</t>
   </si>
   <si>
     <t>ANY.RUN</t>
@@ -747,12 +744,113 @@
   <si>
     <t xml:space="preserve"> gráfico de conocimiento de contramedidas de ciberseguridad, significa  Marco de  detección ,  denegación e  interrupción que  potencia la defensa  de la red </t>
   </si>
+  <si>
+    <t>YARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navaja suiza de búsqueda de patrones para investigadores de malware </t>
+  </si>
+  <si>
+    <t>Yara puede identificar información basada en patrones binarios y textuales, como hexadecimales y cadenas contenidas dentro de un archivo. Las reglas se utilizan para etiquetar estos patrones. Por ejemplo, las reglas de Yara se escriben con frecuencia para determinar si un archivo es malicioso o no, en función de las características (o patrones) que presenta.  Las cadenas son un componente fundamental de los lenguajes de programación. Las aplicaciones utilizan cadenas para almacenar datos como texto.</t>
+  </si>
+  <si>
+    <t>LOKI</t>
+  </si>
+  <si>
+    <t>(IOC) Scanner /IP/URL/FILE</t>
+  </si>
+  <si>
+    <t>(TTP) Base de datos</t>
+  </si>
+  <si>
+    <t>LOKI es un escáner IOC ( indicador de compromiso ) gratuito y de código abierto (WINDOWS - LINUX)
+Nombre de archivo Comprobación de COI
+Comprobación de las reglas de Yara (estamos aquí)
+Comprobación de hash
+Comprobación de conexión posterior C2</t>
+  </si>
+  <si>
+    <t>THOR</t>
+  </si>
+  <si>
+    <t>IOC/ YARA</t>
+  </si>
+  <si>
+    <t>consola</t>
+  </si>
+  <si>
+    <t>escáner IOC y YARA multiplataforma Windows, Linux y macOS / THOR está orientado a clientes corporativos</t>
+  </si>
+  <si>
+    <t>FENRIR</t>
+  </si>
+  <si>
+    <t>(Sandbox) Scanner /IP/FILE</t>
+  </si>
+  <si>
+    <t>escáner IOC Fenrir es un script bash; se ejecutará en cualquier sistema capaz de ejecutar bash</t>
+  </si>
+  <si>
+    <t>(IOC)</t>
+  </si>
+  <si>
+    <t>YAYA</t>
+  </si>
+  <si>
+    <t>herramienta de código abierto para ayudar a los investigadores a administrar múltiples repositorios de reglas YARA. YAYA comienza importando un conjunto de reglas YARA de alta calidad y luego permite a los investigadores agregar sus propias reglas, deshabilitar conjuntos de reglas específicos y ejecutar escaneos de archivos (LINUX)</t>
+  </si>
+  <si>
+    <t>YARGEN</t>
+  </si>
+  <si>
+    <t>generador de reglas YARA. El principio fundamental es la creación de reglas de Yara a partir de cadenas que se encuentran en archivos de malware y la eliminación de todas las cadenas que también aparecen en archivos de goodware. Por lo tanto, yarGen incluye una gran base de datos de cadenas de goodware y códigos de operación como archivos ZIP que deben extraerse antes del primer uso</t>
+  </si>
+  <si>
+    <t>YARANALYZER</t>
+  </si>
+  <si>
+    <t>Valhalla</t>
+  </si>
+  <si>
+    <t>Sitio WEB</t>
+  </si>
+  <si>
+    <t>https://valhalla.nextron-systems.com/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">canal de Yara en línea, Valhalla aumenta tus capacidades de detección con el poder de miles de reglas YARA de alta calidad hechas a mano nálisis de malware. Mediante una regla de Yara, un analista puede clasificar el malware en diferentes categorías en función de los diferentes patrones hexadecimales, textuales o cadenas que aparecen en el malware. // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Metodo de busqueda Keyword, tag, ATT&amp;CK technique, sha256</t>
+    </r>
+  </si>
+  <si>
+    <t>OpenCTI</t>
+  </si>
+  <si>
+    <t>plataforma de código abierto diseñada para proporcionar a las organizaciones los medios para gestionar la CTI a través del almacenamiento, análisis, visualización y presentación de campañas de amenazas, malware e IOC. Desarrollada en colaboración con la  Agencia Nacional de Seguridad Cibernética de Francia (ANSSI) , el objetivo principal de la plataforma es crear una herramienta integral que permita a los usuarios aprovechar la información técnica y no técnica, al tiempo que se desarrollan relaciones entre cada pieza de información y su fuente principal. La plataforma puede utilizar el  marco MITRE ATT&amp;CK  para estructurar los datos. Además, se puede integrar con otras herramientas de inteligencia sobre amenazas, como MISP y TheHive. Las salas de estas herramientas se han vinculado en la descripción general.</t>
+  </si>
+  <si>
+    <t>(CTI) Inteligencia sobre amenazas                                                 (IOC)</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenCTI-Platform/opencti?tab=readme-ov-file</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,6 +896,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -826,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -850,10 +956,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -943,6 +1046,246 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo: esquinas redondeadas 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3742CB-F357-4CBC-9578-C5B279DDDFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28576" y="2114550"/>
+          <a:ext cx="3771900" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:t>SIEM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:t>Gestion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1400" b="1" baseline="0"/>
+            <a:t> de eventos e informacion de seguridad</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo: esquinas redondeadas 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3C31CF-15D8-4E3C-93E0-91CC22213649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="2066925"/>
+          <a:ext cx="3743325" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:t>IDS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:t>Sistema</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1400" b="1" baseline="0"/>
+            <a:t> de detección de intrusiones</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo: esquinas redondeadas 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48A7BA6-A56E-4FAD-8EEE-F57F0DD9E273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="3752850" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:t>EDR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:t>Deteccion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1400" b="1" baseline="0"/>
+            <a:t> y respuesta de endpoints</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1279,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1631,7 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="6" customWidth="1"/>
     <col min="7" max="7" width="101" customWidth="1"/>
@@ -1445,7 +1788,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1514,16 +1857,16 @@
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1534,16 +1877,16 @@
         <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1554,16 +1897,16 @@
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1574,16 +1917,16 @@
         <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1594,16 +1937,16 @@
         <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1614,16 +1957,16 @@
         <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1634,16 +1977,16 @@
         <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1654,16 +1997,16 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1672,13 +2015,13 @@
         <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1688,13 +2031,13 @@
         <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -1704,16 +2047,16 @@
         <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1722,13 +2065,13 @@
         <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -1738,16 +2081,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -1758,16 +2101,16 @@
         <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1775,19 +2118,19 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1798,30 +2141,30 @@
         <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1830,14 +2173,14 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1845,17 +2188,17 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1866,32 +2209,32 @@
         <v>23</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="G31" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1902,16 +2245,16 @@
         <v>23</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1922,16 +2265,16 @@
         <v>23</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1942,16 +2285,16 @@
         <v>23</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1962,16 +2305,16 @@
         <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -1983,10 +2326,10 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -1995,7 +2338,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2"/>
@@ -2013,17 +2356,17 @@
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -2034,16 +2377,16 @@
         <v>23</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2054,14 +2397,14 @@
         <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -2069,17 +2412,17 @@
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -2087,17 +2430,17 @@
         <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -2105,17 +2448,17 @@
         <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -2123,17 +2466,17 @@
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -2141,15 +2484,15 @@
         <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2157,17 +2500,17 @@
         <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -2175,7 +2518,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="2"/>
@@ -2185,7 +2528,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
@@ -2199,11 +2542,11 @@
         <v>34</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2211,19 +2554,19 @@
         <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -2231,7 +2574,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="2"/>
@@ -2241,7 +2584,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
@@ -2251,7 +2594,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
@@ -2263,7 +2606,7 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
@@ -2273,7 +2616,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
@@ -2282,10 +2625,10 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
@@ -2294,10 +2637,10 @@
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
@@ -2306,14 +2649,14 @@
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2321,11 +2664,11 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -2333,17 +2676,17 @@
         <v>5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -2351,33 +2694,33 @@
         <v>5</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="195" x14ac:dyDescent="0.25">
@@ -2385,29 +2728,29 @@
         <v>5</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
@@ -2417,17 +2760,17 @@
         <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2435,17 +2778,17 @@
         <v>5</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="165" x14ac:dyDescent="0.25">
@@ -2453,33 +2796,33 @@
         <v>5</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -2487,7 +2830,7 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
@@ -2495,15 +2838,15 @@
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -2511,11 +2854,11 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -2523,82 +2866,180 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F74" s="3"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
+      <c r="G74" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>5</v>
+      </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="F75" s="3"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>3</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="2"/>
+      <c r="B77" s="3">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="2"/>
+      <c r="B78" s="3">
+        <v>3</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>3</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="2"/>
+    <row r="82" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B82" s="3">
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
@@ -2665,8 +3106,8 @@
       <c r="G91" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="B1:B40 B42:B1048576">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2674,8 +3115,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B1048576 B1:B40">
-    <cfRule type="iconSet" priority="2">
+  <conditionalFormatting sqref="B41">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2691,6 +3132,55 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2B9F3D-B82E-4258-8F19-A41A9D5A1CD7}">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218DFC57-1597-4E87-958D-96746E3283D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33AE9E0-60AC-4D05-AF96-D1CFC2360CC7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632B15CB-7533-46C9-ABC5-39D5627BA7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BF7BC2-27B1-41E2-ABBC-D593B0C2335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="253">
   <si>
     <t>cal</t>
   </si>
   <si>
-    <t>TIPO2</t>
-  </si>
-  <si>
     <t>clasificacion</t>
   </si>
   <si>
@@ -399,12 +396,6 @@
     <t>SUIT Completa, administración de sistemas así como su diagnóstico y solución de incidencias</t>
   </si>
   <si>
-    <t>herramienta de utilidad de red.</t>
-  </si>
-  <si>
-    <t>herramienta de utilidad de procesos</t>
-  </si>
-  <si>
     <t>Sysinternals /TCPView</t>
   </si>
   <si>
@@ -496,9 +487,6 @@
   </si>
   <si>
     <t>Lista de proxy gratuitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La detección y respuesta de endpoints ( EDR ) son una serie de herramientas y aplicaciones que monitorean los dispositivos en busca de una actividad que pueda indicar una amenaza o una violación de seguridad. Estas herramientas y aplicaciones tienen características que incluyen:Auditoría de un dispositivo para detectar vulnerabilidades comunes,Monitoreo proactivo de un dispositivo para detectar actividades sospechosas, como inicios de sesión no autorizados, ataques de fuerza bruta o escaladas de privilegios.Visualización de datos y eventos complejos en gráficos claros y modernosRegistrar el comportamiento operativo normal de un dispositivo para ayudar a detectar anomalías</t>
   </si>
   <si>
     <t>Herramientas de Eric Zimmerman</t>
@@ -844,6 +832,284 @@
   </si>
   <si>
     <t>https://github.com/OpenCTI-Platform/opencti?tab=readme-ov-file</t>
+  </si>
+  <si>
+    <t>MISP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">es una plataforma de información sobre amenazas de código abierto que facilita la recopilación, el almacenamiento y la distribución de inteligencia sobre amenazas e indicadores de compromiso (IOC) relacionados con malware, ataques cibernéticos, fraude financiero o cualquier inteligencia dentro de una comunidad de miembros confiables.                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ingeniería inversa de malware</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : intercambio de indicadores de malware para comprender cómo funcionan las diferentes familias de malware.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Investigaciones de seguridad</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  búsqueda, validación y uso de indicadores en la investigación de violaciones de seguridad.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Análisis de inteligencia:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  recopilación de información sobre los grupos adversarios y sus capacidades.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Aplicación de la ley: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uso de indicadores para apoyar las investigaciones forenses.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Análisis de riesgos:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  investigación de nuevas amenazas, su probabilidad y ocurrencia.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Análisis de fraudes: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> intercambio de indicadores financieros para detectar fraudes financieros. </t>
+    </r>
+  </si>
+  <si>
+    <t>Servidor WEB / Programa</t>
+  </si>
+  <si>
+    <t>(IOC) / Malware / Base de datos</t>
+  </si>
+  <si>
+    <t>Administrador de tareas</t>
+  </si>
+  <si>
+    <t>Procesos Windows</t>
+  </si>
+  <si>
+    <t>es una utilidad integrada de Windows basada en interfaz gráfica de usuario que permite a los usuarios ver qué se está ejecutando en el sistema Windows. También proporciona información sobre el uso de recursos, como cuánto utiliza cada proceso la CPU y la memoria. Cuando un programa no responde, se utiliza el Administrador de tareas para finalizar el proceso.</t>
+  </si>
+  <si>
+    <t>herramienta de utilidad de red. es un programa de Windows que le mostrará listados detallados de todos  los puntos finales TCP  y UDP de su sistema, incluidas las direcciones locales y remotas y el estado de las conexiones TCP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">herramienta de utilidad de procesos, onsta de dos subventanas. La ventana superior siempre muestra una lista de los procesos activos actualmente, incluidos los nombres de las cuentas que los poseen, mientras que la información que se muestra en la ventana inferior depende del modo en que se encuentre Process Explorer: si está en modo de controlador, verá los controladores que ha abierto el proceso seleccionado en la ventana superior; si Process Explorer está en  modo DLL  , verá las DLL y los archivos asignados a la memoria que ha cargado el proceso".  ( definición oficial ). El Explorador de procesos le permite inspeccionar los detalles de un proceso en ejecución, como:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servicios asociados
+Tráfico de red invocado
+Maneja como archivos o directorios abiertos
+Se cargaron archivos DLL y asignados a memoria</t>
+    </r>
+  </si>
+  <si>
+    <t>Wevtutil.exe</t>
+  </si>
+  <si>
+    <t>herramienta de línea de comandos, Permite recuperar información acerca de los registros de eventos y los editores. También puede utilizar este comando para instalar y desinstalar los manifiestos de eventos, ejecutar consultas, y exportar, archivar y borrar registros.</t>
+  </si>
+  <si>
+    <t>LOGS / Windows / CMD</t>
+  </si>
+  <si>
+    <t>LOGS / Windows / PowerShell</t>
+  </si>
+  <si>
+    <t>Get-WinEvent</t>
+  </si>
+  <si>
+    <t>Get-WinEvent (+ parametro)</t>
+  </si>
+  <si>
+    <t>Wevtutil (+ parametro)</t>
+  </si>
+  <si>
+    <t>Obtiene eventos de los registros de eventos y de los archivos de registro de seguimiento de eventos en computadoras locales y remotas.</t>
+  </si>
+  <si>
+    <t>LOGS / Windows</t>
+  </si>
+  <si>
+    <t>Con Osquery, los analistas de seguridad, los encargados de la respuesta a incidentes y los cazadores de amenazas pueden consultar un punto final (o varios puntos finales) mediante la sintaxis SQL. Osquery se puede instalar en varias plataformas: Windows, Linux , macOS y FreeBSD.</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>osqueryi (+ parametro)</t>
+  </si>
+  <si>
+    <t>LOGS / Multiplataforma</t>
+  </si>
+  <si>
+    <t>Osquery es una herramienta de código abierto creada por Facebook. Con Osquery, los analistas de seguridad, los encargados de la respuesta a incidentes y los cazadores de amenazas pueden consultar un punto final (o varios puntos finales) mediante la sintaxis SQL. Osquery se puede instalar en varias plataformas: Windows, Linux , macOS y FreeBSD. (Osquery solo le permite consultar eventos dentro de la máquina. Pero con Kolide Fleet, puede consultar varios puntos finales desde la interfaz de usuario de Kolide Fleet  en lugar de usar Osquery localmente para consultar un punto final . A continuación, se muestra un ejemplo de Kolide Fleet en acción que muestra el resultado de una consulta que enumera las máquinas con el  lsass proceso en ejecución.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> La detección y respuesta de endpoints ( EDR ) son una serie de herramientas y aplicaciones que monitorean los dispositivos en busca de una actividad que pueda indicar una amenaza o una violación de seguridad. Estas herramientas y aplicaciones tienen características que incluyen:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auditoría de un dispositivo para detectar vulnerabilidades comunes,Monitoreo proactivo de un dispositivo para detectar actividades sospechosas, como inicios de sesión no autorizados, ataques de fuerza bruta o escaladas de privilegios.Visualización de datos y eventos complejos en gráficos claros y modernosRegistrar el comportamiento operativo normal de un dispositivo para ayudar a detectar anomalías</t>
+    </r>
+  </si>
+  <si>
+    <t>Endpoints</t>
+  </si>
+  <si>
+    <t>puntos finales</t>
+  </si>
+  <si>
+    <t>cualquier dispositivo de Internet de las Cosas (IoT) conectado a una red informática. Esto incluye dispositivos como: ordenadores de escritorio, laptops, tablets, teléfonos inteligentes, impresoras, cámaras de seguridad, etc. La correlación de eventos identifica relaciones significativas de múltiples fuentes de registro, como registros de aplicaciones, registros de puntos finales y registros de red.
+La correlación de eventos se ocupa de identificar artefactos significativos que coexisten en diferentes fuentes de registro y de conectar cada artefacto relacionado</t>
+  </si>
+  <si>
+    <t>﻿Correlación de eventos</t>
+  </si>
+  <si>
+    <t>Process Hacker</t>
+  </si>
+  <si>
+    <t>monitorear los recursos del sistema , depurar software y detectar malware .</t>
+  </si>
+  <si>
+    <t>https://systeminformer.sourceforge.io/</t>
+  </si>
+  <si>
+    <t>Eventos / procesos</t>
+  </si>
+  <si>
+    <t>CMD - PowerShell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD / tasklist                                             Powershell / Get-Process / ps / wmic      </t>
+  </si>
+  <si>
+    <t>monitorear los recursos del sistema desde consola</t>
+  </si>
+  <si>
+    <t>Programa / Windows</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1222,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1285,15 +1551,82 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rombo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7BE6AC-1DE7-782E-271D-9C108B16B948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676775" y="209549"/>
+          <a:ext cx="1333500" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Wazuh</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G91" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B1:G91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G189" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B1:G189" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cal" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{A319250A-DB6A-4E22-9E08-441923ED5FB6}" name="TIPO2" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{A319250A-DB6A-4E22-9E08-441923ED5FB6}" name="TIPO" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{EAF9A2BC-7542-4721-BCC8-47ADE0D2048D}" name="clasificacion" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="comando" dataDxfId="1"/>
@@ -1620,21 +1953,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G91"/>
+  <dimension ref="B1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42" style="6" customWidth="1"/>
-    <col min="7" max="7" width="101" customWidth="1"/>
+    <col min="6" max="6" width="39" style="6" customWidth="1"/>
+    <col min="7" max="7" width="110" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
@@ -1642,39 +1975,39 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1682,19 +2015,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1702,19 +2035,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1722,19 +2055,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1742,19 +2075,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1762,33 +2095,33 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1796,17 +2129,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1814,19 +2147,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -1834,19 +2167,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1854,19 +2187,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1874,19 +2207,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1894,19 +2227,19 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1914,19 +2247,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1934,19 +2267,19 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1954,19 +2287,19 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1974,19 +2307,19 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1994,103 +2327,103 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -2098,19 +2431,19 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2118,19 +2451,19 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2138,33 +2471,33 @@
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -2173,14 +2506,14 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -2188,17 +2521,17 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -2206,55 +2539,55 @@
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="2" t="s">
+    </row>
+    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -2262,19 +2595,19 @@
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2282,19 +2615,19 @@
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -2302,19 +2635,19 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -2322,14 +2655,14 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -2338,7 +2671,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2"/>
@@ -2356,37 +2689,37 @@
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2394,17 +2727,17 @@
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -2412,17 +2745,17 @@
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -2430,53 +2763,53 @@
         <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="3">
-        <v>5</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="3">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="2" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -2484,15 +2817,17 @@
         <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="E47" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2500,35 +2835,37 @@
         <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
@@ -2537,16 +2874,18 @@
       <c r="B51" s="3">
         <v>5</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="D51" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="2" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2554,19 +2893,19 @@
         <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -2574,7 +2913,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="2"/>
@@ -2584,7 +2923,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
@@ -2594,7 +2933,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
@@ -2602,11 +2941,11 @@
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
@@ -2616,7 +2955,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
@@ -2625,10 +2964,10 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
@@ -2637,10 +2976,10 @@
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
@@ -2649,14 +2988,14 @@
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2664,11 +3003,11 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -2676,17 +3015,17 @@
         <v>5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -2694,63 +3033,63 @@
         <v>5</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>5</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
@@ -2760,17 +3099,17 @@
         <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2778,51 +3117,51 @@
         <v>5</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="150" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>5</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -2830,7 +3169,7 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
@@ -2838,15 +3177,15 @@
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -2854,11 +3193,11 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -2866,11 +3205,11 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="75" x14ac:dyDescent="0.25">
@@ -2879,14 +3218,14 @@
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="75" x14ac:dyDescent="0.25">
@@ -2894,19 +3233,19 @@
         <v>3</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
@@ -2914,19 +3253,19 @@
         <v>3</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
@@ -2934,39 +3273,39 @@
         <v>3</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F78" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>3</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -2974,29 +3313,29 @@
         <v>3</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="2"/>
@@ -3006,19 +3345,19 @@
         <v>5</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="120" x14ac:dyDescent="0.25">
@@ -3026,84 +3365,956 @@
         <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="D84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="F84" s="3"/>
+      <c r="G84" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="F85" s="3"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
+      <c r="G85" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
+        <v>4</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B89" s="3">
+        <v>5</v>
+      </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="2"/>
+      <c r="D89" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="2"/>
+      <c r="B90" s="3">
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>4</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B40 B42:B1048576">
@@ -3174,7 +4385,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,6 +4396,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A00EB8C12396E8428B681BD7409E586B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4aac3ba56671ea98b8b8069e5ca2928">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09450438-aca0-4d41-986c-93cb361330d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b21312306147a88bf31e2f595534d4c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3341,16 +4561,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72ACFD25-C30E-4BDB-ABBE-4AB65AE9C5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3367,12 +4586,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BF7BC2-27B1-41E2-ABBC-D593B0C2335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB7B2EB-7E54-472E-92D4-CD9CC0F748D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Procesos</t>
-  </si>
-  <si>
-    <t>SUIT Completa, administración de sistemas así como su diagnóstico y solución de incidencias</t>
   </si>
   <si>
     <t>Sysinternals /TCPView</t>
@@ -1111,6 +1108,28 @@
   <si>
     <t>Programa / Windows</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SUIT Completa, administración de sistemas así como su diagnóstico y solución de incidencias, en las siguientes categorías:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Utilidades de archivos y discos
+Utilidades de red
+Utilidades de proceso
+Utilidades de seguridad
+Información del sistema
+Misceláneas</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1198,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1220,9 +1239,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1955,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -2121,7 +2137,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2190,7 +2206,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>42</v>
@@ -2210,7 +2226,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>45</v>
@@ -2230,7 +2246,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>48</v>
@@ -2336,10 +2352,10 @@
         <v>66</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -2348,13 +2364,13 @@
         <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -2364,13 +2380,13 @@
         <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -2380,16 +2396,16 @@
         <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -2398,13 +2414,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -2414,16 +2430,16 @@
         <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -2671,7 +2687,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2"/>
@@ -2692,14 +2708,14 @@
         <v>70</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2713,13 +2729,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2758,7 +2774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>5</v>
       </c>
@@ -2773,7 +2789,7 @@
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="2" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2784,14 +2800,14 @@
         <v>70</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="150" x14ac:dyDescent="0.25">
@@ -2805,11 +2821,11 @@
         <v>117</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -2820,14 +2836,14 @@
         <v>70</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2838,14 +2854,14 @@
         <v>70</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -2853,11 +2869,11 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -2865,7 +2881,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
@@ -2875,17 +2891,17 @@
         <v>5</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -2893,19 +2909,19 @@
         <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="F52" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -2913,7 +2929,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="2"/>
@@ -2923,7 +2939,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
@@ -2933,7 +2949,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
@@ -2945,7 +2961,7 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
@@ -2955,7 +2971,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
@@ -2964,10 +2980,10 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
@@ -2976,10 +2992,10 @@
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
@@ -2988,14 +3004,14 @@
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -3003,11 +3019,11 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -3021,11 +3037,11 @@
         <v>10</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -3039,11 +3055,11 @@
         <v>10</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -3055,11 +3071,11 @@
         <v>10</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="180" x14ac:dyDescent="0.25">
@@ -3073,11 +3089,11 @@
         <v>10</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -3089,7 +3105,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
@@ -3099,17 +3115,17 @@
         <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -3123,11 +3139,11 @@
         <v>10</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="150" x14ac:dyDescent="0.25">
@@ -3141,11 +3157,11 @@
         <v>10</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -3157,11 +3173,11 @@
         <v>10</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -3169,7 +3185,7 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
@@ -3181,11 +3197,11 @@
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -3193,11 +3209,11 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -3205,11 +3221,11 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="75" x14ac:dyDescent="0.25">
@@ -3221,11 +3237,11 @@
         <v>61</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="75" x14ac:dyDescent="0.25">
@@ -3236,16 +3252,16 @@
         <v>70</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
@@ -3256,16 +3272,16 @@
         <v>70</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="G77" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
@@ -3276,16 +3292,16 @@
         <v>70</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -3296,16 +3312,16 @@
         <v>70</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="G79" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -3316,26 +3332,26 @@
         <v>70</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="2"/>
@@ -3345,19 +3361,19 @@
         <v>5</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="G82" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="120" x14ac:dyDescent="0.25">
@@ -3368,16 +3384,16 @@
         <v>70</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="G83" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="165" x14ac:dyDescent="0.25">
@@ -3385,17 +3401,17 @@
         <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E84" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -3404,14 +3420,14 @@
         <v>70</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -3422,16 +3438,16 @@
         <v>3</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -3442,16 +3458,16 @@
         <v>3</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="F87" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="G87" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="105" x14ac:dyDescent="0.25">
@@ -3462,16 +3478,16 @@
         <v>3</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="90" x14ac:dyDescent="0.25">
@@ -3480,16 +3496,16 @@
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
@@ -3500,16 +3516,16 @@
         <v>70</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E90" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -3517,19 +3533,19 @@
         <v>4</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
@@ -4396,15 +4412,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A00EB8C12396E8428B681BD7409E586B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4aac3ba56671ea98b8b8069e5ca2928">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09450438-aca0-4d41-986c-93cb361330d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b21312306147a88bf31e2f595534d4c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4561,15 +4568,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72ACFD25-C30E-4BDB-ABBE-4AB65AE9C5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4586,4 +4594,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8A5B1D-AE8C-46B7-B3EF-F62FCCA5C847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB7B2EB-7E54-472E-92D4-CD9CC0F748D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A5E420-B5F4-45EE-BAC9-1565E297BEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="256">
   <si>
     <t>cal</t>
   </si>
@@ -406,9 +406,6 @@
   </si>
   <si>
     <t>LOGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> muestra el evento del sistema contiene los registros de aplicación, seguridad y sistema, que han existido desde Windows // ruta C:\Windows\System32\winevt\Logs</t>
   </si>
   <si>
     <t>Sysinternals/Sysmon</t>
@@ -1030,12 +1027,6 @@
   </si>
   <si>
     <t>Get-WinEvent (+ parametro)</t>
-  </si>
-  <si>
-    <t>Wevtutil (+ parametro)</t>
-  </si>
-  <si>
-    <t>Obtiene eventos de los registros de eventos y de los archivos de registro de seguimiento de eventos en computadoras locales y remotas.</t>
   </si>
   <si>
     <t>LOGS / Windows</t>
@@ -1129,6 +1120,219 @@
 Información del sistema
 Misceláneas</t>
     </r>
+  </si>
+  <si>
+    <t>ADS (Alternate Data Streams)</t>
+  </si>
+  <si>
+    <t>ruta C:\Windows\System32\winevt\Logs</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> muestra  los eventos del dispositivo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ruta C:\Windows\System32\winevt\Logs                                                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System log</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  Sistema operativo, hardware, controladores, dispositivos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Security logs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Inicio, cierre o intentos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Application Logs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Aplicaciones instaladas, errores, advertencias
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Eventos del servicio de directorio: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cambios en el directorio activo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Eventos del servicio de replicación de archivos:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Eventos en los servidores Windows</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Registros de eventos de DNS  : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servidores DNS,  eventos de dominio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Registros personalizados:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Aplicaciones que requieren almacenamiento, controlan el tamaño                                                                                      Los registros de eventos se pueden clasificar en 5 categorias </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERROR, WARNING, INFORMATION, SUCCES AUDIT, FAILURE AUDIT</t>
+    </r>
+  </si>
+  <si>
+    <t>Wevtutil (+ parametro) wevtutil.exe /?</t>
+  </si>
+  <si>
+    <t>Obtiene eventos de los registros de eventos y de los archivos de registro de seguimiento de eventos en computadoras locales y remotas. Proporciona información sobre los registros de eventos y los proveedores de registros de eventos. Además, puede combinar numerosos eventos de varias fuentes en un solo comando y filtrarlos mediante consultas XPath, consultas XML estructuradas y consultas de tabla hash.</t>
   </si>
 </sst>
 </file>
@@ -1336,14 +1540,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1358,7 +1562,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28576" y="2114550"/>
+          <a:off x="28576" y="1847850"/>
           <a:ext cx="3771900" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1402,6 +1606,207 @@
             <a:t> de eventos e informacion de seguridad</a:t>
           </a:r>
           <a:endParaRPr lang="es-CO" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rombo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D650A9C4-A20F-4A05-A0C3-3ABD45048ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="142875"/>
+          <a:ext cx="1257300" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Splunk</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rombo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C3A636-50C9-4383-BCCB-B0523DB45887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="1485900"/>
+          <a:ext cx="1209675" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Elastic</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rombo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5C2EC5-789D-49A2-8458-424FA35D7237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="2724151"/>
+          <a:ext cx="1295400" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>QRadar</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1638,8 +2043,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G189" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B1:G189" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G190" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B1:G190" xr:uid="{00000000-0009-0000-0100-000003000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Get-WinEvent"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cal" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{A319250A-DB6A-4E22-9E08-441923ED5FB6}" name="TIPO" dataDxfId="4"/>
@@ -1969,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G189"/>
+  <dimension ref="B1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -2006,7 +2417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>5</v>
       </c>
@@ -2026,7 +2437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>5</v>
       </c>
@@ -2046,7 +2457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>5</v>
       </c>
@@ -2066,7 +2477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -2086,7 +2497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -2106,7 +2517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -2124,7 +2535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -2137,10 +2548,10 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -2158,7 +2569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -2178,7 +2589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -2198,7 +2609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -2206,7 +2617,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>42</v>
@@ -2218,7 +2629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -2226,7 +2637,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>45</v>
@@ -2238,7 +2649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>5</v>
       </c>
@@ -2246,7 +2657,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>48</v>
@@ -2258,7 +2669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -2278,7 +2689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>4</v>
       </c>
@@ -2298,7 +2709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>5</v>
       </c>
@@ -2318,7 +2729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>3</v>
       </c>
@@ -2338,7 +2749,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>5</v>
       </c>
@@ -2352,97 +2763,97 @@
         <v>66</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>5</v>
       </c>
@@ -2462,7 +2873,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>5</v>
       </c>
@@ -2482,7 +2893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>3</v>
       </c>
@@ -2502,7 +2913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
@@ -2516,7 +2927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -2532,7 +2943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>4</v>
       </c>
@@ -2550,7 +2961,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>5</v>
       </c>
@@ -2570,7 +2981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
         <v>91</v>
@@ -2586,7 +2997,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>5</v>
       </c>
@@ -2606,7 +3017,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>5</v>
       </c>
@@ -2626,7 +3037,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>5</v>
       </c>
@@ -2646,7 +3057,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>5</v>
       </c>
@@ -2666,7 +3077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>5</v>
       </c>
@@ -2682,17 +3093,17 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2700,7 +3111,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>5</v>
       </c>
@@ -2715,10 +3126,10 @@
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>4</v>
       </c>
@@ -2729,16 +3140,16 @@
         <v>65</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>5</v>
       </c>
@@ -2756,7 +3167,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>5</v>
       </c>
@@ -2774,7 +3185,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>5</v>
       </c>
@@ -2789,10 +3200,10 @@
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>5</v>
       </c>
@@ -2807,10 +3218,10 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>5</v>
       </c>
@@ -2825,10 +3236,10 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>5</v>
       </c>
@@ -2836,17 +3247,17 @@
         <v>70</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>5</v>
       </c>
@@ -2854,179 +3265,181 @@
         <v>70</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="G48" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>5</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>5</v>
       </c>
@@ -3037,14 +3450,14 @@
         <v>10</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>5</v>
       </c>
@@ -3055,14 +3468,14 @@
         <v>10</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
         <v>70</v>
@@ -3071,14 +3484,14 @@
         <v>10</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>5</v>
       </c>
@@ -3089,14 +3502,14 @@
         <v>10</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
         <v>70</v>
@@ -3105,30 +3518,30 @@
         <v>10</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>5</v>
       </c>
@@ -3139,14 +3552,14 @@
         <v>10</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>5</v>
       </c>
@@ -3157,14 +3570,14 @@
         <v>10</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
         <v>70</v>
@@ -3173,62 +3586,62 @@
         <v>10</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>5</v>
       </c>
@@ -3237,14 +3650,14 @@
         <v>61</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>3</v>
       </c>
@@ -3252,19 +3665,19 @@
         <v>70</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>3</v>
       </c>
@@ -3272,19 +3685,19 @@
         <v>70</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="G77" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>3</v>
       </c>
@@ -3292,19 +3705,19 @@
         <v>70</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>3</v>
       </c>
@@ -3312,19 +3725,19 @@
         <v>70</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="G79" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>3</v>
       </c>
@@ -3332,51 +3745,51 @@
         <v>70</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>5</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="G82" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>5</v>
       </c>
@@ -3384,53 +3797,53 @@
         <v>70</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="G83" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="E84" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>5</v>
       </c>
@@ -3438,19 +3851,19 @@
         <v>3</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>5</v>
       </c>
@@ -3458,19 +3871,19 @@
         <v>3</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="F87" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="G87" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>4</v>
       </c>
@@ -3478,37 +3891,37 @@
         <v>3</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>5</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>5</v>
       </c>
@@ -3516,47 +3929,51 @@
         <v>70</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>4</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
+    </row>
+    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3">
+        <v>5</v>
+      </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+      <c r="E92" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="F92" s="3"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3564,7 +3981,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3572,7 +3989,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3580,7 +3997,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3588,7 +4005,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3596,7 +4013,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3604,7 +4021,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3612,7 +4029,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3620,7 +4037,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3628,7 +4045,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3636,7 +4053,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3644,7 +4061,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3652,7 +4069,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3660,7 +4077,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3668,7 +4085,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3676,7 +4093,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3684,7 +4101,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3692,7 +4109,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3700,7 +4117,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3708,7 +4125,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -3716,7 +4133,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -3724,7 +4141,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -3732,7 +4149,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -3740,7 +4157,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -3748,7 +4165,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -3756,7 +4173,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -3764,7 +4181,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -3772,7 +4189,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -3780,7 +4197,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -3788,7 +4205,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -3796,7 +4213,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -3804,7 +4221,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -3812,7 +4229,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -3820,7 +4237,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -3828,7 +4245,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -3836,7 +4253,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -3844,7 +4261,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -3852,7 +4269,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -3860,7 +4277,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -3868,7 +4285,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -3876,7 +4293,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -3884,7 +4301,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -3892,7 +4309,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -3900,7 +4317,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -3908,7 +4325,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -3916,7 +4333,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -3924,7 +4341,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -3932,7 +4349,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -3940,7 +4357,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -3948,7 +4365,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -3956,7 +4373,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -3964,7 +4381,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -3972,7 +4389,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -3980,7 +4397,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -3988,7 +4405,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -3996,7 +4413,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4004,7 +4421,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -4012,7 +4429,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -4020,7 +4437,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -4028,7 +4445,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -4036,7 +4453,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -4044,7 +4461,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -4052,7 +4469,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -4060,7 +4477,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -4068,7 +4485,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -4076,7 +4493,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -4084,7 +4501,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -4092,7 +4509,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -4100,7 +4517,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -4108,7 +4525,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -4116,7 +4533,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -4124,7 +4541,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -4132,7 +4549,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -4140,7 +4557,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -4148,7 +4565,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -4156,7 +4573,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -4164,7 +4581,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -4172,7 +4589,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -4180,7 +4597,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -4188,7 +4605,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -4196,7 +4613,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -4204,7 +4621,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -4212,7 +4629,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -4220,7 +4637,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -4228,7 +4645,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -4236,7 +4653,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -4244,7 +4661,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -4252,7 +4669,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -4260,7 +4677,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -4268,7 +4685,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -4276,7 +4693,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -4284,7 +4701,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -4292,7 +4709,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -4300,7 +4717,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -4308,7 +4725,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -4316,7 +4733,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -4324,13 +4741,23 @@
       <c r="F188" s="3"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B40 B42:B1048576">
@@ -4367,7 +4794,7 @@
   <dimension ref="A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A5E420-B5F4-45EE-BAC9-1565E297BEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEA7312-70E7-455B-A053-AAE8C5CC25ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,8 @@
     <sheet name="SIEM" sheetId="3" r:id="rId2"/>
     <sheet name="IDS" sheetId="4" r:id="rId3"/>
     <sheet name="EDR" sheetId="5" r:id="rId4"/>
+    <sheet name="Sandbox" sheetId="7" r:id="rId5"/>
+    <sheet name="Puertos Malware" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,8 +38,73 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DSPT</author>
+  </authors>
+  <commentList>
+    <comment ref="G49" authorId="0" shapeId="0" xr:uid="{50C6232D-D109-45EB-BAD9-465639BE5DA2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DSPT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID de evento 1: Creación de proceso
+ID de evento 3: Conexión de red
+ID de evento 7: Imagen cargada
+ID de evento 8: CreateRemoteThread
+D de evento 11: Archivo creado
+ID de evento 12/13/14: Evento de registro
+Identificador de evento 15: FileCreateStreamHash
+ID de evento 22: Evento DNS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G89" authorId="0" shapeId="0" xr:uid="{FACE78BC-26BC-4B41-A0C6-E204B2009569}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DSPT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://docs.google.com/spreadsheets/d/17pSTDNpa0sf6pHeRhusvWG6rThciE8CsXTSlDUAZDyo/edit?gid=0#gid=0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="478">
   <si>
     <t>cal</t>
   </si>
@@ -297,9 +364,6 @@
     <t>Mimikatz</t>
   </si>
   <si>
-    <t>extrae contraseñas almacenadas en la memoria</t>
-  </si>
-  <si>
     <t>Scanner sitio web</t>
   </si>
   <si>
@@ -409,9 +473,6 @@
   </si>
   <si>
     <t>Sysinternals/Sysmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Proporciona información detallada sobre la creación de procesos, las conexiones de red y los cambios en la hora de creación de los archivos. Recopilando los eventos que genera mediante Windows Event Collection o agentes SIEM y analizándolos posteriormente, podrá identificar actividades maliciosas o anómalas y comprender cómo actúan los intrusos y el malware en su red</t>
   </si>
   <si>
     <t>OSQuery</t>
@@ -1042,9 +1103,6 @@
   </si>
   <si>
     <t>LOGS / Multiplataforma</t>
-  </si>
-  <si>
-    <t>Osquery es una herramienta de código abierto creada por Facebook. Con Osquery, los analistas de seguridad, los encargados de la respuesta a incidentes y los cazadores de amenazas pueden consultar un punto final (o varios puntos finales) mediante la sintaxis SQL. Osquery se puede instalar en varias plataformas: Windows, Linux , macOS y FreeBSD. (Osquery solo le permite consultar eventos dentro de la máquina. Pero con Kolide Fleet, puede consultar varios puntos finales desde la interfaz de usuario de Kolide Fleet  en lugar de usar Osquery localmente para consultar un punto final . A continuación, se muestra un ejemplo de Kolide Fleet en acción que muestra el resultado de una consulta que enumera las máquinas con el  lsass proceso en ejecución.)</t>
   </si>
   <si>
     <r>
@@ -1332,14 +1390,757 @@
     <t>Wevtutil (+ parametro) wevtutil.exe /?</t>
   </si>
   <si>
-    <t>Obtiene eventos de los registros de eventos y de los archivos de registro de seguimiento de eventos en computadoras locales y remotas. Proporciona información sobre los registros de eventos y los proveedores de registros de eventos. Además, puede combinar numerosos eventos de varias fuentes en un solo comando y filtrarlos mediante consultas XPath, consultas XML estructuradas y consultas de tabla hash.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Applications and Services</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Logs/Microsoft/Windows/Sysmon/Operational</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proporciona información detallada sobre la creación de procesos, las conexiones de red y los cambios en la hora de creación de los archivos. Recopilando los eventos que genera mediante Windows Event Collection o agentes SIEM y analizándolos posteriormente, podrá identificar actividades maliciosas o anómalas y comprender cómo actúan los intrusos y el malware en su red, Sysmon incluye 29 tipos diferentes de identificadores de eventos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Obtiene eventos de los registros de eventos y de los archivos de registro de seguimiento de eventos en computadoras locales y remotas. Proporciona información sobre los registros de eventos y los proveedores de registros de eventos. Además, puede combinar numerosos eventos de varias fuentes en un solo comando y filtrarlos mediante consultas XPath, consultas XML estructuradas y consultas de tabla hash. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(| Measure-object - Line) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comando para conocer la cantidad de eventos</t>
+    </r>
+  </si>
+  <si>
+    <t>Dest Port</t>
+  </si>
+  <si>
+    <t>Count 1</t>
+  </si>
+  <si>
+    <t>Count 2</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>False Positive Condition</t>
+  </si>
+  <si>
+    <t>Positive Condition</t>
+  </si>
+  <si>
+    <t>Comment / Source</t>
+  </si>
+  <si>
+    <t>Sandbox Analyses Link</t>
+  </si>
+  <si>
+    <t>Speedguide Link</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Netwire</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=3369</t>
+  </si>
+  <si>
+    <t>Jsocket Sample</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=8765</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:9943</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=9943</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=244</t>
+  </si>
+  <si>
+    <t>Dridex Sample</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1590</t>
+  </si>
+  <si>
+    <t>Cisco STUN</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1990</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=4040</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:7210</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=7210</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Oracle 9i Portal, Games, iChat File Transfer Proxy</t>
+  </si>
+  <si>
+    <t>Trojans</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:7777</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=7777</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Proxy, Internet Radio Streams</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=8001</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=10101</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=12322</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=14102</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=14103</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=14154</t>
+  </si>
+  <si>
+    <t>Kerberos</t>
+  </si>
+  <si>
+    <t>Outoing to Internet</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=543</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=700</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=743</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1515</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1960</t>
+  </si>
+  <si>
+    <t>Hadoop</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=9000</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=65520</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:81</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=81</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=100</t>
+  </si>
+  <si>
+    <t>Outgoing SMTP over SSL</t>
+  </si>
+  <si>
+    <t>Non MTA sender &gt; Trojan sending Mails</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=465</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:843</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=843</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1817</t>
+  </si>
+  <si>
+    <t>Target: internal network</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:3448</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=3448</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=4433</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=4455</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=5649</t>
+  </si>
+  <si>
+    <t>Oracle Application Server HTTPS</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=7443</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=9997</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=12100</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=12108</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=12112</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=12124</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=12143</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=12154</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=12233</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13029</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13101</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13111</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13170</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13332</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13334</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13360</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13407</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13411</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13441</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=49171</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=49172</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=49173</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=49178</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=49181</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=49184</t>
+  </si>
+  <si>
+    <t>DDM Remote</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=448</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=473</t>
+  </si>
+  <si>
+    <t>Doom (Game)</t>
+  </si>
+  <si>
+    <t>Many Trojans, Cain &amp; Abel</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:666</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=666</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=3675</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=3939</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=5552</t>
+  </si>
+  <si>
+    <t>MySQL Proxy</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=6446</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=12103</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13145</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13394</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=49177</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=49179</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=49182</t>
+  </si>
+  <si>
+    <t>Netcrack and many Trojans</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=777</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=2443</t>
+  </si>
+  <si>
+    <t>Server Message Block over Remote Direct Memory Access</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=5445</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=8000</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=9007</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=9631</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=12102</t>
+  </si>
+  <si>
+    <t>Skype (sometimes used)</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13392</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13504</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13505</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1904</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=4438</t>
+  </si>
+  <si>
+    <t>Metasploit</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:4444</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=4444</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=6625</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=12101</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13507</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=49180</t>
+  </si>
+  <si>
+    <t>Allowed SMTP to Internet Mail Servers</t>
+  </si>
+  <si>
+    <t>Non MTA sender &gt; Trojan sending SPAM</t>
+  </si>
+  <si>
+    <t>Included for comparison purposes</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=25</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=198</t>
+  </si>
+  <si>
+    <t>IBM System Resource Controller</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=200</t>
+  </si>
+  <si>
+    <t>Active Sync</t>
+  </si>
+  <si>
+    <t>Various Trojans</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1034</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:3360</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=3360</t>
+  </si>
+  <si>
+    <t>PCSync, Plesk Control Panel</t>
+  </si>
+  <si>
+    <t>Dridex</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:8443</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=8443</t>
+  </si>
+  <si>
+    <t>ICA Browser (Citrix)</t>
+  </si>
+  <si>
+    <t>DarkComet RAT</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1604</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=13506</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=65535</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:243</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=243</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1443</t>
+  </si>
+  <si>
+    <t>Scarab Trojan</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1777</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:8143</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=8143</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=2448</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=21</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=4443</t>
+  </si>
+  <si>
+    <t>SMTP (TLS)</t>
+  </si>
+  <si>
+    <t>Non MTA &gt; Trojan sending Mail</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:587</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=587</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:8080</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=8080</t>
+  </si>
+  <si>
+    <t>HTTPS Traffic</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:443</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=443</t>
+  </si>
+  <si>
+    <t>HTTP Traffic</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:80</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=80</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:53</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=53</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:82</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=82</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:444</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=444</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=999</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:1143</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1143</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:1166</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1166</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:1336</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1336</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:1337</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=1337</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=2013</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=2201</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:2888</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=2888</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=5656</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:7447</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=7447</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:8086</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=8086</t>
+  </si>
+  <si>
+    <t>Plesk Control Panel</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:8087</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=8087</t>
+  </si>
+  <si>
+    <t>QNAP NAS</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:8899</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=8899</t>
+  </si>
+  <si>
+    <t>Cisco X-remote</t>
+  </si>
+  <si>
+    <t>Tor Network</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:9001</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=9001</t>
+  </si>
+  <si>
+    <t>Many trojans and worms</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=9898</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:9993</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=9993</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=32020</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/search?query=port:60139</t>
+  </si>
+  <si>
+    <t>http://www.speedguide.net/port.php?port=60139</t>
+  </si>
+  <si>
+    <t>Triage</t>
+  </si>
+  <si>
+    <t>https://tria.ge/#:~:text=A%20state-of-the%E2%80%93art%20malware%20analysis%20sandbox,%20with%20all%20the%20features%20you</t>
+  </si>
+  <si>
+    <t>https://www.hybrid-analysis.com/login?redirect=%2Fsearch%3Fquery%3Dport%3A9943&amp;error_page_redirect=1</t>
+  </si>
+  <si>
+    <t>hybrid analysis</t>
+  </si>
+  <si>
+    <t>Mimikatz es un volcador de credenciales capaz de obtener inicios de sesión y contraseñas de cuentas de Windows en texto sin formato, junto con muchas otras características que lo hacen útil para probar la seguridad de las redes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Osquery es una herramienta de código abierto creada por Facebook. Con Osquery, los analistas de seguridad, los encargados de la respuesta a incidentes y los cazadores de amenazas pueden consultar un punto final (o varios puntos finales) mediante la sintaxis SQL. Osquery se puede instalar en varias plataformas: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Windows, Linux , macOS y FreeBSD.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Osquery solo le permite consultar eventos dentro de la máquina. Pero con Kolide Fleet, puede consultar varios puntos finales desde la interfaz de usuario de Kolide Fleet  en lugar de usar Osquery localmente para consultar un punto final . A continuación, se muestra un ejemplo de Kolide Fleet en acción que muestra el resultado de una consulta que enumera las máquinas con el  lsass proceso en ejecución.)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/sql/sql_intro.asp</t>
+  </si>
+  <si>
+    <t>Tutorials Base de datos/programacion</t>
+  </si>
+  <si>
+    <t>w3schools</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1393,8 +2194,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Droid Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Droid Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1407,8 +2249,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF434343"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4C7C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE8B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1416,12 +2282,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1444,12 +2422,421 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Droid Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Droid Sans"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Droid Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Droid Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Droid Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Droid Sans"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF434343"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2043,21 +3430,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G190" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B1:G190" xr:uid="{00000000-0009-0000-0100-000003000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Get-WinEvent"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G192" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B1:G192" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cal" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{A319250A-DB6A-4E22-9E08-441923ED5FB6}" name="TIPO" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{EAF9A2BC-7542-4721-BCC8-47ADE0D2048D}" name="clasificacion" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="comando" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descripcion" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cal" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{A319250A-DB6A-4E22-9E08-441923ED5FB6}" name="TIPO" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{EAF9A2BC-7542-4721-BCC8-47ADE0D2048D}" name="clasificacion" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="comando" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descripcion" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E0A6BB0-4DB0-4241-8B1A-C6222972C479}" name="Tabla1" displayName="Tabla1" ref="A1:I130" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I130" xr:uid="{5E0A6BB0-4DB0-4241-8B1A-C6222972C479}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A0308111-2A6E-4A9D-90D4-30C989BBB24E}" name="Dest Port" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F4B2C6C0-DA25-482C-874B-126FD3B51F7E}" name="Count 1" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{440C42F0-2C1B-4402-B760-02F243EA3EB2}" name="Count 2" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4C7E6453-A49A-4C07-8897-B1C68A874F36}" name="Level" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{30B10BE4-2F1D-4D22-ADF4-1BA69F5C804D}" name="False Positive Condition" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0CD9EB56-FA95-4427-AFFB-66715DAF0867}" name="Positive Condition" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{73413CF5-628F-4D1D-B36B-A3DF035A9529}" name="Comment / Source" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{51A6979C-EE4B-426A-9619-D91CE6F0534B}" name="Sandbox Analyses Link" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="9" xr3:uid="{544DA5A8-9A1E-4532-BE87-45C29D5D448C}" name="Speedguide Link" dataDxfId="0" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2379,14 +3778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
@@ -2397,12 +3796,12 @@
     <col min="7" max="7" width="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -2417,7 +3816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="30">
       <c r="B2" s="2">
         <v>5</v>
       </c>
@@ -2437,7 +3836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="3">
         <v>5</v>
       </c>
@@ -2457,7 +3856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30">
       <c r="B4" s="3">
         <v>5</v>
       </c>
@@ -2477,7 +3876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -2497,7 +3896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -2517,7 +3916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="30">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -2535,7 +3934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="45">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -2548,10 +3947,10 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -2569,7 +3968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -2589,7 +3988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -2609,7 +4008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="30">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -2617,7 +4016,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>42</v>
@@ -2629,7 +4028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -2637,7 +4036,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>45</v>
@@ -2649,7 +4048,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="3">
         <v>5</v>
       </c>
@@ -2657,7 +4056,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>48</v>
@@ -2669,47 +4068,39 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>5</v>
-      </c>
+    <row r="15" spans="2:7" ht="60">
+      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>4</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" ht="60">
+      <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="3">
         <v>5</v>
       </c>
@@ -2717,39 +4108,39 @@
         <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30">
       <c r="B19" s="3">
         <v>5</v>
       </c>
@@ -2757,145 +4148,145 @@
         <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>175</v>
+        <v>57</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30">
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="60">
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="60">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="30">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>67</v>
+        <v>190</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+        <v>180</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" ht="30">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3">
         <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>22</v>
@@ -2903,101 +4294,105 @@
       <c r="D27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30">
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30">
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+    <row r="30" spans="2:7">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="3">
         <v>5</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30">
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="3">
         <v>5</v>
       </c>
@@ -3005,39 +4400,35 @@
         <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="30">
       <c r="B35" s="3">
         <v>5</v>
       </c>
@@ -3045,19 +4436,19 @@
         <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="45">
       <c r="B36" s="3">
         <v>5</v>
       </c>
@@ -3065,145 +4456,149 @@
         <v>22</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="30">
       <c r="B37" s="3">
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="45">
+      <c r="B38" s="3">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="3">
-        <v>5</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>110</v>
+    <row r="40" spans="2:7">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:7" ht="45">
       <c r="B42" s="3">
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="30">
       <c r="B43" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="30">
       <c r="B44" s="3">
         <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="60">
       <c r="B45" s="3">
         <v>5</v>
       </c>
@@ -3211,17 +4606,17 @@
         <v>70</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="120">
       <c r="B46" s="3">
         <v>5</v>
       </c>
@@ -3229,17 +4624,17 @@
         <v>70</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="30">
       <c r="B47" s="3">
         <v>5</v>
       </c>
@@ -3247,17 +4642,17 @@
         <v>70</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="150">
       <c r="B48" s="3">
         <v>5</v>
       </c>
@@ -3265,218 +4660,222 @@
         <v>70</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>251</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="60">
+      <c r="B49" s="3">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="2:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="3">
+    <row r="50" spans="2:7" ht="150">
+      <c r="B50" s="3">
         <v>5</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>127</v>
+      <c r="C50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="45">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:7" ht="105">
+      <c r="B53" s="3">
         <v>5</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="C53" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="3">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="D54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7">
       <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7">
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="C58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F60" s="3"/>
-      <c r="G60" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="E61" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="3">
-        <v>5</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="3">
-        <v>5</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="30">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="45">
+      <c r="B64" s="3">
+        <v>5</v>
+      </c>
       <c r="C64" s="3" t="s">
         <v>70</v>
       </c>
@@ -3484,14 +4883,14 @@
         <v>10</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="180" hidden="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="60">
       <c r="B65" s="3">
         <v>5</v>
       </c>
@@ -3501,15 +4900,15 @@
       <c r="D65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>153</v>
+      <c r="E65" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="45">
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
         <v>70</v>
@@ -3518,186 +4917,180 @@
         <v>10</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F66" s="3"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="2:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="180">
       <c r="B67" s="3">
         <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="3">
-        <v>5</v>
-      </c>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>161</v>
+      <c r="E68" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F68" s="3"/>
-      <c r="G68" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="2:7" ht="90">
       <c r="B69" s="3">
         <v>5</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="30">
+      <c r="B70" s="3">
+        <v>5</v>
+      </c>
       <c r="C70" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>164</v>
+      <c r="E70" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="150">
+      <c r="B71" s="3">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="F71" s="3"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="45">
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E72" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F73" s="3"/>
-      <c r="G73" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="3">
-        <v>5</v>
-      </c>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="3">
-        <v>3</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>201</v>
-      </c>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>196</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F76" s="3"/>
       <c r="G76" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="75">
       <c r="B77" s="3">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>196</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F77" s="3"/>
       <c r="G77" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="75">
       <c r="B78" s="3">
         <v>3</v>
       </c>
@@ -3705,19 +5098,19 @@
         <v>70</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79" s="3">
         <v>3</v>
       </c>
@@ -3725,19 +5118,19 @@
         <v>70</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:7">
       <c r="B80" s="3">
         <v>3</v>
       </c>
@@ -3745,259 +5138,291 @@
         <v>70</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="45">
+      <c r="B81" s="3">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="60">
+      <c r="B82" s="3">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="3">
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="3">
-        <v>5</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="3"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="2:7" ht="60">
       <c r="B84" s="3">
         <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F84" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="G84" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="120">
+      <c r="B85" s="3">
+        <v>5</v>
+      </c>
       <c r="C85" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F85" s="3"/>
+      <c r="D85" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G85" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="165">
       <c r="B86" s="3">
         <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>254</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B87" s="3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="60">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="45">
+      <c r="B88" s="3">
         <v>5</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="3">
-        <v>4</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="75">
       <c r="B89" s="3">
         <v>5</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D89" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="105">
       <c r="B90" s="3">
         <v>5</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>243</v>
+        <v>123</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="90">
       <c r="B91" s="3">
-        <v>4</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>248</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
       <c r="B92" s="3">
         <v>5</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="E92" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="30">
+      <c r="B93" s="3">
+        <v>4</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="3">
+        <v>5</v>
+      </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="E94" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="F94" s="3"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="30">
       <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F95" s="37" t="s">
+        <v>475</v>
+      </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4005,7 +5430,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4013,7 +5438,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4021,7 +5446,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4029,7 +5454,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4037,7 +5462,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4045,7 +5470,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4053,7 +5478,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4061,7 +5486,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4069,7 +5494,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4077,7 +5502,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4085,7 +5510,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4093,7 +5518,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4101,7 +5526,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4109,7 +5534,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4117,7 +5542,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4125,7 +5550,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4133,7 +5558,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4141,7 +5566,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4149,7 +5574,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4157,7 +5582,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4165,7 +5590,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4173,7 +5598,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4181,7 +5606,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4189,7 +5614,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4197,7 +5622,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4205,7 +5630,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4213,7 +5638,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4221,7 +5646,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4229,7 +5654,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4237,7 +5662,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4245,7 +5670,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4253,7 +5678,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4261,7 +5686,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4269,7 +5694,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4277,7 +5702,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4285,7 +5710,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4293,7 +5718,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4301,7 +5726,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4309,7 +5734,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -4317,7 +5742,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4325,7 +5750,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -4333,7 +5758,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4341,7 +5766,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4349,7 +5774,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -4357,7 +5782,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -4365,7 +5790,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -4373,7 +5798,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -4381,7 +5806,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -4389,7 +5814,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -4397,7 +5822,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -4405,7 +5830,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -4413,7 +5838,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4421,7 +5846,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -4429,7 +5854,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -4437,7 +5862,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -4445,7 +5870,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -4453,7 +5878,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -4461,7 +5886,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -4469,7 +5894,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -4477,7 +5902,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -4485,7 +5910,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -4493,7 +5918,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -4501,7 +5926,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -4509,7 +5934,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -4517,7 +5942,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -4525,7 +5950,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -4533,7 +5958,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -4541,7 +5966,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -4549,7 +5974,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -4557,7 +5982,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -4565,7 +5990,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -4573,7 +5998,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -4581,7 +6006,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -4589,7 +6014,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -4597,7 +6022,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -4605,7 +6030,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -4613,7 +6038,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -4621,7 +6046,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -4629,7 +6054,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -4637,7 +6062,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -4645,7 +6070,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -4653,7 +6078,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -4661,7 +6086,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -4669,7 +6094,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -4677,7 +6102,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -4685,7 +6110,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -4693,7 +6118,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -4701,7 +6126,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -4709,7 +6134,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -4717,7 +6142,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -4725,7 +6150,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -4733,7 +6158,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -4741,7 +6166,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -4749,18 +6174,43 @@
       <c r="F189" s="3"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="3" t="s">
-        <v>252</v>
-      </c>
+    <row r="190" spans="2:7">
+      <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="2"/>
     </row>
+    <row r="191" spans="2:7">
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B40 B42:B1048576">
+  <conditionalFormatting sqref="B43">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B1048576 B1:B42">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -4769,22 +6219,14 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F37" r:id="rId1" xr:uid="{F50B6741-E647-4BB4-9FBA-0B5CAB34F11D}"/>
+    <hyperlink ref="F39" r:id="rId1" xr:uid="{F50B6741-E647-4BB4-9FBA-0B5CAB34F11D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4797,9 +6239,9 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="4"/>
     </row>
   </sheetData>
@@ -4816,7 +6258,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4831,10 +6273,3161 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0232E9-8BFE-4E22-B5BA-A4058E05D7FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9853C5AD-B9D9-4692-8BB8-1D2638F15F53}">
+  <dimension ref="A1:I130"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18" style="35" customWidth="1"/>
+    <col min="8" max="8" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A1" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A2" s="28">
+        <v>3369</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A3" s="28">
+        <v>8765</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A4" s="29">
+        <v>9943</v>
+      </c>
+      <c r="B4" s="13">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A5" s="28">
+        <v>244</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A6" s="28">
+        <v>1590</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A7" s="28">
+        <v>1990</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A8" s="28">
+        <v>4040</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A9" s="29">
+        <v>7210</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A10" s="28">
+        <v>7777</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A11" s="28">
+        <v>8001</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A12" s="28">
+        <v>10101</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A13" s="28">
+        <v>12322</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A14" s="28">
+        <v>14102</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A15" s="28">
+        <v>14103</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A16" s="28">
+        <v>14154</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A17" s="28">
+        <v>543</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A18" s="28">
+        <v>700</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A19" s="28">
+        <v>743</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A20" s="28">
+        <v>1515</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A21" s="28">
+        <v>1960</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A22" s="28">
+        <v>9000</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A23" s="28">
+        <v>65520</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A24" s="28">
+        <v>65520</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A25" s="29">
+        <v>81</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13">
+        <v>4</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A26" s="28">
+        <v>100</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="9">
+        <v>4</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A27" s="28">
+        <v>465</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="9">
+        <v>4</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A28" s="29">
+        <v>843</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13">
+        <v>4</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A29" s="28">
+        <v>1817</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A30" s="29">
+        <v>3448</v>
+      </c>
+      <c r="B30" s="13">
+        <v>28</v>
+      </c>
+      <c r="C30" s="13">
+        <v>4</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A31" s="28">
+        <v>4433</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" s="9">
+        <v>4</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A32" s="28">
+        <v>4455</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" s="9">
+        <v>4</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A33" s="28">
+        <v>5649</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="9">
+        <v>4</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A34" s="28">
+        <v>7443</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="9">
+        <v>4</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A35" s="28">
+        <v>9997</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" s="9">
+        <v>4</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A36" s="28">
+        <v>12100</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="9">
+        <v>4</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A37" s="28">
+        <v>12108</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="9">
+        <v>4</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A38" s="28">
+        <v>12112</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="9">
+        <v>4</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A39" s="28">
+        <v>12124</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="9">
+        <v>4</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A40" s="28">
+        <v>12143</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="9">
+        <v>4</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A41" s="28">
+        <v>12154</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="9">
+        <v>4</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A42" s="28">
+        <v>12233</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="9">
+        <v>4</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A43" s="28">
+        <v>13029</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" s="9">
+        <v>4</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A44" s="28">
+        <v>13101</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="9">
+        <v>4</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A45" s="28">
+        <v>13111</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" s="9">
+        <v>4</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A46" s="28">
+        <v>13170</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="9">
+        <v>4</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A47" s="28">
+        <v>13332</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" s="9">
+        <v>4</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A48" s="28">
+        <v>13334</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="9">
+        <v>4</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A49" s="28">
+        <v>13360</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="9">
+        <v>4</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A50" s="28">
+        <v>13407</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="9">
+        <v>4</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A51" s="28">
+        <v>13411</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" s="9">
+        <v>4</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A52" s="28">
+        <v>13441</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="9">
+        <v>4</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A53" s="28">
+        <v>49171</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="9">
+        <v>4</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A54" s="28">
+        <v>49172</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" s="9">
+        <v>4</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A55" s="28">
+        <v>49173</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="9">
+        <v>4</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A56" s="28">
+        <v>49178</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="9">
+        <v>4</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A57" s="28">
+        <v>49181</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C57" s="9">
+        <v>4</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A58" s="28">
+        <v>49184</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="9">
+        <v>4</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A59" s="28">
+        <v>49184</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="9">
+        <v>4</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A60" s="28">
+        <v>448</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="9">
+        <v>5</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A61" s="28">
+        <v>473</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="9">
+        <v>5</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A62" s="29">
+        <v>666</v>
+      </c>
+      <c r="B62" s="13">
+        <v>5</v>
+      </c>
+      <c r="C62" s="13">
+        <v>5</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G62" s="33"/>
+      <c r="H62" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A63" s="28">
+        <v>3675</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="9">
+        <v>5</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A64" s="28">
+        <v>3939</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="9">
+        <v>5</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A65" s="28">
+        <v>5552</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="9">
+        <v>5</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G65" s="33"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A66" s="28">
+        <v>6446</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66" s="9">
+        <v>5</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A67" s="28">
+        <v>12103</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="9">
+        <v>5</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A68" s="28">
+        <v>13145</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="9">
+        <v>5</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A69" s="28">
+        <v>13394</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" s="9">
+        <v>5</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A70" s="28">
+        <v>49177</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" s="9">
+        <v>5</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A71" s="28">
+        <v>49179</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" s="9">
+        <v>5</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A72" s="28">
+        <v>49182</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" s="9">
+        <v>5</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A73" s="28">
+        <v>777</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" s="9">
+        <v>6</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G73" s="33"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A74" s="28">
+        <v>2443</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C74" s="9">
+        <v>6</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A75" s="28">
+        <v>5445</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="9">
+        <v>6</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="18" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A76" s="28">
+        <v>8000</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="9">
+        <v>6</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A77" s="28">
+        <v>9007</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="9">
+        <v>6</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G77" s="33"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A78" s="28">
+        <v>9631</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C78" s="9">
+        <v>6</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A79" s="28">
+        <v>12102</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" s="9">
+        <v>6</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A80" s="28">
+        <v>13392</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" s="9">
+        <v>6</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A81" s="28">
+        <v>13504</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="9">
+        <v>6</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A82" s="28">
+        <v>13505</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="9">
+        <v>6</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A83" s="28">
+        <v>1904</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" s="9">
+        <v>7</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A84" s="28">
+        <v>4438</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" s="9">
+        <v>7</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A85" s="28">
+        <v>4444</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" s="9">
+        <v>7</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G85" s="33"/>
+      <c r="H85" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A86" s="28">
+        <v>6625</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="9">
+        <v>8</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A87" s="28">
+        <v>12101</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" s="9">
+        <v>8</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A88" s="28">
+        <v>13507</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="9">
+        <v>8</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A89" s="28">
+        <v>49180</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="9">
+        <v>8</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A90" s="28">
+        <v>25</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="9">
+        <v>9</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A91" s="28">
+        <v>198</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="9">
+        <v>9</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="18" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A92" s="28">
+        <v>200</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="9">
+        <v>9</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A93" s="28">
+        <v>1034</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C93" s="9">
+        <v>9</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="G93" s="33"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A94" s="29">
+        <v>3360</v>
+      </c>
+      <c r="B94" s="13">
+        <v>2</v>
+      </c>
+      <c r="C94" s="13">
+        <v>9</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G94" s="33"/>
+      <c r="H94" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A95" s="29">
+        <v>8443</v>
+      </c>
+      <c r="B95" s="13">
+        <v>5</v>
+      </c>
+      <c r="C95" s="13">
+        <v>9</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G95" s="33"/>
+      <c r="H95" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A96" s="28">
+        <v>1604</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="9">
+        <v>10</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G96" s="33"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A97" s="28">
+        <v>13506</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C97" s="9">
+        <v>11</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A98" s="28">
+        <v>65535</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C98" s="9">
+        <v>16</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A99" s="28">
+        <v>243</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" s="9">
+        <v>17</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E99" s="11"/>
+      <c r="F99" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G99" s="33"/>
+      <c r="H99" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A100" s="28">
+        <v>1443</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="9">
+        <v>19</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A101" s="28">
+        <v>1777</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C101" s="9">
+        <v>21</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E101" s="11"/>
+      <c r="F101" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A102" s="29">
+        <v>8143</v>
+      </c>
+      <c r="B102" s="13">
+        <v>1</v>
+      </c>
+      <c r="C102" s="13">
+        <v>22</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G102" s="33"/>
+      <c r="H102" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A103" s="28">
+        <v>2448</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="9">
+        <v>23</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A104" s="28">
+        <v>21</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" s="9">
+        <v>49</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A105" s="28">
+        <v>4443</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" s="9">
+        <v>54</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A106" s="29">
+        <v>587</v>
+      </c>
+      <c r="B106" s="13">
+        <v>2</v>
+      </c>
+      <c r="C106" s="13">
+        <v>152</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G106" s="33"/>
+      <c r="H106" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A107" s="29">
+        <v>8080</v>
+      </c>
+      <c r="B107" s="13">
+        <v>51</v>
+      </c>
+      <c r="C107" s="13">
+        <v>221</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A108" s="29">
+        <v>443</v>
+      </c>
+      <c r="B108" s="13">
+        <v>223</v>
+      </c>
+      <c r="C108" s="13">
+        <v>6141</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F108" s="11"/>
+      <c r="G108" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A109" s="29">
+        <v>80</v>
+      </c>
+      <c r="B109" s="13">
+        <v>1126</v>
+      </c>
+      <c r="C109" s="13">
+        <v>27135</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="F109" s="11"/>
+      <c r="G109" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A110" s="29">
+        <v>53</v>
+      </c>
+      <c r="B110" s="13">
+        <v>7</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="I110" s="18" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A111" s="29">
+        <v>82</v>
+      </c>
+      <c r="B111" s="13">
+        <v>1</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="I111" s="18" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A112" s="29">
+        <v>444</v>
+      </c>
+      <c r="B112" s="13">
+        <v>6</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G112" s="33"/>
+      <c r="H112" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="I112" s="18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A113" s="28">
+        <v>999</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A114" s="29">
+        <v>1143</v>
+      </c>
+      <c r="B114" s="13">
+        <v>3</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="I114" s="18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A115" s="29">
+        <v>1166</v>
+      </c>
+      <c r="B115" s="13">
+        <v>4</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="I115" s="18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A116" s="29">
+        <v>1336</v>
+      </c>
+      <c r="B116" s="13">
+        <v>2</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A117" s="29">
+        <v>1337</v>
+      </c>
+      <c r="B117" s="13">
+        <v>1</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="I117" s="18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A118" s="28">
+        <v>2013</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G118" s="33"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A119" s="28">
+        <v>2201</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H119" s="11"/>
+      <c r="I119" s="18" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A120" s="29">
+        <v>2888</v>
+      </c>
+      <c r="B120" s="13">
+        <v>5</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="I120" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A121" s="28">
+        <v>5656</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G121" s="33"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="18" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A122" s="28">
+        <v>7447</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E122" s="11"/>
+      <c r="F122" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G122" s="33"/>
+      <c r="H122" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="I122" s="18" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A123" s="29">
+        <v>8086</v>
+      </c>
+      <c r="B123" s="13">
+        <v>2</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="I123" s="18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A124" s="29">
+        <v>8087</v>
+      </c>
+      <c r="B124" s="13">
+        <v>1</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="F124" s="11"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="I124" s="18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A125" s="29">
+        <v>8899</v>
+      </c>
+      <c r="B125" s="13">
+        <v>1</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="F125" s="11"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="I125" s="18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A126" s="29">
+        <v>9001</v>
+      </c>
+      <c r="B126" s="13">
+        <v>2</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="G126" s="33"/>
+      <c r="H126" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="I126" s="18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A127" s="28">
+        <v>9898</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E127" s="11"/>
+      <c r="F127" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="G127" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H127" s="11"/>
+      <c r="I127" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A128" s="29">
+        <v>9993</v>
+      </c>
+      <c r="B128" s="13">
+        <v>2</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="I128" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A129" s="28">
+        <v>32020</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E129" s="11"/>
+      <c r="F129" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G129" s="33"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.75">
+      <c r="A130" s="30">
+        <v>60139</v>
+      </c>
+      <c r="B130" s="22">
+        <v>3</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="I130" s="26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{84D239AA-C9A1-473A-A04D-7F6050BD211A}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{FB7FF99B-4C71-4195-A834-FE23CF3D451D}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{515D5110-119A-415F-B627-02D18E23949B}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{AF84ACFB-4591-4999-B677-BAA559E20319}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{8AB7170F-5DBD-41D1-B5DB-F77124FEB09E}"/>
+    <hyperlink ref="I6" r:id="rId6" xr:uid="{A597C8A1-4EC3-4EC4-BF17-02CB8825C8C4}"/>
+    <hyperlink ref="I7" r:id="rId7" xr:uid="{5397ED70-F898-4D80-8AB9-6169B1211690}"/>
+    <hyperlink ref="I8" r:id="rId8" xr:uid="{2FA25D3A-8E4E-4A72-9A65-3E84C475C9F5}"/>
+    <hyperlink ref="H9" r:id="rId9" xr:uid="{AEBDFCDB-5D19-4842-9085-CBB416E6520C}"/>
+    <hyperlink ref="I9" r:id="rId10" xr:uid="{B5C6771D-F65D-44BB-9EA6-D7616206BBF1}"/>
+    <hyperlink ref="H10" r:id="rId11" xr:uid="{8DD7B1F8-AAD3-40E4-9425-389BA025B7DE}"/>
+    <hyperlink ref="I10" r:id="rId12" xr:uid="{DF12D851-5073-44AC-8915-08CF051A1827}"/>
+    <hyperlink ref="I11" r:id="rId13" xr:uid="{05D8724A-4A4C-49B6-9C49-06F7C86CB4F6}"/>
+    <hyperlink ref="I12" r:id="rId14" xr:uid="{53EC6B68-1ED0-4472-B1DF-21248B994E0A}"/>
+    <hyperlink ref="I13" r:id="rId15" xr:uid="{A57B2D99-CEF1-4FBD-93A9-4223D8267236}"/>
+    <hyperlink ref="I14" r:id="rId16" xr:uid="{46DF028C-7E25-4FE8-A2AF-E7DC7CCC4F1E}"/>
+    <hyperlink ref="I15" r:id="rId17" xr:uid="{0A2281E5-204B-41EE-A46F-1EC224ACE5FE}"/>
+    <hyperlink ref="I16" r:id="rId18" xr:uid="{1F4ACBCF-8B4E-4346-8507-D8091C504E37}"/>
+    <hyperlink ref="I17" r:id="rId19" xr:uid="{1B71AB6C-E952-44B0-AAEF-C220B34DA12F}"/>
+    <hyperlink ref="I18" r:id="rId20" xr:uid="{F1BBACB7-6A8F-4A39-8243-35DA100C5BCA}"/>
+    <hyperlink ref="I19" r:id="rId21" xr:uid="{EC606E8A-B6BF-4D52-8D84-1AB11E02993F}"/>
+    <hyperlink ref="I20" r:id="rId22" xr:uid="{8D4AC3FC-2A98-4D32-9295-A29840E4B741}"/>
+    <hyperlink ref="I21" r:id="rId23" xr:uid="{457D59F4-4FFA-420F-873E-8BE0C169A3E5}"/>
+    <hyperlink ref="I22" r:id="rId24" xr:uid="{759484CD-716C-46CE-B8A5-3AC91691BD68}"/>
+    <hyperlink ref="I23" r:id="rId25" xr:uid="{8415A5A5-06F0-4928-87BD-903729DC8AE0}"/>
+    <hyperlink ref="I24" r:id="rId26" xr:uid="{B07E32EC-C196-4243-A61F-E8556D23E74C}"/>
+    <hyperlink ref="H25" r:id="rId27" xr:uid="{ECC399D2-4570-4EEE-AF23-16FF5FDE4D29}"/>
+    <hyperlink ref="I25" r:id="rId28" xr:uid="{9571D6B6-30A7-428C-892E-E8E6D37DDCC7}"/>
+    <hyperlink ref="I26" r:id="rId29" xr:uid="{99647B7D-4DC6-42C9-A157-F336BA4E9D07}"/>
+    <hyperlink ref="I27" r:id="rId30" xr:uid="{1B68C53E-7446-42AE-A4B4-C734DAF83E01}"/>
+    <hyperlink ref="H28" r:id="rId31" xr:uid="{A4AB55A9-2169-483D-9B27-CA574E18398E}"/>
+    <hyperlink ref="I28" r:id="rId32" xr:uid="{12385190-6DE3-4A0D-8A0C-4B841F79B3DA}"/>
+    <hyperlink ref="I29" r:id="rId33" xr:uid="{0A792601-C2C4-459D-AB51-BAD62561C48F}"/>
+    <hyperlink ref="H30" r:id="rId34" xr:uid="{9A9529B7-9DD0-447F-ADFC-B9D7CD1191F3}"/>
+    <hyperlink ref="I30" r:id="rId35" xr:uid="{B6B973C8-C972-4AD2-A0AA-135B37B61B1D}"/>
+    <hyperlink ref="I31" r:id="rId36" xr:uid="{AFD64B44-E906-44CF-B472-948E08BE6C60}"/>
+    <hyperlink ref="I32" r:id="rId37" xr:uid="{4D28F1DF-969C-4F5A-A96F-FFD2C5F99797}"/>
+    <hyperlink ref="I33" r:id="rId38" xr:uid="{7B69BF2D-1A8E-45BB-A0AD-33CE93FDFF8E}"/>
+    <hyperlink ref="I34" r:id="rId39" xr:uid="{58322108-1C4B-4E13-ABA9-063E08F499F2}"/>
+    <hyperlink ref="I35" r:id="rId40" xr:uid="{4740F850-0865-4CE8-B9D8-EE5CFF857A61}"/>
+    <hyperlink ref="I36" r:id="rId41" xr:uid="{2F10B492-DD7C-4DB6-81BD-8C7415D5DAB3}"/>
+    <hyperlink ref="I37" r:id="rId42" xr:uid="{72014A58-634F-4454-952C-4B0A934C0ACE}"/>
+    <hyperlink ref="I38" r:id="rId43" xr:uid="{DD0F8E7B-CFE8-4D78-93BD-0BD563EDAEA0}"/>
+    <hyperlink ref="I39" r:id="rId44" xr:uid="{CACFDA1B-E774-49E3-80AB-9F58DF581C96}"/>
+    <hyperlink ref="I40" r:id="rId45" xr:uid="{4CCA30FD-D98C-4C2D-871D-AC224B2D7FF7}"/>
+    <hyperlink ref="I41" r:id="rId46" xr:uid="{5906ADDF-9569-4EFE-BD55-7BF7A4716D41}"/>
+    <hyperlink ref="I42" r:id="rId47" xr:uid="{28E250FE-69A4-4135-BEAB-56567690F791}"/>
+    <hyperlink ref="I43" r:id="rId48" xr:uid="{62E50D20-A4BF-4A12-B520-0782511694D0}"/>
+    <hyperlink ref="I44" r:id="rId49" xr:uid="{BAA30AE7-A7BB-4570-AF85-A2659B4929BF}"/>
+    <hyperlink ref="I45" r:id="rId50" xr:uid="{0E97425E-89A9-4E36-B59F-228963F72E2B}"/>
+    <hyperlink ref="I46" r:id="rId51" xr:uid="{C77187CB-3698-44A7-9C05-1556445E4383}"/>
+    <hyperlink ref="I47" r:id="rId52" xr:uid="{D6A9D881-5BDE-4918-AD2B-B0A7F7725496}"/>
+    <hyperlink ref="I48" r:id="rId53" xr:uid="{2C566D97-5A72-42EB-9812-D6E730E375E2}"/>
+    <hyperlink ref="I49" r:id="rId54" xr:uid="{F8AC8B06-972A-4E09-848A-CFA9E712E93A}"/>
+    <hyperlink ref="I50" r:id="rId55" xr:uid="{E382DC54-5B1A-446A-9D6C-66188F8483DD}"/>
+    <hyperlink ref="I51" r:id="rId56" xr:uid="{0C40A831-6EA8-4473-A9A0-DA596CAA53C0}"/>
+    <hyperlink ref="I52" r:id="rId57" xr:uid="{BFD3D99E-1EC3-41A3-8B5E-6E52267013E3}"/>
+    <hyperlink ref="I53" r:id="rId58" xr:uid="{E066B0C7-8610-4FCE-87EF-D53C3E6BDDB0}"/>
+    <hyperlink ref="I54" r:id="rId59" xr:uid="{8947D885-03DD-48F5-9FA3-9A2EF9B76789}"/>
+    <hyperlink ref="I55" r:id="rId60" xr:uid="{3ECAF763-6385-41C9-8A46-C114A77B0264}"/>
+    <hyperlink ref="I56" r:id="rId61" xr:uid="{D25D394B-2A6B-4CCE-A326-63C310603BB8}"/>
+    <hyperlink ref="I57" r:id="rId62" xr:uid="{77539728-E52F-457C-8DB0-3C991143EABC}"/>
+    <hyperlink ref="I58" r:id="rId63" xr:uid="{5A0405F7-6224-4B33-9DB2-CC7B8B5277FD}"/>
+    <hyperlink ref="I59" r:id="rId64" xr:uid="{58F35B06-74E5-4768-96C9-AE63F2108401}"/>
+    <hyperlink ref="I60" r:id="rId65" xr:uid="{74505A67-A148-4EEB-86BF-181BC313E544}"/>
+    <hyperlink ref="I61" r:id="rId66" xr:uid="{34E514F4-996B-4856-9CC1-4E576A91CE1D}"/>
+    <hyperlink ref="H62" r:id="rId67" xr:uid="{ACD38B75-B60E-400E-B64D-302F4BAD4699}"/>
+    <hyperlink ref="I62" r:id="rId68" xr:uid="{33203B57-3275-46DE-886D-AA3B259530B9}"/>
+    <hyperlink ref="I63" r:id="rId69" xr:uid="{7D34640E-3667-41B7-A791-5BF9A2B94E22}"/>
+    <hyperlink ref="I64" r:id="rId70" xr:uid="{DDAF7061-64A1-4853-BAFA-E995895FB08F}"/>
+    <hyperlink ref="I65" r:id="rId71" xr:uid="{AAE9A2AA-9DF5-4206-B67F-5F63FC772487}"/>
+    <hyperlink ref="I66" r:id="rId72" xr:uid="{342EE9BD-EEAF-4A6C-8296-793E39F031EC}"/>
+    <hyperlink ref="I67" r:id="rId73" xr:uid="{30CC5215-4AF3-4A6E-8E15-C9DCAFD3548C}"/>
+    <hyperlink ref="I68" r:id="rId74" xr:uid="{447F4857-4848-4769-941A-37F45C448DED}"/>
+    <hyperlink ref="I69" r:id="rId75" xr:uid="{900A7963-5A88-4769-9467-8E1B2D3349B8}"/>
+    <hyperlink ref="I70" r:id="rId76" xr:uid="{A6DB3FE1-5302-4AD8-AFF9-42646146783A}"/>
+    <hyperlink ref="I71" r:id="rId77" xr:uid="{952C0A3F-6F88-4977-959A-8E21933E5366}"/>
+    <hyperlink ref="I72" r:id="rId78" xr:uid="{A98FB4EA-3106-4BC1-BD85-DB7A03A1BA54}"/>
+    <hyperlink ref="I73" r:id="rId79" xr:uid="{BE84C8E2-4EBD-41FE-AA97-CEA341650821}"/>
+    <hyperlink ref="I74" r:id="rId80" xr:uid="{38420FD6-E7F6-45C3-8E87-7F3F6F9EDC46}"/>
+    <hyperlink ref="I75" r:id="rId81" xr:uid="{67BCC70E-A024-4987-8823-BBF50A19FAA5}"/>
+    <hyperlink ref="I76" r:id="rId82" xr:uid="{33CBAF8E-E626-413A-B6E9-9C37662BA5E3}"/>
+    <hyperlink ref="I77" r:id="rId83" xr:uid="{3712EE03-F188-4F5F-B3F5-CF29C10E0626}"/>
+    <hyperlink ref="I78" r:id="rId84" xr:uid="{B1420019-52F6-4BF9-8F80-7DC58C14951F}"/>
+    <hyperlink ref="I79" r:id="rId85" xr:uid="{42FE6271-CB45-41FE-9D71-78123CA449DA}"/>
+    <hyperlink ref="I80" r:id="rId86" xr:uid="{872A57F2-6195-4174-9642-AC22BD18254E}"/>
+    <hyperlink ref="I81" r:id="rId87" xr:uid="{C76E79EA-E640-4327-A980-C52179E1EFAE}"/>
+    <hyperlink ref="I82" r:id="rId88" xr:uid="{65AF8FBE-4206-4314-A847-ACE9D580B321}"/>
+    <hyperlink ref="I83" r:id="rId89" xr:uid="{7CE35193-AB6A-4607-9C06-1EF0D9B34D90}"/>
+    <hyperlink ref="I84" r:id="rId90" xr:uid="{29DD48F1-ADE5-43E3-A06D-5A3A72E5F276}"/>
+    <hyperlink ref="H85" r:id="rId91" xr:uid="{A9EC817E-9A15-40A7-90C8-4BC437D3B990}"/>
+    <hyperlink ref="I85" r:id="rId92" xr:uid="{84361967-F1BB-4733-A18E-BF0F9ACFA860}"/>
+    <hyperlink ref="I86" r:id="rId93" xr:uid="{EB6A9AD3-0DF5-43E5-B88E-C393C97C59AE}"/>
+    <hyperlink ref="I87" r:id="rId94" xr:uid="{83693342-4657-49EA-A838-ED33DFCA01DB}"/>
+    <hyperlink ref="I88" r:id="rId95" xr:uid="{2B1DCF42-1E52-4B85-9963-59F9CE6ADCE7}"/>
+    <hyperlink ref="I89" r:id="rId96" xr:uid="{AA5D675E-74CC-4D45-A74D-7A093B07D3C7}"/>
+    <hyperlink ref="I90" r:id="rId97" xr:uid="{A53A6B8C-F8FE-45D1-BE9E-C0AE04AE08F8}"/>
+    <hyperlink ref="I91" r:id="rId98" xr:uid="{05BEF66B-8589-4EA0-8572-0DA214E3A432}"/>
+    <hyperlink ref="I92" r:id="rId99" xr:uid="{5EF7BFC2-C1F9-4D62-9B85-C513E920D2E6}"/>
+    <hyperlink ref="I93" r:id="rId100" xr:uid="{E6D8CF87-C1DA-446B-8D43-1A48ABA424DC}"/>
+    <hyperlink ref="H94" r:id="rId101" xr:uid="{15C78F53-D0C8-4708-AA16-4A72B89ADC1D}"/>
+    <hyperlink ref="I94" r:id="rId102" xr:uid="{81DB5724-2FA6-4F9A-A263-AE55F2C30567}"/>
+    <hyperlink ref="H95" r:id="rId103" xr:uid="{169E5CE0-1CC3-4039-AD07-C53FA6E229FD}"/>
+    <hyperlink ref="I95" r:id="rId104" xr:uid="{58D3B8EC-269B-4F83-9BB8-D0AC5767E6E4}"/>
+    <hyperlink ref="I96" r:id="rId105" xr:uid="{B03867D3-F007-4193-9787-8CEF8F0EAB6E}"/>
+    <hyperlink ref="I97" r:id="rId106" xr:uid="{726E2C3D-2CDF-4B3B-9C9F-38AFFD241533}"/>
+    <hyperlink ref="I98" r:id="rId107" xr:uid="{588B4C6C-5771-4A49-9D4E-735D0155E33D}"/>
+    <hyperlink ref="H99" r:id="rId108" xr:uid="{BDEFD7E0-0684-4429-81A1-B89D0259B3A6}"/>
+    <hyperlink ref="I99" r:id="rId109" xr:uid="{90FB3985-DCCD-4E32-BF1B-C88FD54DFB39}"/>
+    <hyperlink ref="I100" r:id="rId110" xr:uid="{8E7D402E-D31E-4A5F-9CC3-46C1D23E27DE}"/>
+    <hyperlink ref="I101" r:id="rId111" xr:uid="{21A9F229-FB78-49AE-B921-F4D48A1FE3E0}"/>
+    <hyperlink ref="H102" r:id="rId112" xr:uid="{A75DE78B-25EC-4366-A1F6-E5B98B795185}"/>
+    <hyperlink ref="I102" r:id="rId113" xr:uid="{CB9F35AF-D7AC-43CE-A126-30310663095E}"/>
+    <hyperlink ref="I103" r:id="rId114" xr:uid="{EDACCAE2-CDAF-43D5-A716-6861269DB40F}"/>
+    <hyperlink ref="I104" r:id="rId115" xr:uid="{5EA9B1A0-9062-411C-816C-2B8F3A084001}"/>
+    <hyperlink ref="I105" r:id="rId116" xr:uid="{0BC4CC75-6F8F-401F-ABDB-FA591061FA74}"/>
+    <hyperlink ref="H106" r:id="rId117" xr:uid="{97D29AD7-60B4-4758-9D62-76C1AF2887D3}"/>
+    <hyperlink ref="I106" r:id="rId118" xr:uid="{045F898C-0D11-48E0-9112-372758BC8A0C}"/>
+    <hyperlink ref="H107" r:id="rId119" xr:uid="{33B07161-337D-4C7D-9232-2D83E52AC462}"/>
+    <hyperlink ref="I107" r:id="rId120" xr:uid="{6E52635B-F912-4FBD-B08F-AE5AEF631908}"/>
+    <hyperlink ref="H108" r:id="rId121" xr:uid="{C77FD980-9782-4689-B02D-503793B8A228}"/>
+    <hyperlink ref="I108" r:id="rId122" xr:uid="{1BD59CC9-E9A9-4168-8A46-9B8F1F7EFF1E}"/>
+    <hyperlink ref="H109" r:id="rId123" xr:uid="{3D88A54A-B47B-478A-8D61-F565CB56E1D8}"/>
+    <hyperlink ref="I109" r:id="rId124" xr:uid="{636A002F-EF11-4D00-8B38-900CAEA7D410}"/>
+    <hyperlink ref="H110" r:id="rId125" xr:uid="{095E0559-ED5C-47A1-B549-1D2BAC60A498}"/>
+    <hyperlink ref="I110" r:id="rId126" xr:uid="{B04A339A-D34F-44CD-A1D5-FBB43A2DE0DC}"/>
+    <hyperlink ref="H111" r:id="rId127" xr:uid="{58BA099F-FBF2-4DAF-ACA9-F345BC0E243C}"/>
+    <hyperlink ref="I111" r:id="rId128" xr:uid="{D1DA02CB-9181-4149-9B88-8C900BE96F5C}"/>
+    <hyperlink ref="H112" r:id="rId129" xr:uid="{16387F6A-2E70-4D8F-A0BD-3E7BE9155AA4}"/>
+    <hyperlink ref="I112" r:id="rId130" xr:uid="{D30EBE69-FEF6-4C07-95E3-A5F12A58064C}"/>
+    <hyperlink ref="I113" r:id="rId131" xr:uid="{E1D0900B-2A7C-4268-AE92-7AE700EBEB14}"/>
+    <hyperlink ref="H114" r:id="rId132" xr:uid="{896D35C6-C7B2-4747-BC45-FDA37C00F217}"/>
+    <hyperlink ref="I114" r:id="rId133" xr:uid="{EE61486B-6BB3-47D8-AD31-C82D842EEBE2}"/>
+    <hyperlink ref="H115" r:id="rId134" xr:uid="{78071C90-F9C9-43B4-B7F3-2D9D3F71B131}"/>
+    <hyperlink ref="I115" r:id="rId135" xr:uid="{9E89E97E-C8F5-4634-89E6-EC31073BDD3F}"/>
+    <hyperlink ref="H116" r:id="rId136" xr:uid="{4B56C6D3-6FDA-407F-88F3-A0746E8C37B9}"/>
+    <hyperlink ref="I116" r:id="rId137" xr:uid="{9E69D05B-BD22-423F-96F2-F657A87A3F13}"/>
+    <hyperlink ref="H117" r:id="rId138" xr:uid="{BF572474-BC1B-4947-AF71-4DC3E70062B8}"/>
+    <hyperlink ref="I117" r:id="rId139" xr:uid="{E528D4C5-7CCE-4E4D-B053-E870E6E923B5}"/>
+    <hyperlink ref="I118" r:id="rId140" xr:uid="{CF5748BE-4B18-485F-959A-A35B8D162E2F}"/>
+    <hyperlink ref="I119" r:id="rId141" xr:uid="{F9182E76-B2FE-4299-A814-42ECC4AA0BC4}"/>
+    <hyperlink ref="H120" r:id="rId142" xr:uid="{B91A9EEF-EFFF-4296-AFA5-B5355E1C1D6D}"/>
+    <hyperlink ref="I120" r:id="rId143" xr:uid="{0D7BAA48-5B96-40CB-BE52-2931D424E71C}"/>
+    <hyperlink ref="I121" r:id="rId144" xr:uid="{4242FEAC-4658-48DA-A6D3-ECD70EC25B3E}"/>
+    <hyperlink ref="H122" r:id="rId145" xr:uid="{A866FDA5-FC78-482C-846A-8F73ADAD5319}"/>
+    <hyperlink ref="I122" r:id="rId146" xr:uid="{95F003C2-7E3F-44C7-A160-3102F37342E0}"/>
+    <hyperlink ref="H123" r:id="rId147" xr:uid="{8BC6BC13-C02D-4436-8AAF-B33A7FEFACBB}"/>
+    <hyperlink ref="I123" r:id="rId148" xr:uid="{59151E56-9FCF-48D9-9AE8-52FCD1A9E038}"/>
+    <hyperlink ref="H124" r:id="rId149" xr:uid="{D32FB3BA-B13E-40D3-AF08-9AAE08B1A14A}"/>
+    <hyperlink ref="I124" r:id="rId150" xr:uid="{E339E387-F718-49CC-B268-507241673394}"/>
+    <hyperlink ref="H125" r:id="rId151" xr:uid="{0F3ACA4E-92C9-4204-9219-B65179D5E092}"/>
+    <hyperlink ref="I125" r:id="rId152" xr:uid="{A48EE1A6-D936-4775-9DF1-DC4E3D2CF3EF}"/>
+    <hyperlink ref="H126" r:id="rId153" xr:uid="{94D202CF-9372-4310-80A9-C2D022C15295}"/>
+    <hyperlink ref="I126" r:id="rId154" xr:uid="{49EA18FE-4A5C-4D0C-8656-95F0042B25CC}"/>
+    <hyperlink ref="I127" r:id="rId155" xr:uid="{6CBB4DAE-D1B5-4469-8DB4-A24C72F99FE1}"/>
+    <hyperlink ref="H128" r:id="rId156" xr:uid="{FE69C53F-543D-4A26-8686-79EC02B702DE}"/>
+    <hyperlink ref="I128" r:id="rId157" xr:uid="{850283E9-1C0E-4D91-9292-7897D241D331}"/>
+    <hyperlink ref="I129" r:id="rId158" xr:uid="{B2BC6F72-35C6-49E1-9FDD-3BB30E548FED}"/>
+    <hyperlink ref="H130" r:id="rId159" xr:uid="{292C0D36-4FFF-4F95-8FF0-B744FCB8E87A}"/>
+    <hyperlink ref="I130" r:id="rId160" xr:uid="{5C82CFF6-0BBD-4EF8-871E-B4B41C30809D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId161"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEA7312-70E7-455B-A053-AAE8C5CC25ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A68FC9E-D2B8-49CF-879F-1A56D065028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="486">
   <si>
     <t>cal</t>
   </si>
@@ -500,9 +500,6 @@
   </si>
   <si>
     <t>Splunk</t>
-  </si>
-  <si>
-    <t>ELK</t>
   </si>
   <si>
     <t>Qradar SIEM</t>
@@ -2135,6 +2132,194 @@
   <si>
     <t>w3schools</t>
   </si>
+  <si>
+    <t>ElasticStack</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">conjunto de herramientas de software para la búsqueda, análisis y visualización de datos en tiempo real                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elasticsearch</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Un motor de búsqueda y análisis.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logstash</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Una herramienta de procesamiento de datos para ingerir y transformar datos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kibana</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Una herramienta de visualización de datos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beats</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Agentes ligeros que envían datos a Logstash o Elasticsearch.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">brinda la capacidad de recopilar, analizar y correlacionar los registros de la red y de las máquinas en tiempo real.  Splunk tiene tres componentes principales:                                                                                                                                                                                                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Splunk Forwarder:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es un agente liviano que se instala en el punto final que se desea monitorear y su tarea principal es recopilar los datos y enviarlos a la instancia de Splunk</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.                                                                                                                                                                                                         Splunk Indexer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">procesamiento de los datos que recibe de los reenvíos. Toma los datos, los normaliza en pares de campo-valor, determina el tipo de datos y los almacena como eventos                                                                                                                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search Head: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>donde los usuarios pueden buscar los registros indexados</t>
+    </r>
+  </si>
+  <si>
+    <t>ElasticStack (ELK)</t>
+  </si>
+  <si>
+    <t>Analisis de datos</t>
+  </si>
+  <si>
+    <t>https://www.robtex.com/dns-lookup/prankglassinebracket.jumpingcrab.com</t>
+  </si>
+  <si>
+    <t>Robtex</t>
+  </si>
+  <si>
+    <t>CTI (Inteligencia sobre amenazas ) / Base de datos</t>
+  </si>
+  <si>
+    <t>sitio de inteligencia sobre amenazas que proporciona información sobre direcciones IP, nombres de dominio, etc.</t>
+  </si>
 </sst>
 </file>
 
@@ -2236,7 +2421,7 @@
       <name val="Droid Sans"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2270,6 +2455,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2399,7 +2590,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2488,7 +2679,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3781,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3801,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -4016,7 +4210,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>42</v>
@@ -4036,7 +4230,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>45</v>
@@ -4056,7 +4250,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>48</v>
@@ -4074,13 +4268,13 @@
         <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F15" s="36" t="s">
         <v>469</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>470</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -4090,13 +4284,13 @@
         <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -4194,10 +4388,10 @@
         <v>66</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="60">
@@ -4206,13 +4400,13 @@
         <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -4222,13 +4416,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -4238,16 +4432,16 @@
         <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -4256,13 +4450,13 @@
         <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -4272,16 +4466,16 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -4389,7 +4583,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -4529,7 +4723,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="2"/>
@@ -4557,7 +4751,7 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="30">
@@ -4571,13 +4765,13 @@
         <v>65</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="30">
@@ -4631,7 +4825,7 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="30">
@@ -4649,7 +4843,7 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="150">
@@ -4667,7 +4861,7 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="60">
@@ -4678,16 +4872,16 @@
         <v>70</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="150">
@@ -4698,16 +4892,16 @@
         <v>70</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="45">
@@ -4719,7 +4913,7 @@
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -4737,7 +4931,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>33</v>
@@ -4747,7 +4941,7 @@
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -4770,32 +4964,48 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
+    <row r="55" spans="2:7" ht="105">
+      <c r="B55" s="3">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>131</v>
       </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
-        <v>132</v>
+      <c r="G55" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="75">
+      <c r="B56" s="3">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
@@ -4807,7 +5017,7 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
@@ -4817,7 +5027,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
@@ -4826,10 +5036,10 @@
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="2"/>
@@ -4838,10 +5048,10 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="2"/>
@@ -4850,14 +5060,14 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="30">
@@ -4865,11 +5075,11 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="45">
@@ -4883,11 +5093,11 @@
         <v>10</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="60">
@@ -4901,11 +5111,11 @@
         <v>10</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="45">
@@ -4917,11 +5127,11 @@
         <v>10</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="180">
@@ -4935,11 +5145,11 @@
         <v>10</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -4951,7 +5161,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="2"/>
@@ -4961,17 +5171,17 @@
         <v>5</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="30">
@@ -4985,11 +5195,11 @@
         <v>10</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="150">
@@ -5003,11 +5213,11 @@
         <v>10</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="45">
@@ -5019,11 +5229,11 @@
         <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="2:7">
@@ -5031,7 +5241,7 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="2"/>
@@ -5043,11 +5253,11 @@
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="2:7">
@@ -5055,11 +5265,11 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -5067,11 +5277,11 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="75">
@@ -5083,11 +5293,11 @@
         <v>61</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="75">
@@ -5098,16 +5308,16 @@
         <v>70</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -5118,16 +5328,16 @@
         <v>70</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F79" s="3" t="s">
+      <c r="G79" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="80" spans="2:7">
@@ -5138,16 +5348,16 @@
         <v>70</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="45">
@@ -5158,16 +5368,16 @@
         <v>70</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="G81" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="60">
@@ -5178,26 +5388,26 @@
         <v>70</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="2"/>
@@ -5207,19 +5417,19 @@
         <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F84" s="3" t="s">
+      <c r="G84" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="120">
@@ -5230,16 +5440,16 @@
         <v>70</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="G85" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="165">
@@ -5247,17 +5457,17 @@
         <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="E86" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="60">
@@ -5266,14 +5476,14 @@
         <v>70</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="45">
@@ -5284,16 +5494,16 @@
         <v>3</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="75">
@@ -5304,16 +5514,16 @@
         <v>3</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="F89" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="105">
@@ -5324,16 +5534,16 @@
         <v>3</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="90">
@@ -5342,16 +5552,16 @@
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="92" spans="2:7">
@@ -5362,16 +5572,16 @@
         <v>70</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E92" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="30">
@@ -5379,19 +5589,19 @@
         <v>4</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="F93" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="94" spans="2:7">
@@ -5401,7 +5611,7 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="2"/>
@@ -5412,31 +5622,47 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F95" s="37" t="s">
-        <v>475</v>
+      <c r="F95" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" ht="75">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="E96" s="38" t="s">
+        <v>477</v>
+      </c>
       <c r="F96" s="3"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="2"/>
+      <c r="G96" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="45">
+      <c r="B97" s="3">
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="F97" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="3"/>
@@ -6192,7 +6418,7 @@
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -6317,31 +6543,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1">
       <c r="A1" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>262</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
@@ -6349,22 +6575,22 @@
         <v>3369</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="11"/>
       <c r="I2" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1">
@@ -6372,22 +6598,22 @@
         <v>8765</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1">
@@ -6401,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="33"/>
       <c r="H4" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
@@ -6418,22 +6644,22 @@
         <v>244</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1">
@@ -6441,22 +6667,22 @@
         <v>1590</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1">
@@ -6464,24 +6690,24 @@
         <v>1990</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
@@ -6489,22 +6715,22 @@
         <v>4040</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1">
@@ -6518,16 +6744,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="33"/>
       <c r="H9" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1">
@@ -6541,22 +6767,22 @@
         <v>2</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="18" t="s">
         <v>283</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
@@ -6564,22 +6790,22 @@
         <v>8001</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="33"/>
       <c r="H11" s="11"/>
       <c r="I11" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1">
@@ -6587,22 +6813,22 @@
         <v>10101</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" s="9">
         <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1">
@@ -6610,20 +6836,20 @@
         <v>12322</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="33"/>
       <c r="H13" s="11"/>
       <c r="I13" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1">
@@ -6631,22 +6857,22 @@
         <v>14102</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" s="9">
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="11"/>
       <c r="I14" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1">
@@ -6654,22 +6880,22 @@
         <v>14103</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="9">
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="11"/>
       <c r="I15" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1">
@@ -6677,20 +6903,20 @@
         <v>14154</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" s="9">
         <v>2</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="33"/>
       <c r="H16" s="11"/>
       <c r="I16" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
@@ -6698,24 +6924,24 @@
         <v>543</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" s="9">
         <v>3</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>294</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="11"/>
       <c r="I17" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1">
@@ -6723,22 +6949,22 @@
         <v>700</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="9">
         <v>3</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1">
@@ -6746,20 +6972,20 @@
         <v>743</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="33"/>
       <c r="H19" s="11"/>
       <c r="I19" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
@@ -6767,22 +6993,22 @@
         <v>1515</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" s="9">
         <v>3</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1">
@@ -6790,20 +7016,20 @@
         <v>1960</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" s="9">
         <v>3</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="33"/>
       <c r="H21" s="11"/>
       <c r="I21" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1">
@@ -6815,16 +7041,16 @@
         <v>3</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="33"/>
       <c r="H22" s="11"/>
       <c r="I22" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
@@ -6832,22 +7058,22 @@
         <v>65520</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C23" s="9">
         <v>3</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="11"/>
       <c r="I23" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1">
@@ -6855,20 +7081,20 @@
         <v>65520</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C24" s="9">
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="33"/>
       <c r="H24" s="11"/>
       <c r="I24" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1">
@@ -6882,16 +7108,16 @@
         <v>4</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="33"/>
       <c r="H25" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
@@ -6899,22 +7125,22 @@
         <v>100</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C26" s="9">
         <v>4</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickBot="1">
@@ -6922,24 +7148,24 @@
         <v>465</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C27" s="9">
         <v>4</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E27" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="11"/>
       <c r="I27" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1">
@@ -6953,16 +7179,16 @@
         <v>4</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="33"/>
       <c r="H28" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>309</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1">
@@ -6970,20 +7196,20 @@
         <v>1817</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C29" s="9">
         <v>4</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="33"/>
       <c r="H29" s="11"/>
       <c r="I29" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1">
@@ -6997,18 +7223,18 @@
         <v>4</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="33"/>
       <c r="H30" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I30" s="18" t="s">
         <v>313</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1">
@@ -7016,20 +7242,20 @@
         <v>4433</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" s="9">
         <v>4</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="33"/>
       <c r="H31" s="11"/>
       <c r="I31" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickBot="1">
@@ -7037,20 +7263,20 @@
         <v>4455</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C32" s="9">
         <v>4</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="33"/>
       <c r="H32" s="11"/>
       <c r="I32" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1">
@@ -7058,20 +7284,20 @@
         <v>5649</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C33" s="9">
         <v>4</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="33"/>
       <c r="H33" s="11"/>
       <c r="I33" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1">
@@ -7079,22 +7305,22 @@
         <v>7443</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" s="9">
         <v>4</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="33"/>
       <c r="H34" s="11"/>
       <c r="I34" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1">
@@ -7102,13 +7328,13 @@
         <v>9997</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C35" s="9">
         <v>4</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>131</v>
@@ -7117,7 +7343,7 @@
       <c r="G35" s="33"/>
       <c r="H35" s="11"/>
       <c r="I35" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickBot="1">
@@ -7125,20 +7351,20 @@
         <v>12100</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C36" s="9">
         <v>4</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="33"/>
       <c r="H36" s="11"/>
       <c r="I36" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1">
@@ -7146,20 +7372,20 @@
         <v>12108</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" s="9">
         <v>4</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="33"/>
       <c r="H37" s="11"/>
       <c r="I37" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1">
@@ -7167,20 +7393,20 @@
         <v>12112</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C38" s="9">
         <v>4</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="33"/>
       <c r="H38" s="11"/>
       <c r="I38" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1">
@@ -7188,20 +7414,20 @@
         <v>12124</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C39" s="9">
         <v>4</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="33"/>
       <c r="H39" s="11"/>
       <c r="I39" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1">
@@ -7209,20 +7435,20 @@
         <v>12143</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C40" s="9">
         <v>4</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="33"/>
       <c r="H40" s="11"/>
       <c r="I40" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" thickBot="1">
@@ -7230,20 +7456,20 @@
         <v>12154</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C41" s="9">
         <v>4</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="33"/>
       <c r="H41" s="11"/>
       <c r="I41" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1">
@@ -7251,20 +7477,20 @@
         <v>12233</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C42" s="9">
         <v>4</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="33"/>
       <c r="H42" s="11"/>
       <c r="I42" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1">
@@ -7272,20 +7498,20 @@
         <v>13029</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C43" s="9">
         <v>4</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="33"/>
       <c r="H43" s="11"/>
       <c r="I43" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1">
@@ -7293,20 +7519,20 @@
         <v>13101</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C44" s="9">
         <v>4</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="33"/>
       <c r="H44" s="11"/>
       <c r="I44" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1">
@@ -7314,20 +7540,20 @@
         <v>13111</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C45" s="9">
         <v>4</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="33"/>
       <c r="H45" s="11"/>
       <c r="I45" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickBot="1">
@@ -7335,20 +7561,20 @@
         <v>13170</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C46" s="9">
         <v>4</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="33"/>
       <c r="H46" s="11"/>
       <c r="I46" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1">
@@ -7356,20 +7582,20 @@
         <v>13332</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C47" s="9">
         <v>4</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="33"/>
       <c r="H47" s="11"/>
       <c r="I47" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1">
@@ -7377,20 +7603,20 @@
         <v>13334</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C48" s="9">
         <v>4</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="33"/>
       <c r="H48" s="11"/>
       <c r="I48" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1">
@@ -7398,20 +7624,20 @@
         <v>13360</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C49" s="9">
         <v>4</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="33"/>
       <c r="H49" s="11"/>
       <c r="I49" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickBot="1">
@@ -7419,20 +7645,20 @@
         <v>13407</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C50" s="9">
         <v>4</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="33"/>
       <c r="H50" s="11"/>
       <c r="I50" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" thickBot="1">
@@ -7440,20 +7666,20 @@
         <v>13411</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C51" s="9">
         <v>4</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="33"/>
       <c r="H51" s="11"/>
       <c r="I51" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" thickBot="1">
@@ -7461,20 +7687,20 @@
         <v>13441</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C52" s="9">
         <v>4</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="33"/>
       <c r="H52" s="11"/>
       <c r="I52" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="16.5" thickBot="1">
@@ -7482,20 +7708,20 @@
         <v>49171</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C53" s="9">
         <v>4</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="33"/>
       <c r="H53" s="11"/>
       <c r="I53" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickBot="1">
@@ -7503,20 +7729,20 @@
         <v>49172</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C54" s="9">
         <v>4</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="33"/>
       <c r="H54" s="11"/>
       <c r="I54" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickBot="1">
@@ -7524,20 +7750,20 @@
         <v>49173</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C55" s="9">
         <v>4</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="33"/>
       <c r="H55" s="11"/>
       <c r="I55" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickBot="1">
@@ -7545,20 +7771,20 @@
         <v>49178</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="9">
         <v>4</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="33"/>
       <c r="H56" s="11"/>
       <c r="I56" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1">
@@ -7566,20 +7792,20 @@
         <v>49181</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" s="9">
         <v>4</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="33"/>
       <c r="H57" s="11"/>
       <c r="I57" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1">
@@ -7587,20 +7813,20 @@
         <v>49184</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C58" s="9">
         <v>4</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="33"/>
       <c r="H58" s="11"/>
       <c r="I58" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1">
@@ -7608,20 +7834,20 @@
         <v>49184</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C59" s="9">
         <v>4</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="33"/>
       <c r="H59" s="11"/>
       <c r="I59" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1">
@@ -7629,22 +7855,22 @@
         <v>448</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C60" s="9">
         <v>5</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="33"/>
       <c r="H60" s="11"/>
       <c r="I60" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" thickBot="1">
@@ -7652,20 +7878,20 @@
         <v>473</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C61" s="9">
         <v>5</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="33"/>
       <c r="H61" s="11"/>
       <c r="I61" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" thickBot="1">
@@ -7679,20 +7905,20 @@
         <v>5</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E62" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="G62" s="33"/>
       <c r="H62" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="I62" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" thickBot="1">
@@ -7700,20 +7926,20 @@
         <v>3675</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="33"/>
       <c r="H63" s="11"/>
       <c r="I63" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" thickBot="1">
@@ -7721,20 +7947,20 @@
         <v>3939</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C64" s="9">
         <v>5</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="33"/>
       <c r="H64" s="11"/>
       <c r="I64" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" thickBot="1">
@@ -7742,22 +7968,22 @@
         <v>5552</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C65" s="9">
         <v>5</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G65" s="33"/>
       <c r="H65" s="11"/>
       <c r="I65" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1">
@@ -7765,22 +7991,22 @@
         <v>6446</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C66" s="9">
         <v>5</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="33"/>
       <c r="H66" s="11"/>
       <c r="I66" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5" thickBot="1">
@@ -7788,20 +8014,20 @@
         <v>12103</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C67" s="9">
         <v>5</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="33"/>
       <c r="H67" s="11"/>
       <c r="I67" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" thickBot="1">
@@ -7809,20 +8035,20 @@
         <v>13145</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C68" s="9">
         <v>5</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="33"/>
       <c r="H68" s="11"/>
       <c r="I68" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5" thickBot="1">
@@ -7830,20 +8056,20 @@
         <v>13394</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C69" s="9">
         <v>5</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="33"/>
       <c r="H69" s="11"/>
       <c r="I69" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" thickBot="1">
@@ -7851,20 +8077,20 @@
         <v>49177</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" s="9">
         <v>5</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="33"/>
       <c r="H70" s="11"/>
       <c r="I70" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickBot="1">
@@ -7872,20 +8098,20 @@
         <v>49179</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C71" s="9">
         <v>5</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="33"/>
       <c r="H71" s="11"/>
       <c r="I71" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" thickBot="1">
@@ -7893,20 +8119,20 @@
         <v>49182</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C72" s="9">
         <v>5</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="33"/>
       <c r="H72" s="11"/>
       <c r="I72" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" thickBot="1">
@@ -7914,22 +8140,22 @@
         <v>777</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C73" s="9">
         <v>6</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G73" s="33"/>
       <c r="H73" s="11"/>
       <c r="I73" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" thickBot="1">
@@ -7937,20 +8163,20 @@
         <v>2443</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74" s="9">
         <v>6</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="33"/>
       <c r="H74" s="11"/>
       <c r="I74" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5" thickBot="1">
@@ -7958,22 +8184,22 @@
         <v>5445</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75" s="9">
         <v>6</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="33"/>
       <c r="H75" s="11"/>
       <c r="I75" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" thickBot="1">
@@ -7981,20 +8207,20 @@
         <v>8000</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C76" s="9">
         <v>6</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="33"/>
       <c r="H76" s="11"/>
       <c r="I76" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5" thickBot="1">
@@ -8002,22 +8228,22 @@
         <v>9007</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" s="9">
         <v>6</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G77" s="33"/>
       <c r="H77" s="11"/>
       <c r="I77" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" thickBot="1">
@@ -8025,20 +8251,20 @@
         <v>9631</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C78" s="9">
         <v>6</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="33"/>
       <c r="H78" s="11"/>
       <c r="I78" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5" thickBot="1">
@@ -8046,20 +8272,20 @@
         <v>12102</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C79" s="9">
         <v>6</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="33"/>
       <c r="H79" s="11"/>
       <c r="I79" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" thickBot="1">
@@ -8067,22 +8293,22 @@
         <v>13392</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C80" s="9">
         <v>6</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="33"/>
       <c r="H80" s="11"/>
       <c r="I80" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5" thickBot="1">
@@ -8090,20 +8316,20 @@
         <v>13504</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C81" s="9">
         <v>6</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="33"/>
       <c r="H81" s="11"/>
       <c r="I81" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5" thickBot="1">
@@ -8111,20 +8337,20 @@
         <v>13505</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C82" s="9">
         <v>6</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="33"/>
       <c r="H82" s="11"/>
       <c r="I82" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5" thickBot="1">
@@ -8132,22 +8358,22 @@
         <v>1904</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C83" s="9">
         <v>7</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5" thickBot="1">
@@ -8155,20 +8381,20 @@
         <v>4438</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C84" s="9">
         <v>7</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="33"/>
       <c r="H84" s="11"/>
       <c r="I84" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5" thickBot="1">
@@ -8176,24 +8402,24 @@
         <v>4444</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C85" s="9">
         <v>7</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G85" s="33"/>
       <c r="H85" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="I85" s="18" t="s">
         <v>378</v>
-      </c>
-      <c r="I85" s="18" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5" thickBot="1">
@@ -8201,20 +8427,20 @@
         <v>6625</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C86" s="9">
         <v>8</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="33"/>
       <c r="H86" s="11"/>
       <c r="I86" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5" thickBot="1">
@@ -8222,20 +8448,20 @@
         <v>12101</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C87" s="9">
         <v>8</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="33"/>
       <c r="H87" s="11"/>
       <c r="I87" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5" thickBot="1">
@@ -8243,20 +8469,20 @@
         <v>13507</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C88" s="9">
         <v>8</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="33"/>
       <c r="H88" s="11"/>
       <c r="I88" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5" thickBot="1">
@@ -8264,20 +8490,20 @@
         <v>49180</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C89" s="9">
         <v>8</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="33"/>
       <c r="H89" s="11"/>
       <c r="I89" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5" thickBot="1">
@@ -8285,26 +8511,26 @@
         <v>25</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C90" s="9">
         <v>9</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E90" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="F90" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="G90" s="31" t="s">
         <v>385</v>
-      </c>
-      <c r="G90" s="31" t="s">
-        <v>386</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5" thickBot="1">
@@ -8312,20 +8538,20 @@
         <v>198</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C91" s="9">
         <v>9</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="33"/>
       <c r="H91" s="11"/>
       <c r="I91" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" thickBot="1">
@@ -8333,24 +8559,24 @@
         <v>200</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C92" s="9">
         <v>9</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5" thickBot="1">
@@ -8358,24 +8584,24 @@
         <v>1034</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C93" s="9">
         <v>9</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E93" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F93" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>392</v>
       </c>
       <c r="G93" s="33"/>
       <c r="H93" s="11"/>
       <c r="I93" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" thickBot="1">
@@ -8389,18 +8615,18 @@
         <v>9</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G94" s="33"/>
       <c r="H94" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="I94" s="18" t="s">
         <v>394</v>
-      </c>
-      <c r="I94" s="18" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5" thickBot="1">
@@ -8414,20 +8640,20 @@
         <v>9</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E95" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="F95" s="12" t="s">
         <v>396</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>397</v>
       </c>
       <c r="G95" s="33"/>
       <c r="H95" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="I95" s="18" t="s">
         <v>398</v>
-      </c>
-      <c r="I95" s="18" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5" thickBot="1">
@@ -8435,24 +8661,24 @@
         <v>1604</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C96" s="9">
         <v>10</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E96" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="F96" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="G96" s="33"/>
       <c r="H96" s="11"/>
       <c r="I96" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" thickBot="1">
@@ -8460,20 +8686,20 @@
         <v>13506</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C97" s="9">
         <v>11</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="33"/>
       <c r="H97" s="11"/>
       <c r="I97" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" thickBot="1">
@@ -8481,20 +8707,20 @@
         <v>65535</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C98" s="9">
         <v>16</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="33"/>
       <c r="H98" s="11"/>
       <c r="I98" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" thickBot="1">
@@ -8502,24 +8728,24 @@
         <v>243</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C99" s="9">
         <v>17</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G99" s="33"/>
       <c r="H99" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="I99" s="18" t="s">
         <v>405</v>
-      </c>
-      <c r="I99" s="18" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" thickBot="1">
@@ -8527,20 +8753,20 @@
         <v>1443</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C100" s="9">
         <v>19</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="33"/>
       <c r="H100" s="11"/>
       <c r="I100" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickBot="1">
@@ -8548,24 +8774,24 @@
         <v>1777</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C101" s="9">
         <v>21</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" thickBot="1">
@@ -8579,18 +8805,18 @@
         <v>22</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G102" s="33"/>
       <c r="H102" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="I102" s="18" t="s">
         <v>410</v>
-      </c>
-      <c r="I102" s="18" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" thickBot="1">
@@ -8598,20 +8824,20 @@
         <v>2448</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C103" s="9">
         <v>23</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="33"/>
       <c r="H103" s="11"/>
       <c r="I103" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" thickBot="1">
@@ -8619,24 +8845,24 @@
         <v>21</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C104" s="9">
         <v>49</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5" thickBot="1">
@@ -8644,20 +8870,20 @@
         <v>4443</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C105" s="9">
         <v>54</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="33"/>
       <c r="H105" s="11"/>
       <c r="I105" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" thickBot="1">
@@ -8671,20 +8897,20 @@
         <v>152</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E106" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="F106" s="8" t="s">
         <v>416</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>417</v>
       </c>
       <c r="G106" s="33"/>
       <c r="H106" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="I106" s="18" t="s">
         <v>418</v>
-      </c>
-      <c r="I106" s="18" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" thickBot="1">
@@ -8698,16 +8924,16 @@
         <v>221</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="33"/>
       <c r="H107" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="I107" s="18" t="s">
         <v>420</v>
-      </c>
-      <c r="I107" s="18" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" thickBot="1">
@@ -8721,20 +8947,20 @@
         <v>6141</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F108" s="11"/>
       <c r="G108" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H108" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="I108" s="18" t="s">
         <v>423</v>
-      </c>
-      <c r="I108" s="18" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5" thickBot="1">
@@ -8748,20 +8974,20 @@
         <v>27135</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F109" s="11"/>
       <c r="G109" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H109" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="I109" s="18" t="s">
         <v>426</v>
-      </c>
-      <c r="I109" s="18" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" thickBot="1">
@@ -8772,19 +8998,19 @@
         <v>7</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="33"/>
       <c r="H110" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="I110" s="18" t="s">
         <v>428</v>
-      </c>
-      <c r="I110" s="18" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" thickBot="1">
@@ -8795,19 +9021,19 @@
         <v>1</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="33"/>
       <c r="H111" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="I111" s="18" t="s">
         <v>430</v>
-      </c>
-      <c r="I111" s="18" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" thickBot="1">
@@ -8818,23 +9044,23 @@
         <v>6</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G112" s="33"/>
       <c r="H112" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="I112" s="18" t="s">
         <v>432</v>
-      </c>
-      <c r="I112" s="18" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5" thickBot="1">
@@ -8842,20 +9068,20 @@
         <v>999</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="33"/>
       <c r="H113" s="11"/>
       <c r="I113" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5" thickBot="1">
@@ -8866,19 +9092,19 @@
         <v>3</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="33"/>
       <c r="H114" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="I114" s="18" t="s">
         <v>435</v>
-      </c>
-      <c r="I114" s="18" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5" thickBot="1">
@@ -8889,19 +9115,19 @@
         <v>4</v>
       </c>
       <c r="C115" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="33"/>
       <c r="H115" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="I115" s="18" t="s">
         <v>437</v>
-      </c>
-      <c r="I115" s="18" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" thickBot="1">
@@ -8912,19 +9138,19 @@
         <v>2</v>
       </c>
       <c r="C116" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="33"/>
       <c r="H116" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="I116" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="I116" s="18" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" thickBot="1">
@@ -8935,19 +9161,19 @@
         <v>1</v>
       </c>
       <c r="C117" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="33"/>
       <c r="H117" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="I117" s="18" t="s">
         <v>441</v>
-      </c>
-      <c r="I117" s="18" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" thickBot="1">
@@ -8955,22 +9181,22 @@
         <v>2013</v>
       </c>
       <c r="B118" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G118" s="33"/>
       <c r="H118" s="11"/>
       <c r="I118" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" thickBot="1">
@@ -8978,22 +9204,22 @@
         <v>2201</v>
       </c>
       <c r="B119" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H119" s="11"/>
       <c r="I119" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" thickBot="1">
@@ -9004,19 +9230,19 @@
         <v>5</v>
       </c>
       <c r="C120" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="33"/>
       <c r="H120" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="I120" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="I120" s="18" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" thickBot="1">
@@ -9024,22 +9250,22 @@
         <v>5656</v>
       </c>
       <c r="B121" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G121" s="33"/>
       <c r="H121" s="11"/>
       <c r="I121" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" thickBot="1">
@@ -9047,24 +9273,24 @@
         <v>7447</v>
       </c>
       <c r="B122" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D122" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G122" s="33"/>
       <c r="H122" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="I122" s="18" t="s">
         <v>448</v>
-      </c>
-      <c r="I122" s="18" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" thickBot="1">
@@ -9075,19 +9301,19 @@
         <v>2</v>
       </c>
       <c r="C123" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D123" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="33"/>
       <c r="H123" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="I123" s="18" t="s">
         <v>450</v>
-      </c>
-      <c r="I123" s="18" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" thickBot="1">
@@ -9098,21 +9324,21 @@
         <v>1</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F124" s="11"/>
       <c r="G124" s="33"/>
       <c r="H124" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="I124" s="18" t="s">
         <v>453</v>
-      </c>
-      <c r="I124" s="18" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" thickBot="1">
@@ -9123,21 +9349,21 @@
         <v>1</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F125" s="11"/>
       <c r="G125" s="33"/>
       <c r="H125" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="I125" s="18" t="s">
         <v>456</v>
-      </c>
-      <c r="I125" s="18" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" thickBot="1">
@@ -9148,23 +9374,23 @@
         <v>2</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E126" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="F126" s="12" t="s">
         <v>458</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>459</v>
       </c>
       <c r="G126" s="33"/>
       <c r="H126" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="I126" s="18" t="s">
         <v>460</v>
-      </c>
-      <c r="I126" s="18" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5" thickBot="1">
@@ -9172,24 +9398,24 @@
         <v>9898</v>
       </c>
       <c r="B127" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G127" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H127" s="11"/>
       <c r="I127" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" thickBot="1">
@@ -9200,19 +9426,19 @@
         <v>2</v>
       </c>
       <c r="C128" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="33"/>
       <c r="H128" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="I128" s="18" t="s">
         <v>464</v>
-      </c>
-      <c r="I128" s="18" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" thickBot="1">
@@ -9220,22 +9446,22 @@
         <v>32020</v>
       </c>
       <c r="B129" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G129" s="33"/>
       <c r="H129" s="11"/>
       <c r="I129" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75">
@@ -9246,19 +9472,19 @@
         <v>3</v>
       </c>
       <c r="C130" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D130" s="23" t="s">
         <v>264</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>265</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="24"/>
       <c r="G130" s="34"/>
       <c r="H130" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="I130" s="26" t="s">
         <v>467</v>
-      </c>
-      <c r="I130" s="26" t="s">
-        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ACB578-3C31-4A80-A325-9BB812099EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F036F-A721-40FB-BBEC-B9422DA96DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1364">
   <si>
     <t>Forense</t>
   </si>
@@ -5650,9 +5650,6 @@
 Intitle: dirige a Google a buscar un término dentro del título de un documento (por ejemplo, intitle:“Index of/etc”)</t>
   </si>
   <si>
-    <t>Exploit database</t>
-  </si>
-  <si>
     <t>https://archive.org/web</t>
   </si>
   <si>
@@ -6640,9 +6637,6 @@
     <t>https://github.com/cddmp/enum4linux-ng</t>
   </si>
   <si>
-    <t>herramienta para enumerar información de sistemas Windows y Samba, dirigida a profesionales de seguridad y usuarios de CTF</t>
-  </si>
-  <si>
     <t>Esto es útil para identificar elementos como la página del administrador predeterminada de Apache o Tomcat que comúnmente se dejan en los servidores web y pueden ser posibles rutas de acceso. La sintaxis de http-enum</t>
   </si>
   <si>
@@ -7017,9 +7011,6 @@
     <t>Explotación de vulnerabilidades basadas en la red</t>
   </si>
   <si>
-    <t>Resolución de nombres de Windows y ataques de SMB</t>
-  </si>
-  <si>
     <r>
       <t>Existen varias tecnologías y protocolos de resolución de nombre a dirección IP, incluido el sistema de entrada / salida básico de red (NetBIOS), la resolución de nombres de multidifusión local de enlace (LLMNR) y el sistema de nombres de dominio (DNS) Las operaciones relacionadas con NetBIOS utilizan los siguientes puertos y protocolos:</t>
     </r>
@@ -7058,6 +7049,119 @@
 MicrosoftWindows NTDNSClient para detectar cambios en el valor DWORD de EnableMulticast. Si ve un cero (0) para el valor de esa clave, sabe que LLMNR está deshabilitado.</t>
   </si>
   <si>
+    <t>Sitio web / Consola</t>
+  </si>
+  <si>
+    <t>Meterpreter</t>
+  </si>
+  <si>
+    <t>Post explotacion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resolución de nombres de Windows y ataques de SMB </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Server Message Block (SMB) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SMB facilita la configuración y el acceso a los recursos compartidos de red en las LAN se han encontrado muchas vulnerabilidades en él y han aparecido una serie de explotaciones de alto perfil, como WannaCry, Conficker y EternalBlue.</t>
+    </r>
+  </si>
+  <si>
+    <t>Reconocimiento activo/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">herramienta para enumerar información de sistemas Windows y Samba,  detectar recursos compartidos de red y otra información confidencial a través de la explotación de SMB </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> enum4linux -U (Host) para enumerar los usuarios</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>recursos compartidos enum4linux -Sv (Host)</t>
+    </r>
+  </si>
+  <si>
+    <t>Envenenamiento de la caché de DNS</t>
+  </si>
+  <si>
+    <t>El envenenamiento de la caché del DNS es otro ataque popular aprovechado por los agentes de amenazas. En resumen, el envenenamiento de la caché de DNS implica la manipulación de la caché de resolución de DNS mediante la inyección de datos DNS corruptos. Esto se hace para forzar al servidor DNS a enviar la dirección IP incorrecta a la víctima y redirigirla al sistema del atacante</t>
+  </si>
+  <si>
+    <t>Ettercap</t>
+  </si>
+  <si>
+    <t>Ettercap es una herramienta poderosa utilizada en auditorías de seguridad para realizar ataques de tipo Man-in-the-Middle (MITM) en redes. Aquí tienes algunas de sus principales funciones:
+Intercepción de tráfico: Permite capturar y analizar datos en redes LAN, incluso en redes conmutadas.
+Ataques MITM: Facilita la manipulación de tráfico en tiempo real, como envenenamiento ARP o DNS spoofing.
+Inyección de datos: Puede modificar o inyectar paquetes en conexiones activas.
+Compatibilidad con protocolos cifrados: Soporta protocolos como SSH y HTTPS, lo que lo hace útil para pruebas avanzadas.
+Análisis de red: Identifica hosts, servicios y sistemas operativos en la red.</t>
+  </si>
+  <si>
+    <t>https://www.ettercap-project.org/</t>
+  </si>
+  <si>
+    <t>auditorías de seguridad/ataques de tipo Man-in-the-Middle (MITM) en redes / Pruebas de penetracion</t>
+  </si>
+  <si>
+    <t>Puede configurar los servidores DNS para que dependan lo menos posible de las relaciones de confianza con otros servidores DNS a fin de mitigar los ataques de envenenamiento de la caché del DNS. Los servidores DNS que utilizan BIND 9.5.0 y versiones posteriores proporcionan funciones que ayudan a evitar ataques de envenenamiento de la caché de DNS. Estas características incluyen la asignación aleatoria de puertos y la provisión de identificadores de transacciones DNS criptográficamente seguras. Además, las extensiones de seguridad del sistema de nombres de dominio (DNSSEC), una tecnología desarrollada por el Grupo de trabajo de ingeniería de Internet (IETF), proporciona autenticación de datos DNS segura y protege contra el envenenamiento de la caché del DNS.</t>
+  </si>
+  <si>
+    <t>Explotaciones de SNMP</t>
+  </si>
+  <si>
+    <t>Un ataque SNMP común implica que un atacante enumere los servicios SNMP y luego verifique las contraseñas SNMP predeterminadas configuradas. Desafortunadamente, este es uno de los principales defectos de muchas implementaciones porque muchos usuarios dejan credenciales SNMP débiles o predeterminadas en los dispositivos de red.</t>
+  </si>
+  <si>
+    <t>¡Cambie siempre las contraseñas predeterminadas! Como mejor práctica, también debe limitar el acceso SNMP solo a hosts confiables y bloquear el puerto UDP 161 a cualquier sistema que no sea de confianza. Otra práctica recomendada es utilizar SNMPv3 en lugar de versiones anteriores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de datos / Puerbas de penetracion fase de explotacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploit database // SEARCHSPLOIT </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">repositorios de la base de datos de piratería de Google (GHDB) comando searchsploit </t>
     </r>
@@ -7069,7 +7173,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(searchsploit smb) </t>
+      <t>(searchsploit smb) Permite descargar los exploit</t>
     </r>
     <r>
       <rPr>
@@ -7083,15 +7187,6 @@
       <t xml:space="preserve">  Ingrese el comando  en una ventana de terminal amplia en su instancia de Kali para ver los títulos completos. es una herramienta de línea de comandos que permite buscar exploits y shellcodes en la base de datos de Exploit-DB de manera local. Es especialmente útil para realizar evaluaciones de seguridad en redes aisladas o sin acceso a Internet, ya que permite tener una copia local de la base de datos de exploits2.
 Con SearchSploit, puedes buscar vulnerabilidades específicas utilizando términos clave y obtener información detallada sobre cómo ejecutar o compilar los exploits. Es una herramienta esencial en el arsenal de un pentester, ya que acelera el proceso de identificación y explotación de vulnerabilidades.</t>
     </r>
-  </si>
-  <si>
-    <t>Sitio web / Consola</t>
-  </si>
-  <si>
-    <t>Meterpreter</t>
-  </si>
-  <si>
-    <t>Post explotacion</t>
   </si>
 </sst>
 </file>
@@ -7756,7 +7851,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8027,47 +8122,23 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8099,23 +8170,68 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8124,9 +8240,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8144,27 +8257,6 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8180,11 +8272,17 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8193,15 +8291,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8215,6 +8304,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8233,6 +8328,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -16415,10 +16513,518 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>289358</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>8591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo: esquinas redondeadas 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4C5793-4E3F-4A4A-9168-7822FFFD9F86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14005358" y="13724591"/>
+          <a:ext cx="2007848" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ataques</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> de SMB puerto 445 (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NetBIOS - LLMNR - DNS - Pupy - Metasploit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - Meterpreter - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>searchsploit - enum4linux </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>13821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo: esquinas redondeadas 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62EC3C56-F806-47C4-9FAD-F059E9179E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14018558" y="14892618"/>
+          <a:ext cx="1972236" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Envenamiento DNS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> puerto 53</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO"/>
+            <a:t>Ettercap - DNSSEC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17928</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>188633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo: esquinas redondeadas 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB86673-48AB-475C-A101-2DD91A4A6BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14018559" y="16019930"/>
+          <a:ext cx="2001369" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Explotacion  SNMP puerto 161 (phishing - correos )</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228737</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2657143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A646209-F037-BE92-414D-C963D8254496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28428462" y="0"/>
+          <a:ext cx="4771429" cy="2657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>719575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>268653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106631</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>334220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2A1ADA-9F5C-297F-0FFE-0541CDD622FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28390921" y="3004038"/>
+          <a:ext cx="6201095" cy="3826720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -16467,7 +17073,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -16867,7 +17473,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -17004,7 +17610,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -17405,7 +18011,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -17775,8 +18381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220"/>
+    <sheetView topLeftCell="F188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -17796,16 +18402,16 @@
         <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -17823,10 +18429,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="84" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1224</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1225</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -17835,98 +18441,98 @@
         <v>114</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="84" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1225</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="84" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1225</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="84" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>1225</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>1233</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="84" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>1225</v>
-      </c>
       <c r="E6" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>1238</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>1239</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75">
@@ -17935,7 +18541,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="83" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>41</v>
@@ -17946,7 +18552,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
@@ -17955,7 +18561,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>107</v>
@@ -17967,7 +18573,7 @@
         <v>186</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>187</v>
@@ -17979,7 +18585,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>107</v>
@@ -17991,10 +18597,10 @@
         <v>189</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45">
@@ -18003,7 +18609,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>107</v>
@@ -18015,7 +18621,7 @@
         <v>182</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>183</v>
@@ -18027,7 +18633,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>107</v>
@@ -18039,7 +18645,7 @@
         <v>184</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>185</v>
@@ -18051,7 +18657,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>107</v>
@@ -18063,7 +18669,7 @@
         <v>194</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>195</v>
@@ -18075,7 +18681,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>107</v>
@@ -18087,7 +18693,7 @@
         <v>188</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>786</v>
@@ -18099,7 +18705,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>107</v>
@@ -18111,7 +18717,7 @@
         <v>193</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>553</v>
@@ -18123,7 +18729,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>46</v>
@@ -18135,10 +18741,10 @@
         <v>49</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -18147,7 +18753,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>46</v>
@@ -18159,7 +18765,7 @@
         <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>48</v>
@@ -18171,7 +18777,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="83" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>190</v>
@@ -18193,7 +18799,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>107</v>
@@ -18205,7 +18811,7 @@
         <v>196</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>197</v>
@@ -18217,7 +18823,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>107</v>
@@ -18229,7 +18835,7 @@
         <v>554</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>557</v>
@@ -18241,7 +18847,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>107</v>
@@ -18263,7 +18869,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="83" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>41</v>
@@ -18287,7 +18893,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="83" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>107</v>
@@ -18311,7 +18917,7 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>107</v>
@@ -18335,7 +18941,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>41</v>
@@ -18359,7 +18965,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="83" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>165</v>
@@ -18383,7 +18989,7 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="83" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>41</v>
@@ -18395,7 +19001,7 @@
         <v>225</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>226</v>
@@ -18407,7 +19013,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>107</v>
@@ -18429,7 +19035,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>107</v>
@@ -18451,13 +19057,13 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>1255</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>1256</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>180</v>
@@ -18524,16 +19130,16 @@
         <v>201</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>207</v>
@@ -18548,16 +19154,16 @@
         <v>201</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>203</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>205</v>
@@ -18578,7 +19184,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>967</v>
@@ -18597,16 +19203,16 @@
         <v>55</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>1117</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="135">
@@ -18629,10 +19235,10 @@
         <v>774</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -18650,7 +19256,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>67</v>
@@ -18695,7 +19301,7 @@
         <v>107</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>208</v>
@@ -18704,7 +19310,7 @@
         <v>204</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="75">
@@ -18713,19 +19319,19 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>944</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>202</v>
@@ -18737,7 +19343,7 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>55</v>
@@ -18761,13 +19367,13 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>80</v>
@@ -18785,22 +19391,22 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -18809,13 +19415,13 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>75</v>
@@ -18831,44 +19437,44 @@
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>1097</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>1098</v>
-      </c>
       <c r="H45" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>1103</v>
-      </c>
       <c r="H46" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="60">
@@ -18877,10 +19483,10 @@
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -18901,10 +19507,10 @@
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -18916,7 +19522,7 @@
         <v>204</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="60">
@@ -18925,7 +19531,7 @@
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>55</v>
@@ -18937,10 +19543,10 @@
         <v>78</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>1245</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="60">
@@ -18949,7 +19555,7 @@
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>212</v>
@@ -18973,7 +19579,7 @@
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="79" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>107</v>
@@ -18995,7 +19601,7 @@
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="79" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>107</v>
@@ -19017,19 +19623,19 @@
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="79" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="G53" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>247</v>
@@ -19043,16 +19649,16 @@
         <v>107</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>1270</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>1271</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="330">
@@ -19061,7 +19667,7 @@
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="79" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>107</v>
@@ -19085,7 +19691,7 @@
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="83" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>41</v>
@@ -19107,7 +19713,7 @@
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="79" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>107</v>
@@ -19129,7 +19735,7 @@
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="79" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>107</v>
@@ -19149,22 +19755,22 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="79" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>1209</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>1210</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30">
@@ -19173,7 +19779,7 @@
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="83" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>107</v>
@@ -19195,7 +19801,7 @@
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="83" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>959</v>
@@ -19217,22 +19823,22 @@
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>1170</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="60">
@@ -19241,22 +19847,22 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G63" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>1183</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="45">
@@ -19265,154 +19871,154 @@
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="60">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>1187</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="75">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F67" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>1195</v>
-      </c>
       <c r="H67" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>1197</v>
-      </c>
       <c r="G68" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>1200</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G69" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>1202</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>1206</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>1207</v>
-      </c>
       <c r="H70" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="30">
@@ -19421,13 +20027,13 @@
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>43</v>
@@ -19445,7 +20051,7 @@
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>107</v>
@@ -19457,10 +20063,10 @@
         <v>605</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30">
@@ -19469,19 +20075,19 @@
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>117</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>118</v>
@@ -19491,20 +20097,20 @@
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="45">
@@ -19513,7 +20119,7 @@
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="84" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>913</v>
@@ -19537,7 +20143,7 @@
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="84" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>55</v>
@@ -19561,7 +20167,7 @@
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="84" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>944</v>
@@ -19570,10 +20176,10 @@
         <v>951</v>
       </c>
       <c r="F77" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>1214</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>1215</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>947</v>
@@ -19585,22 +20191,22 @@
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="84" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>1219</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="H78" s="4" t="s">
         <v>1216</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="60">
@@ -19609,7 +20215,7 @@
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>107</v>
@@ -19621,7 +20227,7 @@
         <v>635</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>638</v>
@@ -19633,7 +20239,7 @@
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>107</v>
@@ -19645,7 +20251,7 @@
         <v>376</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>253</v>
@@ -19657,19 +20263,19 @@
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>637</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H81" s="4"/>
     </row>
@@ -19679,44 +20285,44 @@
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F83" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>1152</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="45">
@@ -19725,88 +20331,88 @@
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="G85" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H85" s="4" t="s">
         <v>1157</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="105">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="135">
@@ -19815,66 +20421,66 @@
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>1173</v>
-      </c>
       <c r="G88" s="4" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="60">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F89" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>1174</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G90" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>1178</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="105">
@@ -19971,16 +20577,16 @@
         <v>55</v>
       </c>
       <c r="E95" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="G95" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>1122</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="30">
@@ -19995,10 +20601,10 @@
         <v>55</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>851</v>
@@ -20020,13 +20626,13 @@
         <v>846</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>123</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="105">
@@ -20042,13 +20648,13 @@
         <v>846</v>
       </c>
       <c r="F98" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>1113</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="195">
@@ -20061,16 +20667,16 @@
         <v>55</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F99" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="H99" s="4" t="s">
         <v>1042</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="30">
@@ -20192,7 +20798,7 @@
         <v>132</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="30">
@@ -20368,7 +20974,7 @@
         <v>86</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="255.75" customHeight="1">
@@ -21238,19 +21844,19 @@
       <c r="B159" s="3"/>
       <c r="C159" s="84"/>
       <c r="D159" s="4" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>885</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G159" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H159" s="4" t="s">
         <v>1338</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="34.5" customHeight="1">
@@ -21258,17 +21864,17 @@
       <c r="B160" s="3"/>
       <c r="C160" s="84"/>
       <c r="D160" s="4" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="34.5" customHeight="1">
@@ -21276,17 +21882,17 @@
       <c r="B161" s="3"/>
       <c r="C161" s="84"/>
       <c r="D161" s="4" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="34.5" customHeight="1">
@@ -21297,14 +21903,14 @@
         <v>107</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="60">
@@ -21314,7 +21920,7 @@
       <c r="B163" s="3"/>
       <c r="C163" s="84"/>
       <c r="D163" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>885</v>
@@ -21326,7 +21932,7 @@
         <v>884</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="30">
@@ -21381,7 +21987,7 @@
         <v>913</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>908</v>
@@ -21403,7 +22009,7 @@
         <v>913</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>904</v>
@@ -21425,7 +22031,7 @@
         <v>55</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>915</v>
@@ -21447,7 +22053,7 @@
         <v>55</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>919</v>
@@ -21555,14 +22161,14 @@
         <v>944</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>942</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -21874,19 +22480,19 @@
       <c r="B191" s="3"/>
       <c r="C191" s="80"/>
       <c r="D191" s="3" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>1</v>
+        <v>1361</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>1014</v>
+        <v>1362</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>1011</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -21900,13 +22506,13 @@
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G192" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H192" s="4" t="s">
         <v>1015</v>
-      </c>
-      <c r="H192" s="4" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="30">
@@ -21919,16 +22525,16 @@
         <v>55</v>
       </c>
       <c r="E193" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G193" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="F193" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>1025</v>
-      </c>
       <c r="H193" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="45">
@@ -21941,16 +22547,16 @@
         <v>55</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="30">
@@ -21963,16 +22569,16 @@
         <v>55</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="30">
@@ -21985,16 +22591,16 @@
         <v>55</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="30">
@@ -22007,16 +22613,16 @@
         <v>55</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F197" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H197" s="4" t="s">
         <v>1022</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H197" s="4" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -22030,11 +22636,11 @@
         <v>1002</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="60">
@@ -22050,13 +22656,13 @@
         <v>1002</v>
       </c>
       <c r="F199" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G199" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="G199" s="4" t="s">
-        <v>1035</v>
-      </c>
       <c r="H199" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -22068,7 +22674,7 @@
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
@@ -22082,7 +22688,7 @@
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G201" s="4"/>
     </row>
@@ -22095,12 +22701,12 @@
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
     </row>
-    <row r="203" spans="1:8" ht="30">
+    <row r="203" spans="1:8" ht="45">
       <c r="A203" s="3">
         <v>3</v>
       </c>
@@ -22110,16 +22716,16 @@
         <v>107</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>930</v>
+        <v>1349</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>1261</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="30">
@@ -22131,10 +22737,10 @@
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G204" s="4" t="s">
         <v>1140</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>1141</v>
       </c>
       <c r="H204" s="4"/>
     </row>
@@ -22154,10 +22760,10 @@
         <v>628</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="30">
@@ -22192,10 +22798,10 @@
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H207" s="4" t="s">
         <v>1221</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="75">
@@ -22205,19 +22811,19 @@
       <c r="B208" s="3"/>
       <c r="C208" s="80"/>
       <c r="D208" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="F208" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G208" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="G208" s="4" t="s">
-        <v>1268</v>
-      </c>
       <c r="H208" s="4" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="45">
@@ -22233,13 +22839,13 @@
         <v>624</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="60">
@@ -22255,13 +22861,13 @@
         <v>624</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="G210" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H210" s="4" t="s">
         <v>1306</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="30">
@@ -22275,13 +22881,13 @@
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H211" s="4" t="s">
         <v>1309</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -22295,13 +22901,13 @@
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H212" s="4" t="s">
         <v>1312</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H212" s="4" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="60">
@@ -22314,13 +22920,13 @@
         <v>212</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -22331,11 +22937,12 @@
       <c r="C214" s="80"/>
       <c r="D214" s="3"/>
       <c r="F214" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>1318</v>
-      </c>
+        <v>1316</v>
+      </c>
+      <c r="H214" s="4"/>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="3">
@@ -22346,8 +22953,9 @@
       <c r="D215" s="3"/>
       <c r="E215" s="48"/>
       <c r="F215" s="3" t="s">
-        <v>1344</v>
-      </c>
+        <v>1341</v>
+      </c>
+      <c r="H215" s="4"/>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="3">
@@ -22359,11 +22967,12 @@
         <v>107</v>
       </c>
       <c r="E216" s="48" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>1345</v>
-      </c>
+        <v>1342</v>
+      </c>
+      <c r="H216" s="4"/>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="3">
@@ -22372,18 +22981,34 @@
       <c r="B217" s="3"/>
       <c r="C217" s="80"/>
       <c r="E217" s="48" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>1346</v>
+      </c>
+      <c r="H217" s="4"/>
+    </row>
+    <row r="218" spans="1:8" ht="105">
       <c r="A218" s="3">
         <v>3</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="80"/>
+      <c r="D218" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E218" s="53" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H218" s="168" t="s">
+        <v>1354</v>
+      </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="3">
@@ -23069,12 +23694,13 @@
     <hyperlink ref="G214" r:id="rId94" xr:uid="{A0363DF8-ADEF-493C-905D-C6F87CDC0B72}"/>
     <hyperlink ref="G213" r:id="rId95" xr:uid="{4182C211-1210-4562-8AEB-88993C90DFF4}"/>
     <hyperlink ref="G159" r:id="rId96" xr:uid="{A71FF72C-40F9-46F1-B642-22A7C2C3FCFE}"/>
+    <hyperlink ref="G218" r:id="rId97" xr:uid="{A1EE11C3-5361-48FC-8F8C-BAB4C5B7ED61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
-  <legacyDrawing r:id="rId98"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
+  <legacyDrawing r:id="rId99"/>
   <tableParts count="1">
-    <tablePart r:id="rId99"/>
+    <tablePart r:id="rId100"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23107,141 +23733,141 @@
       <c r="C1" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="106" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="116"/>
+      <c r="E1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="112" t="s">
         <v>528</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="139" t="s">
         <v>533</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="121"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="139" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="121"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="139" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="139" t="s">
         <v>536</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="112" t="s">
         <v>537</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
       <c r="F6" s="44" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="121"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="130" t="s">
         <v>547</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="143"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="121"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="130" t="s">
         <v>548</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="121"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="130" t="s">
         <v>549</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:6" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="121"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="130" t="s">
         <v>550</v>
       </c>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="121"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="45" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="130" t="s">
         <v>551</v>
       </c>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="122"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="130" t="s">
         <v>552</v>
       </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="143"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="112" t="s">
         <v>561</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -23254,7 +23880,7 @@
       <c r="E13" s="150"/>
     </row>
     <row r="14" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A14" s="121"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="47" t="s">
         <v>564</v>
       </c>
@@ -23265,7 +23891,7 @@
       <c r="E14" s="150"/>
     </row>
     <row r="15" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="122"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="46" t="s">
         <v>566</v>
       </c>
@@ -23276,47 +23902,47 @@
       <c r="E15" s="151"/>
     </row>
     <row r="16" spans="1:6" ht="57" thickBot="1">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="112" t="s">
         <v>568</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="130" t="s">
         <v>570</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="143"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A17" s="121"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="141" t="s">
+      <c r="A17" s="113"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="130" t="s">
         <v>571</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
     </row>
     <row r="18" spans="1:5" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A18" s="121"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="141" t="s">
+      <c r="A18" s="113"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="130" t="s">
         <v>572</v>
       </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
     </row>
     <row r="19" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="141" t="s">
+      <c r="A19" s="114"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="130" t="s">
         <v>573</v>
       </c>
-      <c r="D19" s="142"/>
-      <c r="E19" s="143"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
     </row>
     <row r="20" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="112" t="s">
         <v>602</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -23329,7 +23955,7 @@
       <c r="E20" s="150"/>
     </row>
     <row r="21" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="121"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="47" t="s">
         <v>607</v>
       </c>
@@ -23340,7 +23966,7 @@
       <c r="E21" s="150"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A22" s="121"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="46"/>
       <c r="C22" s="151"/>
       <c r="D22" s="151"/>
@@ -23348,12 +23974,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -23366,16 +23996,12 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23417,53 +24043,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="112" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="139" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="121"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="139" t="s">
         <v>648</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="121"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="139" t="s">
         <v>650</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="121"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>651</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="46" t="s">
         <v>652</v>
       </c>
@@ -23472,64 +24098,64 @@
       <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="112" t="s">
         <v>653</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>654</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="130" t="s">
         <v>659</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="143"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="121"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="130" t="s">
         <v>660</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="121"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="130" t="s">
         <v>661</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="121"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="45" t="s">
         <v>657</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="130" t="s">
         <v>662</v>
       </c>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="121"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="45" t="s">
         <v>658</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="130" t="s">
         <v>663</v>
       </c>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:5" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="112" t="s">
         <v>664</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -23542,7 +24168,7 @@
       <c r="E12" s="150"/>
     </row>
     <row r="13" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A13" s="121"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="47" t="s">
         <v>667</v>
       </c>
@@ -23553,7 +24179,7 @@
       <c r="E13" s="150"/>
     </row>
     <row r="14" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="46" t="s">
         <v>669</v>
       </c>
@@ -23564,53 +24190,53 @@
       <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="112" t="s">
         <v>678</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="130" t="s">
         <v>680</v>
       </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="143"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A16" s="121"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="45" t="s">
         <v>685</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="130" t="s">
         <v>686</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="143"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
     </row>
     <row r="17" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A17" s="121"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="45" t="s">
         <v>687</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="130" t="s">
         <v>688</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
     </row>
     <row r="18" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A18" s="121"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="130" t="s">
         <v>691</v>
       </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
     </row>
     <row r="19" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="152" t="s">
         <v>711</v>
       </c>
       <c r="B19" s="61" t="s">
@@ -23623,50 +24249,40 @@
       <c r="E19" s="150"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A20" s="155"/>
+      <c r="A20" s="152"/>
       <c r="B20" s="59" t="s">
         <v>709</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="139" t="s">
         <v>710</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="135"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="141"/>
     </row>
     <row r="21" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A21" s="155"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="59" t="s">
         <v>712</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="139" t="s">
         <v>713</v>
       </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="135"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
     </row>
     <row r="22" spans="1:5" ht="51" customHeight="1" thickBot="1">
-      <c r="A22" s="155"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="59" t="s">
         <v>714</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="139" t="s">
         <v>715</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A15:A18"/>
@@ -23682,6 +24298,16 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23725,132 +24351,132 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="112" t="s">
         <v>728</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>729</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="139" t="s">
         <v>730</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="121"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="139" t="s">
         <v>732</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="121"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="139" t="s">
         <v>734</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="46" t="s">
         <v>735</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="139" t="s">
         <v>736</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="112" t="s">
         <v>737</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>738</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="130" t="s">
         <v>739</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="121"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="45" t="s">
         <v>740</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="130" t="s">
         <v>741</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="143"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="121"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="130" t="s">
         <v>743</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="121"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="45" t="s">
         <v>744</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="130" t="s">
         <v>745</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="121"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="45" t="s">
         <v>747</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="130" t="s">
         <v>746</v>
       </c>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="121"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="130" t="s">
         <v>749</v>
       </c>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:5" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="122"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="45" t="s">
         <v>750</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="130" t="s">
         <v>751</v>
       </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="143"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="109" t="s">
         <v>752</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -23863,7 +24489,7 @@
       <c r="E13" s="150"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A14" s="118"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="47" t="s">
         <v>754</v>
       </c>
@@ -23874,77 +24500,77 @@
       <c r="E14" s="150"/>
     </row>
     <row r="15" spans="1:5" ht="38.25" thickBot="1">
-      <c r="A15" s="118"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="46" t="s">
         <v>756</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="139" t="s">
         <v>760</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="141"/>
     </row>
     <row r="16" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A16" s="118"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="46" t="s">
         <v>755</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="139" t="s">
         <v>761</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A17" s="119"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="47" t="s">
         <v>757</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="156" t="s">
         <v>762</v>
       </c>
-      <c r="D17" s="159"/>
-      <c r="E17" s="160"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
     </row>
     <row r="18" spans="1:6" ht="66" customHeight="1" thickBot="1">
-      <c r="A18" s="156" t="s">
+      <c r="A18" s="160" t="s">
         <v>778</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>780</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="117" t="s">
         <v>782</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
     </row>
     <row r="19" spans="1:6" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="157"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="66" t="s">
         <v>779</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="117" t="s">
         <v>781</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
     </row>
     <row r="20" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="112" t="s">
         <v>783</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>774</v>
       </c>
-      <c r="C20" s="161" t="s">
+      <c r="C20" s="159" t="s">
         <v>787</v>
       </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
     </row>
     <row r="21" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="121"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="46" t="s">
         <v>784</v>
       </c>
@@ -23955,82 +24581,82 @@
       <c r="E21" s="151"/>
     </row>
     <row r="22" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A22" s="121"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="46" t="s">
         <v>788</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="139" t="s">
         <v>789</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
     </row>
     <row r="23" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A23" s="121"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="46" t="s">
         <v>852</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="139" t="s">
         <v>850</v>
       </c>
-      <c r="D23" s="134"/>
-      <c r="E23" s="135"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
     </row>
     <row r="24" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A24" s="122"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="C24" s="139" t="s">
         <v>843</v>
       </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="135"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="141"/>
     </row>
     <row r="25" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="112" t="s">
         <v>853</v>
       </c>
       <c r="B25" s="46" t="s">
         <v>854</v>
       </c>
-      <c r="C25" s="133" t="s">
+      <c r="C25" s="139" t="s">
         <v>855</v>
       </c>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
     </row>
     <row r="26" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A26" s="121"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="46" t="s">
         <v>856</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="139" t="s">
         <v>857</v>
       </c>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
     </row>
     <row r="27" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A27" s="122"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="46" t="s">
         <v>858</v>
       </c>
-      <c r="C27" s="133" t="s">
+      <c r="C27" s="139" t="s">
         <v>859</v>
       </c>
-      <c r="D27" s="134"/>
-      <c r="E27" s="135"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="141"/>
     </row>
     <row r="28" spans="1:6" ht="169.5" thickBot="1">
-      <c r="A28" s="120"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="C28" s="133" t="s">
+      <c r="C28" s="139" t="s">
         <v>866</v>
       </c>
-      <c r="D28" s="135"/>
+      <c r="D28" s="141"/>
       <c r="E28" s="46" t="s">
         <v>864</v>
       </c>
@@ -24039,14 +24665,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="150.75" thickBot="1">
-      <c r="A29" s="121"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="46" t="s">
         <v>865</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="139" t="s">
         <v>870</v>
       </c>
-      <c r="D29" s="135"/>
+      <c r="D29" s="141"/>
       <c r="E29" s="46" t="s">
         <v>867</v>
       </c>
@@ -24055,14 +24681,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A30" s="121"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A31" s="121"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -24082,6 +24708,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
@@ -24098,25 +24743,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{FE12423F-DF2A-4D6D-8DBE-C74C8D072776}"/>
@@ -24154,116 +24780,116 @@
       <c r="C1" s="44" t="s">
         <v>800</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="130" t="s">
         <v>801</v>
       </c>
-      <c r="E1" s="143"/>
+      <c r="E1" s="132"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="112" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="139" t="s">
         <v>793</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="121"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="46" t="s">
         <v>794</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="139" t="s">
         <v>795</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="121"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="46" t="s">
         <v>796</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="139" t="s">
         <v>797</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="46" t="s">
         <v>798</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="139" t="s">
         <v>799</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
     </row>
     <row r="6" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="112" t="s">
         <v>802</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="130" t="s">
         <v>808</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
     </row>
     <row r="7" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A7" s="121"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="45" t="s">
         <v>803</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="130" t="s">
         <v>809</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="143"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="121"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="45" t="s">
         <v>806</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="130" t="s">
         <v>811</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="121"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="130" t="s">
         <v>810</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="121"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="45" t="s">
         <v>804</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="130" t="s">
         <v>812</v>
       </c>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="109" t="s">
         <v>783</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -24276,7 +24902,7 @@
       <c r="E11" s="150"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="118"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="47" t="s">
         <v>814</v>
       </c>
@@ -24287,7 +24913,7 @@
       <c r="E12" s="150"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="160" t="s">
         <v>820</v>
       </c>
       <c r="B13" s="66"/>
@@ -24298,7 +24924,7 @@
       <c r="E13" s="164"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="157"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="66"/>
       <c r="C14" s="165" t="s">
         <v>819</v>
@@ -24308,6 +24934,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
@@ -24320,12 +24952,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24355,130 +24981,130 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="143"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="132"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="112" t="s">
         <v>822</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>823</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="139" t="s">
         <v>824</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
     </row>
     <row r="3" spans="1:5" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A3" s="121"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="139" t="s">
         <v>826</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
     </row>
     <row r="4" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>821</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="139" t="s">
         <v>827</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
     </row>
     <row r="5" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="112" t="s">
         <v>828</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>829</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="130" t="s">
         <v>830</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A6" s="121"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="45" t="s">
         <v>831</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="130" t="s">
         <v>832</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="121"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="45" t="s">
         <v>833</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="130" t="s">
         <v>834</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="143"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="121"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="45" t="s">
         <v>835</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="130" t="s">
         <v>836</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>837</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="139" t="s">
         <v>838</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="133" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="139" t="s">
         <v>839</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
     </row>
     <row r="11" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A11" s="118"/>
-      <c r="B11" s="133" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="139" t="s">
         <v>840</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="118"/>
-      <c r="B12" s="133" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="139" t="s">
         <v>841</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="160" t="s">
         <v>842</v>
       </c>
       <c r="B13" s="66"/>
@@ -24487,7 +25113,7 @@
       <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="157"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
@@ -24495,22 +25121,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24903,7 +25529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C28E26-4C2A-4E58-B381-E97B374DB47D}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -24925,178 +25551,178 @@
       <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="141.75" customHeight="1" thickBot="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="112" t="s">
         <v>875</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>876</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="115" t="s">
         <v>879</v>
       </c>
-      <c r="D2" s="102"/>
+      <c r="D2" s="115"/>
     </row>
     <row r="3" spans="1:5" ht="98.25" customHeight="1" thickBot="1">
-      <c r="A3" s="121"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="71" t="s">
         <v>877</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="115" t="s">
         <v>880</v>
       </c>
-      <c r="D3" s="102"/>
+      <c r="D3" s="115"/>
     </row>
     <row r="4" spans="1:5" ht="152.25" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="71" t="s">
         <v>878</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="115" t="s">
         <v>881</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="115"/>
     </row>
     <row r="5" spans="1:5" ht="164.25" customHeight="1" thickBot="1">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="109" t="s">
         <v>889</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>891</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="116" t="s">
         <v>893</v>
       </c>
-      <c r="D5" s="124"/>
+      <c r="D5" s="117"/>
     </row>
     <row r="6" spans="1:5" ht="147.75" customHeight="1" thickBot="1">
-      <c r="A6" s="118"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="45" t="s">
         <v>890</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="116" t="s">
         <v>894</v>
       </c>
-      <c r="D6" s="123"/>
+      <c r="D6" s="116"/>
     </row>
     <row r="7" spans="1:5" ht="123" customHeight="1" thickBot="1">
-      <c r="A7" s="118"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="45" t="s">
         <v>892</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="116" t="s">
         <v>895</v>
       </c>
-      <c r="D7" s="123"/>
+      <c r="D7" s="116"/>
     </row>
     <row r="8" spans="1:5" ht="120" customHeight="1" thickBot="1">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="109" t="s">
         <v>896</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="118" t="s">
         <v>898</v>
       </c>
-      <c r="D8" s="100"/>
+      <c r="D8" s="119"/>
     </row>
     <row r="9" spans="1:5" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A9" s="118"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="73" t="s">
         <v>899</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="118" t="s">
         <v>900</v>
       </c>
-      <c r="D9" s="100"/>
+      <c r="D9" s="119"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="118"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="73" t="s">
         <v>904</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="118" t="s">
         <v>905</v>
       </c>
-      <c r="D10" s="100"/>
+      <c r="D10" s="119"/>
     </row>
     <row r="11" spans="1:5" ht="229.5" customHeight="1" thickBot="1">
-      <c r="A11" s="118"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="73" t="s">
         <v>908</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="118" t="s">
         <v>910</v>
       </c>
-      <c r="D11" s="100"/>
+      <c r="D11" s="119"/>
     </row>
     <row r="12" spans="1:5" ht="223.5" customHeight="1" thickBot="1">
-      <c r="A12" s="118"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="72" t="s">
         <v>915</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="118" t="s">
         <v>916</v>
       </c>
-      <c r="D12" s="100"/>
+      <c r="D12" s="119"/>
     </row>
     <row r="13" spans="1:5" ht="234.75" customHeight="1" thickBot="1">
-      <c r="A13" s="119"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="72" t="s">
         <v>919</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="102" t="s">
         <v>922</v>
       </c>
-      <c r="D13" s="126"/>
+      <c r="D13" s="103"/>
     </row>
     <row r="14" spans="1:5" ht="184.5" customHeight="1" thickBot="1">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="121" t="s">
         <v>929</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>930</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="118" t="s">
         <v>932</v>
       </c>
-      <c r="D14" s="100"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="34" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="188.25" customHeight="1" thickBot="1">
-      <c r="A15" s="104"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="71" t="s">
         <v>931</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="115" t="s">
         <v>933</v>
       </c>
-      <c r="D15" s="102"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="74" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="153.75" customHeight="1" thickBot="1">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="99" t="s">
         <v>946</v>
       </c>
-      <c r="B16" s="109" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C16" s="111" t="s">
+      <c r="B16" s="125" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C16" s="127" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D16" s="128"/>
+    </row>
+    <row r="17" spans="1:4" ht="179.25" customHeight="1" thickBot="1">
+      <c r="A17" s="100"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="123" t="s">
         <v>1039</v>
       </c>
-      <c r="D16" s="112"/>
-    </row>
-    <row r="17" spans="1:4" ht="179.25" customHeight="1" thickBot="1">
-      <c r="A17" s="106"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="107" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D17" s="108"/>
+      <c r="D17" s="124"/>
     </row>
     <row r="18" spans="1:4" ht="57" thickBot="1">
       <c r="A18" s="77" t="s">
@@ -25105,10 +25731,10 @@
       <c r="B18" s="72" t="s">
         <v>949</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="115" t="s">
         <v>950</v>
       </c>
-      <c r="D18" s="102"/>
+      <c r="D18" s="115"/>
     </row>
     <row r="19" spans="1:4" ht="169.5" thickBot="1">
       <c r="A19" s="77" t="s">
@@ -25117,114 +25743,120 @@
       <c r="B19" s="72" t="s">
         <v>965</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="120" t="s">
         <v>966</v>
       </c>
-      <c r="D19" s="101"/>
+      <c r="D19" s="120"/>
     </row>
     <row r="20" spans="1:4" ht="84" customHeight="1" thickBot="1">
       <c r="A20" s="77" t="s">
         <v>1008</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="105" t="s">
         <v>1007</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:4" ht="57.75" customHeight="1" thickBot="1">
       <c r="A21" s="77" t="s">
         <v>1009</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="106" t="s">
         <v>1010</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
     </row>
     <row r="22" spans="1:4" ht="72.75" thickBot="1">
       <c r="A22" s="77" t="s">
         <v>1012</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="106" t="s">
         <v>1013</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
     </row>
     <row r="23" spans="1:4" ht="114" customHeight="1" thickBot="1">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="99" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B23" s="73" t="s">
         <v>1061</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="C23" s="102" t="s">
         <v>1062</v>
       </c>
-      <c r="C23" s="125" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D23" s="126"/>
+      <c r="D23" s="103"/>
     </row>
     <row r="24" spans="1:4" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A24" s="106"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="73" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C24" s="102" t="s">
         <v>1065</v>
       </c>
-      <c r="C24" s="125" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D24" s="126"/>
+      <c r="D24" s="103"/>
     </row>
     <row r="25" spans="1:4" ht="117" customHeight="1" thickBot="1">
-      <c r="A25" s="106"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="73" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C25" s="102" t="s">
         <v>1069</v>
       </c>
-      <c r="C25" s="125" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D25" s="126"/>
+      <c r="D25" s="103"/>
     </row>
     <row r="26" spans="1:4" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A26" s="106"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="73" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C26" s="102" t="s">
         <v>1075</v>
       </c>
-      <c r="C26" s="125" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D26" s="128"/>
+      <c r="D26" s="104"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A27" s="106"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A28" s="106"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A29" s="106"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A30" s="127"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -25241,17 +25873,11 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25262,8 +25888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C80C63-9F14-4F36-AB3C-26E3A4A9F7FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -25278,14 +25904,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA90EBF-143C-489C-87E5-C6493CFA69A9}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+    <sheetView topLeftCell="E1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
     <col min="3" max="3" width="70.7109375" customWidth="1"/>
     <col min="4" max="4" width="57.85546875" customWidth="1"/>
     <col min="5" max="5" width="72.42578125" customWidth="1"/>
@@ -25293,142 +25919,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="215.25" customHeight="1" thickBot="1">
-      <c r="A1" s="117" t="s">
-        <v>1341</v>
+      <c r="A1" s="109" t="s">
+        <v>1339</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C1" s="133" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="135"/>
+        <v>1348</v>
+      </c>
+      <c r="C1" s="139" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
       <c r="F1" s="44" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
-    </row>
-    <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="118"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="183.75" customHeight="1" thickBot="1">
+      <c r="A2" s="110"/>
+      <c r="B2" s="98" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C2" s="139" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="44" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="77.25" customHeight="1" thickBot="1">
+      <c r="A3" s="110"/>
+      <c r="B3" s="98" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C3" s="139" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="44" t="s">
+        <v>1360</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="119"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
     </row>
     <row r="5" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A6" s="118"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="135"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
     </row>
     <row r="7" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A7" s="118"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
     </row>
     <row r="8" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A8" s="118"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="135"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="141"/>
     </row>
     <row r="9" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A9" s="118"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
     </row>
     <row r="10" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="46"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
     </row>
     <row r="11" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A11" s="118"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="118"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
     </row>
     <row r="13" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A13" s="118"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
     </row>
     <row r="14" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A14" s="119"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="135"/>
     </row>
     <row r="15" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A15" s="120"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
     </row>
     <row r="16" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A16" s="121"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
     </row>
     <row r="18" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:E11"/>
@@ -25437,21 +26089,10 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:E17"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25494,211 +26135,205 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="112" t="s">
         <v>537</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="139" t="s">
         <v>619</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="109" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="125" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="121"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="139" t="s">
         <v>618</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="137"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="143"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="121"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="139" t="s">
         <v>620</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="137"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="143"/>
     </row>
     <row r="5" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="139" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="126"/>
     </row>
     <row r="6" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="109" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A7" s="110"/>
+      <c r="B7" s="46" t="s">
         <v>1288</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="C7" s="142" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
+    </row>
+    <row r="8" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A8" s="110"/>
+      <c r="B8" s="46" t="s">
         <v>1289</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C8" s="139" t="s">
         <v>1295</v>
       </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="135"/>
-    </row>
-    <row r="7" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A7" s="118"/>
-      <c r="B7" s="46" t="s">
+      <c r="D8" s="140"/>
+      <c r="E8" s="141"/>
+    </row>
+    <row r="9" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
+      <c r="A9" s="110"/>
+      <c r="B9" s="46" t="s">
         <v>1290</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C9" s="139" t="s">
         <v>1296</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
-    </row>
-    <row r="8" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="118"/>
-      <c r="B8" s="46" t="s">
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
+    </row>
+    <row r="10" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
+      <c r="A10" s="110"/>
+      <c r="B10" s="46" t="s">
         <v>1291</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C10" s="139" t="s">
         <v>1297</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="135"/>
-    </row>
-    <row r="9" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A9" s="118"/>
-      <c r="B9" s="46" t="s">
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
+    </row>
+    <row r="11" spans="1:6" ht="93" customHeight="1" thickBot="1">
+      <c r="A11" s="111"/>
+      <c r="B11" s="46" t="s">
         <v>1292</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C11" s="139" t="s">
         <v>1298</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
-    </row>
-    <row r="10" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="46" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C10" s="133" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135"/>
-    </row>
-    <row r="11" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="46" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C11" s="133" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
     </row>
     <row r="12" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A12" s="118" t="s">
-        <v>1320</v>
+      <c r="A12" s="110" t="s">
+        <v>1318</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="C12" s="141" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="143"/>
+      <c r="C12" s="130" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="118"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="45" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C13" s="138" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
+        <v>1319</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
     </row>
     <row r="14" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A14" s="118"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="45" t="s">
         <v>628</v>
       </c>
-      <c r="C14" s="138" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
+      <c r="C14" s="133" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D14" s="134"/>
+      <c r="E14" s="135"/>
     </row>
     <row r="15" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A15" s="119"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="45" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C15" s="138" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
+        <v>1315</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135"/>
     </row>
     <row r="16" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A16" s="120"/>
-      <c r="B16" s="129" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="136" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
     </row>
     <row r="17" spans="1:5" ht="64.5" customHeight="1">
-      <c r="A17" s="121"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
     </row>
     <row r="18" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
     </row>
     <row r="19" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="132" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
+      <c r="B19" s="129" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B16:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="C10:E10"/>
@@ -25714,6 +26349,12 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25750,12 +26391,12 @@
       <c r="C1" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="144" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
+      <c r="D1" s="149" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
     </row>
     <row r="2" spans="1:7" ht="38.25" thickBot="1">
       <c r="A2" s="38"/>
@@ -25775,7 +26416,7 @@
     <row r="3" spans="1:7" ht="60.75" thickBot="1">
       <c r="A3" s="38"/>
       <c r="B3" s="40"/>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="147" t="s">
         <v>501</v>
       </c>
       <c r="D3" s="94" t="s">
@@ -25794,9 +26435,9 @@
     <row r="4" spans="1:7" ht="94.5" thickBot="1">
       <c r="A4" s="38"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="149"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="94" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
@@ -25833,11 +26474,11 @@
       <c r="D7" s="90" t="s">
         <v>631</v>
       </c>
-      <c r="E7" s="145" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F7" s="146"/>
-      <c r="G7" s="147"/>
+      <c r="E7" s="144" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F7" s="145"/>
+      <c r="G7" s="146"/>
     </row>
     <row r="8" spans="1:7" ht="111" customHeight="1" thickBot="1">
       <c r="A8" s="34"/>
@@ -25848,11 +26489,11 @@
       <c r="D8" s="90" t="s">
         <v>632</v>
       </c>
-      <c r="E8" s="145" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147"/>
+      <c r="E8" s="144" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="38.25" thickBot="1">
       <c r="A9" s="55"/>
@@ -25871,199 +26512,199 @@
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="56" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D10" s="90" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E10" s="144" t="s">
         <v>1049</v>
       </c>
-      <c r="E10" s="145" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="147"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="146"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="56" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E11" s="145" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F11" s="146"/>
-      <c r="G11" s="147"/>
+        <v>1051</v>
+      </c>
+      <c r="E11" s="144" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F11" s="145"/>
+      <c r="G11" s="146"/>
     </row>
     <row r="12" spans="1:7" ht="96.75" customHeight="1" thickBot="1">
       <c r="A12" s="34"/>
       <c r="B12" s="92" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E12" s="145" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="147"/>
+        <v>1053</v>
+      </c>
+      <c r="E12" s="144" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146"/>
     </row>
     <row r="13" spans="1:7" ht="272.25" customHeight="1" thickBot="1">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="56" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D13" s="95"/>
+      <c r="E13" s="144" t="s">
         <v>1059</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="145" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F13" s="146"/>
-      <c r="G13" s="147"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
     </row>
     <row r="14" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A14" s="34"/>
       <c r="B14" s="34" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D14" s="90" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E14" s="144" t="s">
         <v>1071</v>
       </c>
-      <c r="E14" s="145" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="147"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="146"/>
     </row>
     <row r="15" spans="1:7" ht="92.25" customHeight="1" thickBot="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="56" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D15" s="90" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E15" s="144" t="s">
         <v>1073</v>
       </c>
-      <c r="E15" s="145" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F15" s="146"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="146"/>
     </row>
     <row r="16" spans="1:7" ht="105.75" customHeight="1" thickBot="1">
       <c r="A16" s="34"/>
       <c r="B16" s="55" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D16" s="90" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E16" s="144" t="s">
         <v>1077</v>
       </c>
-      <c r="E16" s="145" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F16" s="146"/>
-      <c r="G16" s="147"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="146"/>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" thickBot="1">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="56" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D17" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E17" s="144" t="s">
         <v>1079</v>
       </c>
-      <c r="E17" s="145" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F17" s="146"/>
-      <c r="G17" s="147"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="146"/>
     </row>
     <row r="18" spans="1:7" ht="60.75" customHeight="1" thickBot="1">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
       <c r="C18" s="56" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D18" s="90" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E18" s="145" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F18" s="146"/>
-      <c r="G18" s="147"/>
+        <v>1082</v>
+      </c>
+      <c r="E18" s="144" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F18" s="145"/>
+      <c r="G18" s="146"/>
     </row>
     <row r="19" spans="1:7" ht="54" customHeight="1" thickBot="1">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="56" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D19" s="90" t="s">
         <v>1275</v>
       </c>
-      <c r="D19" s="90" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E19" s="145" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="147"/>
+      <c r="E19" s="144" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F19" s="145"/>
+      <c r="G19" s="146"/>
     </row>
     <row r="20" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="56" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D20" s="90" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E20" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="F20" s="146"/>
-      <c r="G20" s="147"/>
+      <c r="E20" s="144" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F20" s="145"/>
+      <c r="G20" s="146"/>
     </row>
     <row r="21" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A21" s="34"/>
       <c r="B21" s="55" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C21" s="56" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E21" s="144" t="s">
         <v>1280</v>
       </c>
-      <c r="D21" s="90" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E21" s="145" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F21" s="146"/>
-      <c r="G21" s="147"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="146"/>
     </row>
     <row r="22" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A22" s="34"/>
       <c r="B22" s="34"/>
       <c r="D22" s="90" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E22" s="145" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F22" s="146"/>
-      <c r="G22" s="147"/>
+        <v>1281</v>
+      </c>
+      <c r="E22" s="144" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F22" s="145"/>
+      <c r="G22" s="146"/>
     </row>
     <row r="23" spans="1:7" ht="48.75" customHeight="1" thickBot="1">
       <c r="A23" s="34"/>
@@ -27030,11 +27671,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E7:G7"/>
@@ -27047,6 +27683,11 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F036F-A721-40FB-BBEC-B9422DA96DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F53D69-1CC4-4245-8D5D-C0D3D259C956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8122,23 +8122,50 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8170,47 +8197,35 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8242,20 +8257,11 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8272,17 +8278,11 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8291,6 +8291,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8304,12 +8313,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8328,9 +8331,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -16928,6 +16928,186 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>202266</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectángulo: esquinas redondeadas 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A0383B-45E2-4A42-8DC2-1E165F180DAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25605441" y="4538383"/>
+          <a:ext cx="2790825" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fase 5:Post-explotación</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>578223</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>321048</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectángulo: esquinas redondeadas 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D83494-C330-48E0-893F-E4972E626851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29534223" y="4466666"/>
+          <a:ext cx="2790825" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fase 6:Informe</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23006,7 +23186,7 @@
       <c r="G218" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="H218" s="168" t="s">
+      <c r="H218" s="99" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -23733,257 +23913,253 @@
       <c r="C1" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="115" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="108"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="121" t="s">
         <v>528</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="130" t="s">
         <v>533</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="113"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="130" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="113"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="130" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="114"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="130" t="s">
         <v>536</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="121" t="s">
         <v>537</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="135" t="s">
         <v>545</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
       <c r="F6" s="44" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="135" t="s">
         <v>547</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="113"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="135" t="s">
         <v>548</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="113"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="135" t="s">
         <v>549</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:6" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="113"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="135" t="s">
         <v>550</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="113"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="45" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="135" t="s">
         <v>551</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
     </row>
     <row r="12" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="114"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="135" t="s">
         <v>552</v>
       </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="121" t="s">
         <v>561</v>
       </c>
       <c r="B13" s="47" t="s">
         <v>562</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A14" s="113"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="47" t="s">
         <v>564</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="151" t="s">
         <v>565</v>
       </c>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="114"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="46" t="s">
         <v>566</v>
       </c>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="152" t="s">
         <v>567</v>
       </c>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
     </row>
     <row r="16" spans="1:6" ht="57" thickBot="1">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="121" t="s">
         <v>568</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="135" t="s">
         <v>570</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A17" s="113"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="130" t="s">
+      <c r="A17" s="122"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="135" t="s">
         <v>571</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
     </row>
     <row r="18" spans="1:5" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A18" s="113"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="130" t="s">
+      <c r="A18" s="122"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="135" t="s">
         <v>572</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137"/>
     </row>
     <row r="19" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="130" t="s">
+      <c r="A19" s="123"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="135" t="s">
         <v>573</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
     </row>
     <row r="20" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="121" t="s">
         <v>602</v>
       </c>
       <c r="B20" s="47" t="s">
         <v>603</v>
       </c>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="151" t="s">
         <v>604</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
     </row>
     <row r="21" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="113"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="47" t="s">
         <v>607</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="151" t="s">
         <v>608</v>
       </c>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A22" s="113"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -23996,12 +24172,16 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24043,42 +24223,42 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="121" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="130" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="113"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="130" t="s">
         <v>648</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="113"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="130" t="s">
         <v>650</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="113"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="46" t="s">
         <v>616</v>
       </c>
@@ -24089,7 +24269,7 @@
       <c r="E5" s="155"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="114"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="46" t="s">
         <v>652</v>
       </c>
@@ -24098,191 +24278,201 @@
       <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="121" t="s">
         <v>653</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>654</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="135" t="s">
         <v>659</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="113"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="135" t="s">
         <v>660</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="113"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="135" t="s">
         <v>661</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="113"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="45" t="s">
         <v>657</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="135" t="s">
         <v>662</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="113"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="45" t="s">
         <v>658</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="135" t="s">
         <v>663</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
     </row>
     <row r="12" spans="1:5" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="121" t="s">
         <v>664</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>665</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="151" t="s">
         <v>666</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A13" s="113"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="47" t="s">
         <v>667</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="151" t="s">
         <v>668</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="114"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="46" t="s">
         <v>669</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="152" t="s">
         <v>670</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
     </row>
     <row r="15" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="121" t="s">
         <v>678</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="135" t="s">
         <v>680</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A16" s="113"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="45" t="s">
         <v>685</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="135" t="s">
         <v>686</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A17" s="113"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="45" t="s">
         <v>687</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="135" t="s">
         <v>688</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
     </row>
     <row r="18" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A18" s="113"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="135" t="s">
         <v>691</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137"/>
     </row>
     <row r="19" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="156" t="s">
         <v>711</v>
       </c>
       <c r="B19" s="61" t="s">
         <v>707</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="151" t="s">
         <v>708</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A20" s="152"/>
+      <c r="A20" s="156"/>
       <c r="B20" s="59" t="s">
         <v>709</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="130" t="s">
         <v>710</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
     </row>
     <row r="21" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A21" s="152"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="59" t="s">
         <v>712</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="130" t="s">
         <v>713</v>
       </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="141"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
     </row>
     <row r="22" spans="1:5" ht="51" customHeight="1" thickBot="1">
-      <c r="A22" s="152"/>
+      <c r="A22" s="156"/>
       <c r="B22" s="59" t="s">
         <v>714</v>
       </c>
-      <c r="C22" s="139" t="s">
+      <c r="C22" s="130" t="s">
         <v>715</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="141"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A15:A18"/>
@@ -24298,16 +24488,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24351,312 +24531,312 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="121" t="s">
         <v>728</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>729</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="130" t="s">
         <v>730</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="113"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="130" t="s">
         <v>732</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="113"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="130" t="s">
         <v>734</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="114"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="46" t="s">
         <v>735</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="130" t="s">
         <v>736</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="121" t="s">
         <v>737</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>738</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="135" t="s">
         <v>739</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="45" t="s">
         <v>740</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="135" t="s">
         <v>741</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="113"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="135" t="s">
         <v>743</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="113"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="45" t="s">
         <v>744</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="135" t="s">
         <v>745</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="113"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="45" t="s">
         <v>747</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="113"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="135" t="s">
         <v>749</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
     </row>
     <row r="12" spans="1:5" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="114"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="45" t="s">
         <v>750</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="135" t="s">
         <v>751</v>
       </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="118" t="s">
         <v>752</v>
       </c>
       <c r="B13" s="47" t="s">
         <v>753</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="151" t="s">
         <v>758</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A14" s="110"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="151" t="s">
         <v>759</v>
       </c>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:5" ht="38.25" thickBot="1">
-      <c r="A15" s="110"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="46" t="s">
         <v>756</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="130" t="s">
         <v>760</v>
       </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="141"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
     </row>
     <row r="16" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A16" s="110"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="46" t="s">
         <v>755</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="130" t="s">
         <v>761</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A17" s="111"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="47" t="s">
         <v>757</v>
       </c>
-      <c r="C17" s="156" t="s">
+      <c r="C17" s="159" t="s">
         <v>762</v>
       </c>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="161"/>
     </row>
     <row r="18" spans="1:6" ht="66" customHeight="1" thickBot="1">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="157" t="s">
         <v>778</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>780</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="125" t="s">
         <v>782</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
     </row>
     <row r="19" spans="1:6" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="161"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="66" t="s">
         <v>779</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="125" t="s">
         <v>781</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
     </row>
     <row r="20" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="121" t="s">
         <v>783</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>774</v>
       </c>
-      <c r="C20" s="159" t="s">
+      <c r="C20" s="162" t="s">
         <v>787</v>
       </c>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
     </row>
     <row r="21" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="113"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="46" t="s">
         <v>784</v>
       </c>
-      <c r="C21" s="151" t="s">
+      <c r="C21" s="152" t="s">
         <v>785</v>
       </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
     </row>
     <row r="22" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A22" s="113"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="46" t="s">
         <v>788</v>
       </c>
-      <c r="C22" s="139" t="s">
+      <c r="C22" s="130" t="s">
         <v>789</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="141"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
     </row>
     <row r="23" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A23" s="113"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="46" t="s">
         <v>852</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="130" t="s">
         <v>850</v>
       </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
     </row>
     <row r="24" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A24" s="114"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="130" t="s">
         <v>843</v>
       </c>
-      <c r="D24" s="140"/>
-      <c r="E24" s="141"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
     </row>
     <row r="25" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="121" t="s">
         <v>853</v>
       </c>
       <c r="B25" s="46" t="s">
         <v>854</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="130" t="s">
         <v>855</v>
       </c>
-      <c r="D25" s="140"/>
-      <c r="E25" s="141"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
     </row>
     <row r="26" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A26" s="113"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="46" t="s">
         <v>856</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="130" t="s">
         <v>857</v>
       </c>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="132"/>
     </row>
     <row r="27" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A27" s="114"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="46" t="s">
         <v>858</v>
       </c>
-      <c r="C27" s="139" t="s">
+      <c r="C27" s="130" t="s">
         <v>859</v>
       </c>
-      <c r="D27" s="140"/>
-      <c r="E27" s="141"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
     </row>
     <row r="28" spans="1:6" ht="169.5" thickBot="1">
-      <c r="A28" s="112"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="130" t="s">
         <v>866</v>
       </c>
-      <c r="D28" s="141"/>
+      <c r="D28" s="132"/>
       <c r="E28" s="46" t="s">
         <v>864</v>
       </c>
@@ -24665,14 +24845,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="150.75" thickBot="1">
-      <c r="A29" s="113"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="46" t="s">
         <v>865</v>
       </c>
-      <c r="C29" s="139" t="s">
+      <c r="C29" s="130" t="s">
         <v>870</v>
       </c>
-      <c r="D29" s="141"/>
+      <c r="D29" s="132"/>
       <c r="E29" s="46" t="s">
         <v>867</v>
       </c>
@@ -24681,14 +24861,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A30" s="113"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A31" s="113"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -24708,25 +24888,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
@@ -24743,6 +24904,25 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{FE12423F-DF2A-4D6D-8DBE-C74C8D072776}"/>
@@ -24780,166 +24960,160 @@
       <c r="C1" s="44" t="s">
         <v>800</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="135" t="s">
         <v>801</v>
       </c>
-      <c r="E1" s="132"/>
+      <c r="E1" s="137"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="121" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="130" t="s">
         <v>793</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="113"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>794</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="130" t="s">
         <v>795</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="113"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="46" t="s">
         <v>796</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="130" t="s">
         <v>797</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="114"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="46" t="s">
         <v>798</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="130" t="s">
         <v>799</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="121" t="s">
         <v>802</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="135" t="s">
         <v>808</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
     </row>
     <row r="7" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="45" t="s">
         <v>803</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="135" t="s">
         <v>809</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="113"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
         <v>806</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="135" t="s">
         <v>811</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="113"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="135" t="s">
         <v>810</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="113"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="45" t="s">
         <v>804</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="135" t="s">
         <v>812</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="118" t="s">
         <v>783</v>
       </c>
       <c r="B11" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="151" t="s">
         <v>813</v>
       </c>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="110"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="151" t="s">
         <v>815</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="157" t="s">
         <v>820</v>
       </c>
       <c r="B13" s="66"/>
-      <c r="C13" s="162" t="s">
+      <c r="C13" s="163" t="s">
         <v>818</v>
       </c>
-      <c r="D13" s="163"/>
-      <c r="E13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="165"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="161"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="66"/>
-      <c r="C14" s="165" t="s">
+      <c r="C14" s="166" t="s">
         <v>819</v>
       </c>
-      <c r="D14" s="166"/>
-      <c r="E14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
@@ -24952,6 +25126,12 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24981,130 +25161,130 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="132"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="137"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="121" t="s">
         <v>822</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>823</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="130" t="s">
         <v>824</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A3" s="113"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="130" t="s">
         <v>826</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="114"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="46" t="s">
         <v>821</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="130" t="s">
         <v>827</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="121" t="s">
         <v>828</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>829</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="135" t="s">
         <v>830</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="137"/>
     </row>
     <row r="6" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A6" s="113"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="45" t="s">
         <v>831</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="135" t="s">
         <v>832</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="45" t="s">
         <v>833</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="135" t="s">
         <v>834</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="113"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
         <v>835</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="135" t="s">
         <v>836</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="118" t="s">
         <v>837</v>
       </c>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="130" t="s">
         <v>838</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="110"/>
-      <c r="B10" s="139" t="s">
+      <c r="A10" s="119"/>
+      <c r="B10" s="130" t="s">
         <v>839</v>
       </c>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A11" s="110"/>
-      <c r="B11" s="139" t="s">
+      <c r="A11" s="119"/>
+      <c r="B11" s="130" t="s">
         <v>840</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="110"/>
-      <c r="B12" s="139" t="s">
+      <c r="A12" s="119"/>
+      <c r="B12" s="130" t="s">
         <v>841</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="157" t="s">
         <v>842</v>
       </c>
       <c r="B13" s="66"/>
@@ -25113,7 +25293,7 @@
       <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="161"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
@@ -25121,22 +25301,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25551,178 +25731,178 @@
       <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="141.75" customHeight="1" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="121" t="s">
         <v>875</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>876</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="103" t="s">
         <v>879</v>
       </c>
-      <c r="D2" s="115"/>
+      <c r="D2" s="103"/>
     </row>
     <row r="3" spans="1:5" ht="98.25" customHeight="1" thickBot="1">
-      <c r="A3" s="113"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="71" t="s">
         <v>877</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="103" t="s">
         <v>880</v>
       </c>
-      <c r="D3" s="115"/>
+      <c r="D3" s="103"/>
     </row>
     <row r="4" spans="1:5" ht="152.25" customHeight="1" thickBot="1">
-      <c r="A4" s="114"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="71" t="s">
         <v>878</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="103" t="s">
         <v>881</v>
       </c>
-      <c r="D4" s="115"/>
+      <c r="D4" s="103"/>
     </row>
     <row r="5" spans="1:5" ht="164.25" customHeight="1" thickBot="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="118" t="s">
         <v>889</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>891</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="124" t="s">
         <v>893</v>
       </c>
-      <c r="D5" s="117"/>
+      <c r="D5" s="125"/>
     </row>
     <row r="6" spans="1:5" ht="147.75" customHeight="1" thickBot="1">
-      <c r="A6" s="110"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="45" t="s">
         <v>890</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="124" t="s">
         <v>894</v>
       </c>
-      <c r="D6" s="116"/>
+      <c r="D6" s="124"/>
     </row>
     <row r="7" spans="1:5" ht="123" customHeight="1" thickBot="1">
-      <c r="A7" s="110"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="45" t="s">
         <v>892</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="124" t="s">
         <v>895</v>
       </c>
-      <c r="D7" s="116"/>
+      <c r="D7" s="124"/>
     </row>
     <row r="8" spans="1:5" ht="120" customHeight="1" thickBot="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="118" t="s">
         <v>896</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="100" t="s">
         <v>898</v>
       </c>
-      <c r="D8" s="119"/>
+      <c r="D8" s="101"/>
     </row>
     <row r="9" spans="1:5" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A9" s="110"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="73" t="s">
         <v>899</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="100" t="s">
         <v>900</v>
       </c>
-      <c r="D9" s="119"/>
+      <c r="D9" s="101"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="110"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="73" t="s">
         <v>904</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="100" t="s">
         <v>905</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="101"/>
     </row>
     <row r="11" spans="1:5" ht="229.5" customHeight="1" thickBot="1">
-      <c r="A11" s="110"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="73" t="s">
         <v>908</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="100" t="s">
         <v>910</v>
       </c>
-      <c r="D11" s="119"/>
+      <c r="D11" s="101"/>
     </row>
     <row r="12" spans="1:5" ht="223.5" customHeight="1" thickBot="1">
-      <c r="A12" s="110"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="72" t="s">
         <v>915</v>
       </c>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="100" t="s">
         <v>916</v>
       </c>
-      <c r="D12" s="119"/>
+      <c r="D12" s="101"/>
     </row>
     <row r="13" spans="1:5" ht="234.75" customHeight="1" thickBot="1">
-      <c r="A13" s="111"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="72" t="s">
         <v>919</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="126" t="s">
         <v>922</v>
       </c>
-      <c r="D13" s="103"/>
+      <c r="D13" s="127"/>
     </row>
     <row r="14" spans="1:5" ht="184.5" customHeight="1" thickBot="1">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="104" t="s">
         <v>929</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>930</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="100" t="s">
         <v>932</v>
       </c>
-      <c r="D14" s="119"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="34" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="188.25" customHeight="1" thickBot="1">
-      <c r="A15" s="122"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="71" t="s">
         <v>931</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="103" t="s">
         <v>933</v>
       </c>
-      <c r="D15" s="115"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="74" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="153.75" customHeight="1" thickBot="1">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="106" t="s">
         <v>946</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="110" t="s">
         <v>1035</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="112" t="s">
         <v>1038</v>
       </c>
-      <c r="D16" s="128"/>
+      <c r="D16" s="113"/>
     </row>
     <row r="17" spans="1:4" ht="179.25" customHeight="1" thickBot="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="123" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="108" t="s">
         <v>1039</v>
       </c>
-      <c r="D17" s="124"/>
+      <c r="D17" s="109"/>
     </row>
     <row r="18" spans="1:4" ht="57" thickBot="1">
       <c r="A18" s="77" t="s">
@@ -25731,10 +25911,10 @@
       <c r="B18" s="72" t="s">
         <v>949</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="103" t="s">
         <v>950</v>
       </c>
-      <c r="D18" s="115"/>
+      <c r="D18" s="103"/>
     </row>
     <row r="19" spans="1:4" ht="169.5" thickBot="1">
       <c r="A19" s="77" t="s">
@@ -25743,120 +25923,114 @@
       <c r="B19" s="72" t="s">
         <v>965</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="102" t="s">
         <v>966</v>
       </c>
-      <c r="D19" s="120"/>
+      <c r="D19" s="102"/>
     </row>
     <row r="20" spans="1:4" ht="84" customHeight="1" thickBot="1">
       <c r="A20" s="77" t="s">
         <v>1008</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="114" t="s">
         <v>1007</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
     </row>
     <row r="21" spans="1:4" ht="57.75" customHeight="1" thickBot="1">
       <c r="A21" s="77" t="s">
         <v>1009</v>
       </c>
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="115" t="s">
         <v>1010</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
     </row>
     <row r="22" spans="1:4" ht="72.75" thickBot="1">
       <c r="A22" s="77" t="s">
         <v>1012</v>
       </c>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="115" t="s">
         <v>1013</v>
       </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
     </row>
     <row r="23" spans="1:4" ht="114" customHeight="1" thickBot="1">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="106" t="s">
         <v>1060</v>
       </c>
       <c r="B23" s="73" t="s">
         <v>1061</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="126" t="s">
         <v>1062</v>
       </c>
-      <c r="D23" s="103"/>
+      <c r="D23" s="127"/>
     </row>
     <row r="24" spans="1:4" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="73" t="s">
         <v>1064</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="126" t="s">
         <v>1065</v>
       </c>
-      <c r="D24" s="103"/>
+      <c r="D24" s="127"/>
     </row>
     <row r="25" spans="1:4" ht="117" customHeight="1" thickBot="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="73" t="s">
         <v>1068</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="126" t="s">
         <v>1069</v>
       </c>
-      <c r="D25" s="103"/>
+      <c r="D25" s="127"/>
     </row>
     <row r="26" spans="1:4" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="73" t="s">
         <v>1074</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="126" t="s">
         <v>1075</v>
       </c>
-      <c r="D26" s="104"/>
+      <c r="D26" s="129"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A30" s="101"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -25873,11 +26047,17 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25888,8 +26068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C80C63-9F14-4F36-AB3C-26E3A4A9F7FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -25919,168 +26099,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="215.25" customHeight="1" thickBot="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="118" t="s">
         <v>1339</v>
       </c>
       <c r="B1" s="98" t="s">
         <v>1348</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="130" t="s">
         <v>1340</v>
       </c>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="44" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="183.75" customHeight="1" thickBot="1">
-      <c r="A2" s="110"/>
+      <c r="A2" s="119"/>
       <c r="B2" s="98" t="s">
         <v>1351</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="130" t="s">
         <v>1352</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
       <c r="F2" s="44" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="77.25" customHeight="1" thickBot="1">
-      <c r="A3" s="110"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="98" t="s">
         <v>1358</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="130" t="s">
         <v>1359</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
       <c r="F3" s="44" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="111"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A5" s="109"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A6" s="110"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
     </row>
     <row r="7" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A7" s="110"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="141"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A8" s="110"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="141"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A9" s="110"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A10" s="111"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="46"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A11" s="110"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
     </row>
     <row r="12" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="110"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
     </row>
     <row r="13" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A13" s="110"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
     </row>
     <row r="14" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A14" s="111"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="45"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
     </row>
     <row r="15" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A15" s="112"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
     </row>
     <row r="16" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A16" s="113"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
     </row>
     <row r="17" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A17" s="114"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
     </row>
     <row r="18" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:E11"/>
@@ -26089,6 +26257,18 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:E17"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26135,205 +26315,211 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="121" t="s">
         <v>537</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="130" t="s">
         <v>619</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="125" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="110" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="113"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="130" t="s">
         <v>618</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="143"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="113"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="130" t="s">
         <v>620</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="143"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="144"/>
     </row>
     <row r="5" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="114"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="130" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="126"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="111"/>
     </row>
     <row r="6" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="118" t="s">
         <v>1286</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>1287</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="130" t="s">
         <v>1293</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A7" s="110"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="46" t="s">
         <v>1288</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="133" t="s">
         <v>1294</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="141"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="110"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="46" t="s">
         <v>1289</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="130" t="s">
         <v>1295</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="141"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A9" s="110"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="46" t="s">
         <v>1290</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="130" t="s">
         <v>1296</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A10" s="110"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="46" t="s">
         <v>1291</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="130" t="s">
         <v>1297</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A11" s="111"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="46" t="s">
         <v>1292</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="130" t="s">
         <v>1298</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="119" t="s">
         <v>1318</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="135" t="s">
         <v>1323</v>
       </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="110"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="45" t="s">
         <v>1319</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="138" t="s">
         <v>1322</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
     </row>
     <row r="14" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A14" s="110"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="45" t="s">
         <v>628</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="138" t="s">
         <v>1324</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
     </row>
     <row r="15" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A15" s="111"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="45" t="s">
         <v>1315</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="138" t="s">
         <v>1321</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
     </row>
     <row r="16" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A16" s="112"/>
-      <c r="B16" s="136" t="s">
+      <c r="A16" s="121"/>
+      <c r="B16" s="141" t="s">
         <v>1320</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
     </row>
     <row r="17" spans="1:5" ht="64.5" customHeight="1">
-      <c r="A17" s="113"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
     </row>
     <row r="18" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
     </row>
     <row r="19" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="134" t="s">
         <v>1325</v>
       </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B16:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="C10:E10"/>
@@ -26349,12 +26535,6 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26391,12 +26571,12 @@
       <c r="C1" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="145" t="s">
         <v>1056</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" ht="38.25" thickBot="1">
       <c r="A2" s="38"/>
@@ -26416,7 +26596,7 @@
     <row r="3" spans="1:7" ht="60.75" thickBot="1">
       <c r="A3" s="38"/>
       <c r="B3" s="40"/>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="149" t="s">
         <v>501</v>
       </c>
       <c r="D3" s="94" t="s">
@@ -26435,7 +26615,7 @@
     <row r="4" spans="1:7" ht="94.5" thickBot="1">
       <c r="A4" s="38"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="148"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="94" t="s">
         <v>1263</v>
       </c>
@@ -26474,11 +26654,11 @@
       <c r="D7" s="90" t="s">
         <v>631</v>
       </c>
-      <c r="E7" s="144" t="s">
+      <c r="E7" s="146" t="s">
         <v>1044</v>
       </c>
-      <c r="F7" s="145"/>
-      <c r="G7" s="146"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="148"/>
     </row>
     <row r="8" spans="1:7" ht="111" customHeight="1" thickBot="1">
       <c r="A8" s="34"/>
@@ -26489,11 +26669,11 @@
       <c r="D8" s="90" t="s">
         <v>632</v>
       </c>
-      <c r="E8" s="144" t="s">
+      <c r="E8" s="146" t="s">
         <v>1047</v>
       </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="38.25" thickBot="1">
       <c r="A9" s="55"/>
@@ -26517,11 +26697,11 @@
       <c r="D10" s="90" t="s">
         <v>1048</v>
       </c>
-      <c r="E10" s="144" t="s">
+      <c r="E10" s="146" t="s">
         <v>1049</v>
       </c>
-      <c r="F10" s="145"/>
-      <c r="G10" s="146"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="148"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="34"/>
@@ -26532,11 +26712,11 @@
       <c r="D11" s="90" t="s">
         <v>1051</v>
       </c>
-      <c r="E11" s="144" t="s">
+      <c r="E11" s="146" t="s">
         <v>1054</v>
       </c>
-      <c r="F11" s="145"/>
-      <c r="G11" s="146"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="148"/>
     </row>
     <row r="12" spans="1:7" ht="96.75" customHeight="1" thickBot="1">
       <c r="A12" s="34"/>
@@ -26549,11 +26729,11 @@
       <c r="D12" s="90" t="s">
         <v>1053</v>
       </c>
-      <c r="E12" s="144" t="s">
+      <c r="E12" s="146" t="s">
         <v>1057</v>
       </c>
-      <c r="F12" s="145"/>
-      <c r="G12" s="146"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="148"/>
     </row>
     <row r="13" spans="1:7" ht="272.25" customHeight="1" thickBot="1">
       <c r="A13" s="34"/>
@@ -26562,11 +26742,11 @@
         <v>1058</v>
       </c>
       <c r="D13" s="95"/>
-      <c r="E13" s="144" t="s">
+      <c r="E13" s="146" t="s">
         <v>1059</v>
       </c>
-      <c r="F13" s="145"/>
-      <c r="G13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="148"/>
     </row>
     <row r="14" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A14" s="34"/>
@@ -26579,11 +26759,11 @@
       <c r="D14" s="90" t="s">
         <v>1070</v>
       </c>
-      <c r="E14" s="144" t="s">
+      <c r="E14" s="146" t="s">
         <v>1071</v>
       </c>
-      <c r="F14" s="145"/>
-      <c r="G14" s="146"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="148"/>
     </row>
     <row r="15" spans="1:7" ht="92.25" customHeight="1" thickBot="1">
       <c r="A15" s="34"/>
@@ -26594,11 +26774,11 @@
       <c r="D15" s="90" t="s">
         <v>1072</v>
       </c>
-      <c r="E15" s="144" t="s">
+      <c r="E15" s="146" t="s">
         <v>1073</v>
       </c>
-      <c r="F15" s="145"/>
-      <c r="G15" s="146"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="148"/>
     </row>
     <row r="16" spans="1:7" ht="105.75" customHeight="1" thickBot="1">
       <c r="A16" s="34"/>
@@ -26611,11 +26791,11 @@
       <c r="D16" s="90" t="s">
         <v>1076</v>
       </c>
-      <c r="E16" s="144" t="s">
+      <c r="E16" s="146" t="s">
         <v>1077</v>
       </c>
-      <c r="F16" s="145"/>
-      <c r="G16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="148"/>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" thickBot="1">
       <c r="A17" s="34"/>
@@ -26626,11 +26806,11 @@
       <c r="D17" s="90" t="s">
         <v>1078</v>
       </c>
-      <c r="E17" s="144" t="s">
+      <c r="E17" s="146" t="s">
         <v>1079</v>
       </c>
-      <c r="F17" s="145"/>
-      <c r="G17" s="146"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
     </row>
     <row r="18" spans="1:7" ht="60.75" customHeight="1" thickBot="1">
       <c r="A18" s="34"/>
@@ -26641,11 +26821,11 @@
       <c r="D18" s="90" t="s">
         <v>1082</v>
       </c>
-      <c r="E18" s="144" t="s">
+      <c r="E18" s="146" t="s">
         <v>1260</v>
       </c>
-      <c r="F18" s="145"/>
-      <c r="G18" s="146"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="148"/>
     </row>
     <row r="19" spans="1:7" ht="54" customHeight="1" thickBot="1">
       <c r="A19" s="34"/>
@@ -26656,11 +26836,11 @@
       <c r="D19" s="90" t="s">
         <v>1275</v>
       </c>
-      <c r="E19" s="144" t="s">
+      <c r="E19" s="146" t="s">
         <v>1272</v>
       </c>
-      <c r="F19" s="145"/>
-      <c r="G19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="148"/>
     </row>
     <row r="20" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A20" s="34"/>
@@ -26671,11 +26851,11 @@
       <c r="D20" s="90" t="s">
         <v>1276</v>
       </c>
-      <c r="E20" s="144" t="s">
+      <c r="E20" s="146" t="s">
         <v>1274</v>
       </c>
-      <c r="F20" s="145"/>
-      <c r="G20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
     </row>
     <row r="21" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A21" s="34"/>
@@ -26688,11 +26868,11 @@
       <c r="D21" s="90" t="s">
         <v>1279</v>
       </c>
-      <c r="E21" s="144" t="s">
+      <c r="E21" s="146" t="s">
         <v>1280</v>
       </c>
-      <c r="F21" s="145"/>
-      <c r="G21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="148"/>
     </row>
     <row r="22" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A22" s="34"/>
@@ -26700,11 +26880,11 @@
       <c r="D22" s="90" t="s">
         <v>1281</v>
       </c>
-      <c r="E22" s="144" t="s">
+      <c r="E22" s="146" t="s">
         <v>1282</v>
       </c>
-      <c r="F22" s="145"/>
-      <c r="G22" s="146"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="148"/>
     </row>
     <row r="23" spans="1:7" ht="48.75" customHeight="1" thickBot="1">
       <c r="A23" s="34"/>
@@ -27671,6 +27851,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E7:G7"/>
@@ -27683,11 +27868,6 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F53D69-1CC4-4245-8D5D-C0D3D259C956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B331D4F8-4B06-4503-8403-1D595CC5B164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1367">
   <si>
     <t>Forense</t>
   </si>
@@ -7187,6 +7187,15 @@
       <t xml:space="preserve">  Ingrese el comando  en una ventana de terminal amplia en su instancia de Kali para ver los títulos completos. es una herramienta de línea de comandos que permite buscar exploits y shellcodes en la base de datos de Exploit-DB de manera local. Es especialmente útil para realizar evaluaciones de seguridad en redes aisladas o sin acceso a Internet, ya que permite tener una copia local de la base de datos de exploits2.
 Con SearchSploit, puedes buscar vulnerabilidades específicas utilizando términos clave y obtener información detallada sobre cómo ejecutar o compilar los exploits. Es una herramienta esencial en el arsenal de un pentester, ya que acelera el proceso de identificación y explotación de vulnerabilidades.</t>
     </r>
+  </si>
+  <si>
+    <t>https://inteltechniques.com/tools/Domain.html</t>
+  </si>
+  <si>
+    <t>OSINT</t>
+  </si>
+  <si>
+    <t>Intel techniques</t>
   </si>
 </sst>
 </file>
@@ -8125,47 +8134,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8197,35 +8182,47 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8257,11 +8254,20 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8278,11 +8284,17 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8291,15 +8303,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8313,6 +8316,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -18561,8 +18570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView topLeftCell="F188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H193" sqref="H193"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F231" sqref="F231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -23196,6 +23205,18 @@
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="80"/>
+      <c r="D219" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E219" s="53" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="3">
@@ -23875,12 +23896,13 @@
     <hyperlink ref="G213" r:id="rId95" xr:uid="{4182C211-1210-4562-8AEB-88993C90DFF4}"/>
     <hyperlink ref="G159" r:id="rId96" xr:uid="{A71FF72C-40F9-46F1-B642-22A7C2C3FCFE}"/>
     <hyperlink ref="G218" r:id="rId97" xr:uid="{A1EE11C3-5361-48FC-8F8C-BAB4C5B7ED61}"/>
+    <hyperlink ref="G219" r:id="rId98" xr:uid="{5B7CD78D-B2E3-4C16-AFE6-AF356CAD6A7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
-  <legacyDrawing r:id="rId99"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId99"/>
+  <legacyDrawing r:id="rId100"/>
   <tableParts count="1">
-    <tablePart r:id="rId100"/>
+    <tablePart r:id="rId101"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23913,141 +23935,141 @@
       <c r="C1" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="107" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="117"/>
+      <c r="E1" s="109"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>528</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>533</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>536</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="113" t="s">
         <v>537</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>545</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
       <c r="F6" s="44" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>547</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>548</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>549</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:6" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>550</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="45" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="131" t="s">
         <v>551</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="123"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="131" t="s">
         <v>552</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="113" t="s">
         <v>561</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -24060,7 +24082,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="47" t="s">
         <v>564</v>
       </c>
@@ -24071,7 +24093,7 @@
       <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="123"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="46" t="s">
         <v>566</v>
       </c>
@@ -24082,47 +24104,47 @@
       <c r="E15" s="152"/>
     </row>
     <row r="16" spans="1:6" ht="57" thickBot="1">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="113" t="s">
         <v>568</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="131" t="s">
         <v>570</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="135" t="s">
+      <c r="A17" s="114"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="131" t="s">
         <v>571</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
     </row>
     <row r="18" spans="1:5" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="144"/>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="131" t="s">
         <v>572</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
     </row>
     <row r="19" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="123"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="135" t="s">
+      <c r="A19" s="115"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="131" t="s">
         <v>573</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
     </row>
     <row r="20" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="113" t="s">
         <v>602</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -24135,7 +24157,7 @@
       <c r="E20" s="151"/>
     </row>
     <row r="21" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="47" t="s">
         <v>607</v>
       </c>
@@ -24146,7 +24168,7 @@
       <c r="E21" s="151"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A22" s="122"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="46"/>
       <c r="C22" s="152"/>
       <c r="D22" s="152"/>
@@ -24154,12 +24176,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -24172,16 +24198,12 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24223,53 +24245,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>648</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>650</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="154" t="s">
         <v>651</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="156"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="123"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="46" t="s">
         <v>652</v>
       </c>
@@ -24278,64 +24300,64 @@
       <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="113" t="s">
         <v>653</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>654</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>659</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>660</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>661</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>657</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>662</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="45" t="s">
         <v>658</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="131" t="s">
         <v>663</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:5" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="113" t="s">
         <v>664</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -24348,7 +24370,7 @@
       <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A13" s="122"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="47" t="s">
         <v>667</v>
       </c>
@@ -24359,7 +24381,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="123"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="46" t="s">
         <v>669</v>
       </c>
@@ -24370,53 +24392,53 @@
       <c r="E14" s="152"/>
     </row>
     <row r="15" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="113" t="s">
         <v>678</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="131" t="s">
         <v>680</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A16" s="122"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="45" t="s">
         <v>685</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="131" t="s">
         <v>686</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
     </row>
     <row r="17" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A17" s="122"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="45" t="s">
         <v>687</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="131" t="s">
         <v>688</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
     </row>
     <row r="18" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="131" t="s">
         <v>691</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
     </row>
     <row r="19" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="153" t="s">
         <v>711</v>
       </c>
       <c r="B19" s="61" t="s">
@@ -24429,50 +24451,40 @@
       <c r="E19" s="151"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A20" s="156"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="59" t="s">
         <v>709</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="140" t="s">
         <v>710</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142"/>
     </row>
     <row r="21" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A21" s="156"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="59" t="s">
         <v>712</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="140" t="s">
         <v>713</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="142"/>
     </row>
     <row r="22" spans="1:5" ht="51" customHeight="1" thickBot="1">
-      <c r="A22" s="156"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="59" t="s">
         <v>714</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="140" t="s">
         <v>715</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A15:A18"/>
@@ -24488,6 +24500,16 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24531,132 +24553,132 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>728</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>729</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>730</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>732</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>734</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>735</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>736</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="113" t="s">
         <v>737</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>738</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>739</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>740</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>741</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>743</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>744</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>745</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>747</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>746</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="131" t="s">
         <v>749</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:5" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="123"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="45" t="s">
         <v>750</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="131" t="s">
         <v>751</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="110" t="s">
         <v>752</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -24669,7 +24691,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A14" s="119"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="47" t="s">
         <v>754</v>
       </c>
@@ -24680,77 +24702,77 @@
       <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:5" ht="38.25" thickBot="1">
-      <c r="A15" s="119"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="46" t="s">
         <v>756</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="140" t="s">
         <v>760</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="142"/>
     </row>
     <row r="16" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A16" s="119"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="46" t="s">
         <v>755</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="140" t="s">
         <v>761</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="142"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A17" s="120"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="47" t="s">
         <v>757</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="157" t="s">
         <v>762</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="161"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="159"/>
     </row>
     <row r="18" spans="1:6" ht="66" customHeight="1" thickBot="1">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="161" t="s">
         <v>778</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>780</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="118" t="s">
         <v>782</v>
       </c>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
     </row>
     <row r="19" spans="1:6" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="158"/>
+      <c r="A19" s="162"/>
       <c r="B19" s="66" t="s">
         <v>779</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="118" t="s">
         <v>781</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
     </row>
     <row r="20" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="113" t="s">
         <v>783</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>774</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="160" t="s">
         <v>787</v>
       </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
     </row>
     <row r="21" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="46" t="s">
         <v>784</v>
       </c>
@@ -24761,82 +24783,82 @@
       <c r="E21" s="152"/>
     </row>
     <row r="22" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A22" s="122"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="46" t="s">
         <v>788</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="140" t="s">
         <v>789</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
     </row>
     <row r="23" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A23" s="122"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="46" t="s">
         <v>852</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="140" t="s">
         <v>850</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
     </row>
     <row r="24" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A24" s="123"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="140" t="s">
         <v>843</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="142"/>
     </row>
     <row r="25" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="113" t="s">
         <v>853</v>
       </c>
       <c r="B25" s="46" t="s">
         <v>854</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="140" t="s">
         <v>855</v>
       </c>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
     </row>
     <row r="26" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A26" s="122"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="46" t="s">
         <v>856</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="140" t="s">
         <v>857</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
     </row>
     <row r="27" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A27" s="123"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="46" t="s">
         <v>858</v>
       </c>
-      <c r="C27" s="130" t="s">
+      <c r="C27" s="140" t="s">
         <v>859</v>
       </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
     </row>
     <row r="28" spans="1:6" ht="169.5" thickBot="1">
-      <c r="A28" s="121"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="140" t="s">
         <v>866</v>
       </c>
-      <c r="D28" s="132"/>
+      <c r="D28" s="142"/>
       <c r="E28" s="46" t="s">
         <v>864</v>
       </c>
@@ -24845,14 +24867,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="150.75" thickBot="1">
-      <c r="A29" s="122"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="46" t="s">
         <v>865</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="140" t="s">
         <v>870</v>
       </c>
-      <c r="D29" s="132"/>
+      <c r="D29" s="142"/>
       <c r="E29" s="46" t="s">
         <v>867</v>
       </c>
@@ -24861,14 +24883,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A30" s="122"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A31" s="122"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -24888,6 +24910,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
@@ -24904,25 +24945,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{FE12423F-DF2A-4D6D-8DBE-C74C8D072776}"/>
@@ -24960,116 +24982,116 @@
       <c r="C1" s="44" t="s">
         <v>800</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="131" t="s">
         <v>801</v>
       </c>
-      <c r="E1" s="137"/>
+      <c r="E1" s="133"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>793</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>794</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>795</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>796</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>797</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>798</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>799</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="113" t="s">
         <v>802</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>808</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>803</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>809</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>806</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>811</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>810</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>804</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>812</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="110" t="s">
         <v>783</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -25082,7 +25104,7 @@
       <c r="E11" s="151"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="47" t="s">
         <v>814</v>
       </c>
@@ -25093,7 +25115,7 @@
       <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="161" t="s">
         <v>820</v>
       </c>
       <c r="B13" s="66"/>
@@ -25104,7 +25126,7 @@
       <c r="E13" s="165"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="158"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="66"/>
       <c r="C14" s="166" t="s">
         <v>819</v>
@@ -25114,6 +25136,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
@@ -25126,12 +25154,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25161,130 +25183,130 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="137"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="133"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>822</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>823</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>824</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>826</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="123"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="46" t="s">
         <v>821</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>827</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="113" t="s">
         <v>828</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>829</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="131" t="s">
         <v>830</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="137"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="133"/>
     </row>
     <row r="6" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="45" t="s">
         <v>831</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>832</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>833</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>834</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>835</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>836</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="110" t="s">
         <v>837</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="140" t="s">
         <v>838</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="130" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="140" t="s">
         <v>839</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="130" t="s">
+      <c r="A11" s="111"/>
+      <c r="B11" s="140" t="s">
         <v>840</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
-      <c r="B12" s="130" t="s">
+      <c r="A12" s="111"/>
+      <c r="B12" s="140" t="s">
         <v>841</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="161" t="s">
         <v>842</v>
       </c>
       <c r="B13" s="66"/>
@@ -25293,7 +25315,7 @@
       <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="158"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
@@ -25301,22 +25323,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25731,178 +25753,178 @@
       <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="141.75" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>875</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>876</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="116" t="s">
         <v>879</v>
       </c>
-      <c r="D2" s="103"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:5" ht="98.25" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="71" t="s">
         <v>877</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="116" t="s">
         <v>880</v>
       </c>
-      <c r="D3" s="103"/>
+      <c r="D3" s="116"/>
     </row>
     <row r="4" spans="1:5" ht="152.25" customHeight="1" thickBot="1">
-      <c r="A4" s="123"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="71" t="s">
         <v>878</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="116" t="s">
         <v>881</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="116"/>
     </row>
     <row r="5" spans="1:5" ht="164.25" customHeight="1" thickBot="1">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="110" t="s">
         <v>889</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>891</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="117" t="s">
         <v>893</v>
       </c>
-      <c r="D5" s="125"/>
+      <c r="D5" s="118"/>
     </row>
     <row r="6" spans="1:5" ht="147.75" customHeight="1" thickBot="1">
-      <c r="A6" s="119"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>890</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="117" t="s">
         <v>894</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="117"/>
     </row>
     <row r="7" spans="1:5" ht="123" customHeight="1" thickBot="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>892</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="117" t="s">
         <v>895</v>
       </c>
-      <c r="D7" s="124"/>
+      <c r="D7" s="117"/>
     </row>
     <row r="8" spans="1:5" ht="120" customHeight="1" thickBot="1">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="110" t="s">
         <v>896</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="119" t="s">
         <v>898</v>
       </c>
-      <c r="D8" s="101"/>
+      <c r="D8" s="120"/>
     </row>
     <row r="9" spans="1:5" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="73" t="s">
         <v>899</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="119" t="s">
         <v>900</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="120"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="73" t="s">
         <v>904</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="D10" s="101"/>
+      <c r="D10" s="120"/>
     </row>
     <row r="11" spans="1:5" ht="229.5" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="73" t="s">
         <v>908</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="119" t="s">
         <v>910</v>
       </c>
-      <c r="D11" s="101"/>
+      <c r="D11" s="120"/>
     </row>
     <row r="12" spans="1:5" ht="223.5" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="72" t="s">
         <v>915</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="119" t="s">
         <v>916</v>
       </c>
-      <c r="D12" s="101"/>
+      <c r="D12" s="120"/>
     </row>
     <row r="13" spans="1:5" ht="234.75" customHeight="1" thickBot="1">
-      <c r="A13" s="120"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="72" t="s">
         <v>919</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="103" t="s">
         <v>922</v>
       </c>
-      <c r="D13" s="127"/>
+      <c r="D13" s="104"/>
     </row>
     <row r="14" spans="1:5" ht="184.5" customHeight="1" thickBot="1">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="122" t="s">
         <v>929</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>930</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="119" t="s">
         <v>932</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="34" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="188.25" customHeight="1" thickBot="1">
-      <c r="A15" s="105"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="71" t="s">
         <v>931</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="116" t="s">
         <v>933</v>
       </c>
-      <c r="D15" s="103"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="74" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="153.75" customHeight="1" thickBot="1">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="100" t="s">
         <v>946</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="126" t="s">
         <v>1035</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="128" t="s">
         <v>1038</v>
       </c>
-      <c r="D16" s="113"/>
+      <c r="D16" s="129"/>
     </row>
     <row r="17" spans="1:4" ht="179.25" customHeight="1" thickBot="1">
-      <c r="A17" s="107"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="108" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="124" t="s">
         <v>1039</v>
       </c>
-      <c r="D17" s="109"/>
+      <c r="D17" s="125"/>
     </row>
     <row r="18" spans="1:4" ht="57" thickBot="1">
       <c r="A18" s="77" t="s">
@@ -25911,10 +25933,10 @@
       <c r="B18" s="72" t="s">
         <v>949</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="116" t="s">
         <v>950</v>
       </c>
-      <c r="D18" s="103"/>
+      <c r="D18" s="116"/>
     </row>
     <row r="19" spans="1:4" ht="169.5" thickBot="1">
       <c r="A19" s="77" t="s">
@@ -25923,114 +25945,120 @@
       <c r="B19" s="72" t="s">
         <v>965</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="121" t="s">
         <v>966</v>
       </c>
-      <c r="D19" s="102"/>
+      <c r="D19" s="121"/>
     </row>
     <row r="20" spans="1:4" ht="84" customHeight="1" thickBot="1">
       <c r="A20" s="77" t="s">
         <v>1008</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="106" t="s">
         <v>1007</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
     </row>
     <row r="21" spans="1:4" ht="57.75" customHeight="1" thickBot="1">
       <c r="A21" s="77" t="s">
         <v>1009</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="107" t="s">
         <v>1010</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
     </row>
     <row r="22" spans="1:4" ht="72.75" thickBot="1">
       <c r="A22" s="77" t="s">
         <v>1012</v>
       </c>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="107" t="s">
         <v>1013</v>
       </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="117"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
     </row>
     <row r="23" spans="1:4" ht="114" customHeight="1" thickBot="1">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="100" t="s">
         <v>1060</v>
       </c>
       <c r="B23" s="73" t="s">
         <v>1061</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="103" t="s">
         <v>1062</v>
       </c>
-      <c r="D23" s="127"/>
+      <c r="D23" s="104"/>
     </row>
     <row r="24" spans="1:4" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A24" s="107"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="73" t="s">
         <v>1064</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="103" t="s">
         <v>1065</v>
       </c>
-      <c r="D24" s="127"/>
+      <c r="D24" s="104"/>
     </row>
     <row r="25" spans="1:4" ht="117" customHeight="1" thickBot="1">
-      <c r="A25" s="107"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="73" t="s">
         <v>1068</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="103" t="s">
         <v>1069</v>
       </c>
-      <c r="D25" s="127"/>
+      <c r="D25" s="104"/>
     </row>
     <row r="26" spans="1:4" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A26" s="107"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="73" t="s">
         <v>1074</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="103" t="s">
         <v>1075</v>
       </c>
-      <c r="D26" s="129"/>
+      <c r="D26" s="105"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A27" s="107"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A28" s="107"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A29" s="107"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A30" s="128"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -26047,17 +26075,11 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26068,7 +26090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C80C63-9F14-4F36-AB3C-26E3A4A9F7FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -26099,156 +26121,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="215.25" customHeight="1" thickBot="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="110" t="s">
         <v>1339</v>
       </c>
       <c r="B1" s="98" t="s">
         <v>1348</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="140" t="s">
         <v>1340</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="142"/>
       <c r="F1" s="44" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="183.75" customHeight="1" thickBot="1">
-      <c r="A2" s="119"/>
+      <c r="A2" s="111"/>
       <c r="B2" s="98" t="s">
         <v>1351</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>1352</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="44" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="77.25" customHeight="1" thickBot="1">
-      <c r="A3" s="119"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="98" t="s">
         <v>1358</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>1359</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="44" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="120"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A5" s="118"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A6" s="119"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
     </row>
     <row r="8" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A8" s="119"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
     </row>
     <row r="10" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A10" s="120"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="46"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
     </row>
     <row r="13" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A13" s="119"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
     </row>
     <row r="14" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A14" s="120"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="45"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A15" s="121"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
     </row>
     <row r="16" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A16" s="122"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
     </row>
     <row r="17" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A17" s="123"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
     </row>
     <row r="18" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:E11"/>
@@ -26257,18 +26291,6 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:E17"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26315,211 +26337,205 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>537</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>619</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="110" t="s">
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="126" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>618</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>620</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="144"/>
     </row>
     <row r="5" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="127"/>
     </row>
     <row r="6" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="110" t="s">
         <v>1286</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>1287</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="140" t="s">
         <v>1293</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="46" t="s">
         <v>1288</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="143" t="s">
         <v>1294</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
     </row>
     <row r="8" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="119"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="46" t="s">
         <v>1289</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="140" t="s">
         <v>1295</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="46" t="s">
         <v>1290</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="140" t="s">
         <v>1296</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
     </row>
     <row r="10" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="46" t="s">
         <v>1291</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="140" t="s">
         <v>1297</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A11" s="120"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="46" t="s">
         <v>1292</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="140" t="s">
         <v>1298</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
     </row>
     <row r="12" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="111" t="s">
         <v>1318</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="131" t="s">
         <v>1323</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="119"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>1319</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="134" t="s">
         <v>1322</v>
       </c>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
     </row>
     <row r="14" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A14" s="119"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>628</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="134" t="s">
         <v>1324</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A15" s="120"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="45" t="s">
         <v>1315</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="134" t="s">
         <v>1321</v>
       </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
     </row>
     <row r="16" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A16" s="121"/>
-      <c r="B16" s="141" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="137" t="s">
         <v>1320</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="1:5" ht="64.5" customHeight="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
     </row>
     <row r="18" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A18" s="123"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
     </row>
     <row r="19" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="130" t="s">
         <v>1325</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B16:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="C10:E10"/>
@@ -26535,6 +26551,12 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26571,12 +26593,12 @@
       <c r="C1" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="D1" s="150" t="s">
         <v>1056</v>
       </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
     </row>
     <row r="2" spans="1:7" ht="38.25" thickBot="1">
       <c r="A2" s="38"/>
@@ -26596,7 +26618,7 @@
     <row r="3" spans="1:7" ht="60.75" thickBot="1">
       <c r="A3" s="38"/>
       <c r="B3" s="40"/>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="148" t="s">
         <v>501</v>
       </c>
       <c r="D3" s="94" t="s">
@@ -26615,7 +26637,7 @@
     <row r="4" spans="1:7" ht="94.5" thickBot="1">
       <c r="A4" s="38"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="150"/>
+      <c r="C4" s="149"/>
       <c r="D4" s="94" t="s">
         <v>1263</v>
       </c>
@@ -26654,11 +26676,11 @@
       <c r="D7" s="90" t="s">
         <v>631</v>
       </c>
-      <c r="E7" s="146" t="s">
+      <c r="E7" s="145" t="s">
         <v>1044</v>
       </c>
-      <c r="F7" s="147"/>
-      <c r="G7" s="148"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="147"/>
     </row>
     <row r="8" spans="1:7" ht="111" customHeight="1" thickBot="1">
       <c r="A8" s="34"/>
@@ -26669,11 +26691,11 @@
       <c r="D8" s="90" t="s">
         <v>632</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="145" t="s">
         <v>1047</v>
       </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="38.25" thickBot="1">
       <c r="A9" s="55"/>
@@ -26697,11 +26719,11 @@
       <c r="D10" s="90" t="s">
         <v>1048</v>
       </c>
-      <c r="E10" s="146" t="s">
+      <c r="E10" s="145" t="s">
         <v>1049</v>
       </c>
-      <c r="F10" s="147"/>
-      <c r="G10" s="148"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="34"/>
@@ -26712,11 +26734,11 @@
       <c r="D11" s="90" t="s">
         <v>1051</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="145" t="s">
         <v>1054</v>
       </c>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="147"/>
     </row>
     <row r="12" spans="1:7" ht="96.75" customHeight="1" thickBot="1">
       <c r="A12" s="34"/>
@@ -26729,11 +26751,11 @@
       <c r="D12" s="90" t="s">
         <v>1053</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="145" t="s">
         <v>1057</v>
       </c>
-      <c r="F12" s="147"/>
-      <c r="G12" s="148"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="147"/>
     </row>
     <row r="13" spans="1:7" ht="272.25" customHeight="1" thickBot="1">
       <c r="A13" s="34"/>
@@ -26742,11 +26764,11 @@
         <v>1058</v>
       </c>
       <c r="D13" s="95"/>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="145" t="s">
         <v>1059</v>
       </c>
-      <c r="F13" s="147"/>
-      <c r="G13" s="148"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="147"/>
     </row>
     <row r="14" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A14" s="34"/>
@@ -26759,11 +26781,11 @@
       <c r="D14" s="90" t="s">
         <v>1070</v>
       </c>
-      <c r="E14" s="146" t="s">
+      <c r="E14" s="145" t="s">
         <v>1071</v>
       </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="148"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="147"/>
     </row>
     <row r="15" spans="1:7" ht="92.25" customHeight="1" thickBot="1">
       <c r="A15" s="34"/>
@@ -26774,11 +26796,11 @@
       <c r="D15" s="90" t="s">
         <v>1072</v>
       </c>
-      <c r="E15" s="146" t="s">
+      <c r="E15" s="145" t="s">
         <v>1073</v>
       </c>
-      <c r="F15" s="147"/>
-      <c r="G15" s="148"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="147"/>
     </row>
     <row r="16" spans="1:7" ht="105.75" customHeight="1" thickBot="1">
       <c r="A16" s="34"/>
@@ -26791,11 +26813,11 @@
       <c r="D16" s="90" t="s">
         <v>1076</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="145" t="s">
         <v>1077</v>
       </c>
-      <c r="F16" s="147"/>
-      <c r="G16" s="148"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="147"/>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" thickBot="1">
       <c r="A17" s="34"/>
@@ -26806,11 +26828,11 @@
       <c r="D17" s="90" t="s">
         <v>1078</v>
       </c>
-      <c r="E17" s="146" t="s">
+      <c r="E17" s="145" t="s">
         <v>1079</v>
       </c>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="147"/>
     </row>
     <row r="18" spans="1:7" ht="60.75" customHeight="1" thickBot="1">
       <c r="A18" s="34"/>
@@ -26821,11 +26843,11 @@
       <c r="D18" s="90" t="s">
         <v>1082</v>
       </c>
-      <c r="E18" s="146" t="s">
+      <c r="E18" s="145" t="s">
         <v>1260</v>
       </c>
-      <c r="F18" s="147"/>
-      <c r="G18" s="148"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="147"/>
     </row>
     <row r="19" spans="1:7" ht="54" customHeight="1" thickBot="1">
       <c r="A19" s="34"/>
@@ -26836,11 +26858,11 @@
       <c r="D19" s="90" t="s">
         <v>1275</v>
       </c>
-      <c r="E19" s="146" t="s">
+      <c r="E19" s="145" t="s">
         <v>1272</v>
       </c>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="147"/>
     </row>
     <row r="20" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A20" s="34"/>
@@ -26851,11 +26873,11 @@
       <c r="D20" s="90" t="s">
         <v>1276</v>
       </c>
-      <c r="E20" s="146" t="s">
+      <c r="E20" s="145" t="s">
         <v>1274</v>
       </c>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="147"/>
     </row>
     <row r="21" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A21" s="34"/>
@@ -26868,11 +26890,11 @@
       <c r="D21" s="90" t="s">
         <v>1279</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="145" t="s">
         <v>1280</v>
       </c>
-      <c r="F21" s="147"/>
-      <c r="G21" s="148"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="147"/>
     </row>
     <row r="22" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A22" s="34"/>
@@ -26880,11 +26902,11 @@
       <c r="D22" s="90" t="s">
         <v>1281</v>
       </c>
-      <c r="E22" s="146" t="s">
+      <c r="E22" s="145" t="s">
         <v>1282</v>
       </c>
-      <c r="F22" s="147"/>
-      <c r="G22" s="148"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="147"/>
     </row>
     <row r="23" spans="1:7" ht="48.75" customHeight="1" thickBot="1">
       <c r="A23" s="34"/>
@@ -27851,11 +27873,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E7:G7"/>
@@ -27868,6 +27885,11 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6D7EF8-9216-471B-ADB5-F3A52F737EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BDF9E9-7F7E-4DB5-8446-B362C1CD7ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -8152,47 +8152,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8224,35 +8200,47 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8284,11 +8272,20 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8305,11 +8302,17 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8318,15 +8321,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8340,6 +8334,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -20985,7 +20985,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="90">
+    <row r="54" spans="1:8" ht="315">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="315">
+    <row r="55" spans="1:8" ht="30">
       <c r="A55" s="3">
         <v>3</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30">
+    <row r="57" spans="1:8" ht="45">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -21075,7 +21075,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="45">
+    <row r="58" spans="1:8" ht="60">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="79" t="s">
@@ -21097,7 +21097,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="60">
+    <row r="59" spans="1:8" ht="30">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -21119,7 +21119,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30">
+    <row r="60" spans="1:8" ht="45">
       <c r="A60" s="3">
         <v>3</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45">
+    <row r="61" spans="1:8" ht="135">
       <c r="A61" s="3">
         <v>3</v>
       </c>
@@ -21165,7 +21165,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="135">
+    <row r="62" spans="1:8" ht="60">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="60">
+    <row r="63" spans="1:8" ht="45">
       <c r="A63" s="3">
         <v>3</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45">
+    <row r="64" spans="1:8" ht="60">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="84" t="s">
@@ -21235,7 +21235,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="60">
+    <row r="65" spans="1:8" ht="45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="84" t="s">
@@ -21257,7 +21257,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45">
+    <row r="66" spans="1:8" ht="75">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="84" t="s">
@@ -21279,7 +21279,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="75">
+    <row r="67" spans="1:8">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="84" t="s">
@@ -21301,7 +21301,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="84" t="s">
@@ -21345,7 +21345,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="45">
+    <row r="70" spans="1:8" ht="30">
       <c r="A70" s="3">
         <v>3</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30">
+    <row r="71" spans="1:8" ht="210">
       <c r="A71" s="3">
         <v>3</v>
       </c>
@@ -21393,7 +21393,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="210">
+    <row r="72" spans="1:8" ht="30">
       <c r="A72" s="3">
         <v>3</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30">
+    <row r="73" spans="1:8" ht="45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="84" t="s">
@@ -21485,7 +21485,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="45">
+    <row r="76" spans="1:8" ht="60">
       <c r="A76" s="3">
         <v>3</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60">
+    <row r="77" spans="1:8" ht="150">
       <c r="A77" s="3">
         <v>3</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="150">
+    <row r="78" spans="1:8" ht="30">
       <c r="A78" s="3">
         <v>3</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="60">
+    <row r="79" spans="1:8" ht="30">
       <c r="A79" s="3">
         <v>3</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="45">
+    <row r="92" spans="1:8" ht="105">
       <c r="A92" s="3"/>
       <c r="B92" s="82" t="b">
         <v>1</v>
@@ -21873,7 +21873,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" ht="45">
       <c r="A93" s="3"/>
       <c r="B93" s="82" t="b">
         <v>1</v>
@@ -21915,7 +21915,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="90">
+    <row r="95" spans="1:8">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="83" t="s">
@@ -21933,7 +21933,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30">
+    <row r="96" spans="1:8" ht="90">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="79" t="s">
@@ -21955,7 +21955,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="90">
+    <row r="97" spans="1:8" ht="30">
       <c r="A97" s="3"/>
       <c r="B97" s="82" t="b">
         <v>1</v>
@@ -21979,7 +21979,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="105">
+    <row r="98" spans="1:8" ht="90">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="79" t="s">
@@ -22001,7 +22001,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="195">
+    <row r="99" spans="1:8" ht="105">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="79" t="s">
@@ -22023,7 +22023,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="30">
+    <row r="100" spans="1:8" ht="195">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="79" t="s">
@@ -22065,7 +22065,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" ht="30">
       <c r="A102" s="3">
         <v>3</v>
       </c>
@@ -22087,7 +22087,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" ht="90">
       <c r="A103" s="3">
         <v>3</v>
       </c>
@@ -22127,7 +22127,7 @@
       </c>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" ht="30">
+    <row r="105" spans="1:8">
       <c r="A105" s="3">
         <v>3</v>
       </c>
@@ -22143,7 +22143,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" ht="30">
+    <row r="106" spans="1:8">
       <c r="A106" s="3">
         <v>3</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="45">
+    <row r="107" spans="1:8" ht="30">
       <c r="A107" s="3">
         <v>3</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" ht="45">
       <c r="A109" s="3">
         <v>3</v>
       </c>
@@ -22263,7 +22263,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" ht="195">
+    <row r="112" spans="1:8" ht="30">
       <c r="A112" s="3">
         <v>3</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="105">
+    <row r="113" spans="1:8">
       <c r="A113" s="3">
         <v>3</v>
       </c>
@@ -22299,7 +22299,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" ht="30">
+    <row r="114" spans="1:8" ht="195">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -22341,7 +22341,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" ht="30">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -22363,7 +22363,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" ht="45">
       <c r="A117" s="3">
         <v>3</v>
       </c>
@@ -22381,7 +22381,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30">
+    <row r="118" spans="1:8">
       <c r="A118" s="3">
         <v>3</v>
       </c>
@@ -22413,7 +22413,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" ht="30">
       <c r="A120" s="3">
         <v>3</v>
       </c>
@@ -22449,7 +22449,7 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" ht="45">
+    <row r="122" spans="1:8">
       <c r="A122" s="3">
         <v>3</v>
       </c>
@@ -22471,7 +22471,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="5" customFormat="1" ht="30">
+    <row r="123" spans="1:8" s="5" customFormat="1">
       <c r="A123" s="3">
         <v>3</v>
       </c>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" ht="60">
+    <row r="124" spans="1:8" ht="45">
       <c r="A124" s="3">
         <v>3</v>
       </c>
@@ -22511,7 +22511,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="45">
+    <row r="125" spans="1:8" ht="30">
       <c r="A125" s="3">
         <v>3</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" ht="60">
       <c r="A126" s="3">
         <v>3</v>
       </c>
@@ -22599,7 +22599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="30">
+    <row r="129" spans="1:8" ht="45">
       <c r="A129" s="3">
         <v>3</v>
       </c>
@@ -22621,7 +22621,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="30">
+    <row r="130" spans="1:8">
       <c r="A130" s="3">
         <v>3</v>
       </c>
@@ -22635,7 +22635,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" ht="30">
       <c r="A131" s="3">
         <v>3</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" ht="30">
       <c r="A132" s="3">
         <v>3</v>
       </c>
@@ -22699,7 +22699,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="45">
+    <row r="134" spans="1:8">
       <c r="A134" s="3">
         <v>3</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="30">
+    <row r="135" spans="1:8">
       <c r="A135" s="3">
         <v>3</v>
       </c>
@@ -22733,7 +22733,7 @@
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" ht="45">
       <c r="A136" s="3">
         <v>3</v>
       </c>
@@ -22755,7 +22755,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="165">
+    <row r="137" spans="1:8" ht="30">
       <c r="A137" s="3">
         <v>3</v>
       </c>
@@ -22777,7 +22777,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="90">
+    <row r="138" spans="1:8">
       <c r="A138" s="3">
         <v>3</v>
       </c>
@@ -22799,7 +22799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="75">
+    <row r="139" spans="1:8" ht="165">
       <c r="A139" s="3">
         <v>3</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="75">
+    <row r="140" spans="1:8" ht="90">
       <c r="A140" s="3">
         <v>3</v>
       </c>
@@ -22837,7 +22837,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="30">
+    <row r="141" spans="1:8" ht="75">
       <c r="A141" s="3">
         <v>3</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="105">
+    <row r="142" spans="1:8" ht="75">
       <c r="A142" s="3">
         <v>3</v>
       </c>
@@ -22873,7 +22873,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" ht="30">
       <c r="A143" s="3">
         <v>3</v>
       </c>
@@ -22893,7 +22893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="30">
+    <row r="144" spans="1:8" ht="105">
       <c r="A144" s="3">
         <v>3</v>
       </c>
@@ -22915,7 +22915,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="45">
+    <row r="145" spans="1:8">
       <c r="A145" s="3">
         <v>3</v>
       </c>
@@ -22935,7 +22935,7 @@
       </c>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" ht="30">
       <c r="A146" s="3">
         <v>3</v>
       </c>
@@ -22955,7 +22955,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" ht="45">
       <c r="A147" s="3">
         <v>3</v>
       </c>
@@ -22975,7 +22975,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="30">
+    <row r="148" spans="1:8">
       <c r="A148" s="3">
         <v>3</v>
       </c>
@@ -22997,7 +22997,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="30">
+    <row r="149" spans="1:8">
       <c r="A149" s="3">
         <v>3</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="45">
+    <row r="150" spans="1:8" ht="30">
       <c r="A150" s="3">
         <v>3</v>
       </c>
@@ -23041,7 +23041,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" ht="30">
       <c r="A151" s="3">
         <v>3</v>
       </c>
@@ -23135,7 +23135,7 @@
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" ht="45">
       <c r="A156" s="3">
         <v>3</v>
       </c>
@@ -23175,7 +23175,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="30">
+    <row r="158" spans="1:8">
       <c r="A158" s="3">
         <v>3</v>
       </c>
@@ -23189,7 +23189,7 @@
       </c>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="1:8" ht="45">
+    <row r="159" spans="1:8">
       <c r="A159" s="3">
         <v>3</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="60">
+    <row r="163" spans="1:8" ht="30">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="84"/>
@@ -23281,7 +23281,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" ht="30">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="84"/>
@@ -23299,7 +23299,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" ht="60">
       <c r="A165" s="3">
         <v>3</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="30">
+    <row r="167" spans="1:8">
       <c r="A167" s="3">
         <v>3</v>
       </c>
@@ -23363,7 +23363,7 @@
       </c>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="1:8" ht="30">
+    <row r="168" spans="1:8">
       <c r="A168" s="3">
         <v>3</v>
       </c>
@@ -23385,7 +23385,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" ht="30">
       <c r="A169" s="3">
         <v>3</v>
       </c>
@@ -23407,7 +23407,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="60">
+    <row r="170" spans="1:8" ht="30">
       <c r="A170" s="3">
         <v>3</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="240">
+    <row r="171" spans="1:8">
       <c r="A171" s="3">
         <v>3</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" ht="60">
       <c r="A172" s="3">
         <v>3</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" ht="240">
       <c r="A173" s="3">
         <v>3</v>
       </c>
@@ -23507,7 +23507,7 @@
       </c>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="1:8" ht="120">
+    <row r="175" spans="1:8">
       <c r="A175" s="3">
         <v>3</v>
       </c>
@@ -23537,7 +23537,7 @@
       </c>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="1:8" ht="30">
+    <row r="177" spans="1:8" ht="120">
       <c r="A177" s="3">
         <v>3</v>
       </c>
@@ -23571,7 +23571,7 @@
       </c>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" ht="30">
       <c r="A179" s="3">
         <v>3</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="60">
+    <row r="183" spans="1:8">
       <c r="A183" s="3">
         <v>3</v>
       </c>
@@ -23669,7 +23669,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="30">
+    <row r="184" spans="1:8">
       <c r="A184" s="3">
         <v>3</v>
       </c>
@@ -23689,7 +23689,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" ht="60">
       <c r="A185" s="3">
         <v>3</v>
       </c>
@@ -23749,7 +23749,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="45">
+    <row r="188" spans="1:8" ht="30">
       <c r="A188" s="3">
         <v>3</v>
       </c>
@@ -23793,7 +23793,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="30">
+    <row r="190" spans="1:8" ht="45">
       <c r="A190" s="3">
         <v>3</v>
       </c>
@@ -23815,7 +23815,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="135">
+    <row r="191" spans="1:8">
       <c r="A191" s="3">
         <v>3</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" ht="30">
       <c r="A192" s="3">
         <v>3</v>
       </c>
@@ -23859,7 +23859,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="30">
+    <row r="193" spans="1:8" ht="135">
       <c r="A193" s="3">
         <v>3</v>
       </c>
@@ -23881,7 +23881,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="45">
+    <row r="194" spans="1:8">
       <c r="A194" s="3">
         <v>3</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="30">
+    <row r="196" spans="1:8" ht="45">
       <c r="A196" s="3">
         <v>3</v>
       </c>
@@ -23967,7 +23967,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" ht="30">
       <c r="A198" s="3">
         <v>3</v>
       </c>
@@ -23989,7 +23989,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="60">
+    <row r="199" spans="1:8" ht="30">
       <c r="A199" s="3">
         <v>3</v>
       </c>
@@ -24029,7 +24029,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" ht="60">
       <c r="A201" s="3">
         <v>3</v>
       </c>
@@ -24065,7 +24065,7 @@
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
     </row>
-    <row r="203" spans="1:8" ht="45">
+    <row r="203" spans="1:8">
       <c r="A203" s="3">
         <v>3</v>
       </c>
@@ -24078,7 +24078,7 @@
       </c>
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="1:8" ht="30">
+    <row r="204" spans="1:8">
       <c r="A204" s="3">
         <v>3</v>
       </c>
@@ -24092,7 +24092,7 @@
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
     </row>
-    <row r="205" spans="1:8" ht="75">
+    <row r="205" spans="1:8" ht="45">
       <c r="A205" s="3">
         <v>3</v>
       </c>
@@ -24130,7 +24130,7 @@
       </c>
       <c r="H206" s="4"/>
     </row>
-    <row r="207" spans="1:8" ht="30">
+    <row r="207" spans="1:8" ht="75">
       <c r="A207" s="3">
         <v>3</v>
       </c>
@@ -24152,7 +24152,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="75">
+    <row r="208" spans="1:8" ht="30">
       <c r="A208" s="3">
         <v>3</v>
       </c>
@@ -24174,7 +24174,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="45">
+    <row r="209" spans="1:8" ht="30">
       <c r="A209" s="3">
         <v>3</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="60">
+    <row r="210" spans="1:8" ht="75">
       <c r="A210" s="3">
         <v>3</v>
       </c>
@@ -24212,7 +24212,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="30">
+    <row r="211" spans="1:8" ht="45">
       <c r="A211" s="3">
         <v>3</v>
       </c>
@@ -24234,7 +24234,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" ht="60">
       <c r="A212" s="3">
         <v>3</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="60">
+    <row r="213" spans="1:8" ht="30">
       <c r="A213" s="3">
         <v>3</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" ht="60">
       <c r="A215" s="3">
         <v>3</v>
       </c>
@@ -24343,7 +24343,7 @@
       </c>
       <c r="H217" s="4"/>
     </row>
-    <row r="218" spans="1:8" ht="105">
+    <row r="218" spans="1:8">
       <c r="A218" s="3">
         <v>3</v>
       </c>
@@ -24374,7 +24374,7 @@
       </c>
       <c r="H219" s="4"/>
     </row>
-    <row r="220" spans="1:8" ht="30">
+    <row r="220" spans="1:8" ht="105">
       <c r="A220" s="3">
         <v>3</v>
       </c>
@@ -24396,7 +24396,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="30">
+    <row r="221" spans="1:8">
       <c r="A221" s="3">
         <v>3</v>
       </c>
@@ -25120,141 +25120,141 @@
       <c r="C1" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="107" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="117"/>
+      <c r="E1" s="109"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>528</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>533</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>536</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="113" t="s">
         <v>537</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>545</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
       <c r="F6" s="44" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>547</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>548</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>549</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:6" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>550</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="45" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="131" t="s">
         <v>551</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="123"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="131" t="s">
         <v>552</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="113" t="s">
         <v>561</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -25267,7 +25267,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="47" t="s">
         <v>564</v>
       </c>
@@ -25278,7 +25278,7 @@
       <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="123"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="46" t="s">
         <v>566</v>
       </c>
@@ -25289,47 +25289,47 @@
       <c r="E15" s="152"/>
     </row>
     <row r="16" spans="1:6" ht="57" thickBot="1">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="113" t="s">
         <v>568</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="131" t="s">
         <v>570</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="135" t="s">
+      <c r="A17" s="114"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="131" t="s">
         <v>571</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
     </row>
     <row r="18" spans="1:5" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="144"/>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="131" t="s">
         <v>572</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
     </row>
     <row r="19" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="123"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="135" t="s">
+      <c r="A19" s="115"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="131" t="s">
         <v>573</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
     </row>
     <row r="20" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="113" t="s">
         <v>602</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -25342,7 +25342,7 @@
       <c r="E20" s="151"/>
     </row>
     <row r="21" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="47" t="s">
         <v>607</v>
       </c>
@@ -25353,7 +25353,7 @@
       <c r="E21" s="151"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A22" s="122"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="46"/>
       <c r="C22" s="152"/>
       <c r="D22" s="152"/>
@@ -25361,12 +25361,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -25379,16 +25383,12 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25430,53 +25430,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>648</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>650</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="154" t="s">
         <v>651</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="156"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="123"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="46" t="s">
         <v>652</v>
       </c>
@@ -25485,64 +25485,64 @@
       <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="113" t="s">
         <v>653</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>654</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>659</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>660</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>661</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>657</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>662</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="45" t="s">
         <v>658</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="131" t="s">
         <v>663</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:5" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="113" t="s">
         <v>664</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -25555,7 +25555,7 @@
       <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A13" s="122"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="47" t="s">
         <v>667</v>
       </c>
@@ -25566,7 +25566,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="123"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="46" t="s">
         <v>669</v>
       </c>
@@ -25577,53 +25577,53 @@
       <c r="E14" s="152"/>
     </row>
     <row r="15" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="113" t="s">
         <v>678</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="131" t="s">
         <v>680</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A16" s="122"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="45" t="s">
         <v>685</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="131" t="s">
         <v>686</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
     </row>
     <row r="17" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A17" s="122"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="45" t="s">
         <v>687</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="131" t="s">
         <v>688</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
     </row>
     <row r="18" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="131" t="s">
         <v>691</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
     </row>
     <row r="19" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="153" t="s">
         <v>711</v>
       </c>
       <c r="B19" s="61" t="s">
@@ -25636,50 +25636,40 @@
       <c r="E19" s="151"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A20" s="156"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="59" t="s">
         <v>709</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="140" t="s">
         <v>710</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142"/>
     </row>
     <row r="21" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A21" s="156"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="59" t="s">
         <v>712</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="140" t="s">
         <v>713</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="142"/>
     </row>
     <row r="22" spans="1:5" ht="51" customHeight="1" thickBot="1">
-      <c r="A22" s="156"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="59" t="s">
         <v>714</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="140" t="s">
         <v>715</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A15:A18"/>
@@ -25695,6 +25685,16 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25738,132 +25738,132 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>728</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>729</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>730</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>732</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>734</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>735</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>736</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="113" t="s">
         <v>737</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>738</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>739</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>740</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>741</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>743</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>744</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>745</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>747</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>746</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="131" t="s">
         <v>749</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:5" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="123"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="45" t="s">
         <v>750</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="131" t="s">
         <v>751</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="110" t="s">
         <v>752</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -25876,7 +25876,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A14" s="119"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="47" t="s">
         <v>754</v>
       </c>
@@ -25887,77 +25887,77 @@
       <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:5" ht="38.25" thickBot="1">
-      <c r="A15" s="119"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="46" t="s">
         <v>756</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="140" t="s">
         <v>760</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="142"/>
     </row>
     <row r="16" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A16" s="119"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="46" t="s">
         <v>755</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="140" t="s">
         <v>761</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="142"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A17" s="120"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="47" t="s">
         <v>757</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="157" t="s">
         <v>762</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="161"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="159"/>
     </row>
     <row r="18" spans="1:6" ht="66" customHeight="1" thickBot="1">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="161" t="s">
         <v>778</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>780</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="118" t="s">
         <v>782</v>
       </c>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
     </row>
     <row r="19" spans="1:6" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="158"/>
+      <c r="A19" s="162"/>
       <c r="B19" s="66" t="s">
         <v>779</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="118" t="s">
         <v>781</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
     </row>
     <row r="20" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="113" t="s">
         <v>783</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>774</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="160" t="s">
         <v>787</v>
       </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
     </row>
     <row r="21" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="46" t="s">
         <v>784</v>
       </c>
@@ -25968,82 +25968,82 @@
       <c r="E21" s="152"/>
     </row>
     <row r="22" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A22" s="122"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="46" t="s">
         <v>788</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="140" t="s">
         <v>789</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
     </row>
     <row r="23" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A23" s="122"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="46" t="s">
         <v>852</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="140" t="s">
         <v>850</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
     </row>
     <row r="24" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A24" s="123"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="140" t="s">
         <v>843</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="142"/>
     </row>
     <row r="25" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="113" t="s">
         <v>853</v>
       </c>
       <c r="B25" s="46" t="s">
         <v>854</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="140" t="s">
         <v>855</v>
       </c>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
     </row>
     <row r="26" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A26" s="122"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="46" t="s">
         <v>856</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="140" t="s">
         <v>857</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
     </row>
     <row r="27" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A27" s="123"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="46" t="s">
         <v>858</v>
       </c>
-      <c r="C27" s="130" t="s">
+      <c r="C27" s="140" t="s">
         <v>859</v>
       </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
     </row>
     <row r="28" spans="1:6" ht="169.5" thickBot="1">
-      <c r="A28" s="121"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="140" t="s">
         <v>866</v>
       </c>
-      <c r="D28" s="132"/>
+      <c r="D28" s="142"/>
       <c r="E28" s="46" t="s">
         <v>864</v>
       </c>
@@ -26052,14 +26052,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="150.75" thickBot="1">
-      <c r="A29" s="122"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="46" t="s">
         <v>865</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="140" t="s">
         <v>870</v>
       </c>
-      <c r="D29" s="132"/>
+      <c r="D29" s="142"/>
       <c r="E29" s="46" t="s">
         <v>867</v>
       </c>
@@ -26068,14 +26068,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A30" s="122"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A31" s="122"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -26095,6 +26095,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
@@ -26111,25 +26130,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{FE12423F-DF2A-4D6D-8DBE-C74C8D072776}"/>
@@ -26167,116 +26167,116 @@
       <c r="C1" s="44" t="s">
         <v>800</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="131" t="s">
         <v>801</v>
       </c>
-      <c r="E1" s="137"/>
+      <c r="E1" s="133"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>793</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>794</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>795</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>796</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>797</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>798</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>799</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="113" t="s">
         <v>802</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>808</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>803</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>809</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>806</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>811</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>810</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>804</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>812</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="110" t="s">
         <v>783</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -26289,7 +26289,7 @@
       <c r="E11" s="151"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="47" t="s">
         <v>814</v>
       </c>
@@ -26300,7 +26300,7 @@
       <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="161" t="s">
         <v>820</v>
       </c>
       <c r="B13" s="66"/>
@@ -26311,7 +26311,7 @@
       <c r="E13" s="165"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="158"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="66"/>
       <c r="C14" s="166" t="s">
         <v>819</v>
@@ -26321,6 +26321,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
@@ -26333,12 +26339,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26368,130 +26368,130 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="137"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="133"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>822</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>823</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>824</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>826</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="123"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="46" t="s">
         <v>821</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>827</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="113" t="s">
         <v>828</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>829</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="131" t="s">
         <v>830</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="137"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="133"/>
     </row>
     <row r="6" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="45" t="s">
         <v>831</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>832</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>833</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>834</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>835</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>836</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="110" t="s">
         <v>837</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="140" t="s">
         <v>838</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="130" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="140" t="s">
         <v>839</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="130" t="s">
+      <c r="A11" s="111"/>
+      <c r="B11" s="140" t="s">
         <v>840</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
-      <c r="B12" s="130" t="s">
+      <c r="A12" s="111"/>
+      <c r="B12" s="140" t="s">
         <v>841</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="161" t="s">
         <v>842</v>
       </c>
       <c r="B13" s="66"/>
@@ -26500,7 +26500,7 @@
       <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="158"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
@@ -26508,22 +26508,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26938,178 +26938,178 @@
       <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="141.75" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>875</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>876</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="116" t="s">
         <v>879</v>
       </c>
-      <c r="D2" s="103"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:5" ht="98.25" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="71" t="s">
         <v>877</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="116" t="s">
         <v>880</v>
       </c>
-      <c r="D3" s="103"/>
+      <c r="D3" s="116"/>
     </row>
     <row r="4" spans="1:5" ht="152.25" customHeight="1" thickBot="1">
-      <c r="A4" s="123"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="71" t="s">
         <v>878</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="116" t="s">
         <v>881</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="116"/>
     </row>
     <row r="5" spans="1:5" ht="164.25" customHeight="1" thickBot="1">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="110" t="s">
         <v>889</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>891</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="117" t="s">
         <v>893</v>
       </c>
-      <c r="D5" s="125"/>
+      <c r="D5" s="118"/>
     </row>
     <row r="6" spans="1:5" ht="147.75" customHeight="1" thickBot="1">
-      <c r="A6" s="119"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>890</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="117" t="s">
         <v>894</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="117"/>
     </row>
     <row r="7" spans="1:5" ht="123" customHeight="1" thickBot="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>892</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="117" t="s">
         <v>895</v>
       </c>
-      <c r="D7" s="124"/>
+      <c r="D7" s="117"/>
     </row>
     <row r="8" spans="1:5" ht="120" customHeight="1" thickBot="1">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="110" t="s">
         <v>896</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="119" t="s">
         <v>898</v>
       </c>
-      <c r="D8" s="101"/>
+      <c r="D8" s="120"/>
     </row>
     <row r="9" spans="1:5" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="73" t="s">
         <v>899</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="119" t="s">
         <v>900</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="120"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="73" t="s">
         <v>904</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="D10" s="101"/>
+      <c r="D10" s="120"/>
     </row>
     <row r="11" spans="1:5" ht="229.5" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="73" t="s">
         <v>908</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="119" t="s">
         <v>910</v>
       </c>
-      <c r="D11" s="101"/>
+      <c r="D11" s="120"/>
     </row>
     <row r="12" spans="1:5" ht="223.5" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="72" t="s">
         <v>915</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="119" t="s">
         <v>916</v>
       </c>
-      <c r="D12" s="101"/>
+      <c r="D12" s="120"/>
     </row>
     <row r="13" spans="1:5" ht="234.75" customHeight="1" thickBot="1">
-      <c r="A13" s="120"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="72" t="s">
         <v>919</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="103" t="s">
         <v>922</v>
       </c>
-      <c r="D13" s="127"/>
+      <c r="D13" s="104"/>
     </row>
     <row r="14" spans="1:5" ht="184.5" customHeight="1" thickBot="1">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="122" t="s">
         <v>929</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>930</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="119" t="s">
         <v>932</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="34" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="188.25" customHeight="1" thickBot="1">
-      <c r="A15" s="105"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="71" t="s">
         <v>931</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="116" t="s">
         <v>933</v>
       </c>
-      <c r="D15" s="103"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="74" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="153.75" customHeight="1" thickBot="1">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="100" t="s">
         <v>946</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="126" t="s">
         <v>1035</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="128" t="s">
         <v>1038</v>
       </c>
-      <c r="D16" s="113"/>
+      <c r="D16" s="129"/>
     </row>
     <row r="17" spans="1:4" ht="179.25" customHeight="1" thickBot="1">
-      <c r="A17" s="107"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="108" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="124" t="s">
         <v>1039</v>
       </c>
-      <c r="D17" s="109"/>
+      <c r="D17" s="125"/>
     </row>
     <row r="18" spans="1:4" ht="57" thickBot="1">
       <c r="A18" s="77" t="s">
@@ -27118,10 +27118,10 @@
       <c r="B18" s="72" t="s">
         <v>949</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="116" t="s">
         <v>950</v>
       </c>
-      <c r="D18" s="103"/>
+      <c r="D18" s="116"/>
     </row>
     <row r="19" spans="1:4" ht="169.5" thickBot="1">
       <c r="A19" s="77" t="s">
@@ -27130,114 +27130,120 @@
       <c r="B19" s="72" t="s">
         <v>965</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="121" t="s">
         <v>966</v>
       </c>
-      <c r="D19" s="102"/>
+      <c r="D19" s="121"/>
     </row>
     <row r="20" spans="1:4" ht="84" customHeight="1" thickBot="1">
       <c r="A20" s="77" t="s">
         <v>1008</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="106" t="s">
         <v>1007</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
     </row>
     <row r="21" spans="1:4" ht="57.75" customHeight="1" thickBot="1">
       <c r="A21" s="77" t="s">
         <v>1009</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="107" t="s">
         <v>1010</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
     </row>
     <row r="22" spans="1:4" ht="72.75" thickBot="1">
       <c r="A22" s="77" t="s">
         <v>1012</v>
       </c>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="107" t="s">
         <v>1013</v>
       </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="117"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
     </row>
     <row r="23" spans="1:4" ht="114" customHeight="1" thickBot="1">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="100" t="s">
         <v>1060</v>
       </c>
       <c r="B23" s="73" t="s">
         <v>1061</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="103" t="s">
         <v>1062</v>
       </c>
-      <c r="D23" s="127"/>
+      <c r="D23" s="104"/>
     </row>
     <row r="24" spans="1:4" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A24" s="107"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="73" t="s">
         <v>1064</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="103" t="s">
         <v>1065</v>
       </c>
-      <c r="D24" s="127"/>
+      <c r="D24" s="104"/>
     </row>
     <row r="25" spans="1:4" ht="117" customHeight="1" thickBot="1">
-      <c r="A25" s="107"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="73" t="s">
         <v>1068</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="103" t="s">
         <v>1069</v>
       </c>
-      <c r="D25" s="127"/>
+      <c r="D25" s="104"/>
     </row>
     <row r="26" spans="1:4" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A26" s="107"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="73" t="s">
         <v>1074</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="103" t="s">
         <v>1075</v>
       </c>
-      <c r="D26" s="129"/>
+      <c r="D26" s="105"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A27" s="107"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A28" s="107"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A29" s="107"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A30" s="128"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -27254,17 +27260,11 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27275,8 +27275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C80C63-9F14-4F36-AB3C-26E3A4A9F7FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z86" sqref="Z86"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -27306,156 +27306,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="215.25" customHeight="1" thickBot="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="110" t="s">
         <v>1339</v>
       </c>
       <c r="B1" s="98" t="s">
         <v>1348</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="140" t="s">
         <v>1340</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="142"/>
       <c r="F1" s="44" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="183.75" customHeight="1" thickBot="1">
-      <c r="A2" s="119"/>
+      <c r="A2" s="111"/>
       <c r="B2" s="98" t="s">
         <v>1351</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>1352</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="44" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="77.25" customHeight="1" thickBot="1">
-      <c r="A3" s="119"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="98" t="s">
         <v>1358</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>1359</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="44" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="120"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A5" s="118"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A6" s="119"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
     </row>
     <row r="8" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A8" s="119"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
     </row>
     <row r="10" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A10" s="120"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="46"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
     </row>
     <row r="13" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A13" s="119"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
     </row>
     <row r="14" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A14" s="120"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="45"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A15" s="121"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
     </row>
     <row r="16" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A16" s="122"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
     </row>
     <row r="17" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A17" s="123"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
     </row>
     <row r="18" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:E11"/>
@@ -27464,18 +27476,6 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:E17"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27522,211 +27522,205 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>537</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>619</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="110" t="s">
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="126" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>618</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>620</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="144"/>
     </row>
     <row r="5" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="127"/>
     </row>
     <row r="6" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="110" t="s">
         <v>1286</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>1287</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="140" t="s">
         <v>1293</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="46" t="s">
         <v>1288</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="143" t="s">
         <v>1294</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
     </row>
     <row r="8" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="119"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="46" t="s">
         <v>1289</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="140" t="s">
         <v>1295</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="46" t="s">
         <v>1290</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="140" t="s">
         <v>1296</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
     </row>
     <row r="10" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="46" t="s">
         <v>1291</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="140" t="s">
         <v>1297</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A11" s="120"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="46" t="s">
         <v>1292</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="140" t="s">
         <v>1298</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
     </row>
     <row r="12" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="111" t="s">
         <v>1318</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="131" t="s">
         <v>1323</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="119"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>1319</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="134" t="s">
         <v>1322</v>
       </c>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
     </row>
     <row r="14" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A14" s="119"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>628</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="134" t="s">
         <v>1324</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A15" s="120"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="45" t="s">
         <v>1315</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="134" t="s">
         <v>1321</v>
       </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
     </row>
     <row r="16" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A16" s="121"/>
-      <c r="B16" s="141" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="137" t="s">
         <v>1320</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="1:5" ht="64.5" customHeight="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
     </row>
     <row r="18" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A18" s="123"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
     </row>
     <row r="19" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="130" t="s">
         <v>1325</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B16:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="C10:E10"/>
@@ -27742,6 +27736,12 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27753,8 +27753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -27778,12 +27778,12 @@
       <c r="C1" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="D1" s="150" t="s">
         <v>1056</v>
       </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
     </row>
     <row r="2" spans="1:7" ht="38.25" thickBot="1">
       <c r="A2" s="38"/>
@@ -27803,7 +27803,7 @@
     <row r="3" spans="1:7" ht="60.75" thickBot="1">
       <c r="A3" s="38"/>
       <c r="B3" s="40"/>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="148" t="s">
         <v>501</v>
       </c>
       <c r="D3" s="94" t="s">
@@ -27822,7 +27822,7 @@
     <row r="4" spans="1:7" ht="94.5" thickBot="1">
       <c r="A4" s="38"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="150"/>
+      <c r="C4" s="149"/>
       <c r="D4" s="94" t="s">
         <v>1263</v>
       </c>
@@ -27861,11 +27861,11 @@
       <c r="D7" s="90" t="s">
         <v>631</v>
       </c>
-      <c r="E7" s="146" t="s">
+      <c r="E7" s="145" t="s">
         <v>1044</v>
       </c>
-      <c r="F7" s="147"/>
-      <c r="G7" s="148"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="147"/>
     </row>
     <row r="8" spans="1:7" ht="111" customHeight="1" thickBot="1">
       <c r="A8" s="34"/>
@@ -27876,11 +27876,11 @@
       <c r="D8" s="90" t="s">
         <v>632</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="145" t="s">
         <v>1047</v>
       </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="38.25" thickBot="1">
       <c r="A9" s="55"/>
@@ -27904,11 +27904,11 @@
       <c r="D10" s="90" t="s">
         <v>1048</v>
       </c>
-      <c r="E10" s="146" t="s">
+      <c r="E10" s="145" t="s">
         <v>1049</v>
       </c>
-      <c r="F10" s="147"/>
-      <c r="G10" s="148"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="34"/>
@@ -27919,11 +27919,11 @@
       <c r="D11" s="90" t="s">
         <v>1051</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="145" t="s">
         <v>1054</v>
       </c>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="147"/>
     </row>
     <row r="12" spans="1:7" ht="96.75" customHeight="1" thickBot="1">
       <c r="A12" s="34"/>
@@ -27936,11 +27936,11 @@
       <c r="D12" s="90" t="s">
         <v>1053</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="145" t="s">
         <v>1057</v>
       </c>
-      <c r="F12" s="147"/>
-      <c r="G12" s="148"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="147"/>
     </row>
     <row r="13" spans="1:7" ht="272.25" customHeight="1" thickBot="1">
       <c r="A13" s="34"/>
@@ -27949,11 +27949,11 @@
         <v>1058</v>
       </c>
       <c r="D13" s="95"/>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="145" t="s">
         <v>1059</v>
       </c>
-      <c r="F13" s="147"/>
-      <c r="G13" s="148"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="147"/>
     </row>
     <row r="14" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A14" s="34"/>
@@ -27966,11 +27966,11 @@
       <c r="D14" s="90" t="s">
         <v>1070</v>
       </c>
-      <c r="E14" s="146" t="s">
+      <c r="E14" s="145" t="s">
         <v>1071</v>
       </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="148"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="147"/>
     </row>
     <row r="15" spans="1:7" ht="92.25" customHeight="1" thickBot="1">
       <c r="A15" s="34"/>
@@ -27981,11 +27981,11 @@
       <c r="D15" s="90" t="s">
         <v>1072</v>
       </c>
-      <c r="E15" s="146" t="s">
+      <c r="E15" s="145" t="s">
         <v>1073</v>
       </c>
-      <c r="F15" s="147"/>
-      <c r="G15" s="148"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="147"/>
     </row>
     <row r="16" spans="1:7" ht="105.75" customHeight="1" thickBot="1">
       <c r="A16" s="34"/>
@@ -27998,11 +27998,11 @@
       <c r="D16" s="90" t="s">
         <v>1076</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="145" t="s">
         <v>1077</v>
       </c>
-      <c r="F16" s="147"/>
-      <c r="G16" s="148"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="147"/>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" thickBot="1">
       <c r="A17" s="34"/>
@@ -28013,11 +28013,11 @@
       <c r="D17" s="90" t="s">
         <v>1078</v>
       </c>
-      <c r="E17" s="146" t="s">
+      <c r="E17" s="145" t="s">
         <v>1079</v>
       </c>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="147"/>
     </row>
     <row r="18" spans="1:7" ht="60.75" customHeight="1" thickBot="1">
       <c r="A18" s="34"/>
@@ -28028,11 +28028,11 @@
       <c r="D18" s="90" t="s">
         <v>1082</v>
       </c>
-      <c r="E18" s="146" t="s">
+      <c r="E18" s="145" t="s">
         <v>1260</v>
       </c>
-      <c r="F18" s="147"/>
-      <c r="G18" s="148"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="147"/>
     </row>
     <row r="19" spans="1:7" ht="54" customHeight="1" thickBot="1">
       <c r="A19" s="34"/>
@@ -28043,11 +28043,11 @@
       <c r="D19" s="90" t="s">
         <v>1275</v>
       </c>
-      <c r="E19" s="146" t="s">
+      <c r="E19" s="145" t="s">
         <v>1272</v>
       </c>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="147"/>
     </row>
     <row r="20" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A20" s="34"/>
@@ -28058,11 +28058,11 @@
       <c r="D20" s="90" t="s">
         <v>1276</v>
       </c>
-      <c r="E20" s="146" t="s">
+      <c r="E20" s="145" t="s">
         <v>1274</v>
       </c>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="147"/>
     </row>
     <row r="21" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A21" s="34"/>
@@ -28075,11 +28075,11 @@
       <c r="D21" s="90" t="s">
         <v>1279</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="145" t="s">
         <v>1280</v>
       </c>
-      <c r="F21" s="147"/>
-      <c r="G21" s="148"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="147"/>
     </row>
     <row r="22" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A22" s="34"/>
@@ -28087,11 +28087,11 @@
       <c r="D22" s="90" t="s">
         <v>1281</v>
       </c>
-      <c r="E22" s="146" t="s">
+      <c r="E22" s="145" t="s">
         <v>1282</v>
       </c>
-      <c r="F22" s="147"/>
-      <c r="G22" s="148"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="147"/>
     </row>
     <row r="23" spans="1:7" ht="48.75" customHeight="1" thickBot="1">
       <c r="A23" s="34"/>
@@ -29058,11 +29058,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E7:G7"/>
@@ -29075,6 +29070,11 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BDF9E9-7F7E-4DB5-8446-B362C1CD7ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6047DFE-17F5-41E9-8893-861A6CE1E1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -8152,23 +8152,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8200,47 +8224,35 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8272,20 +8284,11 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8302,17 +8305,11 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8321,6 +8318,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8334,12 +8340,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -19725,7 +19725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -25120,141 +25120,141 @@
       <c r="C1" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="115" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="109"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="121" t="s">
         <v>528</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="130" t="s">
         <v>533</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="130" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="114"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="130" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="115"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="130" t="s">
         <v>536</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="121" t="s">
         <v>537</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="135" t="s">
         <v>545</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="133"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
       <c r="F6" s="44" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="114"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="135" t="s">
         <v>547</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="114"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="135" t="s">
         <v>548</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="114"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="135" t="s">
         <v>549</v>
       </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:6" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="114"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="135" t="s">
         <v>550</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="114"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="45" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="135" t="s">
         <v>551</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
     </row>
     <row r="12" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="115"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="135" t="s">
         <v>552</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>561</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -25267,7 +25267,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A14" s="114"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="47" t="s">
         <v>564</v>
       </c>
@@ -25278,7 +25278,7 @@
       <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="115"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="46" t="s">
         <v>566</v>
       </c>
@@ -25289,47 +25289,47 @@
       <c r="E15" s="152"/>
     </row>
     <row r="16" spans="1:6" ht="57" thickBot="1">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="121" t="s">
         <v>568</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="135" t="s">
         <v>570</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A17" s="114"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="131" t="s">
+      <c r="A17" s="122"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="135" t="s">
         <v>571</v>
       </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
     </row>
     <row r="18" spans="1:5" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A18" s="114"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="144"/>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="135" t="s">
         <v>572</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137"/>
     </row>
     <row r="19" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="115"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="131" t="s">
+      <c r="A19" s="123"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="135" t="s">
         <v>573</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="133"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
     </row>
     <row r="20" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="121" t="s">
         <v>602</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -25342,7 +25342,7 @@
       <c r="E20" s="151"/>
     </row>
     <row r="21" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="114"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="47" t="s">
         <v>607</v>
       </c>
@@ -25353,7 +25353,7 @@
       <c r="E21" s="151"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A22" s="114"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="46"/>
       <c r="C22" s="152"/>
       <c r="D22" s="152"/>
@@ -25361,16 +25361,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -25383,12 +25379,16 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25430,53 +25430,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="121" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="130" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="130" t="s">
         <v>648</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="114"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="130" t="s">
         <v>650</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="114"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="153" t="s">
         <v>651</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="156"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="115"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="46" t="s">
         <v>652</v>
       </c>
@@ -25485,64 +25485,64 @@
       <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="121" t="s">
         <v>653</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>654</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="135" t="s">
         <v>659</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="114"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="135" t="s">
         <v>660</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="114"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="135" t="s">
         <v>661</v>
       </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="114"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="45" t="s">
         <v>657</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="135" t="s">
         <v>662</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="114"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="45" t="s">
         <v>658</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="135" t="s">
         <v>663</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
     </row>
     <row r="12" spans="1:5" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="121" t="s">
         <v>664</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -25555,7 +25555,7 @@
       <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A13" s="114"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="47" t="s">
         <v>667</v>
       </c>
@@ -25566,7 +25566,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="115"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="46" t="s">
         <v>669</v>
       </c>
@@ -25577,53 +25577,53 @@
       <c r="E14" s="152"/>
     </row>
     <row r="15" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="121" t="s">
         <v>678</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="135" t="s">
         <v>680</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A16" s="114"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="45" t="s">
         <v>685</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="135" t="s">
         <v>686</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A17" s="114"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="45" t="s">
         <v>687</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="135" t="s">
         <v>688</v>
       </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
     </row>
     <row r="18" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A18" s="114"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="135" t="s">
         <v>691</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137"/>
     </row>
     <row r="19" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="156" t="s">
         <v>711</v>
       </c>
       <c r="B19" s="61" t="s">
@@ -25636,40 +25636,50 @@
       <c r="E19" s="151"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A20" s="153"/>
+      <c r="A20" s="156"/>
       <c r="B20" s="59" t="s">
         <v>709</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="130" t="s">
         <v>710</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
     </row>
     <row r="21" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A21" s="153"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="59" t="s">
         <v>712</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="130" t="s">
         <v>713</v>
       </c>
-      <c r="D21" s="141"/>
-      <c r="E21" s="142"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
     </row>
     <row r="22" spans="1:5" ht="51" customHeight="1" thickBot="1">
-      <c r="A22" s="153"/>
+      <c r="A22" s="156"/>
       <c r="B22" s="59" t="s">
         <v>714</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="130" t="s">
         <v>715</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A15:A18"/>
@@ -25685,16 +25695,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25738,132 +25738,132 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="121" t="s">
         <v>728</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>729</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="130" t="s">
         <v>730</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="130" t="s">
         <v>732</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="114"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="130" t="s">
         <v>734</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="115"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="46" t="s">
         <v>735</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="130" t="s">
         <v>736</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="121" t="s">
         <v>737</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>738</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="135" t="s">
         <v>739</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="133"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="114"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="45" t="s">
         <v>740</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="135" t="s">
         <v>741</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="114"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="135" t="s">
         <v>743</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="114"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="45" t="s">
         <v>744</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="135" t="s">
         <v>745</v>
       </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="114"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="45" t="s">
         <v>747</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="114"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="135" t="s">
         <v>749</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
     </row>
     <row r="12" spans="1:5" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="115"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="45" t="s">
         <v>750</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="135" t="s">
         <v>751</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="118" t="s">
         <v>752</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -25876,7 +25876,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A14" s="111"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="47" t="s">
         <v>754</v>
       </c>
@@ -25887,77 +25887,77 @@
       <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:5" ht="38.25" thickBot="1">
-      <c r="A15" s="111"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="46" t="s">
         <v>756</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="130" t="s">
         <v>760</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="142"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
     </row>
     <row r="16" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A16" s="111"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="46" t="s">
         <v>755</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="130" t="s">
         <v>761</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="142"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A17" s="112"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="47" t="s">
         <v>757</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="159" t="s">
         <v>762</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="161"/>
     </row>
     <row r="18" spans="1:6" ht="66" customHeight="1" thickBot="1">
-      <c r="A18" s="161" t="s">
+      <c r="A18" s="157" t="s">
         <v>778</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>780</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="125" t="s">
         <v>782</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
     </row>
     <row r="19" spans="1:6" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="162"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="66" t="s">
         <v>779</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="125" t="s">
         <v>781</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
     </row>
     <row r="20" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="121" t="s">
         <v>783</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>774</v>
       </c>
-      <c r="C20" s="160" t="s">
+      <c r="C20" s="162" t="s">
         <v>787</v>
       </c>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
     </row>
     <row r="21" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="114"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="46" t="s">
         <v>784</v>
       </c>
@@ -25968,82 +25968,82 @@
       <c r="E21" s="152"/>
     </row>
     <row r="22" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A22" s="114"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="46" t="s">
         <v>788</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="130" t="s">
         <v>789</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
     </row>
     <row r="23" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A23" s="114"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="46" t="s">
         <v>852</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="130" t="s">
         <v>850</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
     </row>
     <row r="24" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A24" s="115"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="130" t="s">
         <v>843</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
     </row>
     <row r="25" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A25" s="113" t="s">
+      <c r="A25" s="121" t="s">
         <v>853</v>
       </c>
       <c r="B25" s="46" t="s">
         <v>854</v>
       </c>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="130" t="s">
         <v>855</v>
       </c>
-      <c r="D25" s="141"/>
-      <c r="E25" s="142"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
     </row>
     <row r="26" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A26" s="114"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="46" t="s">
         <v>856</v>
       </c>
-      <c r="C26" s="140" t="s">
+      <c r="C26" s="130" t="s">
         <v>857</v>
       </c>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="132"/>
     </row>
     <row r="27" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A27" s="115"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="46" t="s">
         <v>858</v>
       </c>
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="130" t="s">
         <v>859</v>
       </c>
-      <c r="D27" s="141"/>
-      <c r="E27" s="142"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
     </row>
     <row r="28" spans="1:6" ht="169.5" thickBot="1">
-      <c r="A28" s="113"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="C28" s="140" t="s">
+      <c r="C28" s="130" t="s">
         <v>866</v>
       </c>
-      <c r="D28" s="142"/>
+      <c r="D28" s="132"/>
       <c r="E28" s="46" t="s">
         <v>864</v>
       </c>
@@ -26052,14 +26052,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="150.75" thickBot="1">
-      <c r="A29" s="114"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="46" t="s">
         <v>865</v>
       </c>
-      <c r="C29" s="140" t="s">
+      <c r="C29" s="130" t="s">
         <v>870</v>
       </c>
-      <c r="D29" s="142"/>
+      <c r="D29" s="132"/>
       <c r="E29" s="46" t="s">
         <v>867</v>
       </c>
@@ -26068,14 +26068,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A30" s="114"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A31" s="114"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -26095,25 +26095,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
@@ -26130,6 +26111,25 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{FE12423F-DF2A-4D6D-8DBE-C74C8D072776}"/>
@@ -26167,116 +26167,116 @@
       <c r="C1" s="44" t="s">
         <v>800</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="135" t="s">
         <v>801</v>
       </c>
-      <c r="E1" s="133"/>
+      <c r="E1" s="137"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="121" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="130" t="s">
         <v>793</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>794</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="130" t="s">
         <v>795</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="114"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="46" t="s">
         <v>796</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="130" t="s">
         <v>797</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="115"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="46" t="s">
         <v>798</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="130" t="s">
         <v>799</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="121" t="s">
         <v>802</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="135" t="s">
         <v>808</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="133"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
     </row>
     <row r="7" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A7" s="114"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="45" t="s">
         <v>803</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="135" t="s">
         <v>809</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="114"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
         <v>806</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="135" t="s">
         <v>811</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="114"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="135" t="s">
         <v>810</v>
       </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="114"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="45" t="s">
         <v>804</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="135" t="s">
         <v>812</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="118" t="s">
         <v>783</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -26289,7 +26289,7 @@
       <c r="E11" s="151"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="111"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="47" t="s">
         <v>814</v>
       </c>
@@ -26300,7 +26300,7 @@
       <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="157" t="s">
         <v>820</v>
       </c>
       <c r="B13" s="66"/>
@@ -26311,7 +26311,7 @@
       <c r="E13" s="165"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="162"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="66"/>
       <c r="C14" s="166" t="s">
         <v>819</v>
@@ -26321,12 +26321,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
@@ -26339,6 +26333,12 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26368,130 +26368,130 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="133"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="137"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="121" t="s">
         <v>822</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>823</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="130" t="s">
         <v>824</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="130" t="s">
         <v>826</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="115"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="46" t="s">
         <v>821</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="130" t="s">
         <v>827</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="121" t="s">
         <v>828</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>829</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="135" t="s">
         <v>830</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="133"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="137"/>
     </row>
     <row r="6" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A6" s="114"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="45" t="s">
         <v>831</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="135" t="s">
         <v>832</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="133"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="114"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="45" t="s">
         <v>833</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="135" t="s">
         <v>834</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="114"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
         <v>835</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="135" t="s">
         <v>836</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="118" t="s">
         <v>837</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="130" t="s">
         <v>838</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="111"/>
-      <c r="B10" s="140" t="s">
+      <c r="A10" s="119"/>
+      <c r="B10" s="130" t="s">
         <v>839</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="142"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="140" t="s">
+      <c r="A11" s="119"/>
+      <c r="B11" s="130" t="s">
         <v>840</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="142"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="111"/>
-      <c r="B12" s="140" t="s">
+      <c r="A12" s="119"/>
+      <c r="B12" s="130" t="s">
         <v>841</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="142"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="157" t="s">
         <v>842</v>
       </c>
       <c r="B13" s="66"/>
@@ -26500,7 +26500,7 @@
       <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="162"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
@@ -26508,22 +26508,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26938,178 +26938,178 @@
       <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="141.75" customHeight="1" thickBot="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="121" t="s">
         <v>875</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>876</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="103" t="s">
         <v>879</v>
       </c>
-      <c r="D2" s="116"/>
+      <c r="D2" s="103"/>
     </row>
     <row r="3" spans="1:5" ht="98.25" customHeight="1" thickBot="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="71" t="s">
         <v>877</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="103" t="s">
         <v>880</v>
       </c>
-      <c r="D3" s="116"/>
+      <c r="D3" s="103"/>
     </row>
     <row r="4" spans="1:5" ht="152.25" customHeight="1" thickBot="1">
-      <c r="A4" s="115"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="71" t="s">
         <v>878</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="103" t="s">
         <v>881</v>
       </c>
-      <c r="D4" s="116"/>
+      <c r="D4" s="103"/>
     </row>
     <row r="5" spans="1:5" ht="164.25" customHeight="1" thickBot="1">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="118" t="s">
         <v>889</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>891</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="124" t="s">
         <v>893</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="125"/>
     </row>
     <row r="6" spans="1:5" ht="147.75" customHeight="1" thickBot="1">
-      <c r="A6" s="111"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="45" t="s">
         <v>890</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="124" t="s">
         <v>894</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="124"/>
     </row>
     <row r="7" spans="1:5" ht="123" customHeight="1" thickBot="1">
-      <c r="A7" s="111"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="45" t="s">
         <v>892</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="124" t="s">
         <v>895</v>
       </c>
-      <c r="D7" s="117"/>
+      <c r="D7" s="124"/>
     </row>
     <row r="8" spans="1:5" ht="120" customHeight="1" thickBot="1">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="118" t="s">
         <v>896</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="100" t="s">
         <v>898</v>
       </c>
-      <c r="D8" s="120"/>
+      <c r="D8" s="101"/>
     </row>
     <row r="9" spans="1:5" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="73" t="s">
         <v>899</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="100" t="s">
         <v>900</v>
       </c>
-      <c r="D9" s="120"/>
+      <c r="D9" s="101"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="111"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="73" t="s">
         <v>904</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="100" t="s">
         <v>905</v>
       </c>
-      <c r="D10" s="120"/>
+      <c r="D10" s="101"/>
     </row>
     <row r="11" spans="1:5" ht="229.5" customHeight="1" thickBot="1">
-      <c r="A11" s="111"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="73" t="s">
         <v>908</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="100" t="s">
         <v>910</v>
       </c>
-      <c r="D11" s="120"/>
+      <c r="D11" s="101"/>
     </row>
     <row r="12" spans="1:5" ht="223.5" customHeight="1" thickBot="1">
-      <c r="A12" s="111"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="72" t="s">
         <v>915</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="100" t="s">
         <v>916</v>
       </c>
-      <c r="D12" s="120"/>
+      <c r="D12" s="101"/>
     </row>
     <row r="13" spans="1:5" ht="234.75" customHeight="1" thickBot="1">
-      <c r="A13" s="112"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="72" t="s">
         <v>919</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="126" t="s">
         <v>922</v>
       </c>
-      <c r="D13" s="104"/>
+      <c r="D13" s="127"/>
     </row>
     <row r="14" spans="1:5" ht="184.5" customHeight="1" thickBot="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="104" t="s">
         <v>929</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>930</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="100" t="s">
         <v>932</v>
       </c>
-      <c r="D14" s="120"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="34" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="188.25" customHeight="1" thickBot="1">
-      <c r="A15" s="123"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="71" t="s">
         <v>931</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="103" t="s">
         <v>933</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="74" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="153.75" customHeight="1" thickBot="1">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="106" t="s">
         <v>946</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="110" t="s">
         <v>1035</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="112" t="s">
         <v>1038</v>
       </c>
-      <c r="D16" s="129"/>
+      <c r="D16" s="113"/>
     </row>
     <row r="17" spans="1:4" ht="179.25" customHeight="1" thickBot="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="124" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="108" t="s">
         <v>1039</v>
       </c>
-      <c r="D17" s="125"/>
+      <c r="D17" s="109"/>
     </row>
     <row r="18" spans="1:4" ht="57" thickBot="1">
       <c r="A18" s="77" t="s">
@@ -27118,10 +27118,10 @@
       <c r="B18" s="72" t="s">
         <v>949</v>
       </c>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="103" t="s">
         <v>950</v>
       </c>
-      <c r="D18" s="116"/>
+      <c r="D18" s="103"/>
     </row>
     <row r="19" spans="1:4" ht="169.5" thickBot="1">
       <c r="A19" s="77" t="s">
@@ -27130,120 +27130,114 @@
       <c r="B19" s="72" t="s">
         <v>965</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="102" t="s">
         <v>966</v>
       </c>
-      <c r="D19" s="121"/>
+      <c r="D19" s="102"/>
     </row>
     <row r="20" spans="1:4" ht="84" customHeight="1" thickBot="1">
       <c r="A20" s="77" t="s">
         <v>1008</v>
       </c>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="114" t="s">
         <v>1007</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
     </row>
     <row r="21" spans="1:4" ht="57.75" customHeight="1" thickBot="1">
       <c r="A21" s="77" t="s">
         <v>1009</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="115" t="s">
         <v>1010</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
     </row>
     <row r="22" spans="1:4" ht="72.75" thickBot="1">
       <c r="A22" s="77" t="s">
         <v>1012</v>
       </c>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="115" t="s">
         <v>1013</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
     </row>
     <row r="23" spans="1:4" ht="114" customHeight="1" thickBot="1">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="106" t="s">
         <v>1060</v>
       </c>
       <c r="B23" s="73" t="s">
         <v>1061</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="126" t="s">
         <v>1062</v>
       </c>
-      <c r="D23" s="104"/>
+      <c r="D23" s="127"/>
     </row>
     <row r="24" spans="1:4" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A24" s="101"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="73" t="s">
         <v>1064</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="126" t="s">
         <v>1065</v>
       </c>
-      <c r="D24" s="104"/>
+      <c r="D24" s="127"/>
     </row>
     <row r="25" spans="1:4" ht="117" customHeight="1" thickBot="1">
-      <c r="A25" s="101"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="73" t="s">
         <v>1068</v>
       </c>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="126" t="s">
         <v>1069</v>
       </c>
-      <c r="D25" s="104"/>
+      <c r="D25" s="127"/>
     </row>
     <row r="26" spans="1:4" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A26" s="101"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="73" t="s">
         <v>1074</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="126" t="s">
         <v>1075</v>
       </c>
-      <c r="D26" s="105"/>
+      <c r="D26" s="129"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A27" s="101"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A28" s="101"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A29" s="101"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A30" s="102"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -27260,11 +27254,17 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27275,8 +27275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C80C63-9F14-4F36-AB3C-26E3A4A9F7FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD54" sqref="AD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -27306,168 +27306,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="215.25" customHeight="1" thickBot="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="118" t="s">
         <v>1339</v>
       </c>
       <c r="B1" s="98" t="s">
         <v>1348</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="130" t="s">
         <v>1340</v>
       </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="142"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="44" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="183.75" customHeight="1" thickBot="1">
-      <c r="A2" s="111"/>
+      <c r="A2" s="119"/>
       <c r="B2" s="98" t="s">
         <v>1351</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="130" t="s">
         <v>1352</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
       <c r="F2" s="44" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="77.25" customHeight="1" thickBot="1">
-      <c r="A3" s="111"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="98" t="s">
         <v>1358</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="130" t="s">
         <v>1359</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
       <c r="F3" s="44" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="112"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A5" s="110"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A6" s="111"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="142"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
     </row>
     <row r="7" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A7" s="111"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A8" s="111"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="142"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A10" s="112"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="46"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="142"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A11" s="111"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
     </row>
     <row r="12" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="111"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="136"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
     </row>
     <row r="13" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A13" s="111"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
     </row>
     <row r="14" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A14" s="112"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="45"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
     </row>
     <row r="15" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A15" s="113"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
     </row>
     <row r="16" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A16" s="114"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
     </row>
     <row r="17" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A17" s="115"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
     </row>
     <row r="18" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:E11"/>
@@ -27476,6 +27464,18 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:E17"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27522,205 +27522,211 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="121" t="s">
         <v>537</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="130" t="s">
         <v>619</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="126" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="110" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="130" t="s">
         <v>618</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
       <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="114"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="130" t="s">
         <v>620</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
       <c r="F4" s="144"/>
     </row>
     <row r="5" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="115"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="130" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="127"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="111"/>
     </row>
     <row r="6" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="118" t="s">
         <v>1286</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>1287</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="130" t="s">
         <v>1293</v>
       </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="142"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A7" s="111"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="46" t="s">
         <v>1288</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="133" t="s">
         <v>1294</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="142"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="111"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="46" t="s">
         <v>1289</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="130" t="s">
         <v>1295</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="142"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="46" t="s">
         <v>1290</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="130" t="s">
         <v>1296</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A10" s="111"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="46" t="s">
         <v>1291</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="130" t="s">
         <v>1297</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="142"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A11" s="112"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="46" t="s">
         <v>1292</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="130" t="s">
         <v>1298</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="142"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="119" t="s">
         <v>1318</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="135" t="s">
         <v>1323</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="111"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="45" t="s">
         <v>1319</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="138" t="s">
         <v>1322</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
     </row>
     <row r="14" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A14" s="111"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="45" t="s">
         <v>628</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="138" t="s">
         <v>1324</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
     </row>
     <row r="15" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A15" s="112"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="45" t="s">
         <v>1315</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="138" t="s">
         <v>1321</v>
       </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="136"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
     </row>
     <row r="16" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A16" s="113"/>
-      <c r="B16" s="137" t="s">
+      <c r="A16" s="121"/>
+      <c r="B16" s="141" t="s">
         <v>1320</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
     </row>
     <row r="17" spans="1:5" ht="64.5" customHeight="1">
-      <c r="A17" s="114"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
     </row>
     <row r="18" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A18" s="115"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
     </row>
     <row r="19" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="134" t="s">
         <v>1325</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B16:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="C10:E10"/>
@@ -27736,12 +27742,6 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27753,7 +27753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -27778,12 +27778,12 @@
       <c r="C1" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="145" t="s">
         <v>1056</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" ht="38.25" thickBot="1">
       <c r="A2" s="38"/>
@@ -27803,7 +27803,7 @@
     <row r="3" spans="1:7" ht="60.75" thickBot="1">
       <c r="A3" s="38"/>
       <c r="B3" s="40"/>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="149" t="s">
         <v>501</v>
       </c>
       <c r="D3" s="94" t="s">
@@ -27822,7 +27822,7 @@
     <row r="4" spans="1:7" ht="94.5" thickBot="1">
       <c r="A4" s="38"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="149"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="94" t="s">
         <v>1263</v>
       </c>
@@ -27861,11 +27861,11 @@
       <c r="D7" s="90" t="s">
         <v>631</v>
       </c>
-      <c r="E7" s="145" t="s">
+      <c r="E7" s="146" t="s">
         <v>1044</v>
       </c>
-      <c r="F7" s="146"/>
-      <c r="G7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="148"/>
     </row>
     <row r="8" spans="1:7" ht="111" customHeight="1" thickBot="1">
       <c r="A8" s="34"/>
@@ -27876,11 +27876,11 @@
       <c r="D8" s="90" t="s">
         <v>632</v>
       </c>
-      <c r="E8" s="145" t="s">
+      <c r="E8" s="146" t="s">
         <v>1047</v>
       </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="38.25" thickBot="1">
       <c r="A9" s="55"/>
@@ -27904,11 +27904,11 @@
       <c r="D10" s="90" t="s">
         <v>1048</v>
       </c>
-      <c r="E10" s="145" t="s">
+      <c r="E10" s="146" t="s">
         <v>1049</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="148"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="34"/>
@@ -27919,11 +27919,11 @@
       <c r="D11" s="90" t="s">
         <v>1051</v>
       </c>
-      <c r="E11" s="145" t="s">
+      <c r="E11" s="146" t="s">
         <v>1054</v>
       </c>
-      <c r="F11" s="146"/>
-      <c r="G11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="148"/>
     </row>
     <row r="12" spans="1:7" ht="96.75" customHeight="1" thickBot="1">
       <c r="A12" s="34"/>
@@ -27936,11 +27936,11 @@
       <c r="D12" s="90" t="s">
         <v>1053</v>
       </c>
-      <c r="E12" s="145" t="s">
+      <c r="E12" s="146" t="s">
         <v>1057</v>
       </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="148"/>
     </row>
     <row r="13" spans="1:7" ht="272.25" customHeight="1" thickBot="1">
       <c r="A13" s="34"/>
@@ -27949,11 +27949,11 @@
         <v>1058</v>
       </c>
       <c r="D13" s="95"/>
-      <c r="E13" s="145" t="s">
+      <c r="E13" s="146" t="s">
         <v>1059</v>
       </c>
-      <c r="F13" s="146"/>
-      <c r="G13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="148"/>
     </row>
     <row r="14" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A14" s="34"/>
@@ -27966,11 +27966,11 @@
       <c r="D14" s="90" t="s">
         <v>1070</v>
       </c>
-      <c r="E14" s="145" t="s">
+      <c r="E14" s="146" t="s">
         <v>1071</v>
       </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="148"/>
     </row>
     <row r="15" spans="1:7" ht="92.25" customHeight="1" thickBot="1">
       <c r="A15" s="34"/>
@@ -27981,11 +27981,11 @@
       <c r="D15" s="90" t="s">
         <v>1072</v>
       </c>
-      <c r="E15" s="145" t="s">
+      <c r="E15" s="146" t="s">
         <v>1073</v>
       </c>
-      <c r="F15" s="146"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="148"/>
     </row>
     <row r="16" spans="1:7" ht="105.75" customHeight="1" thickBot="1">
       <c r="A16" s="34"/>
@@ -27998,11 +27998,11 @@
       <c r="D16" s="90" t="s">
         <v>1076</v>
       </c>
-      <c r="E16" s="145" t="s">
+      <c r="E16" s="146" t="s">
         <v>1077</v>
       </c>
-      <c r="F16" s="146"/>
-      <c r="G16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="148"/>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" thickBot="1">
       <c r="A17" s="34"/>
@@ -28013,11 +28013,11 @@
       <c r="D17" s="90" t="s">
         <v>1078</v>
       </c>
-      <c r="E17" s="145" t="s">
+      <c r="E17" s="146" t="s">
         <v>1079</v>
       </c>
-      <c r="F17" s="146"/>
-      <c r="G17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
     </row>
     <row r="18" spans="1:7" ht="60.75" customHeight="1" thickBot="1">
       <c r="A18" s="34"/>
@@ -28028,11 +28028,11 @@
       <c r="D18" s="90" t="s">
         <v>1082</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="146" t="s">
         <v>1260</v>
       </c>
-      <c r="F18" s="146"/>
-      <c r="G18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="148"/>
     </row>
     <row r="19" spans="1:7" ht="54" customHeight="1" thickBot="1">
       <c r="A19" s="34"/>
@@ -28043,11 +28043,11 @@
       <c r="D19" s="90" t="s">
         <v>1275</v>
       </c>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="146" t="s">
         <v>1272</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="148"/>
     </row>
     <row r="20" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A20" s="34"/>
@@ -28058,11 +28058,11 @@
       <c r="D20" s="90" t="s">
         <v>1276</v>
       </c>
-      <c r="E20" s="145" t="s">
+      <c r="E20" s="146" t="s">
         <v>1274</v>
       </c>
-      <c r="F20" s="146"/>
-      <c r="G20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
     </row>
     <row r="21" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A21" s="34"/>
@@ -28075,11 +28075,11 @@
       <c r="D21" s="90" t="s">
         <v>1279</v>
       </c>
-      <c r="E21" s="145" t="s">
+      <c r="E21" s="146" t="s">
         <v>1280</v>
       </c>
-      <c r="F21" s="146"/>
-      <c r="G21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="148"/>
     </row>
     <row r="22" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A22" s="34"/>
@@ -28087,11 +28087,11 @@
       <c r="D22" s="90" t="s">
         <v>1281</v>
       </c>
-      <c r="E22" s="145" t="s">
+      <c r="E22" s="146" t="s">
         <v>1282</v>
       </c>
-      <c r="F22" s="146"/>
-      <c r="G22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="148"/>
     </row>
     <row r="23" spans="1:7" ht="48.75" customHeight="1" thickBot="1">
       <c r="A23" s="34"/>
@@ -29058,6 +29058,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E7:G7"/>
@@ -29070,11 +29075,6 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6047DFE-17F5-41E9-8893-861A6CE1E1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B941C915-B721-425D-923A-D2502F7A659A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1404">
   <si>
     <t>Forense</t>
   </si>
@@ -7214,6 +7214,126 @@
   </si>
   <si>
     <t>Phase 2. Vulnerability Scanning and Analysis</t>
+  </si>
+  <si>
+    <t>Evasion and persistence</t>
+  </si>
+  <si>
+    <t>Meterpreter es una herramienta avanzada de post-explotación utilizada en pruebas de penetración y auditorías de seguridad. Es un payload (código malicioso) que se inyecta en un sistema comprometido para proporcionar al atacante un control interactivo y flexible sobre ese sistema. Meterpreter forma parte del framework Metasploit, muy popular en el ámbito de la seguridad informática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSFVENOM </t>
+  </si>
+  <si>
+    <t>Post explotacion / Metasploit</t>
+  </si>
+  <si>
+    <t>Msfvenom es una herramienta del framework Metasploit que se utiliza para generar payloads personalizados para pruebas de penetración. Combina las funciones de las antiguas herramientas msfpayload y msfencode, permitiendo crear código malicioso (payloads) que se puede inyectar en sistemas objetivo para obtener acceso o ejecutar comandos.
+Con msfvenom puedes elegir el tipo de payload, el formato de salida (por ejemplo, ejecutables, scripts, código en varios lenguajes), y aplicar técnicas de codificación para evadir detección por antivirus. Es muy útil para preparar ataques controlados y autorizados en un entorno de pentesting.</t>
+  </si>
+  <si>
+    <t>Telnet</t>
+  </si>
+  <si>
+    <t>El comando telnet en Linux se utiliza para conectarse a un servidor remoto a través del protocolo Telnet, que permite acceder a una interfaz de línea de comandos en ese servidor. Principalmente, se usa para probar la conectividad a un puerto específico de un servidor, diagnosticar problemas de red o acceder a dispositivos que soportan Telnet.
+Sin embargo, Telnet no cifra la comunicación, por lo que no es seguro para conexiones sensibles; hoy en día se prefiere usar SSH para acceso remoto seguro. //  écnicamente Telnet podría usarse como un canal de comando y control (C2) en un entorno de pruebas o simulaciones, porque permite enviar comandos a un sistema remoto y recibir respuestas. Sin embargo, debido a que Telnet no cifra la comunicación y es fácilmente detectable, no es una opción práctica ni segura para un C2 real en ataques sofisticados.</t>
+  </si>
+  <si>
+    <r>
+      <t>smtp-user-enum -M VRFY -u [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>] -t 192.168.78.8</t>
+    </r>
+  </si>
+  <si>
+    <t>verificar si el usuario existe en el servidor.</t>
+  </si>
+  <si>
+    <t>VRFY y EXPN</t>
+  </si>
+  <si>
+    <t>EMPIRE</t>
+  </si>
+  <si>
+    <t>C2 Comand and Control</t>
+  </si>
+  <si>
+    <t>Empire Framework es una herramienta de post-explotación utilizada principalmente en pruebas de penetración y auditorías de seguridad. Sirve para controlar de manera remota sistemas comprometidos mediante agentes que se ejecutan en las máquinas objetivo. Permite a los pentesters ejecutar comandos, cargar módulos, realizar movimientos laterales, recolectar información y mantener acceso persistente en entornos Windows, Linux y macOS. Es muy valorada por su capacidad para evadir detecciones y su flexibilidad en ataques avanzados.</t>
+  </si>
+  <si>
+    <t>C2 Command and Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2 Command and Control / movimientos laterales / evasión y persistencia </t>
+  </si>
+  <si>
+    <t>schtasks.exe</t>
+  </si>
+  <si>
+    <t>Con schtasks.exe, un atacante o un pentester autorizado puede abusar de esta herramienta para crear tareas programadas maliciosas que se ejecutarán automáticamente, lo que facilita la persistencia en un sistema comprometido. Por ejemplo, se puede usar para ejecutar malware, scripts de recolección de información, o comandos maliciosos en intervalos regulares o al iniciar sesión, sin necesidad de interacción directa.</t>
+  </si>
+  <si>
+    <t>Privilege Escalation</t>
+  </si>
+  <si>
+    <t>Consola Windows</t>
+  </si>
+  <si>
+    <t>C2 Command and Control sin cifrado</t>
+  </si>
+  <si>
+    <t>Attacks on operating systems (Privilege Escalation)</t>
+  </si>
+  <si>
+    <t>Kerberoasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerberoasting es una técnica de ataque en entornos Windows basada en Active Directory que permite a un atacante obtener hashes de contraseñas de cuentas de servicio con permisos elevados. El atacante solicita tickets de servicio (TGS) para estas cuentas, que están cifrados con la contraseña del servicio, y luego extrae esos tickets para intentar crackearlos sin conexión y obtener la contraseña en texto claro.
+Este ataque es peligroso porque no requiere privilegios elevados para iniciarlo; un usuario autenticado normal puede solicitar estos tickets. Una vez que el atacante obtiene la contraseña una cuenta de servicio, puede usarla para moverse lateralmente o escalar privilegios dentro de la red.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacket  // Rubeus </t>
+  </si>
+  <si>
+    <t>Bettercap</t>
+  </si>
+  <si>
+    <t>Cain y abel</t>
+  </si>
+  <si>
+    <t>Mitmframwork</t>
+  </si>
+  <si>
+    <t>Arpspoof</t>
+  </si>
+  <si>
+    <t>Fluxion</t>
+  </si>
+  <si>
+    <t>Marco de reconocimiento y explotación de redes tanto cableadas como inalámbricas</t>
+  </si>
+  <si>
+    <t>Network and service attacks</t>
   </si>
 </sst>
 </file>
@@ -15914,256 +16034,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>690838</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>175058</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>5041</xdr:rowOff>
+      <xdr:rowOff>18116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>477927</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>105895</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo: esquinas redondeadas 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230302C4-246E-44BF-B8AA-984425EB0B06}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13644838" y="15054541"/>
-          <a:ext cx="2835089" cy="5244354"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Ataques y explotaciones basados en la resolución de nombres de Windows</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Ataque de envenenamiento de caché DNS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Ataques y explotaciones contra implementaciones de Server Message Block (SMB)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Vulnerabilidades y explotaciones del Protocolo simple de administración de red (SNMP)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Vulnerabilidades y explotaciones del Protocolo simple de transferencia de correo (SMTP)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Vulnerabilidades y explotaciones del Protocolo de transferencia de archivos (FTP)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Ataques de transferencia de hash</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Ataques en ruta (antes conocidos como ataques de intermediario [MITM])</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Ataques de eliminación de SSL</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Ataques de denegación de servicio (DoS) y de denegación de servicio distribuido (DDoS)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Omisión del control de acceso a la red (NAC)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-Ataques de salto a la red de área local virtual (VLAN)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-CO" sz="1100" b="1" i="0" u="none">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>289358</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>37166</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>17369</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>658906</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>188819</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16178,7 +16058,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14005358" y="20801666"/>
+          <a:off x="13891058" y="15067616"/>
           <a:ext cx="2007848" cy="932703"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -16316,15 +16196,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>302558</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>62193</xdr:rowOff>
+      <xdr:colOff>207308</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>750794</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>42396</xdr:rowOff>
+      <xdr:colOff>655544</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>185271</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16339,7 +16219,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14018558" y="21969693"/>
+          <a:off x="13923308" y="16207068"/>
           <a:ext cx="1972236" cy="932703"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -16469,15 +16349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>46505</xdr:rowOff>
+      <xdr:colOff>197784</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>189380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>26708</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>675153</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>169583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16492,7 +16372,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14018559" y="23097005"/>
+          <a:off x="13913784" y="17334380"/>
           <a:ext cx="2001369" cy="932703"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -16551,7 +16431,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Explotacion  SNMP puerto 161 (phishing - correos )</a:t>
+            <a:t>Explotacion  SNMP puerto TCP 25, 465, 587, 110, 995, 143, 993 (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>administrar dispositivos de red</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
             <a:solidFill>
@@ -17074,14 +16978,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -17098,8 +17002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13744576" y="8562975"/>
-          <a:ext cx="2457450" cy="1466850"/>
+          <a:off x="13620751" y="8562975"/>
+          <a:ext cx="2686049" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -17250,7 +17154,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Envenenamiento de caché                      - Envenenamiento LLMNR/NBT-NS</a:t>
+            <a:t>- Envenenamiento de caché                     </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
@@ -17273,7 +17177,125 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Ataque de degradación</a:t>
+            <a:t> - Envenenamiento LLMNR/NBT-NS</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Ataque de degradación (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POODLE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ettercap -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Be</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ttercap </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
             <a:solidFill>
@@ -18270,6 +18292,1085 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>705969</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>170703</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectángulo: esquinas redondeadas 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B5E5CC-46EC-4873-A11D-E64A7BC00ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13944600" y="18478500"/>
+          <a:ext cx="2001369" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Explotacion SMTP </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Correos - Phising) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>comandos </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>VRFY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> y </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXPN</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>686919</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>132603</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectángulo: esquinas redondeadas 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E11128-8019-40C9-B60D-8994156D9843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13925550" y="19583400"/>
+          <a:ext cx="2001369" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Explotacion  FTP puerto 21</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>705969</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>151653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectángulo: esquinas redondeadas 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3FF551-B7A7-474C-87CC-0EB099979442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13944600" y="20745450"/>
+          <a:ext cx="2001369" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ataques de tipo Pass-the-Hash.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Administrador de cuentas de seguridad (SAM) (Mimikatz para</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> windows</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>705969</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>189753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo: esquinas redondeadas 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E84A39D-F0C8-4B73-83FC-75E97561040A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13944600" y="21926550"/>
+          <a:ext cx="2001369" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ataques basados ​​en Kerberos y LDAP (Mimikatz - empire</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> framwork - starkiller</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>715494</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>189753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectángulo: esquinas redondeadas 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EA8750-2291-47A4-B4AB-66751DA4F08E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13954125" y="23069550"/>
+          <a:ext cx="2001369" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ataque Kerberoasting (Impacket</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rubeus)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>753594</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>189753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectángulo: esquinas redondeadas 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99192449-77DE-4543-BCE2-803D7B8C06E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13992225" y="24212550"/>
+          <a:ext cx="2001369" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ataques de manipulación de rutas (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Border Gateway Protocol (BGP)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20169</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>189753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectángulo: esquinas redondeadas 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E568C5-3B63-413E-BB66-AA8E3C0003B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14020800" y="25355550"/>
+          <a:ext cx="2001369" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Omisión del control de acceso a la red (NAC)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1119</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>170703</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectángulo: esquinas redondeadas 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F05008-829C-452F-BA3B-EAE27A881116}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14001750" y="26479500"/>
+          <a:ext cx="2001369" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Saltos de (VLAN)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>39219</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>161178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectángulo: esquinas redondeadas 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B78CC5B-3E0C-4362-A8E5-0287BF19B8B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14039850" y="27612975"/>
+          <a:ext cx="2001369" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ataques de inanición de DHCP y servidores DHCP no autorizados</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19725,15 +20826,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="81" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="50.140625" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
@@ -24348,7 +25449,9 @@
         <v>3</v>
       </c>
       <c r="B218" s="3"/>
-      <c r="C218" s="80"/>
+      <c r="C218" s="87" t="s">
+        <v>1384</v>
+      </c>
       <c r="D218" s="3" t="s">
         <v>107</v>
       </c>
@@ -24360,26 +25463,36 @@
       </c>
       <c r="H218" s="4"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" ht="60">
       <c r="A219" s="3">
         <v>3</v>
       </c>
       <c r="B219" s="3"/>
-      <c r="C219" s="80"/>
-      <c r="E219" s="48" t="s">
+      <c r="C219" s="87" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D219" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="E219" s="51" t="s">
         <v>1347</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="H219" s="4"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="4" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="220" spans="1:8" ht="105">
       <c r="A220" s="3">
         <v>3</v>
       </c>
       <c r="B220" s="3"/>
-      <c r="C220" s="80"/>
+      <c r="C220" s="87" t="s">
+        <v>1403</v>
+      </c>
       <c r="D220" s="3" t="s">
         <v>107</v>
       </c>
@@ -24414,134 +25527,273 @@
       <c r="G221" s="3" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="H221" s="99"/>
+    </row>
+    <row r="222" spans="1:8" ht="105">
       <c r="A222" s="3">
         <v>3</v>
       </c>
       <c r="B222" s="3"/>
-      <c r="C222" s="80"/>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="C222" s="87" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D222" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="E222" s="51" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H222" s="99" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="120">
       <c r="A223" s="3">
         <v>3</v>
       </c>
       <c r="B223" s="3"/>
-      <c r="C223" s="80"/>
+      <c r="C223" s="83" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D223" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="E223" s="51" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H223" s="99" t="s">
+        <v>1379</v>
+      </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="3">
         <v>3</v>
       </c>
       <c r="B224" s="3"/>
-      <c r="C224" s="80"/>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="C224" s="83" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D224" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="E224" s="51"/>
+      <c r="F224" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H224" s="99" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="75">
       <c r="A225" s="3">
         <v>3</v>
       </c>
       <c r="B225" s="3"/>
-      <c r="C225" s="80"/>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="C225" s="87" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D225" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="E225" s="53" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H225" s="99" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="60">
       <c r="A226" s="3">
         <v>3</v>
       </c>
       <c r="B226" s="3"/>
-      <c r="C226" s="80"/>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="C226" s="87" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D226" s="51" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E226" s="53" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H226" s="99" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="135">
       <c r="A227" s="3">
         <v>3</v>
       </c>
       <c r="B227" s="3"/>
-      <c r="C227" s="80"/>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="C227" s="87" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D227" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="E227" s="53" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H227" s="99" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="30">
       <c r="A228" s="3">
         <v>3</v>
       </c>
       <c r="B228" s="3"/>
-      <c r="C228" s="80"/>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="C228" s="87" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D228" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="E228" s="53" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H228" s="99" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="30">
       <c r="A229" s="3">
         <v>3</v>
       </c>
       <c r="B229" s="3"/>
-      <c r="C229" s="80"/>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="C229" s="87" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E229" s="53" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H229" s="99"/>
+    </row>
+    <row r="230" spans="1:8" ht="30">
       <c r="A230" s="3">
         <v>3</v>
       </c>
       <c r="B230" s="3"/>
-      <c r="C230" s="80"/>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="C230" s="87" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E230" s="53" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H230" s="99"/>
+    </row>
+    <row r="231" spans="1:8" ht="30">
       <c r="A231" s="3">
         <v>3</v>
       </c>
       <c r="B231" s="3"/>
-      <c r="C231" s="80"/>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="C231" s="87" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E231" s="53" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H231" s="99"/>
+    </row>
+    <row r="232" spans="1:8" ht="30">
       <c r="A232" s="3">
         <v>3</v>
       </c>
       <c r="B232" s="3"/>
-      <c r="C232" s="80"/>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="C232" s="87" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E232" s="53" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H232" s="99"/>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="3">
         <v>3</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="80"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:8">
       <c r="A234" s="3">
         <v>3</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="80"/>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:8">
       <c r="A235" s="3">
         <v>3</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="80"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:8">
       <c r="A236" s="3">
         <v>3</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="80"/>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:8">
       <c r="A237" s="3">
         <v>3</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="80"/>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:8">
       <c r="A238" s="3">
         <v>3</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="80"/>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:8">
       <c r="A239" s="3">
         <v>3</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="80"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:8">
       <c r="A240" s="3">
         <v>3</v>
       </c>
@@ -27275,8 +28527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C80C63-9F14-4F36-AB3C-26E3A4A9F7FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD54" sqref="AD54"/>
+    <sheetView tabSelected="1" topLeftCell="E100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X141" sqref="X141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Ciberseguridad.xlsx
+++ b/Ciberseguridad.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B941C915-B721-425D-923A-D2502F7A659A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E2011C-7E2C-445B-8BCE-09D7BF9961A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Hacker Etico" sheetId="22" r:id="rId2"/>
-    <sheet name="Fases CHE" sheetId="23" r:id="rId3"/>
+    <sheet name="Fases CHE" sheetId="23" r:id="rId2"/>
+    <sheet name="Hacker Etico" sheetId="22" r:id="rId3"/>
     <sheet name="Explotacion basada en la red" sheetId="24" r:id="rId4"/>
     <sheet name="Gestion de vulnerabilidades" sheetId="14" r:id="rId5"/>
     <sheet name="NMAP" sheetId="9" r:id="rId6"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1412">
   <si>
     <t>Forense</t>
   </si>
@@ -7334,6 +7334,66 @@
   </si>
   <si>
     <t>Network and service attacks</t>
+  </si>
+  <si>
+    <t>ls -l</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mostrar más información sobre dichos directorios y archivos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Permisos"</t>
+    </r>
+  </si>
+  <si>
+    <t>ls -la</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enumerar todos los archivos incluyendo los ocultos que inicia con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>(.*****)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ls -l </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>/var/</t>
+    </r>
+  </si>
+  <si>
+    <t>Ir a un directorio especifico</t>
+  </si>
+  <si>
+    <t>kismet</t>
+  </si>
+  <si>
+    <t>AIRCRACK-NG</t>
   </si>
 </sst>
 </file>
@@ -8272,47 +8332,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8344,35 +8380,47 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8404,11 +8452,20 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8425,11 +8482,17 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8438,15 +8501,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8460,6 +8514,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8669,319 +8729,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>391749</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>877233</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4CEF83-8130-492F-B6EB-8E0F99E51E5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18068925" y="0"/>
-          <a:ext cx="8773749" cy="6687483"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1276832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1429564</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE1301A-6917-A3B9-0273-95B74DC3C2CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18678526" y="7087082"/>
-          <a:ext cx="8534400" cy="5677232"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>706105</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>276386</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96817B4-F670-8B12-B07B-F6D1DB5B19E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18164175" y="13154025"/>
-          <a:ext cx="8992855" cy="1152686"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>675156</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1180895</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A827854-27EC-E2DC-7B6E-1A6A9A41D327}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18173700" y="14335125"/>
-          <a:ext cx="8952381" cy="1638095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1162050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2001170</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A0C412-99EC-7934-DE39-5A51ECF563E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18202275" y="15954375"/>
-          <a:ext cx="8924925" cy="6592220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1971675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>608502</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1780826</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291B5D9A-3958-A5C8-6C3F-45D7D6884A36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23298150" y="22517100"/>
-          <a:ext cx="8780952" cy="2790476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2263631</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>151929</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{877283E2-B88D-2AA6-1924-007B7F076362}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="44413714"/>
-          <a:ext cx="4780952" cy="3771429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19373,6 +19120,771 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>89333</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>27641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>573181</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectángulo: esquinas redondeadas 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE941D4D-FAE2-4490-AC5A-D269ABE9BC75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16853333" y="15077141"/>
+          <a:ext cx="2007848" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Puntos de acceso no autorizados (AP falso,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> puerta trasera</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>32183</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>37166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>516031</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>17369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectángulo: esquinas redondeadas 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8883489D-7C73-4B13-A229-E0B625DACF2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16796183" y="16229666"/>
+          <a:ext cx="2007848" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ataques de gemelos malvados</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Suplantacion de DNS - Envenamiento de cache)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>483848</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>161178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectángulo: esquinas redondeadas 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568F4711-CF42-4A19-9D10-71B3251A0515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764000" y="17325975"/>
+          <a:ext cx="2007848" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ataques de gemelos malvados</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Suplantacion de DNS - Envenamiento de cache)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>474323</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>170703</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectángulo: esquinas redondeadas 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E75FBF6-77E3-47C4-890A-B86760277ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16754475" y="18478500"/>
+          <a:ext cx="2007848" cy="932703"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ataques de disociación (o desautenticación)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>391749</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>877233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4CEF83-8130-492F-B6EB-8E0F99E51E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18068925" y="0"/>
+          <a:ext cx="8773749" cy="6687483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1276832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1429564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE1301A-6917-A3B9-0273-95B74DC3C2CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18678526" y="7087082"/>
+          <a:ext cx="8534400" cy="5677232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>706105</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>276386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96817B4-F670-8B12-B07B-F6D1DB5B19E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18164175" y="13154025"/>
+          <a:ext cx="8992855" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>675156</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1180895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A827854-27EC-E2DC-7B6E-1A6A9A41D327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18173700" y="14335125"/>
+          <a:ext cx="8952381" cy="1638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2001170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A0C412-99EC-7934-DE39-5A51ECF563E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18202275" y="15954375"/>
+          <a:ext cx="8924925" cy="6592220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1971675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>608502</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1780826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291B5D9A-3958-A5C8-6C3F-45D7D6884A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23298150" y="22517100"/>
+          <a:ext cx="8780952" cy="2790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2263631</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>151929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{877283E2-B88D-2AA6-1924-007B7F076362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="44413714"/>
+          <a:ext cx="4780952" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20637,8 +21149,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{22104AF6-9FBF-42B1-89D6-EDD7586895C3}" name="Tabla4" displayName="Tabla4" ref="A1:C81" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:C81" xr:uid="{22104AF6-9FBF-42B1-89D6-EDD7586895C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{22104AF6-9FBF-42B1-89D6-EDD7586895C3}" name="Tabla4" displayName="Tabla4" ref="A1:C84" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:C84" xr:uid="{22104AF6-9FBF-42B1-89D6-EDD7586895C3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3172952D-ECA1-4BA9-B184-025B233B87E2}" name="Comando " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{316B7E94-E75C-476B-A3D8-485864F87BD5}" name="Funcion "/>
@@ -20826,8 +21338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -25750,6 +26262,9 @@
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="80"/>
+      <c r="F233" s="3" t="s">
+        <v>1410</v>
+      </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="3">
@@ -25757,6 +26272,9 @@
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="80"/>
+      <c r="F234" s="3" t="s">
+        <v>1411</v>
+      </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="3">
@@ -26372,141 +26890,141 @@
       <c r="C1" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="107" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="117"/>
+      <c r="E1" s="109"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>528</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>533</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>536</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="113" t="s">
         <v>537</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>545</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
       <c r="F6" s="44" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>547</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>548</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>549</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:6" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>550</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="45" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="131" t="s">
         <v>551</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="123"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="131" t="s">
         <v>552</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="113" t="s">
         <v>561</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -26519,7 +27037,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="47" t="s">
         <v>564</v>
       </c>
@@ -26530,7 +27048,7 @@
       <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="123"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="46" t="s">
         <v>566</v>
       </c>
@@ -26541,47 +27059,47 @@
       <c r="E15" s="152"/>
     </row>
     <row r="16" spans="1:6" ht="57" thickBot="1">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="113" t="s">
         <v>568</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="131" t="s">
         <v>570</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="135" t="s">
+      <c r="A17" s="114"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="131" t="s">
         <v>571</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
     </row>
     <row r="18" spans="1:5" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="144"/>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="131" t="s">
         <v>572</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
     </row>
     <row r="19" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="123"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="135" t="s">
+      <c r="A19" s="115"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="131" t="s">
         <v>573</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
     </row>
     <row r="20" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="113" t="s">
         <v>602</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -26594,7 +27112,7 @@
       <c r="E20" s="151"/>
     </row>
     <row r="21" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="47" t="s">
         <v>607</v>
       </c>
@@ -26605,7 +27123,7 @@
       <c r="E21" s="151"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A22" s="122"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="46"/>
       <c r="C22" s="152"/>
       <c r="D22" s="152"/>
@@ -26613,12 +27131,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -26631,16 +27153,12 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26682,53 +27200,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>648</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>650</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="154" t="s">
         <v>651</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="156"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="123"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="46" t="s">
         <v>652</v>
       </c>
@@ -26737,64 +27255,64 @@
       <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="113" t="s">
         <v>653</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>654</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>659</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>660</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>661</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>657</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>662</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="45" t="s">
         <v>658</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="131" t="s">
         <v>663</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:5" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="113" t="s">
         <v>664</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -26807,7 +27325,7 @@
       <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A13" s="122"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="47" t="s">
         <v>667</v>
       </c>
@@ -26818,7 +27336,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="123"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="46" t="s">
         <v>669</v>
       </c>
@@ -26829,53 +27347,53 @@
       <c r="E14" s="152"/>
     </row>
     <row r="15" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="113" t="s">
         <v>678</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="131" t="s">
         <v>680</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A16" s="122"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="45" t="s">
         <v>685</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="131" t="s">
         <v>686</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
     </row>
     <row r="17" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A17" s="122"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="45" t="s">
         <v>687</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="131" t="s">
         <v>688</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
     </row>
     <row r="18" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="131" t="s">
         <v>691</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
     </row>
     <row r="19" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="153" t="s">
         <v>711</v>
       </c>
       <c r="B19" s="61" t="s">
@@ -26888,50 +27406,40 @@
       <c r="E19" s="151"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A20" s="156"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="59" t="s">
         <v>709</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="140" t="s">
         <v>710</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142"/>
     </row>
     <row r="21" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A21" s="156"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="59" t="s">
         <v>712</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="140" t="s">
         <v>713</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="142"/>
     </row>
     <row r="22" spans="1:5" ht="51" customHeight="1" thickBot="1">
-      <c r="A22" s="156"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="59" t="s">
         <v>714</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="140" t="s">
         <v>715</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A15:A18"/>
@@ -26947,6 +27455,16 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26990,132 +27508,132 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>728</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>729</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>730</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>732</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>734</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>735</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>736</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="113" t="s">
         <v>737</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>738</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>739</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>740</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>741</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>743</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>744</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>745</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>747</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>746</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="131" t="s">
         <v>749</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:5" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="123"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="45" t="s">
         <v>750</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="131" t="s">
         <v>751</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="110" t="s">
         <v>752</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -27128,7 +27646,7 @@
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A14" s="119"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="47" t="s">
         <v>754</v>
       </c>
@@ -27139,77 +27657,77 @@
       <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:5" ht="38.25" thickBot="1">
-      <c r="A15" s="119"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="46" t="s">
         <v>756</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="140" t="s">
         <v>760</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="142"/>
     </row>
     <row r="16" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A16" s="119"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="46" t="s">
         <v>755</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="140" t="s">
         <v>761</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="142"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A17" s="120"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="47" t="s">
         <v>757</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="157" t="s">
         <v>762</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="161"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="159"/>
     </row>
     <row r="18" spans="1:6" ht="66" customHeight="1" thickBot="1">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="161" t="s">
         <v>778</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>780</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="118" t="s">
         <v>782</v>
       </c>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
     </row>
     <row r="19" spans="1:6" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A19" s="158"/>
+      <c r="A19" s="162"/>
       <c r="B19" s="66" t="s">
         <v>779</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="118" t="s">
         <v>781</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
     </row>
     <row r="20" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="113" t="s">
         <v>783</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>774</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="160" t="s">
         <v>787</v>
       </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
     </row>
     <row r="21" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="46" t="s">
         <v>784</v>
       </c>
@@ -27220,82 +27738,82 @@
       <c r="E21" s="152"/>
     </row>
     <row r="22" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A22" s="122"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="46" t="s">
         <v>788</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="140" t="s">
         <v>789</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
     </row>
     <row r="23" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A23" s="122"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="46" t="s">
         <v>852</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="140" t="s">
         <v>850</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
     </row>
     <row r="24" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A24" s="123"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="140" t="s">
         <v>843</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="142"/>
     </row>
     <row r="25" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="113" t="s">
         <v>853</v>
       </c>
       <c r="B25" s="46" t="s">
         <v>854</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="140" t="s">
         <v>855</v>
       </c>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
     </row>
     <row r="26" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A26" s="122"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="46" t="s">
         <v>856</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="140" t="s">
         <v>857</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
     </row>
     <row r="27" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A27" s="123"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="46" t="s">
         <v>858</v>
       </c>
-      <c r="C27" s="130" t="s">
+      <c r="C27" s="140" t="s">
         <v>859</v>
       </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
     </row>
     <row r="28" spans="1:6" ht="169.5" thickBot="1">
-      <c r="A28" s="121"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="140" t="s">
         <v>866</v>
       </c>
-      <c r="D28" s="132"/>
+      <c r="D28" s="142"/>
       <c r="E28" s="46" t="s">
         <v>864</v>
       </c>
@@ -27304,14 +27822,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="150.75" thickBot="1">
-      <c r="A29" s="122"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="46" t="s">
         <v>865</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="140" t="s">
         <v>870</v>
       </c>
-      <c r="D29" s="132"/>
+      <c r="D29" s="142"/>
       <c r="E29" s="46" t="s">
         <v>867</v>
       </c>
@@ -27320,14 +27838,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A30" s="122"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A31" s="122"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -27347,6 +27865,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
@@ -27363,25 +27900,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{FE12423F-DF2A-4D6D-8DBE-C74C8D072776}"/>
@@ -27419,116 +27937,116 @@
       <c r="C1" s="44" t="s">
         <v>800</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="131" t="s">
         <v>801</v>
       </c>
-      <c r="E1" s="137"/>
+      <c r="E1" s="133"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>793</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>794</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>795</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>796</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>797</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>798</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>799</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="113" t="s">
         <v>802</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>808</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>803</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>809</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>806</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>811</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="131" t="s">
         <v>810</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="45" t="s">
         <v>804</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="131" t="s">
         <v>812</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="110" t="s">
         <v>783</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -27541,7 +28059,7 @@
       <c r="E11" s="151"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="47" t="s">
         <v>814</v>
       </c>
@@ -27552,7 +28070,7 @@
       <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="161" t="s">
         <v>820</v>
       </c>
       <c r="B13" s="66"/>
@@ -27563,7 +28081,7 @@
       <c r="E13" s="165"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="158"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="66"/>
       <c r="C14" s="166" t="s">
         <v>819</v>
@@ -27573,6 +28091,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
@@ -27585,12 +28109,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27620,130 +28138,130 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="137"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="133"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>822</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>823</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>824</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>826</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="123"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="46" t="s">
         <v>821</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>827</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="113" t="s">
         <v>828</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>829</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="131" t="s">
         <v>830</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="137"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="133"/>
     </row>
     <row r="6" spans="1:5" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="45" t="s">
         <v>831</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="131" t="s">
         <v>832</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="45" t="s">
         <v>833</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="131" t="s">
         <v>834</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="45" t="s">
         <v>835</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="131" t="s">
         <v>836</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="110" t="s">
         <v>837</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="140" t="s">
         <v>838</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="130" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="140" t="s">
         <v>839</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="130" t="s">
+      <c r="A11" s="111"/>
+      <c r="B11" s="140" t="s">
         <v>840</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
     </row>
     <row r="12" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
-      <c r="B12" s="130" t="s">
+      <c r="A12" s="111"/>
+      <c r="B12" s="140" t="s">
         <v>841</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" thickBot="1">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="161" t="s">
         <v>842</v>
       </c>
       <c r="B13" s="66"/>
@@ -27752,7 +28270,7 @@
       <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A14" s="158"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
@@ -27760,22 +28278,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27784,16 +28302,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE12559D-DE23-4F4E-AA70-5F90F529D85A}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.140625" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27818,159 +28336,176 @@
     </row>
     <row r="3" spans="1:3" ht="18.75">
       <c r="A3" s="50" t="s">
-        <v>581</v>
+        <v>1404</v>
       </c>
       <c r="B3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>580</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75">
       <c r="A4" s="50" t="s">
-        <v>584</v>
+        <v>763</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>583</v>
+        <v>764</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75">
       <c r="A5" s="50" t="s">
-        <v>585</v>
+        <v>1406</v>
       </c>
       <c r="B5" t="s">
-        <v>586</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>587</v>
-      </c>
+        <v>1407</v>
+      </c>
+      <c r="C5" s="48"/>
     </row>
     <row r="6" spans="1:3" ht="18.75">
       <c r="A6" s="50" t="s">
-        <v>588</v>
+        <v>1408</v>
       </c>
       <c r="B6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>592</v>
-      </c>
+        <v>1409</v>
+      </c>
+      <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:3" ht="18.75">
       <c r="A7" s="50" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B7" t="s">
-        <v>591</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>593</v>
+        <v>579</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75">
       <c r="A8" s="50" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>594</v>
+        <v>582</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75">
       <c r="A9" s="50" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B9" t="s">
-        <v>596</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>597</v>
+        <v>586</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75">
       <c r="A10" s="50" t="s">
-        <v>763</v>
+        <v>588</v>
       </c>
       <c r="B10" t="s">
-        <v>764</v>
+        <v>591</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>763</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75">
       <c r="A11" s="50" t="s">
-        <v>766</v>
+        <v>589</v>
       </c>
       <c r="B11" t="s">
-        <v>767</v>
+        <v>591</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>765</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75">
       <c r="A12" s="50" t="s">
-        <v>768</v>
+        <v>590</v>
       </c>
       <c r="B12" t="s">
-        <v>770</v>
+        <v>591</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>769</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75">
-      <c r="A13" s="62" t="s">
-        <v>771</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>773</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>772</v>
+      <c r="A13" s="50" t="s">
+        <v>595</v>
+      </c>
+      <c r="B13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75">
       <c r="A14" s="50" t="s">
-        <v>952</v>
+        <v>766</v>
       </c>
       <c r="B14" t="s">
-        <v>956</v>
+        <v>767</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75">
       <c r="A15" s="50" t="s">
-        <v>953</v>
+        <v>768</v>
+      </c>
+      <c r="B15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75">
-      <c r="A16" s="50" t="s">
-        <v>954</v>
+      <c r="A16" s="62" t="s">
+        <v>771</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>773</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75">
       <c r="A17" s="50" t="s">
+        <v>952</v>
+      </c>
+      <c r="B17" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75">
+      <c r="A18" s="50" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75">
+      <c r="A19" s="50" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18.75">
+      <c r="A20" s="50" t="s">
         <v>955</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75">
-      <c r="A18" s="50"/>
-    </row>
-    <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="50"/>
-    </row>
-    <row r="20" spans="1:2" ht="18.75">
-      <c r="A20" s="50"/>
     </row>
     <row r="21" spans="1:2" ht="18.75">
       <c r="A21" s="50"/>
@@ -28154,6 +28689,15 @@
     </row>
     <row r="81" spans="1:1" ht="18.75">
       <c r="A81" s="50"/>
+    </row>
+    <row r="82" spans="1:1" ht="18.75">
+      <c r="A82" s="50"/>
+    </row>
+    <row r="83" spans="1:1" ht="18.75">
+      <c r="A83" s="50"/>
+    </row>
+    <row r="84" spans="1:1" ht="18.75">
+      <c r="A84" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28165,6 +28709,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C80C63-9F14-4F36-AB3C-26E3A4A9F7FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="E85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C28E26-4C2A-4E58-B381-E97B374DB47D}">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -28190,178 +28750,178 @@
       <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="141.75" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>875</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>876</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="116" t="s">
         <v>879</v>
       </c>
-      <c r="D2" s="103"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:5" ht="98.25" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="71" t="s">
         <v>877</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="116" t="s">
         <v>880</v>
       </c>
-      <c r="D3" s="103"/>
+      <c r="D3" s="116"/>
     </row>
     <row r="4" spans="1:5" ht="152.25" customHeight="1" thickBot="1">
-      <c r="A4" s="123"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="71" t="s">
         <v>878</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="116" t="s">
         <v>881</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="116"/>
     </row>
     <row r="5" spans="1:5" ht="164.25" customHeight="1" thickBot="1">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="110" t="s">
         <v>889</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>891</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="117" t="s">
         <v>893</v>
       </c>
-      <c r="D5" s="125"/>
+      <c r="D5" s="118"/>
     </row>
     <row r="6" spans="1:5" ht="147.75" customHeight="1" thickBot="1">
-      <c r="A6" s="119"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>890</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="117" t="s">
         <v>894</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="117"/>
     </row>
     <row r="7" spans="1:5" ht="123" customHeight="1" thickBot="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>892</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="117" t="s">
         <v>895</v>
       </c>
-      <c r="D7" s="124"/>
+      <c r="D7" s="117"/>
     </row>
     <row r="8" spans="1:5" ht="120" customHeight="1" thickBot="1">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="110" t="s">
         <v>896</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="119" t="s">
         <v>898</v>
       </c>
-      <c r="D8" s="101"/>
+      <c r="D8" s="120"/>
     </row>
     <row r="9" spans="1:5" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="73" t="s">
         <v>899</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="119" t="s">
         <v>900</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="120"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="73" t="s">
         <v>904</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="D10" s="101"/>
+      <c r="D10" s="120"/>
     </row>
     <row r="11" spans="1:5" ht="229.5" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="73" t="s">
         <v>908</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="119" t="s">
         <v>910</v>
       </c>
-      <c r="D11" s="101"/>
+      <c r="D11" s="120"/>
     </row>
     <row r="12" spans="1:5" ht="223.5" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="72" t="s">
         <v>915</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="119" t="s">
         <v>916</v>
       </c>
-      <c r="D12" s="101"/>
+      <c r="D12" s="120"/>
     </row>
     <row r="13" spans="1:5" ht="234.75" customHeight="1" thickBot="1">
-      <c r="A13" s="120"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="72" t="s">
         <v>919</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="103" t="s">
         <v>922</v>
       </c>
-      <c r="D13" s="127"/>
+      <c r="D13" s="104"/>
     </row>
     <row r="14" spans="1:5" ht="184.5" customHeight="1" thickBot="1">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="122" t="s">
         <v>929</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>930</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="119" t="s">
         <v>932</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="34" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="188.25" customHeight="1" thickBot="1">
-      <c r="A15" s="105"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="71" t="s">
         <v>931</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="116" t="s">
         <v>933</v>
       </c>
-      <c r="D15" s="103"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="74" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="153.75" customHeight="1" thickBot="1">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="100" t="s">
         <v>946</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="126" t="s">
         <v>1035</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="128" t="s">
         <v>1038</v>
       </c>
-      <c r="D16" s="113"/>
+      <c r="D16" s="129"/>
     </row>
     <row r="17" spans="1:4" ht="179.25" customHeight="1" thickBot="1">
-      <c r="A17" s="107"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="108" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="124" t="s">
         <v>1039</v>
       </c>
-      <c r="D17" s="109"/>
+      <c r="D17" s="125"/>
     </row>
     <row r="18" spans="1:4" ht="57" thickBot="1">
       <c r="A18" s="77" t="s">
@@ -28370,10 +28930,10 @@
       <c r="B18" s="72" t="s">
         <v>949</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="116" t="s">
         <v>950</v>
       </c>
-      <c r="D18" s="103"/>
+      <c r="D18" s="116"/>
     </row>
     <row r="19" spans="1:4" ht="169.5" thickBot="1">
       <c r="A19" s="77" t="s">
@@ -28382,114 +28942,120 @@
       <c r="B19" s="72" t="s">
         <v>965</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="121" t="s">
         <v>966</v>
       </c>
-      <c r="D19" s="102"/>
+      <c r="D19" s="121"/>
     </row>
     <row r="20" spans="1:4" ht="84" customHeight="1" thickBot="1">
       <c r="A20" s="77" t="s">
         <v>1008</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="106" t="s">
         <v>1007</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
     </row>
     <row r="21" spans="1:4" ht="57.75" customHeight="1" thickBot="1">
       <c r="A21" s="77" t="s">
         <v>1009</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="107" t="s">
         <v>1010</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
     </row>
     <row r="22" spans="1:4" ht="72.75" thickBot="1">
       <c r="A22" s="77" t="s">
         <v>1012</v>
       </c>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="107" t="s">
         <v>1013</v>
       </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="117"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
     </row>
     <row r="23" spans="1:4" ht="114" customHeight="1" thickBot="1">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="100" t="s">
         <v>1060</v>
       </c>
       <c r="B23" s="73" t="s">
         <v>1061</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="103" t="s">
         <v>1062</v>
       </c>
-      <c r="D23" s="127"/>
+      <c r="D23" s="104"/>
     </row>
     <row r="24" spans="1:4" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A24" s="107"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="73" t="s">
         <v>1064</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="103" t="s">
         <v>1065</v>
       </c>
-      <c r="D24" s="127"/>
+      <c r="D24" s="104"/>
     </row>
     <row r="25" spans="1:4" ht="117" customHeight="1" thickBot="1">
-      <c r="A25" s="107"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="73" t="s">
         <v>1068</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="103" t="s">
         <v>1069</v>
       </c>
-      <c r="D25" s="127"/>
+      <c r="D25" s="104"/>
     </row>
     <row r="26" spans="1:4" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A26" s="107"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="73" t="s">
         <v>1074</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="103" t="s">
         <v>1075</v>
       </c>
-      <c r="D26" s="129"/>
+      <c r="D26" s="105"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A27" s="107"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A28" s="107"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A29" s="107"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A30" s="128"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -28506,36 +29072,14 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C80C63-9F14-4F36-AB3C-26E3A4A9F7FA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X141" sqref="X141"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28558,156 +29102,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="215.25" customHeight="1" thickBot="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="110" t="s">
         <v>1339</v>
       </c>
       <c r="B1" s="98" t="s">
         <v>1348</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="140" t="s">
         <v>1340</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="142"/>
       <c r="F1" s="44" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="183.75" customHeight="1" thickBot="1">
-      <c r="A2" s="119"/>
+      <c r="A2" s="111"/>
       <c r="B2" s="98" t="s">
         <v>1351</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>1352</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="44" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="77.25" customHeight="1" thickBot="1">
-      <c r="A3" s="119"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="98" t="s">
         <v>1358</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>1359</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="44" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="120"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A5" s="118"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A6" s="119"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
     </row>
     <row r="8" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A8" s="119"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
     </row>
     <row r="10" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A10" s="120"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="46"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
     </row>
     <row r="13" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A13" s="119"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
     </row>
     <row r="14" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A14" s="120"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="45"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A15" s="121"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
     </row>
     <row r="16" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A16" s="122"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
     </row>
     <row r="17" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A17" s="123"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
     </row>
     <row r="18" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:E11"/>
@@ -28716,18 +29272,6 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:E17"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28774,211 +29318,205 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>537</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="140" t="s">
         <v>619</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="110" t="s">
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="126" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="140" t="s">
         <v>618</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="140" t="s">
         <v>620</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="144"/>
     </row>
     <row r="5" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="140" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="127"/>
     </row>
     <row r="6" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="110" t="s">
         <v>1286</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>1287</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="140" t="s">
         <v>1293</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="46" t="s">
         <v>1288</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="143" t="s">
         <v>1294</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
     </row>
     <row r="8" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A8" s="119"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="46" t="s">
         <v>1289</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="140" t="s">
         <v>1295</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="46" t="s">
         <v>1290</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="140" t="s">
         <v>1296</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
     </row>
     <row r="10" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="46" t="s">
         <v>1291</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="140" t="s">
         <v>1297</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A11" s="120"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="46" t="s">
         <v>1292</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="140" t="s">
         <v>1298</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
     </row>
     <row r="12" spans="1:6" ht="87" customHeight="1" thickBot="1">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="111" t="s">
         <v>1318</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="131" t="s">
         <v>1323</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
     </row>
     <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A13" s="119"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>1319</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="134" t="s">
         <v>1322</v>
       </c>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
     </row>
     <row r="14" spans="1:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A14" s="119"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>628</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="134" t="s">
         <v>1324</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A15" s="120"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="45" t="s">
         <v>1315</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="134" t="s">
         <v>1321</v>
       </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
     </row>
     <row r="16" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A16" s="121"/>
-      <c r="B16" s="141" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="137" t="s">
         <v>1320</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="1:5" ht="64.5" customHeight="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
     </row>
     <row r="18" spans="1:5" ht="224.25" customHeight="1" thickBot="1">
-      <c r="A18" s="123"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
     </row>
     <row r="19" spans="1:5" ht="120" customHeight="1" thickBot="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="130" t="s">
         <v>1325</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B16:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="C10:E10"/>
@@ -28994,6 +29532,12 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29030,12 +29574,12 @@
       <c r="C1" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="D1" s="150" t="s">
         <v>1056</v>
       </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
     </row>
     <row r="2" spans="1:7" ht="38.25" thickBot="1">
       <c r="A2" s="38"/>
@@ -29055,7 +29599,7 @@
     <row r="3" spans="1:7" ht="60.75" thickBot="1">
       <c r="A3" s="38"/>
       <c r="B3" s="40"/>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="148" t="s">
         <v>501</v>
       </c>
       <c r="D3" s="94" t="s">
@@ -29074,7 +29618,7 @@
     <row r="4" spans="1:7" ht="94.5" thickBot="1">
       <c r="A4" s="38"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="150"/>
+      <c r="C4" s="149"/>
       <c r="D4" s="94" t="s">
         <v>1263</v>
       </c>
@@ -29113,11 +29657,11 @@
       <c r="D7" s="90" t="s">
         <v>631</v>
       </c>
-      <c r="E7" s="146" t="s">
+      <c r="E7" s="145" t="s">
         <v>1044</v>
       </c>
-      <c r="F7" s="147"/>
-      <c r="G7" s="148"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="147"/>
     </row>
     <row r="8" spans="1:7" ht="111" customHeight="1" thickBot="1">
       <c r="A8" s="34"/>
@@ -29128,11 +29672,11 @@
       <c r="D8" s="90" t="s">
         <v>632</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="145" t="s">
         <v>1047</v>
       </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="38.25" thickBot="1">
       <c r="A9" s="55"/>
@@ -29156,11 +29700,11 @@
       <c r="D10" s="90" t="s">
         <v>1048</v>
       </c>
-      <c r="E10" s="146" t="s">
+      <c r="E10" s="145" t="s">
         <v>1049</v>
       </c>
-      <c r="F10" s="147"/>
-      <c r="G10" s="148"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="34"/>
@@ -29171,11 +29715,11 @@
       <c r="D11" s="90" t="s">
         <v>1051</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="145" t="s">
         <v>1054</v>
       </c>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="147"/>
     </row>
     <row r="12" spans="1:7" ht="96.75" customHeight="1" thickBot="1">
       <c r="A12" s="34"/>
@@ -29188,11 +29732,11 @@
       <c r="D12" s="90" t="s">
         <v>1053</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="145" t="s">
         <v>1057</v>
       </c>
-      <c r="F12" s="147"/>
-      <c r="G12" s="148"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="147"/>
     </row>
     <row r="13" spans="1:7" ht="272.25" customHeight="1" thickBot="1">
       <c r="A13" s="34"/>
@@ -29201,11 +29745,11 @@
         <v>1058</v>
       </c>
       <c r="D13" s="95"/>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="145" t="s">
         <v>1059</v>
       </c>
-      <c r="F13" s="147"/>
-      <c r="G13" s="148"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="147"/>
     </row>
     <row r="14" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A14" s="34"/>
@@ -29218,11 +29762,11 @@
       <c r="D14" s="90" t="s">
         <v>1070</v>
       </c>
-      <c r="E14" s="146" t="s">
+      <c r="E14" s="145" t="s">
         <v>1071</v>
       </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="148"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="147"/>
     </row>
     <row r="15" spans="1:7" ht="92.25" customHeight="1" thickBot="1">
       <c r="A15" s="34"/>
@@ -29233,11 +29777,11 @@
       <c r="D15" s="90" t="s">
         <v>1072</v>
       </c>
-      <c r="E15" s="146" t="s">
+      <c r="E15" s="145" t="s">
         <v>1073</v>
       </c>
-      <c r="F15" s="147"/>
-      <c r="G15" s="148"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="147"/>
     </row>
     <row r="16" spans="1:7" ht="105.75" customHeight="1" thickBot="1">
       <c r="A16" s="34"/>
@@ -29250,11 +29794,11 @@
       <c r="D16" s="90" t="s">
         <v>1076</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="145" t="s">
         <v>1077</v>
       </c>
-      <c r="F16" s="147"/>
-      <c r="G16" s="148"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="147"/>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" thickBot="1">
       <c r="A17" s="34"/>
@@ -29265,11 +29809,11 @@
       <c r="D17" s="90" t="s">
         <v>1078</v>
       </c>
-      <c r="E17" s="146" t="s">
+      <c r="E17" s="145" t="s">
         <v>1079</v>
       </c>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="147"/>
     </row>
     <row r="18" spans="1:7" ht="60.75" customHeight="1" thickBot="1">
       <c r="A18" s="34"/>
@@ -29280,11 +29824,11 @@
       <c r="D18" s="90" t="s">
         <v>1082</v>
       </c>
-      <c r="E18" s="146" t="s">
+      <c r="E18" s="145" t="s">
         <v>1260</v>
       </c>
-      <c r="F18" s="147"/>
-      <c r="G18" s="148"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="147"/>
     </row>
     <row r="19" spans="1:7" ht="54" customHeight="1" thickBot="1">
       <c r="A19" s="34"/>
@@ -29295,11 +29839,11 @@
       <c r="D19" s="90" t="s">
         <v>1275</v>
       </c>
-      <c r="E19" s="146" t="s">
+      <c r="E19" s="145" t="s">
         <v>1272</v>
       </c>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="147"/>
     </row>
     <row r="20" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A20" s="34"/>
@@ -29310,11 +29854,11 @@
       <c r="D20" s="90" t="s">
         <v>1276</v>
       </c>
-      <c r="E20" s="146" t="s">
+      <c r="E20" s="145" t="s">
         <v>1274</v>
       </c>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="147"/>
     </row>
     <row r="21" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
       <c r="A21" s="34"/>
@@ -29327,11 +29871,11 @@
       <c r="D21" s="90" t="s">
         <v>1279</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="145" t="s">
         <v>1280</v>
       </c>
-      <c r="F21" s="147"/>
-      <c r="G21" s="148"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="147"/>
     </row>
     <row r="22" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
       <c r="A22" s="34"/>
@@ -29339,11 +29883,11 @@
       <c r="D22" s="90" t="s">
         <v>1281</v>
       </c>
-      <c r="E22" s="146" t="s">
+      <c r="E22" s="145" t="s">
         <v>1282</v>
       </c>
-      <c r="F22" s="147"/>
-      <c r="G22" s="148"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="147"/>
     </row>
     <row r="23" spans="1:7" ht="48.75" customHeight="1" thickBot="1">
       <c r="A23" s="34"/>
@@ -30310,11 +30854,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E7:G7"/>
@@ -30327,6 +30866,11 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
